--- a/交通費申請一覧機能/s-augDBテーブル定義書_新フォーマット対応版(0904_修正).xlsx
+++ b/交通費申請一覧機能/s-augDBテーブル定義書_新フォーマット対応版(0904_修正).xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/149389e555a7bafe/個人フォルダ/sekine/嵯峨君宛てフォルダ/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AUGCL42\Desktop\InternalSysDev2024\Internal-System-Development-2024\交通費申請一覧機能\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{2B6DD127-2E7C-49EC-BB7D-65F862DBD997}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C7F8DED7-5812-4747-A97F-782412517ABA}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{565CCF54-F1C9-4E83-A949-A8D7BFF9E005}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="720" yWindow="720" windowWidth="11870" windowHeight="8960" tabRatio="858" firstSheet="9" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1470" yWindow="180" windowWidth="13280" windowHeight="10050" tabRatio="858" firstSheet="9" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="変更履歴" sheetId="117" r:id="rId1"/>
@@ -2663,15 +2663,24 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="28" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2702,14 +2711,35 @@
     <xf numFmtId="176" fontId="7" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="28" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="10" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="10" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -2765,36 +2795,6 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="10" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="10" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="23" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2810,14 +2810,53 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="26" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="26" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="10" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="10" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="10" fillId="0" borderId="5" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -2825,46 +2864,7 @@
     <xf numFmtId="49" fontId="10" fillId="0" borderId="15" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="26" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="10" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="10" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3240,42 +3240,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" s="2" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A1" s="63" t="s">
+      <c r="A1" s="68" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="66" t="s">
+      <c r="B1" s="68"/>
+      <c r="C1" s="69" t="s">
         <v>287</v>
       </c>
-      <c r="D1" s="67"/>
-      <c r="E1" s="67"/>
-      <c r="F1" s="67"/>
-      <c r="G1" s="67"/>
-      <c r="H1" s="68"/>
+      <c r="D1" s="70"/>
+      <c r="E1" s="70"/>
+      <c r="F1" s="70"/>
+      <c r="G1" s="70"/>
+      <c r="H1" s="71"/>
       <c r="I1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="J1" s="72" t="s">
+      <c r="J1" s="75" t="s">
         <v>211</v>
       </c>
-      <c r="K1" s="73"/>
+      <c r="K1" s="76"/>
     </row>
     <row r="2" spans="1:19" ht="19.5" customHeight="1">
-      <c r="A2" s="63"/>
-      <c r="B2" s="63"/>
-      <c r="C2" s="69"/>
-      <c r="D2" s="70"/>
-      <c r="E2" s="70"/>
-      <c r="F2" s="70"/>
-      <c r="G2" s="70"/>
-      <c r="H2" s="71"/>
+      <c r="A2" s="68"/>
+      <c r="B2" s="68"/>
+      <c r="C2" s="72"/>
+      <c r="D2" s="73"/>
+      <c r="E2" s="73"/>
+      <c r="F2" s="73"/>
+      <c r="G2" s="73"/>
+      <c r="H2" s="74"/>
       <c r="I2" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="J2" s="74">
+      <c r="J2" s="77">
         <v>45482</v>
       </c>
-      <c r="K2" s="75"/>
+      <c r="K2" s="78"/>
     </row>
     <row r="3" spans="1:19" ht="19.5" customHeight="1">
       <c r="A3" s="4"/>
@@ -3308,22 +3308,22 @@
       <c r="C4" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="64" t="s">
+      <c r="D4" s="65" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="65"/>
-      <c r="F4" s="64" t="s">
+      <c r="E4" s="66"/>
+      <c r="F4" s="65" t="s">
         <v>7</v>
       </c>
-      <c r="G4" s="65"/>
-      <c r="H4" s="64" t="s">
+      <c r="G4" s="66"/>
+      <c r="H4" s="65" t="s">
         <v>8</v>
       </c>
-      <c r="I4" s="65"/>
-      <c r="J4" s="64" t="s">
+      <c r="I4" s="66"/>
+      <c r="J4" s="65" t="s">
         <v>9</v>
       </c>
-      <c r="K4" s="65"/>
+      <c r="K4" s="66"/>
       <c r="L4" s="2"/>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
@@ -3342,16 +3342,16 @@
       <c r="C5" s="49" t="s">
         <v>211</v>
       </c>
-      <c r="D5" s="78"/>
-      <c r="E5" s="78"/>
-      <c r="F5" s="78"/>
-      <c r="G5" s="78"/>
-      <c r="H5" s="78" t="s">
+      <c r="D5" s="67"/>
+      <c r="E5" s="67"/>
+      <c r="F5" s="67"/>
+      <c r="G5" s="67"/>
+      <c r="H5" s="67" t="s">
         <v>10</v>
       </c>
-      <c r="I5" s="78"/>
-      <c r="J5" s="78"/>
-      <c r="K5" s="78"/>
+      <c r="I5" s="67"/>
+      <c r="J5" s="67"/>
+      <c r="K5" s="67"/>
     </row>
     <row r="6" spans="1:19" ht="22.5" customHeight="1">
       <c r="A6" s="51">
@@ -3363,20 +3363,20 @@
       <c r="C6" s="51" t="s">
         <v>211</v>
       </c>
-      <c r="D6" s="77" t="s">
+      <c r="D6" s="64" t="s">
         <v>252</v>
       </c>
-      <c r="E6" s="77"/>
-      <c r="F6" s="77"/>
-      <c r="G6" s="77"/>
-      <c r="H6" s="77" t="s">
+      <c r="E6" s="64"/>
+      <c r="F6" s="64"/>
+      <c r="G6" s="64"/>
+      <c r="H6" s="64" t="s">
         <v>253</v>
       </c>
-      <c r="I6" s="77"/>
-      <c r="J6" s="77" t="s">
+      <c r="I6" s="64"/>
+      <c r="J6" s="64" t="s">
         <v>254</v>
       </c>
-      <c r="K6" s="77"/>
+      <c r="K6" s="64"/>
     </row>
     <row r="7" spans="1:19" ht="22.5" customHeight="1">
       <c r="A7" s="49">
@@ -3388,20 +3388,20 @@
       <c r="C7" s="51" t="s">
         <v>283</v>
       </c>
-      <c r="D7" s="76" t="s">
+      <c r="D7" s="63" t="s">
         <v>286</v>
       </c>
-      <c r="E7" s="76"/>
-      <c r="F7" s="77"/>
-      <c r="G7" s="77"/>
-      <c r="H7" s="76" t="s">
+      <c r="E7" s="63"/>
+      <c r="F7" s="64"/>
+      <c r="G7" s="64"/>
+      <c r="H7" s="63" t="s">
         <v>284</v>
       </c>
-      <c r="I7" s="76"/>
-      <c r="J7" s="76" t="s">
+      <c r="I7" s="63"/>
+      <c r="J7" s="63" t="s">
         <v>285</v>
       </c>
-      <c r="K7" s="76"/>
+      <c r="K7" s="63"/>
     </row>
     <row r="8" spans="1:19" ht="22.5" customHeight="1"/>
     <row r="9" spans="1:19" ht="22.5" customHeight="1"/>
@@ -3443,6 +3443,12 @@
     <row r="45" ht="22.5" customHeight="1"/>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="C1:H2"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="J2:K2"/>
     <mergeCell ref="D7:E7"/>
     <mergeCell ref="F7:G7"/>
     <mergeCell ref="H7:I7"/>
@@ -3457,12 +3463,6 @@
     <mergeCell ref="D5:E5"/>
     <mergeCell ref="F5:G5"/>
     <mergeCell ref="H5:I5"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="C1:H2"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="J2:K2"/>
   </mergeCells>
   <phoneticPr fontId="5"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.59055118110236227" bottom="0.59055118110236227" header="0.51181102362204722" footer="0.51181102362204722"/>
@@ -3475,8 +3475,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB8A24D3-272C-45D2-9527-CE0B8FDD95E5}">
   <dimension ref="A1:P33"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection sqref="A1:B2"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="28.5" customHeight="1"/>
@@ -3499,25 +3499,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="15" customFormat="1" ht="31.5" customHeight="1">
-      <c r="A1" s="97" t="s">
+      <c r="A1" s="79" t="s">
         <v>237</v>
       </c>
-      <c r="B1" s="97"/>
+      <c r="B1" s="79"/>
       <c r="C1" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="100" t="s">
+      <c r="D1" s="82" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="98"/>
-      <c r="F1" s="98"/>
-      <c r="G1" s="98"/>
-      <c r="H1" s="99"/>
-      <c r="I1" s="100" t="s">
+      <c r="E1" s="80"/>
+      <c r="F1" s="80"/>
+      <c r="G1" s="80"/>
+      <c r="H1" s="81"/>
+      <c r="I1" s="82" t="s">
         <v>14</v>
       </c>
-      <c r="J1" s="98"/>
-      <c r="K1" s="99"/>
+      <c r="J1" s="80"/>
+      <c r="K1" s="81"/>
       <c r="L1" s="12" t="s">
         <v>1</v>
       </c>
@@ -3527,29 +3527,29 @@
       <c r="N1" s="14" t="s">
         <v>281</v>
       </c>
-      <c r="O1" s="124" t="s">
+      <c r="O1" s="126" t="s">
         <v>282</v>
       </c>
-      <c r="P1" s="125"/>
+      <c r="P1" s="127"/>
     </row>
     <row r="2" spans="1:16" ht="20.25" customHeight="1">
-      <c r="A2" s="97"/>
-      <c r="B2" s="97"/>
+      <c r="A2" s="79"/>
+      <c r="B2" s="79"/>
       <c r="C2" s="16" t="s">
         <v>251</v>
       </c>
-      <c r="D2" s="103" t="s">
+      <c r="D2" s="85" t="s">
         <v>219</v>
       </c>
-      <c r="E2" s="103"/>
-      <c r="F2" s="103"/>
-      <c r="G2" s="103"/>
-      <c r="H2" s="104"/>
-      <c r="I2" s="126" t="s">
+      <c r="E2" s="85"/>
+      <c r="F2" s="85"/>
+      <c r="G2" s="85"/>
+      <c r="H2" s="86"/>
+      <c r="I2" s="112" t="s">
         <v>218</v>
       </c>
-      <c r="J2" s="127"/>
-      <c r="K2" s="128"/>
+      <c r="J2" s="113"/>
+      <c r="K2" s="114"/>
       <c r="L2" s="17" t="s">
         <v>2</v>
       </c>
@@ -3559,50 +3559,50 @@
       <c r="N2" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="O2" s="106">
+      <c r="O2" s="88">
         <v>45509</v>
       </c>
-      <c r="P2" s="104"/>
+      <c r="P2" s="86"/>
     </row>
     <row r="3" spans="1:16" ht="20.25" customHeight="1">
-      <c r="A3" s="81" t="s">
+      <c r="A3" s="91" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="82"/>
-      <c r="C3" s="85" t="s">
+      <c r="B3" s="92"/>
+      <c r="C3" s="95" t="s">
         <v>227</v>
       </c>
-      <c r="D3" s="86"/>
-      <c r="E3" s="86"/>
-      <c r="F3" s="86"/>
-      <c r="G3" s="86"/>
-      <c r="H3" s="86"/>
-      <c r="I3" s="86"/>
-      <c r="J3" s="86"/>
-      <c r="K3" s="86"/>
-      <c r="L3" s="86"/>
-      <c r="M3" s="86"/>
-      <c r="N3" s="86"/>
-      <c r="O3" s="86"/>
-      <c r="P3" s="87"/>
+      <c r="D3" s="96"/>
+      <c r="E3" s="96"/>
+      <c r="F3" s="96"/>
+      <c r="G3" s="96"/>
+      <c r="H3" s="96"/>
+      <c r="I3" s="96"/>
+      <c r="J3" s="96"/>
+      <c r="K3" s="96"/>
+      <c r="L3" s="96"/>
+      <c r="M3" s="96"/>
+      <c r="N3" s="96"/>
+      <c r="O3" s="96"/>
+      <c r="P3" s="97"/>
     </row>
     <row r="4" spans="1:16" ht="20.25" customHeight="1">
-      <c r="A4" s="83"/>
-      <c r="B4" s="84"/>
-      <c r="C4" s="88"/>
-      <c r="D4" s="89"/>
-      <c r="E4" s="89"/>
-      <c r="F4" s="89"/>
-      <c r="G4" s="89"/>
-      <c r="H4" s="89"/>
-      <c r="I4" s="89"/>
-      <c r="J4" s="89"/>
-      <c r="K4" s="89"/>
-      <c r="L4" s="89"/>
-      <c r="M4" s="89"/>
-      <c r="N4" s="89"/>
-      <c r="O4" s="89"/>
-      <c r="P4" s="90"/>
+      <c r="A4" s="93"/>
+      <c r="B4" s="94"/>
+      <c r="C4" s="98"/>
+      <c r="D4" s="99"/>
+      <c r="E4" s="99"/>
+      <c r="F4" s="99"/>
+      <c r="G4" s="99"/>
+      <c r="H4" s="99"/>
+      <c r="I4" s="99"/>
+      <c r="J4" s="99"/>
+      <c r="K4" s="99"/>
+      <c r="L4" s="99"/>
+      <c r="M4" s="99"/>
+      <c r="N4" s="99"/>
+      <c r="O4" s="99"/>
+      <c r="P4" s="100"/>
     </row>
     <row r="5" spans="1:16" ht="20.25" customHeight="1">
       <c r="B5" s="20"/>
@@ -3643,10 +3643,10 @@
       <c r="K6" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="L6" s="91" t="s">
+      <c r="L6" s="101" t="s">
         <v>27</v>
       </c>
-      <c r="M6" s="92"/>
+      <c r="M6" s="102"/>
       <c r="N6" s="26" t="s">
         <v>28</v>
       </c>
@@ -3751,8 +3751,8 @@
       <c r="I9" s="36"/>
       <c r="J9" s="35"/>
       <c r="K9" s="35"/>
-      <c r="L9" s="112"/>
-      <c r="M9" s="113"/>
+      <c r="L9" s="123"/>
+      <c r="M9" s="124"/>
       <c r="N9" s="39"/>
       <c r="O9" s="35"/>
       <c r="P9" s="40"/>
@@ -3783,10 +3783,10 @@
       <c r="K10" s="35">
         <v>0</v>
       </c>
-      <c r="L10" s="123" t="s">
+      <c r="L10" s="125" t="s">
         <v>200</v>
       </c>
-      <c r="M10" s="113"/>
+      <c r="M10" s="124"/>
       <c r="N10" s="39" t="s">
         <v>312</v>
       </c>
@@ -3815,10 +3815,10 @@
       <c r="I11" s="36"/>
       <c r="J11" s="35"/>
       <c r="K11" s="35"/>
-      <c r="L11" s="112" t="s">
+      <c r="L11" s="123" t="s">
         <v>235</v>
       </c>
-      <c r="M11" s="113"/>
+      <c r="M11" s="124"/>
       <c r="N11" s="39"/>
       <c r="O11" s="35"/>
       <c r="P11" s="40"/>
@@ -3845,8 +3845,8 @@
       <c r="I12" s="36"/>
       <c r="J12" s="35"/>
       <c r="K12" s="35"/>
-      <c r="L12" s="112"/>
-      <c r="M12" s="113"/>
+      <c r="L12" s="123"/>
+      <c r="M12" s="124"/>
       <c r="N12" s="39"/>
       <c r="O12" s="35"/>
       <c r="P12" s="40"/>
@@ -3937,10 +3937,10 @@
       <c r="I15" s="36"/>
       <c r="J15" s="35"/>
       <c r="K15" s="35"/>
-      <c r="L15" s="79" t="s">
+      <c r="L15" s="89" t="s">
         <v>268</v>
       </c>
-      <c r="M15" s="80"/>
+      <c r="M15" s="90"/>
       <c r="N15" s="39"/>
       <c r="O15" s="35"/>
       <c r="P15" s="40"/>
@@ -4001,10 +4001,10 @@
       <c r="I17" s="36"/>
       <c r="J17" s="35"/>
       <c r="K17" s="35"/>
-      <c r="L17" s="129" t="s">
+      <c r="L17" s="115" t="s">
         <v>289</v>
       </c>
-      <c r="M17" s="130"/>
+      <c r="M17" s="116"/>
       <c r="N17" s="39" t="s">
         <v>313</v>
       </c>
@@ -4035,10 +4035,10 @@
       <c r="I18" s="36"/>
       <c r="J18" s="35"/>
       <c r="K18" s="35"/>
-      <c r="L18" s="79" t="s">
+      <c r="L18" s="89" t="s">
         <v>291</v>
       </c>
-      <c r="M18" s="80"/>
+      <c r="M18" s="90"/>
       <c r="N18" s="39"/>
       <c r="O18" s="35"/>
       <c r="P18" s="40"/>
@@ -4069,10 +4069,10 @@
       <c r="I19" s="36"/>
       <c r="J19" s="35"/>
       <c r="K19" s="35"/>
-      <c r="L19" s="79" t="s">
+      <c r="L19" s="89" t="s">
         <v>294</v>
       </c>
-      <c r="M19" s="80"/>
+      <c r="M19" s="90"/>
       <c r="N19" s="39"/>
       <c r="O19" s="35"/>
       <c r="P19" s="40"/>
@@ -4099,10 +4099,10 @@
       <c r="I20" s="36"/>
       <c r="J20" s="35"/>
       <c r="K20" s="41"/>
-      <c r="L20" s="79" t="s">
+      <c r="L20" s="89" t="s">
         <v>293</v>
       </c>
-      <c r="M20" s="80"/>
+      <c r="M20" s="90"/>
       <c r="N20" s="39"/>
       <c r="O20" s="35"/>
       <c r="P20" s="40"/>
@@ -4131,10 +4131,10 @@
       <c r="I21" s="36"/>
       <c r="J21" s="35"/>
       <c r="K21" s="35"/>
-      <c r="L21" s="115" t="s">
+      <c r="L21" s="128" t="s">
         <v>278</v>
       </c>
-      <c r="M21" s="116"/>
+      <c r="M21" s="129"/>
       <c r="N21" s="39"/>
       <c r="O21" s="35"/>
       <c r="P21" s="40"/>
@@ -4159,10 +4159,10 @@
       <c r="I22" s="36"/>
       <c r="J22" s="35"/>
       <c r="K22" s="35"/>
-      <c r="L22" s="112" t="s">
+      <c r="L22" s="123" t="s">
         <v>272</v>
       </c>
-      <c r="M22" s="113"/>
+      <c r="M22" s="124"/>
       <c r="N22" s="39"/>
       <c r="O22" s="35"/>
       <c r="P22" s="40"/>
@@ -4189,10 +4189,10 @@
       <c r="I23" s="36"/>
       <c r="J23" s="35"/>
       <c r="K23" s="35"/>
-      <c r="L23" s="112" t="s">
+      <c r="L23" s="123" t="s">
         <v>261</v>
       </c>
-      <c r="M23" s="113"/>
+      <c r="M23" s="124"/>
       <c r="N23" s="39"/>
       <c r="O23" s="35"/>
       <c r="P23" s="40"/>
@@ -4221,8 +4221,8 @@
       <c r="I24" s="36"/>
       <c r="J24" s="35"/>
       <c r="K24" s="35"/>
-      <c r="L24" s="79"/>
-      <c r="M24" s="80"/>
+      <c r="L24" s="89"/>
+      <c r="M24" s="90"/>
       <c r="N24" s="39"/>
       <c r="O24" s="35"/>
       <c r="P24" s="40"/>
@@ -4251,8 +4251,8 @@
       <c r="K25" s="35" t="s">
         <v>68</v>
       </c>
-      <c r="L25" s="79"/>
-      <c r="M25" s="80"/>
+      <c r="L25" s="89"/>
+      <c r="M25" s="90"/>
       <c r="N25" s="39"/>
       <c r="O25" s="35"/>
       <c r="P25" s="40"/>
@@ -4279,10 +4279,10 @@
       <c r="I26" s="36"/>
       <c r="J26" s="35"/>
       <c r="K26" s="35"/>
-      <c r="L26" s="112" t="s">
+      <c r="L26" s="123" t="s">
         <v>297</v>
       </c>
-      <c r="M26" s="113"/>
+      <c r="M26" s="124"/>
       <c r="N26" s="39"/>
       <c r="O26" s="35"/>
       <c r="P26" s="40"/>
@@ -4311,10 +4311,10 @@
       <c r="K27" s="35" t="s">
         <v>68</v>
       </c>
-      <c r="L27" s="79" t="s">
+      <c r="L27" s="89" t="s">
         <v>296</v>
       </c>
-      <c r="M27" s="80"/>
+      <c r="M27" s="90"/>
       <c r="N27" s="39"/>
       <c r="O27" s="35"/>
       <c r="P27" s="40"/>
@@ -4341,10 +4341,10 @@
       <c r="I28" s="36"/>
       <c r="J28" s="35"/>
       <c r="K28" s="35"/>
-      <c r="L28" s="112" t="s">
+      <c r="L28" s="123" t="s">
         <v>258</v>
       </c>
-      <c r="M28" s="113"/>
+      <c r="M28" s="124"/>
       <c r="N28" s="39"/>
       <c r="O28" s="35"/>
       <c r="P28" s="40"/>
@@ -4373,10 +4373,10 @@
       <c r="K29" s="35" t="s">
         <v>68</v>
       </c>
-      <c r="L29" s="79" t="s">
+      <c r="L29" s="89" t="s">
         <v>298</v>
       </c>
-      <c r="M29" s="80"/>
+      <c r="M29" s="90"/>
       <c r="N29" s="39"/>
       <c r="O29" s="35"/>
       <c r="P29" s="40"/>
@@ -4405,10 +4405,10 @@
       <c r="K30" s="35">
         <v>0</v>
       </c>
-      <c r="L30" s="79" t="s">
+      <c r="L30" s="89" t="s">
         <v>295</v>
       </c>
-      <c r="M30" s="80"/>
+      <c r="M30" s="90"/>
       <c r="N30" s="39"/>
       <c r="O30" s="35"/>
       <c r="P30" s="40"/>
@@ -4437,8 +4437,8 @@
       <c r="K31" s="35">
         <v>0</v>
       </c>
-      <c r="L31" s="79"/>
-      <c r="M31" s="80"/>
+      <c r="L31" s="89"/>
+      <c r="M31" s="90"/>
       <c r="N31" s="39"/>
       <c r="O31" s="35"/>
       <c r="P31" s="40"/>
@@ -4454,14 +4454,33 @@
       <c r="I32" s="57"/>
       <c r="J32" s="56"/>
       <c r="K32" s="56"/>
-      <c r="L32" s="114"/>
-      <c r="M32" s="114"/>
+      <c r="L32" s="130"/>
+      <c r="M32" s="130"/>
       <c r="N32" s="56"/>
       <c r="O32" s="56"/>
     </row>
     <row r="33" s="19" customFormat="1" ht="28.5" customHeight="1"/>
   </sheetData>
   <mergeCells count="35">
+    <mergeCell ref="L28:M28"/>
+    <mergeCell ref="L29:M29"/>
+    <mergeCell ref="L30:M30"/>
+    <mergeCell ref="L31:M31"/>
+    <mergeCell ref="L32:M32"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="O1:P1"/>
+    <mergeCell ref="D2:H2"/>
+    <mergeCell ref="L27:M27"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="L22:M22"/>
+    <mergeCell ref="L23:M23"/>
+    <mergeCell ref="L24:M24"/>
+    <mergeCell ref="L25:M25"/>
+    <mergeCell ref="L26:M26"/>
+    <mergeCell ref="L20:M20"/>
     <mergeCell ref="I2:K2"/>
     <mergeCell ref="O2:P2"/>
     <mergeCell ref="L17:M17"/>
@@ -4478,25 +4497,6 @@
     <mergeCell ref="L8:M8"/>
     <mergeCell ref="L9:M9"/>
     <mergeCell ref="L10:M10"/>
-    <mergeCell ref="L11:M11"/>
-    <mergeCell ref="L12:M12"/>
-    <mergeCell ref="O1:P1"/>
-    <mergeCell ref="D2:H2"/>
-    <mergeCell ref="L27:M27"/>
-    <mergeCell ref="L18:M18"/>
-    <mergeCell ref="L19:M19"/>
-    <mergeCell ref="L21:M21"/>
-    <mergeCell ref="L22:M22"/>
-    <mergeCell ref="L23:M23"/>
-    <mergeCell ref="L24:M24"/>
-    <mergeCell ref="L25:M25"/>
-    <mergeCell ref="L26:M26"/>
-    <mergeCell ref="L20:M20"/>
-    <mergeCell ref="L28:M28"/>
-    <mergeCell ref="L29:M29"/>
-    <mergeCell ref="L30:M30"/>
-    <mergeCell ref="L31:M31"/>
-    <mergeCell ref="L32:M32"/>
   </mergeCells>
   <phoneticPr fontId="6"/>
   <pageMargins left="0.35433070866141736" right="0.35433070866141736" top="0.19685039370078741" bottom="0.19685039370078741" header="0.23622047244094491" footer="0.23622047244094491"/>
@@ -4533,25 +4533,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="15" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A1" s="97" t="s">
+      <c r="A1" s="79" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="97"/>
+      <c r="B1" s="79"/>
       <c r="C1" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="98" t="s">
+      <c r="D1" s="80" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="98"/>
-      <c r="F1" s="98"/>
-      <c r="G1" s="98"/>
-      <c r="H1" s="99"/>
-      <c r="I1" s="100" t="s">
+      <c r="E1" s="80"/>
+      <c r="F1" s="80"/>
+      <c r="G1" s="80"/>
+      <c r="H1" s="81"/>
+      <c r="I1" s="82" t="s">
         <v>14</v>
       </c>
-      <c r="J1" s="98"/>
-      <c r="K1" s="99"/>
+      <c r="J1" s="80"/>
+      <c r="K1" s="81"/>
       <c r="L1" s="12" t="s">
         <v>1</v>
       </c>
@@ -4561,29 +4561,29 @@
       <c r="N1" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="O1" s="101">
+      <c r="O1" s="83">
         <v>45481</v>
       </c>
-      <c r="P1" s="102"/>
+      <c r="P1" s="84"/>
     </row>
     <row r="2" spans="1:16" ht="20.25" customHeight="1">
-      <c r="A2" s="97"/>
-      <c r="B2" s="97"/>
+      <c r="A2" s="79"/>
+      <c r="B2" s="79"/>
       <c r="C2" s="16" t="s">
         <v>245</v>
       </c>
-      <c r="D2" s="103" t="s">
+      <c r="D2" s="85" t="s">
         <v>33</v>
       </c>
-      <c r="E2" s="103"/>
-      <c r="F2" s="103"/>
-      <c r="G2" s="103"/>
-      <c r="H2" s="104"/>
-      <c r="I2" s="105" t="s">
+      <c r="E2" s="85"/>
+      <c r="F2" s="85"/>
+      <c r="G2" s="85"/>
+      <c r="H2" s="86"/>
+      <c r="I2" s="87" t="s">
         <v>32</v>
       </c>
-      <c r="J2" s="103"/>
-      <c r="K2" s="104"/>
+      <c r="J2" s="85"/>
+      <c r="K2" s="86"/>
       <c r="L2" s="17" t="s">
         <v>2</v>
       </c>
@@ -4591,50 +4591,50 @@
       <c r="N2" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="O2" s="106">
+      <c r="O2" s="88">
         <v>45484</v>
       </c>
-      <c r="P2" s="104"/>
+      <c r="P2" s="86"/>
     </row>
     <row r="3" spans="1:16" ht="20.25" customHeight="1">
-      <c r="A3" s="81" t="s">
+      <c r="A3" s="91" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="82"/>
-      <c r="C3" s="85" t="s">
+      <c r="B3" s="92"/>
+      <c r="C3" s="95" t="s">
         <v>33</v>
       </c>
-      <c r="D3" s="86"/>
-      <c r="E3" s="86"/>
-      <c r="F3" s="86"/>
-      <c r="G3" s="86"/>
-      <c r="H3" s="86"/>
-      <c r="I3" s="86"/>
-      <c r="J3" s="86"/>
-      <c r="K3" s="86"/>
-      <c r="L3" s="86"/>
-      <c r="M3" s="86"/>
-      <c r="N3" s="86"/>
-      <c r="O3" s="86"/>
-      <c r="P3" s="87"/>
+      <c r="D3" s="96"/>
+      <c r="E3" s="96"/>
+      <c r="F3" s="96"/>
+      <c r="G3" s="96"/>
+      <c r="H3" s="96"/>
+      <c r="I3" s="96"/>
+      <c r="J3" s="96"/>
+      <c r="K3" s="96"/>
+      <c r="L3" s="96"/>
+      <c r="M3" s="96"/>
+      <c r="N3" s="96"/>
+      <c r="O3" s="96"/>
+      <c r="P3" s="97"/>
     </row>
     <row r="4" spans="1:16" ht="20.25" customHeight="1">
-      <c r="A4" s="83"/>
-      <c r="B4" s="84"/>
-      <c r="C4" s="88"/>
-      <c r="D4" s="89"/>
-      <c r="E4" s="89"/>
-      <c r="F4" s="89"/>
-      <c r="G4" s="89"/>
-      <c r="H4" s="89"/>
-      <c r="I4" s="89"/>
-      <c r="J4" s="89"/>
-      <c r="K4" s="89"/>
-      <c r="L4" s="89"/>
-      <c r="M4" s="89"/>
-      <c r="N4" s="89"/>
-      <c r="O4" s="89"/>
-      <c r="P4" s="90"/>
+      <c r="A4" s="93"/>
+      <c r="B4" s="94"/>
+      <c r="C4" s="98"/>
+      <c r="D4" s="99"/>
+      <c r="E4" s="99"/>
+      <c r="F4" s="99"/>
+      <c r="G4" s="99"/>
+      <c r="H4" s="99"/>
+      <c r="I4" s="99"/>
+      <c r="J4" s="99"/>
+      <c r="K4" s="99"/>
+      <c r="L4" s="99"/>
+      <c r="M4" s="99"/>
+      <c r="N4" s="99"/>
+      <c r="O4" s="99"/>
+      <c r="P4" s="100"/>
     </row>
     <row r="5" spans="1:16" ht="20.25" customHeight="1">
       <c r="B5" s="20"/>
@@ -4675,10 +4675,10 @@
       <c r="K6" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="L6" s="91" t="s">
+      <c r="L6" s="101" t="s">
         <v>27</v>
       </c>
-      <c r="M6" s="92"/>
+      <c r="M6" s="102"/>
       <c r="N6" s="26" t="s">
         <v>28</v>
       </c>
@@ -4721,10 +4721,10 @@
         <v>31</v>
       </c>
       <c r="K7" s="35"/>
-      <c r="L7" s="93" t="s">
+      <c r="L7" s="103" t="s">
         <v>238</v>
       </c>
-      <c r="M7" s="94"/>
+      <c r="M7" s="104"/>
       <c r="N7" s="39"/>
       <c r="O7" s="35"/>
       <c r="P7" s="40"/>
@@ -4753,10 +4753,10 @@
       <c r="I8" s="36"/>
       <c r="J8" s="35"/>
       <c r="K8" s="35"/>
-      <c r="L8" s="95" t="s">
+      <c r="L8" s="105" t="s">
         <v>255</v>
       </c>
-      <c r="M8" s="96"/>
+      <c r="M8" s="106"/>
       <c r="N8" s="39"/>
       <c r="O8" s="35"/>
       <c r="P8" s="40"/>
@@ -4785,8 +4785,8 @@
       <c r="I9" s="36"/>
       <c r="J9" s="35"/>
       <c r="K9" s="35"/>
-      <c r="L9" s="79"/>
-      <c r="M9" s="80"/>
+      <c r="L9" s="89"/>
+      <c r="M9" s="90"/>
       <c r="N9" s="39"/>
       <c r="O9" s="35"/>
       <c r="P9" s="40"/>
@@ -4813,8 +4813,8 @@
       <c r="I10" s="36"/>
       <c r="J10" s="35"/>
       <c r="K10" s="35"/>
-      <c r="L10" s="79"/>
-      <c r="M10" s="80"/>
+      <c r="L10" s="89"/>
+      <c r="M10" s="90"/>
       <c r="N10" s="39"/>
       <c r="O10" s="35"/>
       <c r="P10" s="40"/>
@@ -4841,10 +4841,10 @@
       <c r="I11" s="36"/>
       <c r="J11" s="35"/>
       <c r="K11" s="35"/>
-      <c r="L11" s="79" t="s">
+      <c r="L11" s="89" t="s">
         <v>187</v>
       </c>
-      <c r="M11" s="80"/>
+      <c r="M11" s="90"/>
       <c r="N11" s="39" t="s">
         <v>191</v>
       </c>
@@ -4873,10 +4873,10 @@
       <c r="I12" s="36"/>
       <c r="J12" s="35"/>
       <c r="K12" s="35"/>
-      <c r="L12" s="79" t="s">
+      <c r="L12" s="89" t="s">
         <v>188</v>
       </c>
-      <c r="M12" s="80"/>
+      <c r="M12" s="90"/>
       <c r="N12" s="39" t="s">
         <v>192</v>
       </c>
@@ -4905,8 +4905,8 @@
       <c r="I13" s="36"/>
       <c r="J13" s="35"/>
       <c r="K13" s="35"/>
-      <c r="L13" s="79"/>
-      <c r="M13" s="80"/>
+      <c r="L13" s="89"/>
+      <c r="M13" s="90"/>
       <c r="N13" s="39"/>
       <c r="O13" s="35"/>
       <c r="P13" s="40"/>
@@ -4935,8 +4935,8 @@
       <c r="I14" s="36"/>
       <c r="J14" s="35"/>
       <c r="K14" s="35"/>
-      <c r="L14" s="79"/>
-      <c r="M14" s="80"/>
+      <c r="L14" s="89"/>
+      <c r="M14" s="90"/>
       <c r="N14" s="39"/>
       <c r="O14" s="35"/>
       <c r="P14" s="40"/>
@@ -4965,8 +4965,8 @@
       <c r="I15" s="36"/>
       <c r="J15" s="35"/>
       <c r="K15" s="35"/>
-      <c r="L15" s="79"/>
-      <c r="M15" s="80"/>
+      <c r="L15" s="89"/>
+      <c r="M15" s="90"/>
       <c r="N15" s="39"/>
       <c r="O15" s="35"/>
       <c r="P15" s="40"/>
@@ -4993,10 +4993,10 @@
       <c r="I16" s="36"/>
       <c r="J16" s="35"/>
       <c r="K16" s="35"/>
-      <c r="L16" s="79" t="s">
+      <c r="L16" s="89" t="s">
         <v>189</v>
       </c>
-      <c r="M16" s="80"/>
+      <c r="M16" s="90"/>
       <c r="N16" s="39"/>
       <c r="O16" s="35"/>
       <c r="P16" s="40"/>
@@ -5025,8 +5025,8 @@
       <c r="K17" s="35">
         <v>0</v>
       </c>
-      <c r="L17" s="79"/>
-      <c r="M17" s="80"/>
+      <c r="L17" s="89"/>
+      <c r="M17" s="90"/>
       <c r="N17" s="39"/>
       <c r="O17" s="35"/>
       <c r="P17" s="40"/>
@@ -5055,8 +5055,8 @@
       <c r="I18" s="36"/>
       <c r="J18" s="35"/>
       <c r="K18" s="35"/>
-      <c r="L18" s="79"/>
-      <c r="M18" s="80"/>
+      <c r="L18" s="89"/>
+      <c r="M18" s="90"/>
       <c r="N18" s="39"/>
       <c r="O18" s="35"/>
       <c r="P18" s="40"/>
@@ -5087,8 +5087,8 @@
       <c r="K19" s="35" t="s">
         <v>67</v>
       </c>
-      <c r="L19" s="79"/>
-      <c r="M19" s="80"/>
+      <c r="L19" s="89"/>
+      <c r="M19" s="90"/>
       <c r="N19" s="39"/>
       <c r="O19" s="35"/>
       <c r="P19" s="40"/>
@@ -5117,8 +5117,8 @@
       <c r="I20" s="36"/>
       <c r="J20" s="35"/>
       <c r="K20" s="35"/>
-      <c r="L20" s="79"/>
-      <c r="M20" s="80"/>
+      <c r="L20" s="89"/>
+      <c r="M20" s="90"/>
       <c r="N20" s="39"/>
       <c r="O20" s="35"/>
       <c r="P20" s="40"/>
@@ -5149,21 +5149,19 @@
       <c r="K21" s="35" t="s">
         <v>67</v>
       </c>
-      <c r="L21" s="79"/>
-      <c r="M21" s="80"/>
+      <c r="L21" s="89"/>
+      <c r="M21" s="90"/>
       <c r="N21" s="39"/>
       <c r="O21" s="35"/>
       <c r="P21" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="D1:H1"/>
-    <mergeCell ref="I1:K1"/>
-    <mergeCell ref="O1:P1"/>
-    <mergeCell ref="D2:H2"/>
-    <mergeCell ref="I2:K2"/>
-    <mergeCell ref="O2:P2"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="L20:M20"/>
+    <mergeCell ref="L21:M21"/>
     <mergeCell ref="L16:M16"/>
     <mergeCell ref="A3:B4"/>
     <mergeCell ref="C3:P4"/>
@@ -5177,11 +5175,13 @@
     <mergeCell ref="L14:M14"/>
     <mergeCell ref="L15:M15"/>
     <mergeCell ref="L8:M8"/>
-    <mergeCell ref="L17:M17"/>
-    <mergeCell ref="L18:M18"/>
-    <mergeCell ref="L19:M19"/>
-    <mergeCell ref="L20:M20"/>
-    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="D1:H1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="O1:P1"/>
+    <mergeCell ref="D2:H2"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="O2:P2"/>
   </mergeCells>
   <phoneticPr fontId="6"/>
   <pageMargins left="0.35433070866141736" right="0.35433070866141736" top="0.19685039370078741" bottom="0.19685039370078741" header="0.23622047244094491" footer="0.23622047244094491"/>
@@ -5218,25 +5218,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="15" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A1" s="97" t="s">
+      <c r="A1" s="79" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="97"/>
+      <c r="B1" s="79"/>
       <c r="C1" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="98" t="s">
+      <c r="D1" s="80" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="98"/>
-      <c r="F1" s="98"/>
-      <c r="G1" s="98"/>
-      <c r="H1" s="99"/>
-      <c r="I1" s="100" t="s">
+      <c r="E1" s="80"/>
+      <c r="F1" s="80"/>
+      <c r="G1" s="80"/>
+      <c r="H1" s="81"/>
+      <c r="I1" s="82" t="s">
         <v>14</v>
       </c>
-      <c r="J1" s="98"/>
-      <c r="K1" s="99"/>
+      <c r="J1" s="80"/>
+      <c r="K1" s="81"/>
       <c r="L1" s="12" t="s">
         <v>1</v>
       </c>
@@ -5246,29 +5246,29 @@
       <c r="N1" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="O1" s="101">
+      <c r="O1" s="83">
         <v>45482</v>
       </c>
-      <c r="P1" s="102"/>
+      <c r="P1" s="84"/>
     </row>
     <row r="2" spans="1:16" ht="20.25" customHeight="1">
-      <c r="A2" s="97"/>
-      <c r="B2" s="97"/>
+      <c r="A2" s="79"/>
+      <c r="B2" s="79"/>
       <c r="C2" s="16" t="s">
         <v>245</v>
       </c>
-      <c r="D2" s="103" t="s">
+      <c r="D2" s="85" t="s">
         <v>193</v>
       </c>
-      <c r="E2" s="103"/>
-      <c r="F2" s="103"/>
-      <c r="G2" s="103"/>
-      <c r="H2" s="104"/>
-      <c r="I2" s="105" t="s">
+      <c r="E2" s="85"/>
+      <c r="F2" s="85"/>
+      <c r="G2" s="85"/>
+      <c r="H2" s="86"/>
+      <c r="I2" s="87" t="s">
         <v>87</v>
       </c>
-      <c r="J2" s="103"/>
-      <c r="K2" s="104"/>
+      <c r="J2" s="85"/>
+      <c r="K2" s="86"/>
       <c r="L2" s="17" t="s">
         <v>2</v>
       </c>
@@ -5276,48 +5276,48 @@
       <c r="N2" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="O2" s="106"/>
-      <c r="P2" s="104"/>
+      <c r="O2" s="88"/>
+      <c r="P2" s="86"/>
     </row>
     <row r="3" spans="1:16" ht="20.25" customHeight="1">
-      <c r="A3" s="81" t="s">
+      <c r="A3" s="91" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="82"/>
-      <c r="C3" s="85" t="s">
+      <c r="B3" s="92"/>
+      <c r="C3" s="95" t="s">
         <v>193</v>
       </c>
-      <c r="D3" s="86"/>
-      <c r="E3" s="86"/>
-      <c r="F3" s="86"/>
-      <c r="G3" s="86"/>
-      <c r="H3" s="86"/>
-      <c r="I3" s="86"/>
-      <c r="J3" s="86"/>
-      <c r="K3" s="86"/>
-      <c r="L3" s="86"/>
-      <c r="M3" s="86"/>
-      <c r="N3" s="86"/>
-      <c r="O3" s="86"/>
-      <c r="P3" s="87"/>
+      <c r="D3" s="96"/>
+      <c r="E3" s="96"/>
+      <c r="F3" s="96"/>
+      <c r="G3" s="96"/>
+      <c r="H3" s="96"/>
+      <c r="I3" s="96"/>
+      <c r="J3" s="96"/>
+      <c r="K3" s="96"/>
+      <c r="L3" s="96"/>
+      <c r="M3" s="96"/>
+      <c r="N3" s="96"/>
+      <c r="O3" s="96"/>
+      <c r="P3" s="97"/>
     </row>
     <row r="4" spans="1:16" ht="20.25" customHeight="1">
-      <c r="A4" s="83"/>
-      <c r="B4" s="84"/>
-      <c r="C4" s="88"/>
-      <c r="D4" s="89"/>
-      <c r="E4" s="89"/>
-      <c r="F4" s="89"/>
-      <c r="G4" s="89"/>
-      <c r="H4" s="89"/>
-      <c r="I4" s="89"/>
-      <c r="J4" s="89"/>
-      <c r="K4" s="89"/>
-      <c r="L4" s="89"/>
-      <c r="M4" s="89"/>
-      <c r="N4" s="89"/>
-      <c r="O4" s="89"/>
-      <c r="P4" s="90"/>
+      <c r="A4" s="93"/>
+      <c r="B4" s="94"/>
+      <c r="C4" s="98"/>
+      <c r="D4" s="99"/>
+      <c r="E4" s="99"/>
+      <c r="F4" s="99"/>
+      <c r="G4" s="99"/>
+      <c r="H4" s="99"/>
+      <c r="I4" s="99"/>
+      <c r="J4" s="99"/>
+      <c r="K4" s="99"/>
+      <c r="L4" s="99"/>
+      <c r="M4" s="99"/>
+      <c r="N4" s="99"/>
+      <c r="O4" s="99"/>
+      <c r="P4" s="100"/>
     </row>
     <row r="5" spans="1:16" ht="20.25" customHeight="1">
       <c r="B5" s="20"/>
@@ -5358,10 +5358,10 @@
       <c r="K6" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="L6" s="91" t="s">
+      <c r="L6" s="101" t="s">
         <v>27</v>
       </c>
-      <c r="M6" s="92"/>
+      <c r="M6" s="102"/>
       <c r="N6" s="26" t="s">
         <v>28</v>
       </c>
@@ -5404,10 +5404,10 @@
         <v>31</v>
       </c>
       <c r="K7" s="35"/>
-      <c r="L7" s="93" t="s">
+      <c r="L7" s="103" t="s">
         <v>198</v>
       </c>
-      <c r="M7" s="94"/>
+      <c r="M7" s="104"/>
       <c r="N7" s="39"/>
       <c r="O7" s="35"/>
       <c r="P7" s="40"/>
@@ -5436,10 +5436,10 @@
       <c r="I8" s="36"/>
       <c r="J8" s="35"/>
       <c r="K8" s="35"/>
-      <c r="L8" s="95" t="s">
+      <c r="L8" s="105" t="s">
         <v>212</v>
       </c>
-      <c r="M8" s="96"/>
+      <c r="M8" s="106"/>
       <c r="N8" s="39"/>
       <c r="O8" s="35"/>
       <c r="P8" s="40"/>
@@ -5474,8 +5474,8 @@
         <v>31</v>
       </c>
       <c r="K9" s="35"/>
-      <c r="L9" s="79"/>
-      <c r="M9" s="80"/>
+      <c r="L9" s="89"/>
+      <c r="M9" s="90"/>
       <c r="N9" s="39"/>
       <c r="O9" s="35"/>
       <c r="P9" s="40"/>
@@ -5504,10 +5504,10 @@
       <c r="I10" s="36"/>
       <c r="J10" s="35"/>
       <c r="K10" s="35"/>
-      <c r="L10" s="79" t="s">
+      <c r="L10" s="89" t="s">
         <v>199</v>
       </c>
-      <c r="M10" s="80"/>
+      <c r="M10" s="90"/>
       <c r="N10" s="39"/>
       <c r="O10" s="35"/>
       <c r="P10" s="40"/>
@@ -5534,8 +5534,8 @@
       <c r="I11" s="36"/>
       <c r="J11" s="35"/>
       <c r="K11" s="35"/>
-      <c r="L11" s="79"/>
-      <c r="M11" s="80"/>
+      <c r="L11" s="89"/>
+      <c r="M11" s="90"/>
       <c r="N11" s="39"/>
       <c r="O11" s="35"/>
       <c r="P11" s="40"/>
@@ -5566,8 +5566,8 @@
       <c r="K12" s="35">
         <v>0</v>
       </c>
-      <c r="L12" s="79"/>
-      <c r="M12" s="80"/>
+      <c r="L12" s="89"/>
+      <c r="M12" s="90"/>
       <c r="N12" s="39"/>
       <c r="O12" s="35"/>
       <c r="P12" s="40"/>
@@ -5596,8 +5596,8 @@
       <c r="I13" s="36"/>
       <c r="J13" s="35"/>
       <c r="K13" s="35"/>
-      <c r="L13" s="79"/>
-      <c r="M13" s="80"/>
+      <c r="L13" s="89"/>
+      <c r="M13" s="90"/>
       <c r="N13" s="39"/>
       <c r="O13" s="35"/>
       <c r="P13" s="40"/>
@@ -5628,8 +5628,8 @@
       <c r="K14" s="35" t="s">
         <v>68</v>
       </c>
-      <c r="L14" s="79"/>
-      <c r="M14" s="80"/>
+      <c r="L14" s="89"/>
+      <c r="M14" s="90"/>
       <c r="N14" s="39"/>
       <c r="O14" s="35"/>
       <c r="P14" s="40"/>
@@ -5658,8 +5658,8 @@
       <c r="I15" s="36"/>
       <c r="J15" s="35"/>
       <c r="K15" s="35"/>
-      <c r="L15" s="79"/>
-      <c r="M15" s="80"/>
+      <c r="L15" s="89"/>
+      <c r="M15" s="90"/>
       <c r="N15" s="39"/>
       <c r="O15" s="35"/>
       <c r="P15" s="40"/>
@@ -5690,8 +5690,8 @@
       <c r="K16" s="35" t="s">
         <v>67</v>
       </c>
-      <c r="L16" s="79"/>
-      <c r="M16" s="80"/>
+      <c r="L16" s="89"/>
+      <c r="M16" s="90"/>
       <c r="N16" s="39"/>
       <c r="O16" s="35"/>
       <c r="P16" s="40"/>
@@ -5709,8 +5709,8 @@
       <c r="H17" s="36"/>
       <c r="I17" s="36"/>
       <c r="J17" s="35"/>
-      <c r="L17" s="79"/>
-      <c r="M17" s="80"/>
+      <c r="L17" s="89"/>
+      <c r="M17" s="90"/>
       <c r="N17" s="39"/>
       <c r="O17" s="35"/>
       <c r="P17" s="40"/>
@@ -5728,8 +5728,8 @@
       <c r="H18" s="36"/>
       <c r="I18" s="36"/>
       <c r="J18" s="35"/>
-      <c r="L18" s="79"/>
-      <c r="M18" s="80"/>
+      <c r="L18" s="89"/>
+      <c r="M18" s="90"/>
       <c r="N18" s="39"/>
       <c r="O18" s="35"/>
       <c r="P18" s="40"/>
@@ -5747,8 +5747,8 @@
       <c r="H19" s="36"/>
       <c r="I19" s="36"/>
       <c r="J19" s="35"/>
-      <c r="L19" s="79"/>
-      <c r="M19" s="80"/>
+      <c r="L19" s="89"/>
+      <c r="M19" s="90"/>
       <c r="N19" s="39"/>
       <c r="O19" s="35"/>
       <c r="P19" s="40"/>
@@ -5767,8 +5767,8 @@
       <c r="I20" s="36"/>
       <c r="J20" s="35"/>
       <c r="K20" s="35"/>
-      <c r="L20" s="79"/>
-      <c r="M20" s="80"/>
+      <c r="L20" s="89"/>
+      <c r="M20" s="90"/>
       <c r="N20" s="39"/>
       <c r="O20" s="35"/>
       <c r="P20" s="40"/>
@@ -5787,26 +5787,14 @@
       <c r="I21" s="36"/>
       <c r="J21" s="35"/>
       <c r="K21" s="35"/>
-      <c r="L21" s="79"/>
-      <c r="M21" s="80"/>
+      <c r="L21" s="89"/>
+      <c r="M21" s="90"/>
       <c r="N21" s="39"/>
       <c r="O21" s="35"/>
       <c r="P21" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="L21:M21"/>
-    <mergeCell ref="L10:M10"/>
-    <mergeCell ref="L11:M11"/>
-    <mergeCell ref="L12:M12"/>
-    <mergeCell ref="L13:M13"/>
-    <mergeCell ref="L14:M14"/>
-    <mergeCell ref="L15:M15"/>
-    <mergeCell ref="L16:M16"/>
-    <mergeCell ref="L17:M17"/>
-    <mergeCell ref="L18:M18"/>
-    <mergeCell ref="L19:M19"/>
-    <mergeCell ref="L20:M20"/>
     <mergeCell ref="L9:M9"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="D1:H1"/>
@@ -5820,6 +5808,18 @@
     <mergeCell ref="L6:M6"/>
     <mergeCell ref="L7:M7"/>
     <mergeCell ref="L8:M8"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="L20:M20"/>
   </mergeCells>
   <phoneticPr fontId="6"/>
   <pageMargins left="0.35433070866141736" right="0.35433070866141736" top="0.19685039370078741" bottom="0.19685039370078741" header="0.23622047244094491" footer="0.23622047244094491"/>
@@ -5856,25 +5856,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="15" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A1" s="97" t="s">
+      <c r="A1" s="79" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="97"/>
+      <c r="B1" s="79"/>
       <c r="C1" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="98" t="s">
+      <c r="D1" s="80" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="98"/>
-      <c r="F1" s="98"/>
-      <c r="G1" s="98"/>
-      <c r="H1" s="99"/>
-      <c r="I1" s="100" t="s">
+      <c r="E1" s="80"/>
+      <c r="F1" s="80"/>
+      <c r="G1" s="80"/>
+      <c r="H1" s="81"/>
+      <c r="I1" s="82" t="s">
         <v>14</v>
       </c>
-      <c r="J1" s="98"/>
-      <c r="K1" s="99"/>
+      <c r="J1" s="80"/>
+      <c r="K1" s="81"/>
       <c r="L1" s="12" t="s">
         <v>1</v>
       </c>
@@ -5884,29 +5884,29 @@
       <c r="N1" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="O1" s="101">
+      <c r="O1" s="83">
         <v>45482</v>
       </c>
-      <c r="P1" s="102"/>
+      <c r="P1" s="84"/>
     </row>
     <row r="2" spans="1:16" ht="20.25" customHeight="1">
-      <c r="A2" s="97"/>
-      <c r="B2" s="97"/>
+      <c r="A2" s="79"/>
+      <c r="B2" s="79"/>
       <c r="C2" s="16" t="s">
         <v>245</v>
       </c>
-      <c r="D2" s="103" t="s">
+      <c r="D2" s="85" t="s">
         <v>70</v>
       </c>
-      <c r="E2" s="103"/>
-      <c r="F2" s="103"/>
-      <c r="G2" s="103"/>
-      <c r="H2" s="104"/>
-      <c r="I2" s="105" t="s">
+      <c r="E2" s="85"/>
+      <c r="F2" s="85"/>
+      <c r="G2" s="85"/>
+      <c r="H2" s="86"/>
+      <c r="I2" s="87" t="s">
         <v>69</v>
       </c>
-      <c r="J2" s="103"/>
-      <c r="K2" s="104"/>
+      <c r="J2" s="85"/>
+      <c r="K2" s="86"/>
       <c r="L2" s="17" t="s">
         <v>2</v>
       </c>
@@ -5914,48 +5914,48 @@
       <c r="N2" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="O2" s="106"/>
-      <c r="P2" s="104"/>
+      <c r="O2" s="88"/>
+      <c r="P2" s="86"/>
     </row>
     <row r="3" spans="1:16" ht="20.25" customHeight="1">
-      <c r="A3" s="81" t="s">
+      <c r="A3" s="91" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="82"/>
-      <c r="C3" s="85" t="s">
+      <c r="B3" s="92"/>
+      <c r="C3" s="95" t="s">
         <v>182</v>
       </c>
-      <c r="D3" s="86"/>
-      <c r="E3" s="86"/>
-      <c r="F3" s="86"/>
-      <c r="G3" s="86"/>
-      <c r="H3" s="86"/>
-      <c r="I3" s="86"/>
-      <c r="J3" s="86"/>
-      <c r="K3" s="86"/>
-      <c r="L3" s="86"/>
-      <c r="M3" s="86"/>
-      <c r="N3" s="86"/>
-      <c r="O3" s="86"/>
-      <c r="P3" s="87"/>
+      <c r="D3" s="96"/>
+      <c r="E3" s="96"/>
+      <c r="F3" s="96"/>
+      <c r="G3" s="96"/>
+      <c r="H3" s="96"/>
+      <c r="I3" s="96"/>
+      <c r="J3" s="96"/>
+      <c r="K3" s="96"/>
+      <c r="L3" s="96"/>
+      <c r="M3" s="96"/>
+      <c r="N3" s="96"/>
+      <c r="O3" s="96"/>
+      <c r="P3" s="97"/>
     </row>
     <row r="4" spans="1:16" ht="20.25" customHeight="1">
-      <c r="A4" s="83"/>
-      <c r="B4" s="84"/>
-      <c r="C4" s="88"/>
-      <c r="D4" s="89"/>
-      <c r="E4" s="89"/>
-      <c r="F4" s="89"/>
-      <c r="G4" s="89"/>
-      <c r="H4" s="89"/>
-      <c r="I4" s="89"/>
-      <c r="J4" s="89"/>
-      <c r="K4" s="89"/>
-      <c r="L4" s="89"/>
-      <c r="M4" s="89"/>
-      <c r="N4" s="89"/>
-      <c r="O4" s="89"/>
-      <c r="P4" s="90"/>
+      <c r="A4" s="93"/>
+      <c r="B4" s="94"/>
+      <c r="C4" s="98"/>
+      <c r="D4" s="99"/>
+      <c r="E4" s="99"/>
+      <c r="F4" s="99"/>
+      <c r="G4" s="99"/>
+      <c r="H4" s="99"/>
+      <c r="I4" s="99"/>
+      <c r="J4" s="99"/>
+      <c r="K4" s="99"/>
+      <c r="L4" s="99"/>
+      <c r="M4" s="99"/>
+      <c r="N4" s="99"/>
+      <c r="O4" s="99"/>
+      <c r="P4" s="100"/>
     </row>
     <row r="5" spans="1:16" ht="20.25" customHeight="1">
       <c r="B5" s="20"/>
@@ -5996,10 +5996,10 @@
       <c r="K6" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="L6" s="91" t="s">
+      <c r="L6" s="101" t="s">
         <v>27</v>
       </c>
-      <c r="M6" s="92"/>
+      <c r="M6" s="102"/>
       <c r="N6" s="26" t="s">
         <v>28</v>
       </c>
@@ -6045,7 +6045,7 @@
       <c r="L7" s="107" t="s">
         <v>190</v>
       </c>
-      <c r="M7" s="94"/>
+      <c r="M7" s="104"/>
       <c r="N7" s="39"/>
       <c r="O7" s="35"/>
       <c r="P7" s="40"/>
@@ -6074,8 +6074,8 @@
       <c r="I8" s="36"/>
       <c r="J8" s="35"/>
       <c r="K8" s="35"/>
-      <c r="L8" s="95"/>
-      <c r="M8" s="96"/>
+      <c r="L8" s="105"/>
+      <c r="M8" s="106"/>
       <c r="N8" s="39"/>
       <c r="O8" s="35"/>
       <c r="P8" s="40"/>
@@ -6104,8 +6104,8 @@
       <c r="I9" s="36"/>
       <c r="J9" s="35"/>
       <c r="K9" s="35"/>
-      <c r="L9" s="79"/>
-      <c r="M9" s="80"/>
+      <c r="L9" s="89"/>
+      <c r="M9" s="90"/>
       <c r="N9" s="39"/>
       <c r="O9" s="35"/>
       <c r="P9" s="40"/>
@@ -6134,8 +6134,8 @@
       <c r="I10" s="36"/>
       <c r="J10" s="35"/>
       <c r="K10" s="35"/>
-      <c r="L10" s="79"/>
-      <c r="M10" s="80"/>
+      <c r="L10" s="89"/>
+      <c r="M10" s="90"/>
       <c r="N10" s="39"/>
       <c r="O10" s="35"/>
       <c r="P10" s="40"/>
@@ -6164,8 +6164,8 @@
       <c r="I11" s="36"/>
       <c r="J11" s="35"/>
       <c r="K11" s="35"/>
-      <c r="L11" s="79"/>
-      <c r="M11" s="80"/>
+      <c r="L11" s="89"/>
+      <c r="M11" s="90"/>
       <c r="N11" s="39"/>
       <c r="O11" s="35"/>
       <c r="P11" s="40"/>
@@ -6190,8 +6190,8 @@
       <c r="I12" s="36"/>
       <c r="J12" s="35"/>
       <c r="K12" s="35"/>
-      <c r="L12" s="79"/>
-      <c r="M12" s="80"/>
+      <c r="L12" s="89"/>
+      <c r="M12" s="90"/>
       <c r="N12" s="39"/>
       <c r="O12" s="35"/>
       <c r="P12" s="40"/>
@@ -6218,8 +6218,8 @@
       <c r="I13" s="36"/>
       <c r="J13" s="35"/>
       <c r="K13" s="35"/>
-      <c r="L13" s="79"/>
-      <c r="M13" s="80"/>
+      <c r="L13" s="89"/>
+      <c r="M13" s="90"/>
       <c r="N13" s="39"/>
       <c r="O13" s="35"/>
       <c r="P13" s="40"/>
@@ -6246,8 +6246,8 @@
       <c r="I14" s="36"/>
       <c r="J14" s="35"/>
       <c r="K14" s="35"/>
-      <c r="L14" s="79"/>
-      <c r="M14" s="80"/>
+      <c r="L14" s="89"/>
+      <c r="M14" s="90"/>
       <c r="N14" s="39"/>
       <c r="O14" s="35"/>
       <c r="P14" s="40"/>
@@ -6278,8 +6278,8 @@
       <c r="K15" s="35">
         <v>0</v>
       </c>
-      <c r="L15" s="79"/>
-      <c r="M15" s="80"/>
+      <c r="L15" s="89"/>
+      <c r="M15" s="90"/>
       <c r="N15" s="39"/>
       <c r="O15" s="35"/>
       <c r="P15" s="40"/>
@@ -6308,8 +6308,8 @@
       <c r="I16" s="36"/>
       <c r="J16" s="35"/>
       <c r="K16" s="35"/>
-      <c r="L16" s="79"/>
-      <c r="M16" s="80"/>
+      <c r="L16" s="89"/>
+      <c r="M16" s="90"/>
       <c r="N16" s="39"/>
       <c r="O16" s="35"/>
       <c r="P16" s="40"/>
@@ -6340,8 +6340,8 @@
       <c r="K17" s="35" t="s">
         <v>68</v>
       </c>
-      <c r="L17" s="79"/>
-      <c r="M17" s="80"/>
+      <c r="L17" s="89"/>
+      <c r="M17" s="90"/>
       <c r="N17" s="39"/>
       <c r="O17" s="35"/>
       <c r="P17" s="40"/>
@@ -6370,8 +6370,8 @@
       <c r="I18" s="36"/>
       <c r="J18" s="35"/>
       <c r="K18" s="35"/>
-      <c r="L18" s="79"/>
-      <c r="M18" s="80"/>
+      <c r="L18" s="89"/>
+      <c r="M18" s="90"/>
       <c r="N18" s="39"/>
       <c r="O18" s="35"/>
       <c r="P18" s="40"/>
@@ -6402,8 +6402,8 @@
       <c r="K19" s="35" t="s">
         <v>67</v>
       </c>
-      <c r="L19" s="79"/>
-      <c r="M19" s="80"/>
+      <c r="L19" s="89"/>
+      <c r="M19" s="90"/>
       <c r="N19" s="39"/>
       <c r="O19" s="35"/>
       <c r="P19" s="40"/>
@@ -6422,8 +6422,8 @@
       <c r="I20" s="36"/>
       <c r="J20" s="35"/>
       <c r="K20" s="35"/>
-      <c r="L20" s="79"/>
-      <c r="M20" s="80"/>
+      <c r="L20" s="89"/>
+      <c r="M20" s="90"/>
       <c r="N20" s="39"/>
       <c r="O20" s="35"/>
       <c r="P20" s="40"/>
@@ -6442,26 +6442,14 @@
       <c r="I21" s="36"/>
       <c r="J21" s="35"/>
       <c r="K21" s="35"/>
-      <c r="L21" s="79"/>
-      <c r="M21" s="80"/>
+      <c r="L21" s="89"/>
+      <c r="M21" s="90"/>
       <c r="N21" s="39"/>
       <c r="O21" s="35"/>
       <c r="P21" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="L21:M21"/>
-    <mergeCell ref="L10:M10"/>
-    <mergeCell ref="L11:M11"/>
-    <mergeCell ref="L12:M12"/>
-    <mergeCell ref="L13:M13"/>
-    <mergeCell ref="L14:M14"/>
-    <mergeCell ref="L15:M15"/>
-    <mergeCell ref="L16:M16"/>
-    <mergeCell ref="L17:M17"/>
-    <mergeCell ref="L18:M18"/>
-    <mergeCell ref="L19:M19"/>
-    <mergeCell ref="L20:M20"/>
     <mergeCell ref="L9:M9"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="D1:H1"/>
@@ -6475,6 +6463,18 @@
     <mergeCell ref="L6:M6"/>
     <mergeCell ref="L7:M7"/>
     <mergeCell ref="L8:M8"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="L20:M20"/>
   </mergeCells>
   <phoneticPr fontId="6"/>
   <pageMargins left="0.35433070866141736" right="0.35433070866141736" top="0.19685039370078741" bottom="0.19685039370078741" header="0.23622047244094491" footer="0.23622047244094491"/>
@@ -6511,25 +6511,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="15" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A1" s="97" t="s">
+      <c r="A1" s="79" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="97"/>
+      <c r="B1" s="79"/>
       <c r="C1" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="98" t="s">
+      <c r="D1" s="80" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="98"/>
-      <c r="F1" s="98"/>
-      <c r="G1" s="98"/>
-      <c r="H1" s="99"/>
-      <c r="I1" s="100" t="s">
+      <c r="E1" s="80"/>
+      <c r="F1" s="80"/>
+      <c r="G1" s="80"/>
+      <c r="H1" s="81"/>
+      <c r="I1" s="82" t="s">
         <v>14</v>
       </c>
-      <c r="J1" s="98"/>
-      <c r="K1" s="99"/>
+      <c r="J1" s="80"/>
+      <c r="K1" s="81"/>
       <c r="L1" s="12" t="s">
         <v>1</v>
       </c>
@@ -6539,29 +6539,29 @@
       <c r="N1" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="O1" s="101">
+      <c r="O1" s="83">
         <v>45481</v>
       </c>
-      <c r="P1" s="102"/>
+      <c r="P1" s="84"/>
     </row>
     <row r="2" spans="1:16" ht="20.25" customHeight="1">
-      <c r="A2" s="97"/>
-      <c r="B2" s="97"/>
+      <c r="A2" s="79"/>
+      <c r="B2" s="79"/>
       <c r="C2" s="16" t="s">
         <v>246</v>
       </c>
-      <c r="D2" s="103" t="s">
+      <c r="D2" s="85" t="s">
         <v>214</v>
       </c>
-      <c r="E2" s="103"/>
-      <c r="F2" s="103"/>
-      <c r="G2" s="103"/>
-      <c r="H2" s="104"/>
-      <c r="I2" s="105" t="s">
+      <c r="E2" s="85"/>
+      <c r="F2" s="85"/>
+      <c r="G2" s="85"/>
+      <c r="H2" s="86"/>
+      <c r="I2" s="87" t="s">
         <v>121</v>
       </c>
-      <c r="J2" s="103"/>
-      <c r="K2" s="104"/>
+      <c r="J2" s="85"/>
+      <c r="K2" s="86"/>
       <c r="L2" s="17" t="s">
         <v>2</v>
       </c>
@@ -6569,48 +6569,48 @@
       <c r="N2" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="O2" s="106"/>
-      <c r="P2" s="104"/>
+      <c r="O2" s="88"/>
+      <c r="P2" s="86"/>
     </row>
     <row r="3" spans="1:16" ht="20.25" customHeight="1">
-      <c r="A3" s="81" t="s">
+      <c r="A3" s="91" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="82"/>
-      <c r="C3" s="85" t="s">
+      <c r="B3" s="92"/>
+      <c r="C3" s="95" t="s">
         <v>216</v>
       </c>
-      <c r="D3" s="86"/>
-      <c r="E3" s="86"/>
-      <c r="F3" s="86"/>
-      <c r="G3" s="86"/>
-      <c r="H3" s="86"/>
-      <c r="I3" s="86"/>
-      <c r="J3" s="86"/>
-      <c r="K3" s="86"/>
-      <c r="L3" s="86"/>
-      <c r="M3" s="86"/>
-      <c r="N3" s="86"/>
-      <c r="O3" s="86"/>
-      <c r="P3" s="87"/>
+      <c r="D3" s="96"/>
+      <c r="E3" s="96"/>
+      <c r="F3" s="96"/>
+      <c r="G3" s="96"/>
+      <c r="H3" s="96"/>
+      <c r="I3" s="96"/>
+      <c r="J3" s="96"/>
+      <c r="K3" s="96"/>
+      <c r="L3" s="96"/>
+      <c r="M3" s="96"/>
+      <c r="N3" s="96"/>
+      <c r="O3" s="96"/>
+      <c r="P3" s="97"/>
     </row>
     <row r="4" spans="1:16" ht="20.25" customHeight="1">
-      <c r="A4" s="83"/>
-      <c r="B4" s="84"/>
-      <c r="C4" s="88"/>
-      <c r="D4" s="89"/>
-      <c r="E4" s="89"/>
-      <c r="F4" s="89"/>
-      <c r="G4" s="89"/>
-      <c r="H4" s="89"/>
-      <c r="I4" s="89"/>
-      <c r="J4" s="89"/>
-      <c r="K4" s="89"/>
-      <c r="L4" s="89"/>
-      <c r="M4" s="89"/>
-      <c r="N4" s="89"/>
-      <c r="O4" s="89"/>
-      <c r="P4" s="90"/>
+      <c r="A4" s="93"/>
+      <c r="B4" s="94"/>
+      <c r="C4" s="98"/>
+      <c r="D4" s="99"/>
+      <c r="E4" s="99"/>
+      <c r="F4" s="99"/>
+      <c r="G4" s="99"/>
+      <c r="H4" s="99"/>
+      <c r="I4" s="99"/>
+      <c r="J4" s="99"/>
+      <c r="K4" s="99"/>
+      <c r="L4" s="99"/>
+      <c r="M4" s="99"/>
+      <c r="N4" s="99"/>
+      <c r="O4" s="99"/>
+      <c r="P4" s="100"/>
     </row>
     <row r="5" spans="1:16" ht="20.25" customHeight="1">
       <c r="B5" s="20"/>
@@ -6651,10 +6651,10 @@
       <c r="K6" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="L6" s="91" t="s">
+      <c r="L6" s="101" t="s">
         <v>27</v>
       </c>
-      <c r="M6" s="92"/>
+      <c r="M6" s="102"/>
       <c r="N6" s="26" t="s">
         <v>28</v>
       </c>
@@ -6698,7 +6698,7 @@
       <c r="L7" s="107" t="s">
         <v>190</v>
       </c>
-      <c r="M7" s="94"/>
+      <c r="M7" s="104"/>
       <c r="N7" s="39"/>
       <c r="O7" s="35"/>
       <c r="P7" s="40"/>
@@ -6733,10 +6733,10 @@
         <v>31</v>
       </c>
       <c r="K8" s="35"/>
-      <c r="L8" s="95" t="s">
+      <c r="L8" s="105" t="s">
         <v>243</v>
       </c>
-      <c r="M8" s="96"/>
+      <c r="M8" s="106"/>
       <c r="N8" s="39"/>
       <c r="O8" s="35"/>
       <c r="P8" s="40"/>
@@ -6771,10 +6771,10 @@
         <v>31</v>
       </c>
       <c r="K9" s="35"/>
-      <c r="L9" s="79" t="s">
+      <c r="L9" s="89" t="s">
         <v>244</v>
       </c>
-      <c r="M9" s="80"/>
+      <c r="M9" s="90"/>
       <c r="N9" s="39"/>
       <c r="O9" s="35"/>
       <c r="P9" s="40"/>
@@ -6809,10 +6809,10 @@
         <v>31</v>
       </c>
       <c r="K10" s="35"/>
-      <c r="L10" s="79" t="s">
+      <c r="L10" s="89" t="s">
         <v>242</v>
       </c>
-      <c r="M10" s="80"/>
+      <c r="M10" s="90"/>
       <c r="N10" s="39"/>
       <c r="O10" s="35"/>
       <c r="P10" s="40"/>
@@ -6839,8 +6839,8 @@
       <c r="I11" s="36"/>
       <c r="J11" s="35"/>
       <c r="K11" s="35"/>
-      <c r="L11" s="79"/>
-      <c r="M11" s="80"/>
+      <c r="L11" s="89"/>
+      <c r="M11" s="90"/>
       <c r="N11" s="39"/>
       <c r="O11" s="35"/>
       <c r="P11" s="40"/>
@@ -6867,8 +6867,8 @@
       <c r="I12" s="36"/>
       <c r="J12" s="35"/>
       <c r="K12" s="35"/>
-      <c r="L12" s="79"/>
-      <c r="M12" s="80"/>
+      <c r="L12" s="89"/>
+      <c r="M12" s="90"/>
       <c r="N12" s="39"/>
       <c r="O12" s="35"/>
       <c r="P12" s="40"/>
@@ -6895,8 +6895,8 @@
       <c r="I13" s="36"/>
       <c r="J13" s="35"/>
       <c r="K13" s="35"/>
-      <c r="L13" s="79"/>
-      <c r="M13" s="80"/>
+      <c r="L13" s="89"/>
+      <c r="M13" s="90"/>
       <c r="N13" s="39"/>
       <c r="O13" s="35"/>
       <c r="P13" s="40"/>
@@ -6923,8 +6923,8 @@
       <c r="I14" s="36"/>
       <c r="J14" s="35"/>
       <c r="K14" s="35"/>
-      <c r="L14" s="79"/>
-      <c r="M14" s="80"/>
+      <c r="L14" s="89"/>
+      <c r="M14" s="90"/>
       <c r="N14" s="39"/>
       <c r="O14" s="35"/>
       <c r="P14" s="40"/>
@@ -6949,8 +6949,8 @@
       <c r="I15" s="36"/>
       <c r="J15" s="35"/>
       <c r="K15" s="35"/>
-      <c r="L15" s="79"/>
-      <c r="M15" s="80"/>
+      <c r="L15" s="89"/>
+      <c r="M15" s="90"/>
       <c r="N15" s="39"/>
       <c r="O15" s="35"/>
       <c r="P15" s="40"/>
@@ -6975,8 +6975,8 @@
       <c r="I16" s="36"/>
       <c r="J16" s="35"/>
       <c r="K16" s="35"/>
-      <c r="L16" s="79"/>
-      <c r="M16" s="80"/>
+      <c r="L16" s="89"/>
+      <c r="M16" s="90"/>
       <c r="N16" s="39"/>
       <c r="O16" s="35"/>
       <c r="P16" s="40"/>
@@ -7001,8 +7001,8 @@
       <c r="I17" s="36"/>
       <c r="J17" s="35"/>
       <c r="K17" s="35"/>
-      <c r="L17" s="79"/>
-      <c r="M17" s="80"/>
+      <c r="L17" s="89"/>
+      <c r="M17" s="90"/>
       <c r="N17" s="39"/>
       <c r="O17" s="35"/>
       <c r="P17" s="40"/>
@@ -7032,7 +7032,7 @@
       <c r="L18" s="108" t="s">
         <v>200</v>
       </c>
-      <c r="M18" s="80"/>
+      <c r="M18" s="90"/>
       <c r="N18" s="39" t="s">
         <v>201</v>
       </c>
@@ -7060,8 +7060,8 @@
       <c r="H19" s="36"/>
       <c r="I19" s="36"/>
       <c r="J19" s="35"/>
-      <c r="L19" s="79"/>
-      <c r="M19" s="80"/>
+      <c r="L19" s="89"/>
+      <c r="M19" s="90"/>
       <c r="N19" s="39"/>
       <c r="O19" s="35"/>
       <c r="P19" s="40"/>
@@ -7088,8 +7088,8 @@
       <c r="I20" s="36"/>
       <c r="J20" s="35"/>
       <c r="K20" s="35"/>
-      <c r="L20" s="79"/>
-      <c r="M20" s="80"/>
+      <c r="L20" s="89"/>
+      <c r="M20" s="90"/>
       <c r="N20" s="39"/>
       <c r="O20" s="35"/>
       <c r="P20" s="40"/>
@@ -7120,8 +7120,8 @@
       <c r="K21" s="35">
         <v>0</v>
       </c>
-      <c r="L21" s="79"/>
-      <c r="M21" s="80"/>
+      <c r="L21" s="89"/>
+      <c r="M21" s="90"/>
       <c r="N21" s="39"/>
       <c r="O21" s="35"/>
       <c r="P21" s="40"/>
@@ -7150,8 +7150,8 @@
       <c r="I22" s="36"/>
       <c r="J22" s="35"/>
       <c r="K22" s="35"/>
-      <c r="L22" s="79"/>
-      <c r="M22" s="80"/>
+      <c r="L22" s="89"/>
+      <c r="M22" s="90"/>
       <c r="N22" s="39"/>
       <c r="O22" s="35"/>
       <c r="P22" s="40"/>
@@ -7180,8 +7180,8 @@
       <c r="K23" s="35" t="s">
         <v>68</v>
       </c>
-      <c r="L23" s="79"/>
-      <c r="M23" s="80"/>
+      <c r="L23" s="89"/>
+      <c r="M23" s="90"/>
       <c r="N23" s="39"/>
       <c r="O23" s="35"/>
       <c r="P23" s="40"/>
@@ -7210,8 +7210,8 @@
       <c r="I24" s="36"/>
       <c r="J24" s="35"/>
       <c r="K24" s="35"/>
-      <c r="L24" s="79"/>
-      <c r="M24" s="80"/>
+      <c r="L24" s="89"/>
+      <c r="M24" s="90"/>
       <c r="N24" s="39"/>
       <c r="O24" s="35"/>
       <c r="P24" s="40"/>
@@ -7240,8 +7240,8 @@
       <c r="K25" s="35" t="s">
         <v>68</v>
       </c>
-      <c r="L25" s="79"/>
-      <c r="M25" s="80"/>
+      <c r="L25" s="89"/>
+      <c r="M25" s="90"/>
       <c r="N25" s="39"/>
       <c r="O25" s="35"/>
       <c r="P25" s="40"/>
@@ -7260,8 +7260,8 @@
       <c r="I26" s="36"/>
       <c r="J26" s="35"/>
       <c r="K26" s="35"/>
-      <c r="L26" s="79"/>
-      <c r="M26" s="80"/>
+      <c r="L26" s="89"/>
+      <c r="M26" s="90"/>
       <c r="N26" s="39"/>
       <c r="O26" s="35"/>
       <c r="P26" s="40"/>
@@ -7280,14 +7280,33 @@
       <c r="I27" s="36"/>
       <c r="J27" s="35"/>
       <c r="K27" s="35"/>
-      <c r="L27" s="79"/>
-      <c r="M27" s="80"/>
+      <c r="L27" s="89"/>
+      <c r="M27" s="90"/>
       <c r="N27" s="39"/>
       <c r="O27" s="35"/>
       <c r="P27" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="31">
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="D1:H1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="O1:P1"/>
+    <mergeCell ref="D2:H2"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="O2:P2"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="A3:B4"/>
+    <mergeCell ref="C3:P4"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="L14:M14"/>
     <mergeCell ref="L27:M27"/>
     <mergeCell ref="L16:M16"/>
     <mergeCell ref="L17:M17"/>
@@ -7300,25 +7319,6 @@
     <mergeCell ref="L24:M24"/>
     <mergeCell ref="L25:M25"/>
     <mergeCell ref="L26:M26"/>
-    <mergeCell ref="L15:M15"/>
-    <mergeCell ref="A3:B4"/>
-    <mergeCell ref="C3:P4"/>
-    <mergeCell ref="L6:M6"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="L8:M8"/>
-    <mergeCell ref="L9:M9"/>
-    <mergeCell ref="L10:M10"/>
-    <mergeCell ref="L11:M11"/>
-    <mergeCell ref="L12:M12"/>
-    <mergeCell ref="L13:M13"/>
-    <mergeCell ref="L14:M14"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="D1:H1"/>
-    <mergeCell ref="I1:K1"/>
-    <mergeCell ref="O1:P1"/>
-    <mergeCell ref="D2:H2"/>
-    <mergeCell ref="I2:K2"/>
-    <mergeCell ref="O2:P2"/>
   </mergeCells>
   <phoneticPr fontId="6"/>
   <pageMargins left="0.35433070866141736" right="0.35433070866141736" top="0.19685039370078741" bottom="0.19685039370078741" header="0.23622047244094491" footer="0.23622047244094491"/>
@@ -7355,25 +7355,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="15" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A1" s="97" t="s">
+      <c r="A1" s="79" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="97"/>
+      <c r="B1" s="79"/>
       <c r="C1" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="98" t="s">
+      <c r="D1" s="80" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="98"/>
-      <c r="F1" s="98"/>
-      <c r="G1" s="98"/>
-      <c r="H1" s="99"/>
-      <c r="I1" s="100" t="s">
+      <c r="E1" s="80"/>
+      <c r="F1" s="80"/>
+      <c r="G1" s="80"/>
+      <c r="H1" s="81"/>
+      <c r="I1" s="82" t="s">
         <v>14</v>
       </c>
-      <c r="J1" s="98"/>
-      <c r="K1" s="99"/>
+      <c r="J1" s="80"/>
+      <c r="K1" s="81"/>
       <c r="L1" s="12" t="s">
         <v>1</v>
       </c>
@@ -7383,29 +7383,29 @@
       <c r="N1" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="O1" s="101">
+      <c r="O1" s="83">
         <v>45481</v>
       </c>
-      <c r="P1" s="102"/>
+      <c r="P1" s="84"/>
     </row>
     <row r="2" spans="1:16" ht="20.25" customHeight="1">
-      <c r="A2" s="97"/>
-      <c r="B2" s="97"/>
+      <c r="A2" s="79"/>
+      <c r="B2" s="79"/>
       <c r="C2" s="16" t="s">
         <v>247</v>
       </c>
-      <c r="D2" s="103" t="s">
+      <c r="D2" s="85" t="s">
         <v>215</v>
       </c>
-      <c r="E2" s="103"/>
-      <c r="F2" s="103"/>
-      <c r="G2" s="103"/>
-      <c r="H2" s="104"/>
-      <c r="I2" s="105" t="s">
+      <c r="E2" s="85"/>
+      <c r="F2" s="85"/>
+      <c r="G2" s="85"/>
+      <c r="H2" s="86"/>
+      <c r="I2" s="87" t="s">
         <v>141</v>
       </c>
-      <c r="J2" s="103"/>
-      <c r="K2" s="104"/>
+      <c r="J2" s="85"/>
+      <c r="K2" s="86"/>
       <c r="L2" s="17" t="s">
         <v>2</v>
       </c>
@@ -7413,48 +7413,48 @@
       <c r="N2" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="O2" s="106"/>
-      <c r="P2" s="104"/>
+      <c r="O2" s="88"/>
+      <c r="P2" s="86"/>
     </row>
     <row r="3" spans="1:16" ht="20.25" customHeight="1">
-      <c r="A3" s="81" t="s">
+      <c r="A3" s="91" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="82"/>
-      <c r="C3" s="85" t="s">
+      <c r="B3" s="92"/>
+      <c r="C3" s="95" t="s">
         <v>215</v>
       </c>
-      <c r="D3" s="86"/>
-      <c r="E3" s="86"/>
-      <c r="F3" s="86"/>
-      <c r="G3" s="86"/>
-      <c r="H3" s="86"/>
-      <c r="I3" s="86"/>
-      <c r="J3" s="86"/>
-      <c r="K3" s="86"/>
-      <c r="L3" s="86"/>
-      <c r="M3" s="86"/>
-      <c r="N3" s="86"/>
-      <c r="O3" s="86"/>
-      <c r="P3" s="87"/>
+      <c r="D3" s="96"/>
+      <c r="E3" s="96"/>
+      <c r="F3" s="96"/>
+      <c r="G3" s="96"/>
+      <c r="H3" s="96"/>
+      <c r="I3" s="96"/>
+      <c r="J3" s="96"/>
+      <c r="K3" s="96"/>
+      <c r="L3" s="96"/>
+      <c r="M3" s="96"/>
+      <c r="N3" s="96"/>
+      <c r="O3" s="96"/>
+      <c r="P3" s="97"/>
     </row>
     <row r="4" spans="1:16" ht="20.25" customHeight="1">
-      <c r="A4" s="83"/>
-      <c r="B4" s="84"/>
-      <c r="C4" s="88"/>
-      <c r="D4" s="89"/>
-      <c r="E4" s="89"/>
-      <c r="F4" s="89"/>
-      <c r="G4" s="89"/>
-      <c r="H4" s="89"/>
-      <c r="I4" s="89"/>
-      <c r="J4" s="89"/>
-      <c r="K4" s="89"/>
-      <c r="L4" s="89"/>
-      <c r="M4" s="89"/>
-      <c r="N4" s="89"/>
-      <c r="O4" s="89"/>
-      <c r="P4" s="90"/>
+      <c r="A4" s="93"/>
+      <c r="B4" s="94"/>
+      <c r="C4" s="98"/>
+      <c r="D4" s="99"/>
+      <c r="E4" s="99"/>
+      <c r="F4" s="99"/>
+      <c r="G4" s="99"/>
+      <c r="H4" s="99"/>
+      <c r="I4" s="99"/>
+      <c r="J4" s="99"/>
+      <c r="K4" s="99"/>
+      <c r="L4" s="99"/>
+      <c r="M4" s="99"/>
+      <c r="N4" s="99"/>
+      <c r="O4" s="99"/>
+      <c r="P4" s="100"/>
     </row>
     <row r="5" spans="1:16" ht="20.25" customHeight="1">
       <c r="B5" s="20"/>
@@ -7495,10 +7495,10 @@
       <c r="K6" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="L6" s="91" t="s">
+      <c r="L6" s="101" t="s">
         <v>27</v>
       </c>
-      <c r="M6" s="92"/>
+      <c r="M6" s="102"/>
       <c r="N6" s="26" t="s">
         <v>28</v>
       </c>
@@ -7542,7 +7542,7 @@
       <c r="L7" s="107" t="s">
         <v>190</v>
       </c>
-      <c r="M7" s="94"/>
+      <c r="M7" s="104"/>
       <c r="N7" s="39"/>
       <c r="O7" s="35"/>
       <c r="P7" s="40"/>
@@ -7577,8 +7577,8 @@
         <v>31</v>
       </c>
       <c r="K8" s="35"/>
-      <c r="L8" s="95"/>
-      <c r="M8" s="96"/>
+      <c r="L8" s="105"/>
+      <c r="M8" s="106"/>
       <c r="N8" s="39"/>
       <c r="O8" s="35"/>
       <c r="P8" s="40"/>
@@ -7605,8 +7605,8 @@
       <c r="I9" s="36"/>
       <c r="J9" s="35"/>
       <c r="K9" s="35"/>
-      <c r="L9" s="79"/>
-      <c r="M9" s="80"/>
+      <c r="L9" s="89"/>
+      <c r="M9" s="90"/>
       <c r="N9" s="39"/>
       <c r="O9" s="35"/>
       <c r="P9" s="40"/>
@@ -7633,8 +7633,8 @@
       <c r="I10" s="36"/>
       <c r="J10" s="35"/>
       <c r="K10" s="35"/>
-      <c r="L10" s="79"/>
-      <c r="M10" s="80"/>
+      <c r="L10" s="89"/>
+      <c r="M10" s="90"/>
       <c r="N10" s="39"/>
       <c r="O10" s="35"/>
       <c r="P10" s="40"/>
@@ -7661,8 +7661,8 @@
       <c r="I11" s="36"/>
       <c r="J11" s="35"/>
       <c r="K11" s="35"/>
-      <c r="L11" s="79"/>
-      <c r="M11" s="80"/>
+      <c r="L11" s="89"/>
+      <c r="M11" s="90"/>
       <c r="N11" s="39"/>
       <c r="O11" s="35"/>
       <c r="P11" s="40"/>
@@ -7693,8 +7693,8 @@
       <c r="K12" s="35">
         <v>0</v>
       </c>
-      <c r="L12" s="79"/>
-      <c r="M12" s="80"/>
+      <c r="L12" s="89"/>
+      <c r="M12" s="90"/>
       <c r="N12" s="39"/>
       <c r="O12" s="35"/>
       <c r="P12" s="40"/>
@@ -7723,8 +7723,8 @@
       <c r="I13" s="36"/>
       <c r="J13" s="35"/>
       <c r="K13" s="35"/>
-      <c r="L13" s="79"/>
-      <c r="M13" s="80"/>
+      <c r="L13" s="89"/>
+      <c r="M13" s="90"/>
       <c r="N13" s="39"/>
       <c r="O13" s="35"/>
       <c r="P13" s="40"/>
@@ -7753,10 +7753,10 @@
       <c r="I14" s="36"/>
       <c r="J14" s="35"/>
       <c r="K14" s="35"/>
-      <c r="L14" s="79" t="s">
+      <c r="L14" s="89" t="s">
         <v>202</v>
       </c>
-      <c r="M14" s="80"/>
+      <c r="M14" s="90"/>
       <c r="N14" s="39"/>
       <c r="O14" s="35"/>
       <c r="P14" s="40"/>
@@ -7785,8 +7785,8 @@
       <c r="I15" s="36"/>
       <c r="J15" s="35"/>
       <c r="K15" s="35"/>
-      <c r="L15" s="79"/>
-      <c r="M15" s="80"/>
+      <c r="L15" s="89"/>
+      <c r="M15" s="90"/>
       <c r="N15" s="39"/>
       <c r="O15" s="35"/>
       <c r="P15" s="40"/>
@@ -7815,8 +7815,8 @@
       <c r="I16" s="36"/>
       <c r="J16" s="35"/>
       <c r="K16" s="35"/>
-      <c r="L16" s="79"/>
-      <c r="M16" s="80"/>
+      <c r="L16" s="89"/>
+      <c r="M16" s="90"/>
       <c r="N16" s="39"/>
       <c r="O16" s="35"/>
       <c r="P16" s="40"/>
@@ -7843,8 +7843,8 @@
       <c r="I17" s="36"/>
       <c r="J17" s="35"/>
       <c r="K17" s="35"/>
-      <c r="L17" s="79"/>
-      <c r="M17" s="80"/>
+      <c r="L17" s="89"/>
+      <c r="M17" s="90"/>
       <c r="N17" s="39"/>
       <c r="O17" s="35"/>
       <c r="P17" s="40"/>
@@ -7871,8 +7871,8 @@
       <c r="K18" s="35" t="s">
         <v>68</v>
       </c>
-      <c r="L18" s="79"/>
-      <c r="M18" s="80"/>
+      <c r="L18" s="89"/>
+      <c r="M18" s="90"/>
       <c r="N18" s="39"/>
       <c r="O18" s="35"/>
       <c r="P18" s="40"/>
@@ -7899,8 +7899,8 @@
       <c r="I19" s="36"/>
       <c r="J19" s="35"/>
       <c r="K19" s="35"/>
-      <c r="L19" s="79"/>
-      <c r="M19" s="80"/>
+      <c r="L19" s="89"/>
+      <c r="M19" s="90"/>
       <c r="N19" s="39"/>
       <c r="O19" s="35"/>
       <c r="P19" s="40"/>
@@ -7927,8 +7927,8 @@
       <c r="K20" s="35" t="s">
         <v>67</v>
       </c>
-      <c r="L20" s="79"/>
-      <c r="M20" s="80"/>
+      <c r="L20" s="89"/>
+      <c r="M20" s="90"/>
       <c r="N20" s="39"/>
       <c r="O20" s="35"/>
       <c r="P20" s="40"/>
@@ -7947,26 +7947,14 @@
       <c r="I21" s="36"/>
       <c r="J21" s="35"/>
       <c r="K21" s="35"/>
-      <c r="L21" s="79"/>
-      <c r="M21" s="80"/>
+      <c r="L21" s="89"/>
+      <c r="M21" s="90"/>
       <c r="N21" s="39"/>
       <c r="O21" s="35"/>
       <c r="P21" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="L21:M21"/>
-    <mergeCell ref="L10:M10"/>
-    <mergeCell ref="L11:M11"/>
-    <mergeCell ref="L12:M12"/>
-    <mergeCell ref="L13:M13"/>
-    <mergeCell ref="L14:M14"/>
-    <mergeCell ref="L15:M15"/>
-    <mergeCell ref="L16:M16"/>
-    <mergeCell ref="L17:M17"/>
-    <mergeCell ref="L18:M18"/>
-    <mergeCell ref="L19:M19"/>
-    <mergeCell ref="L20:M20"/>
     <mergeCell ref="L9:M9"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="D1:H1"/>
@@ -7980,6 +7968,18 @@
     <mergeCell ref="L6:M6"/>
     <mergeCell ref="L7:M7"/>
     <mergeCell ref="L8:M8"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="L20:M20"/>
   </mergeCells>
   <phoneticPr fontId="6"/>
   <pageMargins left="0.35433070866141736" right="0.35433070866141736" top="0.19685039370078741" bottom="0.19685039370078741" header="0.23622047244094491" footer="0.23622047244094491"/>
@@ -8016,25 +8016,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="15" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A1" s="97" t="s">
+      <c r="A1" s="79" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="97"/>
+      <c r="B1" s="79"/>
       <c r="C1" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="98" t="s">
+      <c r="D1" s="80" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="98"/>
-      <c r="F1" s="98"/>
-      <c r="G1" s="98"/>
-      <c r="H1" s="99"/>
-      <c r="I1" s="100" t="s">
+      <c r="E1" s="80"/>
+      <c r="F1" s="80"/>
+      <c r="G1" s="80"/>
+      <c r="H1" s="81"/>
+      <c r="I1" s="82" t="s">
         <v>14</v>
       </c>
-      <c r="J1" s="98"/>
-      <c r="K1" s="99"/>
+      <c r="J1" s="80"/>
+      <c r="K1" s="81"/>
       <c r="L1" s="12" t="s">
         <v>1</v>
       </c>
@@ -8044,29 +8044,29 @@
       <c r="N1" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="O1" s="101">
+      <c r="O1" s="83">
         <v>45481</v>
       </c>
-      <c r="P1" s="102"/>
+      <c r="P1" s="84"/>
     </row>
     <row r="2" spans="1:16" ht="20.25" customHeight="1">
-      <c r="A2" s="97"/>
-      <c r="B2" s="97"/>
+      <c r="A2" s="79"/>
+      <c r="B2" s="79"/>
       <c r="C2" s="16" t="s">
         <v>248</v>
       </c>
-      <c r="D2" s="103" t="s">
+      <c r="D2" s="85" t="s">
         <v>147</v>
       </c>
-      <c r="E2" s="103"/>
-      <c r="F2" s="103"/>
-      <c r="G2" s="103"/>
-      <c r="H2" s="104"/>
-      <c r="I2" s="105" t="s">
+      <c r="E2" s="85"/>
+      <c r="F2" s="85"/>
+      <c r="G2" s="85"/>
+      <c r="H2" s="86"/>
+      <c r="I2" s="87" t="s">
         <v>146</v>
       </c>
-      <c r="J2" s="103"/>
-      <c r="K2" s="104"/>
+      <c r="J2" s="85"/>
+      <c r="K2" s="86"/>
       <c r="L2" s="17" t="s">
         <v>2</v>
       </c>
@@ -8074,48 +8074,48 @@
       <c r="N2" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="O2" s="106"/>
-      <c r="P2" s="104"/>
+      <c r="O2" s="88"/>
+      <c r="P2" s="86"/>
     </row>
     <row r="3" spans="1:16" ht="20.25" customHeight="1">
-      <c r="A3" s="81" t="s">
+      <c r="A3" s="91" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="82"/>
-      <c r="C3" s="85" t="s">
+      <c r="B3" s="92"/>
+      <c r="C3" s="95" t="s">
         <v>239</v>
       </c>
-      <c r="D3" s="86"/>
-      <c r="E3" s="86"/>
-      <c r="F3" s="86"/>
-      <c r="G3" s="86"/>
-      <c r="H3" s="86"/>
-      <c r="I3" s="86"/>
-      <c r="J3" s="86"/>
-      <c r="K3" s="86"/>
-      <c r="L3" s="86"/>
-      <c r="M3" s="86"/>
-      <c r="N3" s="86"/>
-      <c r="O3" s="86"/>
-      <c r="P3" s="87"/>
+      <c r="D3" s="96"/>
+      <c r="E3" s="96"/>
+      <c r="F3" s="96"/>
+      <c r="G3" s="96"/>
+      <c r="H3" s="96"/>
+      <c r="I3" s="96"/>
+      <c r="J3" s="96"/>
+      <c r="K3" s="96"/>
+      <c r="L3" s="96"/>
+      <c r="M3" s="96"/>
+      <c r="N3" s="96"/>
+      <c r="O3" s="96"/>
+      <c r="P3" s="97"/>
     </row>
     <row r="4" spans="1:16" ht="20.25" customHeight="1">
-      <c r="A4" s="83"/>
-      <c r="B4" s="84"/>
-      <c r="C4" s="88"/>
-      <c r="D4" s="89"/>
-      <c r="E4" s="89"/>
-      <c r="F4" s="89"/>
-      <c r="G4" s="89"/>
-      <c r="H4" s="89"/>
-      <c r="I4" s="89"/>
-      <c r="J4" s="89"/>
-      <c r="K4" s="89"/>
-      <c r="L4" s="89"/>
-      <c r="M4" s="89"/>
-      <c r="N4" s="89"/>
-      <c r="O4" s="89"/>
-      <c r="P4" s="90"/>
+      <c r="A4" s="93"/>
+      <c r="B4" s="94"/>
+      <c r="C4" s="98"/>
+      <c r="D4" s="99"/>
+      <c r="E4" s="99"/>
+      <c r="F4" s="99"/>
+      <c r="G4" s="99"/>
+      <c r="H4" s="99"/>
+      <c r="I4" s="99"/>
+      <c r="J4" s="99"/>
+      <c r="K4" s="99"/>
+      <c r="L4" s="99"/>
+      <c r="M4" s="99"/>
+      <c r="N4" s="99"/>
+      <c r="O4" s="99"/>
+      <c r="P4" s="100"/>
     </row>
     <row r="5" spans="1:16" ht="20.25" customHeight="1">
       <c r="B5" s="20"/>
@@ -8156,10 +8156,10 @@
       <c r="K6" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="L6" s="91" t="s">
+      <c r="L6" s="101" t="s">
         <v>27</v>
       </c>
-      <c r="M6" s="92"/>
+      <c r="M6" s="102"/>
       <c r="N6" s="26" t="s">
         <v>28</v>
       </c>
@@ -8198,8 +8198,8 @@
         <v>31</v>
       </c>
       <c r="K7" s="35"/>
-      <c r="L7" s="93"/>
-      <c r="M7" s="94"/>
+      <c r="L7" s="103"/>
+      <c r="M7" s="104"/>
       <c r="N7" s="39"/>
       <c r="O7" s="35"/>
       <c r="P7" s="40"/>
@@ -8226,8 +8226,8 @@
       <c r="I8" s="36"/>
       <c r="J8" s="35"/>
       <c r="K8" s="35"/>
-      <c r="L8" s="95"/>
-      <c r="M8" s="96"/>
+      <c r="L8" s="105"/>
+      <c r="M8" s="106"/>
       <c r="N8" s="39"/>
       <c r="O8" s="35"/>
       <c r="P8" s="40"/>
@@ -8254,8 +8254,8 @@
       <c r="I9" s="36"/>
       <c r="J9" s="35"/>
       <c r="K9" s="35"/>
-      <c r="L9" s="79"/>
-      <c r="M9" s="80"/>
+      <c r="L9" s="89"/>
+      <c r="M9" s="90"/>
       <c r="N9" s="39"/>
       <c r="O9" s="35"/>
       <c r="P9" s="40"/>
@@ -8282,8 +8282,8 @@
       <c r="I10" s="36"/>
       <c r="J10" s="35"/>
       <c r="K10" s="35"/>
-      <c r="L10" s="79"/>
-      <c r="M10" s="80"/>
+      <c r="L10" s="89"/>
+      <c r="M10" s="90"/>
       <c r="N10" s="39"/>
       <c r="O10" s="35"/>
       <c r="P10" s="40"/>
@@ -8312,8 +8312,8 @@
       <c r="I11" s="36"/>
       <c r="J11" s="35"/>
       <c r="K11" s="35"/>
-      <c r="L11" s="79"/>
-      <c r="M11" s="80"/>
+      <c r="L11" s="89"/>
+      <c r="M11" s="90"/>
       <c r="N11" s="39"/>
       <c r="O11" s="35"/>
       <c r="P11" s="40"/>
@@ -8342,8 +8342,8 @@
       <c r="K12" s="35" t="s">
         <v>68</v>
       </c>
-      <c r="L12" s="79"/>
-      <c r="M12" s="80"/>
+      <c r="L12" s="89"/>
+      <c r="M12" s="90"/>
       <c r="N12" s="39"/>
       <c r="O12" s="35"/>
       <c r="P12" s="40"/>
@@ -8360,8 +8360,8 @@
       <c r="I13" s="36"/>
       <c r="J13" s="35"/>
       <c r="K13" s="35"/>
-      <c r="L13" s="79"/>
-      <c r="M13" s="80"/>
+      <c r="L13" s="89"/>
+      <c r="M13" s="90"/>
       <c r="N13" s="39"/>
       <c r="O13" s="35"/>
       <c r="P13" s="40"/>
@@ -8378,8 +8378,8 @@
       <c r="I14" s="36"/>
       <c r="J14" s="35"/>
       <c r="K14" s="35"/>
-      <c r="L14" s="79"/>
-      <c r="M14" s="80"/>
+      <c r="L14" s="89"/>
+      <c r="M14" s="90"/>
       <c r="N14" s="39"/>
       <c r="O14" s="35"/>
       <c r="P14" s="40"/>
@@ -8396,8 +8396,8 @@
       <c r="I15" s="36"/>
       <c r="J15" s="35"/>
       <c r="K15" s="35"/>
-      <c r="L15" s="79"/>
-      <c r="M15" s="80"/>
+      <c r="L15" s="89"/>
+      <c r="M15" s="90"/>
       <c r="N15" s="39"/>
       <c r="O15" s="35"/>
       <c r="P15" s="40"/>
@@ -8414,8 +8414,8 @@
       <c r="I16" s="36"/>
       <c r="J16" s="35"/>
       <c r="K16" s="35"/>
-      <c r="L16" s="79"/>
-      <c r="M16" s="80"/>
+      <c r="L16" s="89"/>
+      <c r="M16" s="90"/>
       <c r="N16" s="39"/>
       <c r="O16" s="35"/>
       <c r="P16" s="40"/>
@@ -8432,8 +8432,8 @@
       <c r="I17" s="36"/>
       <c r="J17" s="35"/>
       <c r="K17" s="35"/>
-      <c r="L17" s="79"/>
-      <c r="M17" s="80"/>
+      <c r="L17" s="89"/>
+      <c r="M17" s="90"/>
       <c r="N17" s="39"/>
       <c r="O17" s="35"/>
       <c r="P17" s="40"/>
@@ -8450,8 +8450,8 @@
       <c r="I18" s="36"/>
       <c r="J18" s="35"/>
       <c r="K18" s="35"/>
-      <c r="L18" s="79"/>
-      <c r="M18" s="80"/>
+      <c r="L18" s="89"/>
+      <c r="M18" s="90"/>
       <c r="N18" s="39"/>
       <c r="O18" s="35"/>
       <c r="P18" s="40"/>
@@ -8468,8 +8468,8 @@
       <c r="I19" s="36"/>
       <c r="J19" s="35"/>
       <c r="K19" s="35"/>
-      <c r="L19" s="79"/>
-      <c r="M19" s="80"/>
+      <c r="L19" s="89"/>
+      <c r="M19" s="90"/>
       <c r="N19" s="39"/>
       <c r="O19" s="35"/>
       <c r="P19" s="40"/>
@@ -8486,8 +8486,8 @@
       <c r="I20" s="36"/>
       <c r="J20" s="35"/>
       <c r="K20" s="35"/>
-      <c r="L20" s="79"/>
-      <c r="M20" s="80"/>
+      <c r="L20" s="89"/>
+      <c r="M20" s="90"/>
       <c r="N20" s="39"/>
       <c r="O20" s="35"/>
       <c r="P20" s="40"/>
@@ -8504,26 +8504,14 @@
       <c r="I21" s="36"/>
       <c r="J21" s="35"/>
       <c r="K21" s="35"/>
-      <c r="L21" s="79"/>
-      <c r="M21" s="80"/>
+      <c r="L21" s="89"/>
+      <c r="M21" s="90"/>
       <c r="N21" s="39"/>
       <c r="O21" s="35"/>
       <c r="P21" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="L21:M21"/>
-    <mergeCell ref="L10:M10"/>
-    <mergeCell ref="L11:M11"/>
-    <mergeCell ref="L12:M12"/>
-    <mergeCell ref="L13:M13"/>
-    <mergeCell ref="L14:M14"/>
-    <mergeCell ref="L15:M15"/>
-    <mergeCell ref="L16:M16"/>
-    <mergeCell ref="L17:M17"/>
-    <mergeCell ref="L18:M18"/>
-    <mergeCell ref="L19:M19"/>
-    <mergeCell ref="L20:M20"/>
     <mergeCell ref="L9:M9"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="D1:H1"/>
@@ -8537,6 +8525,18 @@
     <mergeCell ref="L6:M6"/>
     <mergeCell ref="L7:M7"/>
     <mergeCell ref="L8:M8"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="L20:M20"/>
   </mergeCells>
   <phoneticPr fontId="6"/>
   <pageMargins left="0.35433070866141736" right="0.35433070866141736" top="0.19685039370078741" bottom="0.19685039370078741" header="0.23622047244094491" footer="0.23622047244094491"/>
@@ -8573,25 +8573,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="15" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A1" s="97" t="s">
+      <c r="A1" s="79" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="97"/>
+      <c r="B1" s="79"/>
       <c r="C1" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="98" t="s">
+      <c r="D1" s="80" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="98"/>
-      <c r="F1" s="98"/>
-      <c r="G1" s="98"/>
-      <c r="H1" s="99"/>
-      <c r="I1" s="100" t="s">
+      <c r="E1" s="80"/>
+      <c r="F1" s="80"/>
+      <c r="G1" s="80"/>
+      <c r="H1" s="81"/>
+      <c r="I1" s="82" t="s">
         <v>14</v>
       </c>
-      <c r="J1" s="98"/>
-      <c r="K1" s="99"/>
+      <c r="J1" s="80"/>
+      <c r="K1" s="81"/>
       <c r="L1" s="12" t="s">
         <v>1</v>
       </c>
@@ -8601,29 +8601,29 @@
       <c r="N1" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="O1" s="101">
+      <c r="O1" s="83">
         <v>45481</v>
       </c>
-      <c r="P1" s="102"/>
+      <c r="P1" s="84"/>
     </row>
     <row r="2" spans="1:16" ht="20.25" customHeight="1">
-      <c r="A2" s="97"/>
-      <c r="B2" s="97"/>
+      <c r="A2" s="79"/>
+      <c r="B2" s="79"/>
       <c r="C2" s="16" t="s">
         <v>249</v>
       </c>
-      <c r="D2" s="103" t="s">
+      <c r="D2" s="85" t="s">
         <v>206</v>
       </c>
-      <c r="E2" s="103"/>
-      <c r="F2" s="103"/>
-      <c r="G2" s="103"/>
-      <c r="H2" s="104"/>
-      <c r="I2" s="105" t="s">
+      <c r="E2" s="85"/>
+      <c r="F2" s="85"/>
+      <c r="G2" s="85"/>
+      <c r="H2" s="86"/>
+      <c r="I2" s="87" t="s">
         <v>167</v>
       </c>
-      <c r="J2" s="103"/>
-      <c r="K2" s="104"/>
+      <c r="J2" s="85"/>
+      <c r="K2" s="86"/>
       <c r="L2" s="17" t="s">
         <v>2</v>
       </c>
@@ -8631,48 +8631,48 @@
       <c r="N2" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="O2" s="106"/>
-      <c r="P2" s="104"/>
+      <c r="O2" s="88"/>
+      <c r="P2" s="86"/>
     </row>
     <row r="3" spans="1:16" ht="20.25" customHeight="1">
-      <c r="A3" s="81" t="s">
+      <c r="A3" s="91" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="82"/>
-      <c r="C3" s="85" t="s">
+      <c r="B3" s="92"/>
+      <c r="C3" s="95" t="s">
         <v>217</v>
       </c>
-      <c r="D3" s="86"/>
-      <c r="E3" s="86"/>
-      <c r="F3" s="86"/>
-      <c r="G3" s="86"/>
-      <c r="H3" s="86"/>
-      <c r="I3" s="86"/>
-      <c r="J3" s="86"/>
-      <c r="K3" s="86"/>
-      <c r="L3" s="86"/>
-      <c r="M3" s="86"/>
-      <c r="N3" s="86"/>
-      <c r="O3" s="86"/>
-      <c r="P3" s="87"/>
+      <c r="D3" s="96"/>
+      <c r="E3" s="96"/>
+      <c r="F3" s="96"/>
+      <c r="G3" s="96"/>
+      <c r="H3" s="96"/>
+      <c r="I3" s="96"/>
+      <c r="J3" s="96"/>
+      <c r="K3" s="96"/>
+      <c r="L3" s="96"/>
+      <c r="M3" s="96"/>
+      <c r="N3" s="96"/>
+      <c r="O3" s="96"/>
+      <c r="P3" s="97"/>
     </row>
     <row r="4" spans="1:16" ht="20.25" customHeight="1">
-      <c r="A4" s="83"/>
-      <c r="B4" s="84"/>
-      <c r="C4" s="88"/>
-      <c r="D4" s="89"/>
-      <c r="E4" s="89"/>
-      <c r="F4" s="89"/>
-      <c r="G4" s="89"/>
-      <c r="H4" s="89"/>
-      <c r="I4" s="89"/>
-      <c r="J4" s="89"/>
-      <c r="K4" s="89"/>
-      <c r="L4" s="89"/>
-      <c r="M4" s="89"/>
-      <c r="N4" s="89"/>
-      <c r="O4" s="89"/>
-      <c r="P4" s="90"/>
+      <c r="A4" s="93"/>
+      <c r="B4" s="94"/>
+      <c r="C4" s="98"/>
+      <c r="D4" s="99"/>
+      <c r="E4" s="99"/>
+      <c r="F4" s="99"/>
+      <c r="G4" s="99"/>
+      <c r="H4" s="99"/>
+      <c r="I4" s="99"/>
+      <c r="J4" s="99"/>
+      <c r="K4" s="99"/>
+      <c r="L4" s="99"/>
+      <c r="M4" s="99"/>
+      <c r="N4" s="99"/>
+      <c r="O4" s="99"/>
+      <c r="P4" s="100"/>
     </row>
     <row r="5" spans="1:16" ht="20.25" customHeight="1">
       <c r="B5" s="20"/>
@@ -8713,10 +8713,10 @@
       <c r="K6" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="L6" s="91" t="s">
+      <c r="L6" s="101" t="s">
         <v>27</v>
       </c>
-      <c r="M6" s="92"/>
+      <c r="M6" s="102"/>
       <c r="N6" s="26" t="s">
         <v>28</v>
       </c>
@@ -8791,10 +8791,10 @@
       <c r="I8" s="36"/>
       <c r="J8" s="35"/>
       <c r="K8" s="35"/>
-      <c r="L8" s="95" t="s">
+      <c r="L8" s="105" t="s">
         <v>204</v>
       </c>
-      <c r="M8" s="96"/>
+      <c r="M8" s="106"/>
       <c r="N8" s="39"/>
       <c r="O8" s="35"/>
       <c r="P8" s="40"/>
@@ -8821,8 +8821,8 @@
       <c r="I9" s="36"/>
       <c r="J9" s="35"/>
       <c r="K9" s="35"/>
-      <c r="L9" s="79"/>
-      <c r="M9" s="80"/>
+      <c r="L9" s="89"/>
+      <c r="M9" s="90"/>
       <c r="N9" s="39"/>
       <c r="O9" s="35"/>
       <c r="P9" s="40"/>
@@ -8849,8 +8849,8 @@
       <c r="I10" s="36"/>
       <c r="J10" s="35"/>
       <c r="K10" s="35"/>
-      <c r="L10" s="79"/>
-      <c r="M10" s="80"/>
+      <c r="L10" s="89"/>
+      <c r="M10" s="90"/>
       <c r="N10" s="39"/>
       <c r="O10" s="35"/>
       <c r="P10" s="40"/>
@@ -8875,8 +8875,8 @@
       <c r="I11" s="36"/>
       <c r="J11" s="35"/>
       <c r="K11" s="35"/>
-      <c r="L11" s="79"/>
-      <c r="M11" s="80"/>
+      <c r="L11" s="89"/>
+      <c r="M11" s="90"/>
       <c r="N11" s="39"/>
       <c r="O11" s="35"/>
       <c r="P11" s="40"/>
@@ -8901,8 +8901,8 @@
       <c r="I12" s="36"/>
       <c r="J12" s="35"/>
       <c r="K12" s="35"/>
-      <c r="L12" s="79"/>
-      <c r="M12" s="80"/>
+      <c r="L12" s="89"/>
+      <c r="M12" s="90"/>
       <c r="N12" s="39"/>
       <c r="O12" s="35"/>
       <c r="P12" s="40"/>
@@ -8927,8 +8927,8 @@
       <c r="I13" s="36"/>
       <c r="J13" s="35"/>
       <c r="K13" s="35"/>
-      <c r="L13" s="79"/>
-      <c r="M13" s="80"/>
+      <c r="L13" s="89"/>
+      <c r="M13" s="90"/>
       <c r="N13" s="39"/>
       <c r="O13" s="35"/>
       <c r="P13" s="40"/>
@@ -8957,10 +8957,10 @@
       <c r="K14" s="35">
         <v>0</v>
       </c>
-      <c r="L14" s="79" t="s">
+      <c r="L14" s="89" t="s">
         <v>205</v>
       </c>
-      <c r="M14" s="80"/>
+      <c r="M14" s="90"/>
       <c r="N14" s="39"/>
       <c r="O14" s="35"/>
       <c r="P14" s="40"/>
@@ -8984,8 +8984,8 @@
       <c r="H15" s="36"/>
       <c r="I15" s="36"/>
       <c r="J15" s="35"/>
-      <c r="L15" s="79"/>
-      <c r="M15" s="80"/>
+      <c r="L15" s="89"/>
+      <c r="M15" s="90"/>
       <c r="N15" s="39"/>
       <c r="O15" s="35"/>
       <c r="P15" s="40"/>
@@ -9014,8 +9014,8 @@
       <c r="K16" s="35">
         <v>0</v>
       </c>
-      <c r="L16" s="79"/>
-      <c r="M16" s="80"/>
+      <c r="L16" s="89"/>
+      <c r="M16" s="90"/>
       <c r="N16" s="39"/>
       <c r="O16" s="35"/>
       <c r="P16" s="40"/>
@@ -9044,8 +9044,8 @@
       <c r="I17" s="36"/>
       <c r="J17" s="35"/>
       <c r="K17" s="35"/>
-      <c r="L17" s="79"/>
-      <c r="M17" s="80"/>
+      <c r="L17" s="89"/>
+      <c r="M17" s="90"/>
       <c r="N17" s="39"/>
       <c r="O17" s="35"/>
       <c r="P17" s="40"/>
@@ -9074,8 +9074,8 @@
       <c r="K18" s="35" t="s">
         <v>68</v>
       </c>
-      <c r="L18" s="79"/>
-      <c r="M18" s="80"/>
+      <c r="L18" s="89"/>
+      <c r="M18" s="90"/>
       <c r="N18" s="39"/>
       <c r="O18" s="35"/>
       <c r="P18" s="40"/>
@@ -9104,8 +9104,8 @@
       <c r="I19" s="36"/>
       <c r="J19" s="35"/>
       <c r="K19" s="35"/>
-      <c r="L19" s="79"/>
-      <c r="M19" s="80"/>
+      <c r="L19" s="89"/>
+      <c r="M19" s="90"/>
       <c r="N19" s="39"/>
       <c r="O19" s="35"/>
       <c r="P19" s="40"/>
@@ -9134,22 +9134,14 @@
       <c r="K20" s="35" t="s">
         <v>68</v>
       </c>
-      <c r="L20" s="79"/>
-      <c r="M20" s="80"/>
+      <c r="L20" s="89"/>
+      <c r="M20" s="90"/>
       <c r="N20" s="39"/>
       <c r="O20" s="35"/>
       <c r="P20" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="A3:B4"/>
-    <mergeCell ref="C3:P4"/>
-    <mergeCell ref="L11:M11"/>
-    <mergeCell ref="L12:M12"/>
-    <mergeCell ref="O1:P1"/>
-    <mergeCell ref="D2:H2"/>
-    <mergeCell ref="I2:K2"/>
-    <mergeCell ref="O2:P2"/>
     <mergeCell ref="L13:M13"/>
     <mergeCell ref="L14:M14"/>
     <mergeCell ref="L20:M20"/>
@@ -9166,6 +9158,14 @@
     <mergeCell ref="L18:M18"/>
     <mergeCell ref="L19:M19"/>
     <mergeCell ref="L10:M10"/>
+    <mergeCell ref="A3:B4"/>
+    <mergeCell ref="C3:P4"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="O1:P1"/>
+    <mergeCell ref="D2:H2"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="O2:P2"/>
   </mergeCells>
   <phoneticPr fontId="6"/>
   <pageMargins left="0.35433070866141736" right="0.35433070866141736" top="0.19685039370078741" bottom="0.19685039370078741" header="0.23622047244094491" footer="0.23622047244094491"/>
@@ -9202,25 +9202,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="15" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A1" s="97" t="s">
+      <c r="A1" s="79" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="97"/>
+      <c r="B1" s="79"/>
       <c r="C1" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="98" t="s">
+      <c r="D1" s="80" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="98"/>
-      <c r="F1" s="98"/>
-      <c r="G1" s="98"/>
-      <c r="H1" s="99"/>
-      <c r="I1" s="100" t="s">
+      <c r="E1" s="80"/>
+      <c r="F1" s="80"/>
+      <c r="G1" s="80"/>
+      <c r="H1" s="81"/>
+      <c r="I1" s="82" t="s">
         <v>14</v>
       </c>
-      <c r="J1" s="98"/>
-      <c r="K1" s="99"/>
+      <c r="J1" s="80"/>
+      <c r="K1" s="81"/>
       <c r="L1" s="12" t="s">
         <v>1</v>
       </c>
@@ -9230,29 +9230,29 @@
       <c r="N1" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="O1" s="101">
+      <c r="O1" s="83">
         <v>45481</v>
       </c>
-      <c r="P1" s="102"/>
+      <c r="P1" s="84"/>
     </row>
     <row r="2" spans="1:16" ht="20.25" customHeight="1">
-      <c r="A2" s="97"/>
-      <c r="B2" s="97"/>
+      <c r="A2" s="79"/>
+      <c r="B2" s="79"/>
       <c r="C2" s="16" t="s">
         <v>250</v>
       </c>
-      <c r="D2" s="103" t="s">
+      <c r="D2" s="85" t="s">
         <v>209</v>
       </c>
-      <c r="E2" s="103"/>
-      <c r="F2" s="103"/>
-      <c r="G2" s="103"/>
-      <c r="H2" s="104"/>
-      <c r="I2" s="105" t="s">
+      <c r="E2" s="85"/>
+      <c r="F2" s="85"/>
+      <c r="G2" s="85"/>
+      <c r="H2" s="86"/>
+      <c r="I2" s="87" t="s">
         <v>156</v>
       </c>
-      <c r="J2" s="103"/>
-      <c r="K2" s="104"/>
+      <c r="J2" s="85"/>
+      <c r="K2" s="86"/>
       <c r="L2" s="17" t="s">
         <v>2</v>
       </c>
@@ -9260,48 +9260,48 @@
       <c r="N2" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="O2" s="106"/>
-      <c r="P2" s="104"/>
+      <c r="O2" s="88"/>
+      <c r="P2" s="86"/>
     </row>
     <row r="3" spans="1:16" ht="20.25" customHeight="1">
-      <c r="A3" s="81" t="s">
+      <c r="A3" s="91" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="82"/>
-      <c r="C3" s="85" t="s">
+      <c r="B3" s="92"/>
+      <c r="C3" s="95" t="s">
         <v>210</v>
       </c>
-      <c r="D3" s="86"/>
-      <c r="E3" s="86"/>
-      <c r="F3" s="86"/>
-      <c r="G3" s="86"/>
-      <c r="H3" s="86"/>
-      <c r="I3" s="86"/>
-      <c r="J3" s="86"/>
-      <c r="K3" s="86"/>
-      <c r="L3" s="86"/>
-      <c r="M3" s="86"/>
-      <c r="N3" s="86"/>
-      <c r="O3" s="86"/>
-      <c r="P3" s="87"/>
+      <c r="D3" s="96"/>
+      <c r="E3" s="96"/>
+      <c r="F3" s="96"/>
+      <c r="G3" s="96"/>
+      <c r="H3" s="96"/>
+      <c r="I3" s="96"/>
+      <c r="J3" s="96"/>
+      <c r="K3" s="96"/>
+      <c r="L3" s="96"/>
+      <c r="M3" s="96"/>
+      <c r="N3" s="96"/>
+      <c r="O3" s="96"/>
+      <c r="P3" s="97"/>
     </row>
     <row r="4" spans="1:16" ht="20.25" customHeight="1">
-      <c r="A4" s="83"/>
-      <c r="B4" s="84"/>
-      <c r="C4" s="88"/>
-      <c r="D4" s="89"/>
-      <c r="E4" s="89"/>
-      <c r="F4" s="89"/>
-      <c r="G4" s="89"/>
-      <c r="H4" s="89"/>
-      <c r="I4" s="89"/>
-      <c r="J4" s="89"/>
-      <c r="K4" s="89"/>
-      <c r="L4" s="89"/>
-      <c r="M4" s="89"/>
-      <c r="N4" s="89"/>
-      <c r="O4" s="89"/>
-      <c r="P4" s="90"/>
+      <c r="A4" s="93"/>
+      <c r="B4" s="94"/>
+      <c r="C4" s="98"/>
+      <c r="D4" s="99"/>
+      <c r="E4" s="99"/>
+      <c r="F4" s="99"/>
+      <c r="G4" s="99"/>
+      <c r="H4" s="99"/>
+      <c r="I4" s="99"/>
+      <c r="J4" s="99"/>
+      <c r="K4" s="99"/>
+      <c r="L4" s="99"/>
+      <c r="M4" s="99"/>
+      <c r="N4" s="99"/>
+      <c r="O4" s="99"/>
+      <c r="P4" s="100"/>
     </row>
     <row r="5" spans="1:16" ht="20.25" customHeight="1">
       <c r="B5" s="20"/>
@@ -9342,10 +9342,10 @@
       <c r="K6" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="L6" s="91" t="s">
+      <c r="L6" s="101" t="s">
         <v>27</v>
       </c>
-      <c r="M6" s="92"/>
+      <c r="M6" s="102"/>
       <c r="N6" s="26" t="s">
         <v>28</v>
       </c>
@@ -9386,10 +9386,10 @@
         <v>31</v>
       </c>
       <c r="K7" s="35"/>
-      <c r="L7" s="93" t="s">
+      <c r="L7" s="103" t="s">
         <v>203</v>
       </c>
-      <c r="M7" s="94"/>
+      <c r="M7" s="104"/>
       <c r="N7" s="39"/>
       <c r="O7" s="35"/>
       <c r="P7" s="40"/>
@@ -9427,7 +9427,7 @@
       <c r="L8" s="111" t="s">
         <v>190</v>
       </c>
-      <c r="M8" s="96"/>
+      <c r="M8" s="106"/>
       <c r="N8" s="39"/>
       <c r="O8" s="35"/>
       <c r="P8" s="40"/>
@@ -9456,10 +9456,10 @@
       <c r="K9" s="35">
         <v>0</v>
       </c>
-      <c r="L9" s="79" t="s">
+      <c r="L9" s="89" t="s">
         <v>207</v>
       </c>
-      <c r="M9" s="80"/>
+      <c r="M9" s="90"/>
       <c r="N9" s="39"/>
       <c r="O9" s="35"/>
       <c r="P9" s="40"/>
@@ -9488,10 +9488,10 @@
       <c r="K10" s="35">
         <v>0</v>
       </c>
-      <c r="L10" s="79" t="s">
+      <c r="L10" s="89" t="s">
         <v>208</v>
       </c>
-      <c r="M10" s="80"/>
+      <c r="M10" s="90"/>
       <c r="N10" s="39"/>
       <c r="O10" s="35"/>
       <c r="P10" s="40"/>
@@ -9520,8 +9520,8 @@
       <c r="K11" s="35" t="s">
         <v>140</v>
       </c>
-      <c r="L11" s="79"/>
-      <c r="M11" s="80"/>
+      <c r="L11" s="89"/>
+      <c r="M11" s="90"/>
       <c r="N11" s="39"/>
       <c r="O11" s="35"/>
       <c r="P11" s="40"/>
@@ -9550,8 +9550,8 @@
       <c r="K12" s="35">
         <v>0</v>
       </c>
-      <c r="L12" s="79"/>
-      <c r="M12" s="80"/>
+      <c r="L12" s="89"/>
+      <c r="M12" s="90"/>
       <c r="N12" s="39"/>
       <c r="O12" s="35"/>
       <c r="P12" s="40"/>
@@ -9580,8 +9580,8 @@
       <c r="I13" s="36"/>
       <c r="J13" s="35"/>
       <c r="K13" s="35"/>
-      <c r="L13" s="79"/>
-      <c r="M13" s="80"/>
+      <c r="L13" s="89"/>
+      <c r="M13" s="90"/>
       <c r="N13" s="39"/>
       <c r="O13" s="35"/>
       <c r="P13" s="40"/>
@@ -9612,8 +9612,8 @@
       <c r="K14" s="35" t="s">
         <v>68</v>
       </c>
-      <c r="L14" s="79"/>
-      <c r="M14" s="80"/>
+      <c r="L14" s="89"/>
+      <c r="M14" s="90"/>
       <c r="N14" s="39"/>
       <c r="O14" s="35"/>
       <c r="P14" s="40"/>
@@ -9641,8 +9641,8 @@
       <c r="H15" s="36"/>
       <c r="I15" s="36"/>
       <c r="J15" s="35"/>
-      <c r="L15" s="79"/>
-      <c r="M15" s="80"/>
+      <c r="L15" s="89"/>
+      <c r="M15" s="90"/>
       <c r="N15" s="39"/>
       <c r="O15" s="35"/>
       <c r="P15" s="40"/>
@@ -9673,8 +9673,8 @@
       <c r="K16" s="35" t="s">
         <v>67</v>
       </c>
-      <c r="L16" s="79"/>
-      <c r="M16" s="80"/>
+      <c r="L16" s="89"/>
+      <c r="M16" s="90"/>
       <c r="N16" s="39"/>
       <c r="O16" s="35"/>
       <c r="P16" s="40"/>
@@ -9693,8 +9693,8 @@
       <c r="I17" s="36"/>
       <c r="J17" s="35"/>
       <c r="K17" s="35"/>
-      <c r="L17" s="79"/>
-      <c r="M17" s="80"/>
+      <c r="L17" s="89"/>
+      <c r="M17" s="90"/>
       <c r="N17" s="39"/>
       <c r="O17" s="35"/>
       <c r="P17" s="40"/>
@@ -9713,8 +9713,8 @@
       <c r="I18" s="36"/>
       <c r="J18" s="35"/>
       <c r="K18" s="35"/>
-      <c r="L18" s="79"/>
-      <c r="M18" s="80"/>
+      <c r="L18" s="89"/>
+      <c r="M18" s="90"/>
       <c r="N18" s="39"/>
       <c r="O18" s="35"/>
       <c r="P18" s="40"/>
@@ -9733,8 +9733,8 @@
       <c r="I19" s="36"/>
       <c r="J19" s="35"/>
       <c r="K19" s="35"/>
-      <c r="L19" s="79"/>
-      <c r="M19" s="80"/>
+      <c r="L19" s="89"/>
+      <c r="M19" s="90"/>
       <c r="N19" s="39"/>
       <c r="O19" s="35"/>
       <c r="P19" s="40"/>
@@ -9753,8 +9753,8 @@
       <c r="I20" s="36"/>
       <c r="J20" s="35"/>
       <c r="K20" s="35"/>
-      <c r="L20" s="79"/>
-      <c r="M20" s="80"/>
+      <c r="L20" s="89"/>
+      <c r="M20" s="90"/>
       <c r="N20" s="39"/>
       <c r="O20" s="35"/>
       <c r="P20" s="40"/>
@@ -9773,14 +9773,26 @@
       <c r="I21" s="36"/>
       <c r="J21" s="35"/>
       <c r="K21" s="35"/>
-      <c r="L21" s="79"/>
-      <c r="M21" s="80"/>
+      <c r="L21" s="89"/>
+      <c r="M21" s="90"/>
       <c r="N21" s="39"/>
       <c r="O21" s="35"/>
       <c r="P21" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="L20:M20"/>
     <mergeCell ref="L9:M9"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="D1:H1"/>
@@ -9794,18 +9806,6 @@
     <mergeCell ref="L6:M6"/>
     <mergeCell ref="L7:M7"/>
     <mergeCell ref="L8:M8"/>
-    <mergeCell ref="L21:M21"/>
-    <mergeCell ref="L10:M10"/>
-    <mergeCell ref="L11:M11"/>
-    <mergeCell ref="L12:M12"/>
-    <mergeCell ref="L13:M13"/>
-    <mergeCell ref="L14:M14"/>
-    <mergeCell ref="L15:M15"/>
-    <mergeCell ref="L16:M16"/>
-    <mergeCell ref="L17:M17"/>
-    <mergeCell ref="L18:M18"/>
-    <mergeCell ref="L19:M19"/>
-    <mergeCell ref="L20:M20"/>
   </mergeCells>
   <phoneticPr fontId="6"/>
   <pageMargins left="0.35433070866141736" right="0.35433070866141736" top="0.19685039370078741" bottom="0.19685039370078741" header="0.23622047244094491" footer="0.23622047244094491"/>

--- a/交通費申請一覧機能/s-augDBテーブル定義書_新フォーマット対応版(0904_修正).xlsx
+++ b/交通費申請一覧機能/s-augDBテーブル定義書_新フォーマット対応版(0904_修正).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AUGCL42\Desktop\InternalSysDev2024\Internal-System-Development-2024\交通費申請一覧機能\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{565CCF54-F1C9-4E83-A949-A8D7BFF9E005}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A59281FE-0B96-4373-845B-A30C994012BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1470" yWindow="180" windowWidth="13280" windowHeight="10050" tabRatio="858" firstSheet="9" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-90" yWindow="0" windowWidth="9780" windowHeight="10170" tabRatio="858" firstSheet="9" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="変更履歴" sheetId="117" r:id="rId1"/>
@@ -1902,15 +1902,7 @@
     <phoneticPr fontId="6"/>
   </si>
   <si>
-    <t>USE_SERVICE_CODE</t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
     <t>USE_SERVICE_NAME</t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>STATUS_REQUEST_CD</t>
     <phoneticPr fontId="6"/>
   </si>
   <si>
@@ -1942,6 +1934,14 @@
     <rPh sb="9" eb="11">
       <t>ブンルイ</t>
     </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>APPROVAL_STATUS_CD</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>USE_SERVICE_CD</t>
     <phoneticPr fontId="6"/>
   </si>
 </sst>
@@ -2663,52 +2663,106 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="28" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2741,60 +2795,6 @@
     <xf numFmtId="14" fontId="10" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="23" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2810,6 +2810,27 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="26" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="10" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="10" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="5" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="15" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2843,29 +2864,8 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="10" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="10" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="5" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="15" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -3240,42 +3240,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" s="2" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A1" s="68" t="s">
+      <c r="A1" s="63" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="68"/>
-      <c r="C1" s="69" t="s">
+      <c r="B1" s="63"/>
+      <c r="C1" s="66" t="s">
         <v>287</v>
       </c>
-      <c r="D1" s="70"/>
-      <c r="E1" s="70"/>
-      <c r="F1" s="70"/>
-      <c r="G1" s="70"/>
-      <c r="H1" s="71"/>
+      <c r="D1" s="67"/>
+      <c r="E1" s="67"/>
+      <c r="F1" s="67"/>
+      <c r="G1" s="67"/>
+      <c r="H1" s="68"/>
       <c r="I1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="J1" s="75" t="s">
+      <c r="J1" s="72" t="s">
         <v>211</v>
       </c>
-      <c r="K1" s="76"/>
+      <c r="K1" s="73"/>
     </row>
     <row r="2" spans="1:19" ht="19.5" customHeight="1">
-      <c r="A2" s="68"/>
-      <c r="B2" s="68"/>
-      <c r="C2" s="72"/>
-      <c r="D2" s="73"/>
-      <c r="E2" s="73"/>
-      <c r="F2" s="73"/>
-      <c r="G2" s="73"/>
-      <c r="H2" s="74"/>
+      <c r="A2" s="63"/>
+      <c r="B2" s="63"/>
+      <c r="C2" s="69"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="70"/>
+      <c r="F2" s="70"/>
+      <c r="G2" s="70"/>
+      <c r="H2" s="71"/>
       <c r="I2" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="J2" s="77">
+      <c r="J2" s="74">
         <v>45482</v>
       </c>
-      <c r="K2" s="78"/>
+      <c r="K2" s="75"/>
     </row>
     <row r="3" spans="1:19" ht="19.5" customHeight="1">
       <c r="A3" s="4"/>
@@ -3308,22 +3308,22 @@
       <c r="C4" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="65" t="s">
+      <c r="D4" s="64" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="66"/>
-      <c r="F4" s="65" t="s">
+      <c r="E4" s="65"/>
+      <c r="F4" s="64" t="s">
         <v>7</v>
       </c>
-      <c r="G4" s="66"/>
-      <c r="H4" s="65" t="s">
+      <c r="G4" s="65"/>
+      <c r="H4" s="64" t="s">
         <v>8</v>
       </c>
-      <c r="I4" s="66"/>
-      <c r="J4" s="65" t="s">
+      <c r="I4" s="65"/>
+      <c r="J4" s="64" t="s">
         <v>9</v>
       </c>
-      <c r="K4" s="66"/>
+      <c r="K4" s="65"/>
       <c r="L4" s="2"/>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
@@ -3342,16 +3342,16 @@
       <c r="C5" s="49" t="s">
         <v>211</v>
       </c>
-      <c r="D5" s="67"/>
-      <c r="E5" s="67"/>
-      <c r="F5" s="67"/>
-      <c r="G5" s="67"/>
-      <c r="H5" s="67" t="s">
+      <c r="D5" s="78"/>
+      <c r="E5" s="78"/>
+      <c r="F5" s="78"/>
+      <c r="G5" s="78"/>
+      <c r="H5" s="78" t="s">
         <v>10</v>
       </c>
-      <c r="I5" s="67"/>
-      <c r="J5" s="67"/>
-      <c r="K5" s="67"/>
+      <c r="I5" s="78"/>
+      <c r="J5" s="78"/>
+      <c r="K5" s="78"/>
     </row>
     <row r="6" spans="1:19" ht="22.5" customHeight="1">
       <c r="A6" s="51">
@@ -3363,20 +3363,20 @@
       <c r="C6" s="51" t="s">
         <v>211</v>
       </c>
-      <c r="D6" s="64" t="s">
+      <c r="D6" s="77" t="s">
         <v>252</v>
       </c>
-      <c r="E6" s="64"/>
-      <c r="F6" s="64"/>
-      <c r="G6" s="64"/>
-      <c r="H6" s="64" t="s">
+      <c r="E6" s="77"/>
+      <c r="F6" s="77"/>
+      <c r="G6" s="77"/>
+      <c r="H6" s="77" t="s">
         <v>253</v>
       </c>
-      <c r="I6" s="64"/>
-      <c r="J6" s="64" t="s">
+      <c r="I6" s="77"/>
+      <c r="J6" s="77" t="s">
         <v>254</v>
       </c>
-      <c r="K6" s="64"/>
+      <c r="K6" s="77"/>
     </row>
     <row r="7" spans="1:19" ht="22.5" customHeight="1">
       <c r="A7" s="49">
@@ -3388,20 +3388,20 @@
       <c r="C7" s="51" t="s">
         <v>283</v>
       </c>
-      <c r="D7" s="63" t="s">
+      <c r="D7" s="76" t="s">
         <v>286</v>
       </c>
-      <c r="E7" s="63"/>
-      <c r="F7" s="64"/>
-      <c r="G7" s="64"/>
-      <c r="H7" s="63" t="s">
+      <c r="E7" s="76"/>
+      <c r="F7" s="77"/>
+      <c r="G7" s="77"/>
+      <c r="H7" s="76" t="s">
         <v>284</v>
       </c>
-      <c r="I7" s="63"/>
-      <c r="J7" s="63" t="s">
+      <c r="I7" s="76"/>
+      <c r="J7" s="76" t="s">
         <v>285</v>
       </c>
-      <c r="K7" s="63"/>
+      <c r="K7" s="76"/>
     </row>
     <row r="8" spans="1:19" ht="22.5" customHeight="1"/>
     <row r="9" spans="1:19" ht="22.5" customHeight="1"/>
@@ -3443,12 +3443,6 @@
     <row r="45" ht="22.5" customHeight="1"/>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="C1:H2"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="J2:K2"/>
     <mergeCell ref="D7:E7"/>
     <mergeCell ref="F7:G7"/>
     <mergeCell ref="H7:I7"/>
@@ -3463,6 +3457,12 @@
     <mergeCell ref="D5:E5"/>
     <mergeCell ref="F5:G5"/>
     <mergeCell ref="H5:I5"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="C1:H2"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="J2:K2"/>
   </mergeCells>
   <phoneticPr fontId="5"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.59055118110236227" bottom="0.59055118110236227" header="0.51181102362204722" footer="0.51181102362204722"/>
@@ -3475,8 +3475,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB8A24D3-272C-45D2-9527-CE0B8FDD95E5}">
   <dimension ref="A1:P33"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="28.5" customHeight="1"/>
@@ -3499,25 +3499,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="15" customFormat="1" ht="31.5" customHeight="1">
-      <c r="A1" s="79" t="s">
+      <c r="A1" s="97" t="s">
         <v>237</v>
       </c>
-      <c r="B1" s="79"/>
+      <c r="B1" s="97"/>
       <c r="C1" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="82" t="s">
+      <c r="D1" s="100" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="80"/>
-      <c r="F1" s="80"/>
-      <c r="G1" s="80"/>
-      <c r="H1" s="81"/>
-      <c r="I1" s="82" t="s">
+      <c r="E1" s="98"/>
+      <c r="F1" s="98"/>
+      <c r="G1" s="98"/>
+      <c r="H1" s="99"/>
+      <c r="I1" s="100" t="s">
         <v>14</v>
       </c>
-      <c r="J1" s="80"/>
-      <c r="K1" s="81"/>
+      <c r="J1" s="98"/>
+      <c r="K1" s="99"/>
       <c r="L1" s="12" t="s">
         <v>1</v>
       </c>
@@ -3527,29 +3527,29 @@
       <c r="N1" s="14" t="s">
         <v>281</v>
       </c>
-      <c r="O1" s="126" t="s">
+      <c r="O1" s="115" t="s">
         <v>282</v>
       </c>
-      <c r="P1" s="127"/>
+      <c r="P1" s="116"/>
     </row>
     <row r="2" spans="1:16" ht="20.25" customHeight="1">
-      <c r="A2" s="79"/>
-      <c r="B2" s="79"/>
+      <c r="A2" s="97"/>
+      <c r="B2" s="97"/>
       <c r="C2" s="16" t="s">
         <v>251</v>
       </c>
-      <c r="D2" s="85" t="s">
+      <c r="D2" s="103" t="s">
         <v>219</v>
       </c>
-      <c r="E2" s="85"/>
-      <c r="F2" s="85"/>
-      <c r="G2" s="85"/>
-      <c r="H2" s="86"/>
-      <c r="I2" s="112" t="s">
+      <c r="E2" s="103"/>
+      <c r="F2" s="103"/>
+      <c r="G2" s="103"/>
+      <c r="H2" s="104"/>
+      <c r="I2" s="119" t="s">
         <v>218</v>
       </c>
-      <c r="J2" s="113"/>
-      <c r="K2" s="114"/>
+      <c r="J2" s="120"/>
+      <c r="K2" s="121"/>
       <c r="L2" s="17" t="s">
         <v>2</v>
       </c>
@@ -3559,50 +3559,50 @@
       <c r="N2" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="O2" s="88">
+      <c r="O2" s="106">
         <v>45509</v>
       </c>
-      <c r="P2" s="86"/>
+      <c r="P2" s="104"/>
     </row>
     <row r="3" spans="1:16" ht="20.25" customHeight="1">
-      <c r="A3" s="91" t="s">
+      <c r="A3" s="81" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="92"/>
-      <c r="C3" s="95" t="s">
+      <c r="B3" s="82"/>
+      <c r="C3" s="85" t="s">
         <v>227</v>
       </c>
-      <c r="D3" s="96"/>
-      <c r="E3" s="96"/>
-      <c r="F3" s="96"/>
-      <c r="G3" s="96"/>
-      <c r="H3" s="96"/>
-      <c r="I3" s="96"/>
-      <c r="J3" s="96"/>
-      <c r="K3" s="96"/>
-      <c r="L3" s="96"/>
-      <c r="M3" s="96"/>
-      <c r="N3" s="96"/>
-      <c r="O3" s="96"/>
-      <c r="P3" s="97"/>
+      <c r="D3" s="86"/>
+      <c r="E3" s="86"/>
+      <c r="F3" s="86"/>
+      <c r="G3" s="86"/>
+      <c r="H3" s="86"/>
+      <c r="I3" s="86"/>
+      <c r="J3" s="86"/>
+      <c r="K3" s="86"/>
+      <c r="L3" s="86"/>
+      <c r="M3" s="86"/>
+      <c r="N3" s="86"/>
+      <c r="O3" s="86"/>
+      <c r="P3" s="87"/>
     </row>
     <row r="4" spans="1:16" ht="20.25" customHeight="1">
-      <c r="A4" s="93"/>
-      <c r="B4" s="94"/>
-      <c r="C4" s="98"/>
-      <c r="D4" s="99"/>
-      <c r="E4" s="99"/>
-      <c r="F4" s="99"/>
-      <c r="G4" s="99"/>
-      <c r="H4" s="99"/>
-      <c r="I4" s="99"/>
-      <c r="J4" s="99"/>
-      <c r="K4" s="99"/>
-      <c r="L4" s="99"/>
-      <c r="M4" s="99"/>
-      <c r="N4" s="99"/>
-      <c r="O4" s="99"/>
-      <c r="P4" s="100"/>
+      <c r="A4" s="83"/>
+      <c r="B4" s="84"/>
+      <c r="C4" s="88"/>
+      <c r="D4" s="89"/>
+      <c r="E4" s="89"/>
+      <c r="F4" s="89"/>
+      <c r="G4" s="89"/>
+      <c r="H4" s="89"/>
+      <c r="I4" s="89"/>
+      <c r="J4" s="89"/>
+      <c r="K4" s="89"/>
+      <c r="L4" s="89"/>
+      <c r="M4" s="89"/>
+      <c r="N4" s="89"/>
+      <c r="O4" s="89"/>
+      <c r="P4" s="90"/>
     </row>
     <row r="5" spans="1:16" ht="20.25" customHeight="1">
       <c r="B5" s="20"/>
@@ -3643,10 +3643,10 @@
       <c r="K6" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="L6" s="101" t="s">
+      <c r="L6" s="91" t="s">
         <v>27</v>
       </c>
-      <c r="M6" s="102"/>
+      <c r="M6" s="92"/>
       <c r="N6" s="26" t="s">
         <v>28</v>
       </c>
@@ -3689,10 +3689,10 @@
       <c r="K7" s="35" t="s">
         <v>260</v>
       </c>
-      <c r="L7" s="119" t="s">
+      <c r="L7" s="126" t="s">
         <v>275</v>
       </c>
-      <c r="M7" s="120"/>
+      <c r="M7" s="127"/>
       <c r="N7" s="39"/>
       <c r="O7" s="35"/>
       <c r="P7" s="40"/>
@@ -3721,10 +3721,10 @@
       <c r="I8" s="36"/>
       <c r="J8" s="35"/>
       <c r="K8" s="35"/>
-      <c r="L8" s="121" t="s">
+      <c r="L8" s="128" t="s">
         <v>190</v>
       </c>
-      <c r="M8" s="122"/>
+      <c r="M8" s="129"/>
       <c r="N8" s="39"/>
       <c r="O8" s="35"/>
       <c r="P8" s="40"/>
@@ -3751,8 +3751,8 @@
       <c r="I9" s="36"/>
       <c r="J9" s="35"/>
       <c r="K9" s="35"/>
-      <c r="L9" s="123"/>
-      <c r="M9" s="124"/>
+      <c r="L9" s="112"/>
+      <c r="M9" s="113"/>
       <c r="N9" s="39"/>
       <c r="O9" s="35"/>
       <c r="P9" s="40"/>
@@ -3762,10 +3762,10 @@
         <v>4</v>
       </c>
       <c r="B10" s="54" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="C10" s="35" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="D10" s="36" t="s">
         <v>183</v>
@@ -3783,12 +3783,12 @@
       <c r="K10" s="35">
         <v>0</v>
       </c>
-      <c r="L10" s="125" t="s">
+      <c r="L10" s="130" t="s">
         <v>200</v>
       </c>
-      <c r="M10" s="124"/>
+      <c r="M10" s="113"/>
       <c r="N10" s="39" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="O10" s="35"/>
       <c r="P10" s="40"/>
@@ -3815,10 +3815,10 @@
       <c r="I11" s="36"/>
       <c r="J11" s="35"/>
       <c r="K11" s="35"/>
-      <c r="L11" s="123" t="s">
+      <c r="L11" s="112" t="s">
         <v>235</v>
       </c>
-      <c r="M11" s="124"/>
+      <c r="M11" s="113"/>
       <c r="N11" s="39"/>
       <c r="O11" s="35"/>
       <c r="P11" s="40"/>
@@ -3845,8 +3845,8 @@
       <c r="I12" s="36"/>
       <c r="J12" s="35"/>
       <c r="K12" s="35"/>
-      <c r="L12" s="123"/>
-      <c r="M12" s="124"/>
+      <c r="L12" s="112"/>
+      <c r="M12" s="113"/>
       <c r="N12" s="39"/>
       <c r="O12" s="35"/>
       <c r="P12" s="40"/>
@@ -3907,10 +3907,10 @@
       <c r="I14" s="36"/>
       <c r="J14" s="35"/>
       <c r="K14" s="35"/>
-      <c r="L14" s="117" t="s">
+      <c r="L14" s="124" t="s">
         <v>292</v>
       </c>
-      <c r="M14" s="118"/>
+      <c r="M14" s="125"/>
       <c r="N14" s="59"/>
       <c r="O14" s="59"/>
       <c r="P14" s="40"/>
@@ -3937,10 +3937,10 @@
       <c r="I15" s="36"/>
       <c r="J15" s="35"/>
       <c r="K15" s="35"/>
-      <c r="L15" s="89" t="s">
+      <c r="L15" s="79" t="s">
         <v>268</v>
       </c>
-      <c r="M15" s="90"/>
+      <c r="M15" s="80"/>
       <c r="N15" s="39"/>
       <c r="O15" s="35"/>
       <c r="P15" s="40"/>
@@ -3969,10 +3969,10 @@
       <c r="I16" s="36"/>
       <c r="J16" s="35"/>
       <c r="K16" s="35"/>
-      <c r="L16" s="117" t="s">
+      <c r="L16" s="124" t="s">
         <v>290</v>
       </c>
-      <c r="M16" s="118"/>
+      <c r="M16" s="125"/>
       <c r="N16" s="60"/>
       <c r="O16" s="19"/>
       <c r="P16" s="40"/>
@@ -3985,7 +3985,7 @@
         <v>305</v>
       </c>
       <c r="C17" s="35" t="s">
-        <v>307</v>
+        <v>313</v>
       </c>
       <c r="D17" s="36" t="s">
         <v>183</v>
@@ -4001,12 +4001,12 @@
       <c r="I17" s="36"/>
       <c r="J17" s="35"/>
       <c r="K17" s="35"/>
-      <c r="L17" s="115" t="s">
+      <c r="L17" s="122" t="s">
         <v>289</v>
       </c>
-      <c r="M17" s="116"/>
+      <c r="M17" s="123"/>
       <c r="N17" s="39" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="O17" s="35"/>
       <c r="P17" s="40"/>
@@ -4019,7 +4019,7 @@
         <v>306</v>
       </c>
       <c r="C18" s="35" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D18" s="36" t="s">
         <v>184</v>
@@ -4035,10 +4035,10 @@
       <c r="I18" s="36"/>
       <c r="J18" s="35"/>
       <c r="K18" s="35"/>
-      <c r="L18" s="89" t="s">
+      <c r="L18" s="79" t="s">
         <v>291</v>
       </c>
-      <c r="M18" s="90"/>
+      <c r="M18" s="80"/>
       <c r="N18" s="39"/>
       <c r="O18" s="35"/>
       <c r="P18" s="40"/>
@@ -4069,10 +4069,10 @@
       <c r="I19" s="36"/>
       <c r="J19" s="35"/>
       <c r="K19" s="35"/>
-      <c r="L19" s="89" t="s">
+      <c r="L19" s="79" t="s">
         <v>294</v>
       </c>
-      <c r="M19" s="90"/>
+      <c r="M19" s="80"/>
       <c r="N19" s="39"/>
       <c r="O19" s="35"/>
       <c r="P19" s="40"/>
@@ -4099,10 +4099,10 @@
       <c r="I20" s="36"/>
       <c r="J20" s="35"/>
       <c r="K20" s="41"/>
-      <c r="L20" s="89" t="s">
+      <c r="L20" s="79" t="s">
         <v>293</v>
       </c>
-      <c r="M20" s="90"/>
+      <c r="M20" s="80"/>
       <c r="N20" s="39"/>
       <c r="O20" s="35"/>
       <c r="P20" s="40"/>
@@ -4115,7 +4115,7 @@
         <v>276</v>
       </c>
       <c r="C21" s="35" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="D21" s="36" t="s">
         <v>183</v>
@@ -4131,10 +4131,10 @@
       <c r="I21" s="36"/>
       <c r="J21" s="35"/>
       <c r="K21" s="35"/>
-      <c r="L21" s="128" t="s">
+      <c r="L21" s="117" t="s">
         <v>278</v>
       </c>
-      <c r="M21" s="129"/>
+      <c r="M21" s="118"/>
       <c r="N21" s="39"/>
       <c r="O21" s="35"/>
       <c r="P21" s="40"/>
@@ -4159,10 +4159,10 @@
       <c r="I22" s="36"/>
       <c r="J22" s="35"/>
       <c r="K22" s="35"/>
-      <c r="L22" s="123" t="s">
+      <c r="L22" s="112" t="s">
         <v>272</v>
       </c>
-      <c r="M22" s="124"/>
+      <c r="M22" s="113"/>
       <c r="N22" s="39"/>
       <c r="O22" s="35"/>
       <c r="P22" s="40"/>
@@ -4189,10 +4189,10 @@
       <c r="I23" s="36"/>
       <c r="J23" s="35"/>
       <c r="K23" s="35"/>
-      <c r="L23" s="123" t="s">
+      <c r="L23" s="112" t="s">
         <v>261</v>
       </c>
-      <c r="M23" s="124"/>
+      <c r="M23" s="113"/>
       <c r="N23" s="39"/>
       <c r="O23" s="35"/>
       <c r="P23" s="40"/>
@@ -4221,8 +4221,8 @@
       <c r="I24" s="36"/>
       <c r="J24" s="35"/>
       <c r="K24" s="35"/>
-      <c r="L24" s="89"/>
-      <c r="M24" s="90"/>
+      <c r="L24" s="79"/>
+      <c r="M24" s="80"/>
       <c r="N24" s="39"/>
       <c r="O24" s="35"/>
       <c r="P24" s="40"/>
@@ -4251,8 +4251,8 @@
       <c r="K25" s="35" t="s">
         <v>68</v>
       </c>
-      <c r="L25" s="89"/>
-      <c r="M25" s="90"/>
+      <c r="L25" s="79"/>
+      <c r="M25" s="80"/>
       <c r="N25" s="39"/>
       <c r="O25" s="35"/>
       <c r="P25" s="40"/>
@@ -4279,10 +4279,10 @@
       <c r="I26" s="36"/>
       <c r="J26" s="35"/>
       <c r="K26" s="35"/>
-      <c r="L26" s="123" t="s">
+      <c r="L26" s="112" t="s">
         <v>297</v>
       </c>
-      <c r="M26" s="124"/>
+      <c r="M26" s="113"/>
       <c r="N26" s="39"/>
       <c r="O26" s="35"/>
       <c r="P26" s="40"/>
@@ -4311,10 +4311,10 @@
       <c r="K27" s="35" t="s">
         <v>68</v>
       </c>
-      <c r="L27" s="89" t="s">
+      <c r="L27" s="79" t="s">
         <v>296</v>
       </c>
-      <c r="M27" s="90"/>
+      <c r="M27" s="80"/>
       <c r="N27" s="39"/>
       <c r="O27" s="35"/>
       <c r="P27" s="40"/>
@@ -4341,10 +4341,10 @@
       <c r="I28" s="36"/>
       <c r="J28" s="35"/>
       <c r="K28" s="35"/>
-      <c r="L28" s="123" t="s">
+      <c r="L28" s="112" t="s">
         <v>258</v>
       </c>
-      <c r="M28" s="124"/>
+      <c r="M28" s="113"/>
       <c r="N28" s="39"/>
       <c r="O28" s="35"/>
       <c r="P28" s="40"/>
@@ -4373,10 +4373,10 @@
       <c r="K29" s="35" t="s">
         <v>68</v>
       </c>
-      <c r="L29" s="89" t="s">
+      <c r="L29" s="79" t="s">
         <v>298</v>
       </c>
-      <c r="M29" s="90"/>
+      <c r="M29" s="80"/>
       <c r="N29" s="39"/>
       <c r="O29" s="35"/>
       <c r="P29" s="40"/>
@@ -4405,10 +4405,10 @@
       <c r="K30" s="35">
         <v>0</v>
       </c>
-      <c r="L30" s="89" t="s">
+      <c r="L30" s="79" t="s">
         <v>295</v>
       </c>
-      <c r="M30" s="90"/>
+      <c r="M30" s="80"/>
       <c r="N30" s="39"/>
       <c r="O30" s="35"/>
       <c r="P30" s="40"/>
@@ -4437,8 +4437,8 @@
       <c r="K31" s="35">
         <v>0</v>
       </c>
-      <c r="L31" s="89"/>
-      <c r="M31" s="90"/>
+      <c r="L31" s="79"/>
+      <c r="M31" s="80"/>
       <c r="N31" s="39"/>
       <c r="O31" s="35"/>
       <c r="P31" s="40"/>
@@ -4454,19 +4454,28 @@
       <c r="I32" s="57"/>
       <c r="J32" s="56"/>
       <c r="K32" s="56"/>
-      <c r="L32" s="130"/>
-      <c r="M32" s="130"/>
+      <c r="L32" s="114"/>
+      <c r="M32" s="114"/>
       <c r="N32" s="56"/>
       <c r="O32" s="56"/>
     </row>
     <row r="33" s="19" customFormat="1" ht="28.5" customHeight="1"/>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="L28:M28"/>
-    <mergeCell ref="L29:M29"/>
-    <mergeCell ref="L30:M30"/>
-    <mergeCell ref="L31:M31"/>
-    <mergeCell ref="L32:M32"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="D1:H1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="A3:B4"/>
+    <mergeCell ref="C3:P4"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="L10:M10"/>
     <mergeCell ref="L11:M11"/>
     <mergeCell ref="L12:M12"/>
     <mergeCell ref="O1:P1"/>
@@ -4483,20 +4492,11 @@
     <mergeCell ref="L20:M20"/>
     <mergeCell ref="I2:K2"/>
     <mergeCell ref="O2:P2"/>
-    <mergeCell ref="L17:M17"/>
-    <mergeCell ref="L14:M14"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="D1:H1"/>
-    <mergeCell ref="I1:K1"/>
-    <mergeCell ref="L16:M16"/>
-    <mergeCell ref="L15:M15"/>
-    <mergeCell ref="A3:B4"/>
-    <mergeCell ref="C3:P4"/>
-    <mergeCell ref="L6:M6"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="L8:M8"/>
-    <mergeCell ref="L9:M9"/>
-    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="L28:M28"/>
+    <mergeCell ref="L29:M29"/>
+    <mergeCell ref="L30:M30"/>
+    <mergeCell ref="L31:M31"/>
+    <mergeCell ref="L32:M32"/>
   </mergeCells>
   <phoneticPr fontId="6"/>
   <pageMargins left="0.35433070866141736" right="0.35433070866141736" top="0.19685039370078741" bottom="0.19685039370078741" header="0.23622047244094491" footer="0.23622047244094491"/>
@@ -4533,25 +4533,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="15" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A1" s="79" t="s">
+      <c r="A1" s="97" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="79"/>
+      <c r="B1" s="97"/>
       <c r="C1" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="80" t="s">
+      <c r="D1" s="98" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="80"/>
-      <c r="F1" s="80"/>
-      <c r="G1" s="80"/>
-      <c r="H1" s="81"/>
-      <c r="I1" s="82" t="s">
+      <c r="E1" s="98"/>
+      <c r="F1" s="98"/>
+      <c r="G1" s="98"/>
+      <c r="H1" s="99"/>
+      <c r="I1" s="100" t="s">
         <v>14</v>
       </c>
-      <c r="J1" s="80"/>
-      <c r="K1" s="81"/>
+      <c r="J1" s="98"/>
+      <c r="K1" s="99"/>
       <c r="L1" s="12" t="s">
         <v>1</v>
       </c>
@@ -4561,29 +4561,29 @@
       <c r="N1" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="O1" s="83">
+      <c r="O1" s="101">
         <v>45481</v>
       </c>
-      <c r="P1" s="84"/>
+      <c r="P1" s="102"/>
     </row>
     <row r="2" spans="1:16" ht="20.25" customHeight="1">
-      <c r="A2" s="79"/>
-      <c r="B2" s="79"/>
+      <c r="A2" s="97"/>
+      <c r="B2" s="97"/>
       <c r="C2" s="16" t="s">
         <v>245</v>
       </c>
-      <c r="D2" s="85" t="s">
+      <c r="D2" s="103" t="s">
         <v>33</v>
       </c>
-      <c r="E2" s="85"/>
-      <c r="F2" s="85"/>
-      <c r="G2" s="85"/>
-      <c r="H2" s="86"/>
-      <c r="I2" s="87" t="s">
+      <c r="E2" s="103"/>
+      <c r="F2" s="103"/>
+      <c r="G2" s="103"/>
+      <c r="H2" s="104"/>
+      <c r="I2" s="105" t="s">
         <v>32</v>
       </c>
-      <c r="J2" s="85"/>
-      <c r="K2" s="86"/>
+      <c r="J2" s="103"/>
+      <c r="K2" s="104"/>
       <c r="L2" s="17" t="s">
         <v>2</v>
       </c>
@@ -4591,50 +4591,50 @@
       <c r="N2" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="O2" s="88">
+      <c r="O2" s="106">
         <v>45484</v>
       </c>
-      <c r="P2" s="86"/>
+      <c r="P2" s="104"/>
     </row>
     <row r="3" spans="1:16" ht="20.25" customHeight="1">
-      <c r="A3" s="91" t="s">
+      <c r="A3" s="81" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="92"/>
-      <c r="C3" s="95" t="s">
+      <c r="B3" s="82"/>
+      <c r="C3" s="85" t="s">
         <v>33</v>
       </c>
-      <c r="D3" s="96"/>
-      <c r="E3" s="96"/>
-      <c r="F3" s="96"/>
-      <c r="G3" s="96"/>
-      <c r="H3" s="96"/>
-      <c r="I3" s="96"/>
-      <c r="J3" s="96"/>
-      <c r="K3" s="96"/>
-      <c r="L3" s="96"/>
-      <c r="M3" s="96"/>
-      <c r="N3" s="96"/>
-      <c r="O3" s="96"/>
-      <c r="P3" s="97"/>
+      <c r="D3" s="86"/>
+      <c r="E3" s="86"/>
+      <c r="F3" s="86"/>
+      <c r="G3" s="86"/>
+      <c r="H3" s="86"/>
+      <c r="I3" s="86"/>
+      <c r="J3" s="86"/>
+      <c r="K3" s="86"/>
+      <c r="L3" s="86"/>
+      <c r="M3" s="86"/>
+      <c r="N3" s="86"/>
+      <c r="O3" s="86"/>
+      <c r="P3" s="87"/>
     </row>
     <row r="4" spans="1:16" ht="20.25" customHeight="1">
-      <c r="A4" s="93"/>
-      <c r="B4" s="94"/>
-      <c r="C4" s="98"/>
-      <c r="D4" s="99"/>
-      <c r="E4" s="99"/>
-      <c r="F4" s="99"/>
-      <c r="G4" s="99"/>
-      <c r="H4" s="99"/>
-      <c r="I4" s="99"/>
-      <c r="J4" s="99"/>
-      <c r="K4" s="99"/>
-      <c r="L4" s="99"/>
-      <c r="M4" s="99"/>
-      <c r="N4" s="99"/>
-      <c r="O4" s="99"/>
-      <c r="P4" s="100"/>
+      <c r="A4" s="83"/>
+      <c r="B4" s="84"/>
+      <c r="C4" s="88"/>
+      <c r="D4" s="89"/>
+      <c r="E4" s="89"/>
+      <c r="F4" s="89"/>
+      <c r="G4" s="89"/>
+      <c r="H4" s="89"/>
+      <c r="I4" s="89"/>
+      <c r="J4" s="89"/>
+      <c r="K4" s="89"/>
+      <c r="L4" s="89"/>
+      <c r="M4" s="89"/>
+      <c r="N4" s="89"/>
+      <c r="O4" s="89"/>
+      <c r="P4" s="90"/>
     </row>
     <row r="5" spans="1:16" ht="20.25" customHeight="1">
       <c r="B5" s="20"/>
@@ -4675,10 +4675,10 @@
       <c r="K6" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="L6" s="101" t="s">
+      <c r="L6" s="91" t="s">
         <v>27</v>
       </c>
-      <c r="M6" s="102"/>
+      <c r="M6" s="92"/>
       <c r="N6" s="26" t="s">
         <v>28</v>
       </c>
@@ -4721,10 +4721,10 @@
         <v>31</v>
       </c>
       <c r="K7" s="35"/>
-      <c r="L7" s="103" t="s">
+      <c r="L7" s="93" t="s">
         <v>238</v>
       </c>
-      <c r="M7" s="104"/>
+      <c r="M7" s="94"/>
       <c r="N7" s="39"/>
       <c r="O7" s="35"/>
       <c r="P7" s="40"/>
@@ -4753,10 +4753,10 @@
       <c r="I8" s="36"/>
       <c r="J8" s="35"/>
       <c r="K8" s="35"/>
-      <c r="L8" s="105" t="s">
+      <c r="L8" s="95" t="s">
         <v>255</v>
       </c>
-      <c r="M8" s="106"/>
+      <c r="M8" s="96"/>
       <c r="N8" s="39"/>
       <c r="O8" s="35"/>
       <c r="P8" s="40"/>
@@ -4785,8 +4785,8 @@
       <c r="I9" s="36"/>
       <c r="J9" s="35"/>
       <c r="K9" s="35"/>
-      <c r="L9" s="89"/>
-      <c r="M9" s="90"/>
+      <c r="L9" s="79"/>
+      <c r="M9" s="80"/>
       <c r="N9" s="39"/>
       <c r="O9" s="35"/>
       <c r="P9" s="40"/>
@@ -4813,8 +4813,8 @@
       <c r="I10" s="36"/>
       <c r="J10" s="35"/>
       <c r="K10" s="35"/>
-      <c r="L10" s="89"/>
-      <c r="M10" s="90"/>
+      <c r="L10" s="79"/>
+      <c r="M10" s="80"/>
       <c r="N10" s="39"/>
       <c r="O10" s="35"/>
       <c r="P10" s="40"/>
@@ -4841,10 +4841,10 @@
       <c r="I11" s="36"/>
       <c r="J11" s="35"/>
       <c r="K11" s="35"/>
-      <c r="L11" s="89" t="s">
+      <c r="L11" s="79" t="s">
         <v>187</v>
       </c>
-      <c r="M11" s="90"/>
+      <c r="M11" s="80"/>
       <c r="N11" s="39" t="s">
         <v>191</v>
       </c>
@@ -4873,10 +4873,10 @@
       <c r="I12" s="36"/>
       <c r="J12" s="35"/>
       <c r="K12" s="35"/>
-      <c r="L12" s="89" t="s">
+      <c r="L12" s="79" t="s">
         <v>188</v>
       </c>
-      <c r="M12" s="90"/>
+      <c r="M12" s="80"/>
       <c r="N12" s="39" t="s">
         <v>192</v>
       </c>
@@ -4905,8 +4905,8 @@
       <c r="I13" s="36"/>
       <c r="J13" s="35"/>
       <c r="K13" s="35"/>
-      <c r="L13" s="89"/>
-      <c r="M13" s="90"/>
+      <c r="L13" s="79"/>
+      <c r="M13" s="80"/>
       <c r="N13" s="39"/>
       <c r="O13" s="35"/>
       <c r="P13" s="40"/>
@@ -4935,8 +4935,8 @@
       <c r="I14" s="36"/>
       <c r="J14" s="35"/>
       <c r="K14" s="35"/>
-      <c r="L14" s="89"/>
-      <c r="M14" s="90"/>
+      <c r="L14" s="79"/>
+      <c r="M14" s="80"/>
       <c r="N14" s="39"/>
       <c r="O14" s="35"/>
       <c r="P14" s="40"/>
@@ -4965,8 +4965,8 @@
       <c r="I15" s="36"/>
       <c r="J15" s="35"/>
       <c r="K15" s="35"/>
-      <c r="L15" s="89"/>
-      <c r="M15" s="90"/>
+      <c r="L15" s="79"/>
+      <c r="M15" s="80"/>
       <c r="N15" s="39"/>
       <c r="O15" s="35"/>
       <c r="P15" s="40"/>
@@ -4993,10 +4993,10 @@
       <c r="I16" s="36"/>
       <c r="J16" s="35"/>
       <c r="K16" s="35"/>
-      <c r="L16" s="89" t="s">
+      <c r="L16" s="79" t="s">
         <v>189</v>
       </c>
-      <c r="M16" s="90"/>
+      <c r="M16" s="80"/>
       <c r="N16" s="39"/>
       <c r="O16" s="35"/>
       <c r="P16" s="40"/>
@@ -5025,8 +5025,8 @@
       <c r="K17" s="35">
         <v>0</v>
       </c>
-      <c r="L17" s="89"/>
-      <c r="M17" s="90"/>
+      <c r="L17" s="79"/>
+      <c r="M17" s="80"/>
       <c r="N17" s="39"/>
       <c r="O17" s="35"/>
       <c r="P17" s="40"/>
@@ -5055,8 +5055,8 @@
       <c r="I18" s="36"/>
       <c r="J18" s="35"/>
       <c r="K18" s="35"/>
-      <c r="L18" s="89"/>
-      <c r="M18" s="90"/>
+      <c r="L18" s="79"/>
+      <c r="M18" s="80"/>
       <c r="N18" s="39"/>
       <c r="O18" s="35"/>
       <c r="P18" s="40"/>
@@ -5087,8 +5087,8 @@
       <c r="K19" s="35" t="s">
         <v>67</v>
       </c>
-      <c r="L19" s="89"/>
-      <c r="M19" s="90"/>
+      <c r="L19" s="79"/>
+      <c r="M19" s="80"/>
       <c r="N19" s="39"/>
       <c r="O19" s="35"/>
       <c r="P19" s="40"/>
@@ -5117,8 +5117,8 @@
       <c r="I20" s="36"/>
       <c r="J20" s="35"/>
       <c r="K20" s="35"/>
-      <c r="L20" s="89"/>
-      <c r="M20" s="90"/>
+      <c r="L20" s="79"/>
+      <c r="M20" s="80"/>
       <c r="N20" s="39"/>
       <c r="O20" s="35"/>
       <c r="P20" s="40"/>
@@ -5149,19 +5149,21 @@
       <c r="K21" s="35" t="s">
         <v>67</v>
       </c>
-      <c r="L21" s="89"/>
-      <c r="M21" s="90"/>
+      <c r="L21" s="79"/>
+      <c r="M21" s="80"/>
       <c r="N21" s="39"/>
       <c r="O21" s="35"/>
       <c r="P21" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="L17:M17"/>
-    <mergeCell ref="L18:M18"/>
-    <mergeCell ref="L19:M19"/>
-    <mergeCell ref="L20:M20"/>
-    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="D1:H1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="O1:P1"/>
+    <mergeCell ref="D2:H2"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="O2:P2"/>
     <mergeCell ref="L16:M16"/>
     <mergeCell ref="A3:B4"/>
     <mergeCell ref="C3:P4"/>
@@ -5175,13 +5177,11 @@
     <mergeCell ref="L14:M14"/>
     <mergeCell ref="L15:M15"/>
     <mergeCell ref="L8:M8"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="D1:H1"/>
-    <mergeCell ref="I1:K1"/>
-    <mergeCell ref="O1:P1"/>
-    <mergeCell ref="D2:H2"/>
-    <mergeCell ref="I2:K2"/>
-    <mergeCell ref="O2:P2"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="L20:M20"/>
+    <mergeCell ref="L21:M21"/>
   </mergeCells>
   <phoneticPr fontId="6"/>
   <pageMargins left="0.35433070866141736" right="0.35433070866141736" top="0.19685039370078741" bottom="0.19685039370078741" header="0.23622047244094491" footer="0.23622047244094491"/>
@@ -5218,25 +5218,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="15" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A1" s="79" t="s">
+      <c r="A1" s="97" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="79"/>
+      <c r="B1" s="97"/>
       <c r="C1" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="80" t="s">
+      <c r="D1" s="98" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="80"/>
-      <c r="F1" s="80"/>
-      <c r="G1" s="80"/>
-      <c r="H1" s="81"/>
-      <c r="I1" s="82" t="s">
+      <c r="E1" s="98"/>
+      <c r="F1" s="98"/>
+      <c r="G1" s="98"/>
+      <c r="H1" s="99"/>
+      <c r="I1" s="100" t="s">
         <v>14</v>
       </c>
-      <c r="J1" s="80"/>
-      <c r="K1" s="81"/>
+      <c r="J1" s="98"/>
+      <c r="K1" s="99"/>
       <c r="L1" s="12" t="s">
         <v>1</v>
       </c>
@@ -5246,29 +5246,29 @@
       <c r="N1" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="O1" s="83">
+      <c r="O1" s="101">
         <v>45482</v>
       </c>
-      <c r="P1" s="84"/>
+      <c r="P1" s="102"/>
     </row>
     <row r="2" spans="1:16" ht="20.25" customHeight="1">
-      <c r="A2" s="79"/>
-      <c r="B2" s="79"/>
+      <c r="A2" s="97"/>
+      <c r="B2" s="97"/>
       <c r="C2" s="16" t="s">
         <v>245</v>
       </c>
-      <c r="D2" s="85" t="s">
+      <c r="D2" s="103" t="s">
         <v>193</v>
       </c>
-      <c r="E2" s="85"/>
-      <c r="F2" s="85"/>
-      <c r="G2" s="85"/>
-      <c r="H2" s="86"/>
-      <c r="I2" s="87" t="s">
+      <c r="E2" s="103"/>
+      <c r="F2" s="103"/>
+      <c r="G2" s="103"/>
+      <c r="H2" s="104"/>
+      <c r="I2" s="105" t="s">
         <v>87</v>
       </c>
-      <c r="J2" s="85"/>
-      <c r="K2" s="86"/>
+      <c r="J2" s="103"/>
+      <c r="K2" s="104"/>
       <c r="L2" s="17" t="s">
         <v>2</v>
       </c>
@@ -5276,48 +5276,48 @@
       <c r="N2" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="O2" s="88"/>
-      <c r="P2" s="86"/>
+      <c r="O2" s="106"/>
+      <c r="P2" s="104"/>
     </row>
     <row r="3" spans="1:16" ht="20.25" customHeight="1">
-      <c r="A3" s="91" t="s">
+      <c r="A3" s="81" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="92"/>
-      <c r="C3" s="95" t="s">
+      <c r="B3" s="82"/>
+      <c r="C3" s="85" t="s">
         <v>193</v>
       </c>
-      <c r="D3" s="96"/>
-      <c r="E3" s="96"/>
-      <c r="F3" s="96"/>
-      <c r="G3" s="96"/>
-      <c r="H3" s="96"/>
-      <c r="I3" s="96"/>
-      <c r="J3" s="96"/>
-      <c r="K3" s="96"/>
-      <c r="L3" s="96"/>
-      <c r="M3" s="96"/>
-      <c r="N3" s="96"/>
-      <c r="O3" s="96"/>
-      <c r="P3" s="97"/>
+      <c r="D3" s="86"/>
+      <c r="E3" s="86"/>
+      <c r="F3" s="86"/>
+      <c r="G3" s="86"/>
+      <c r="H3" s="86"/>
+      <c r="I3" s="86"/>
+      <c r="J3" s="86"/>
+      <c r="K3" s="86"/>
+      <c r="L3" s="86"/>
+      <c r="M3" s="86"/>
+      <c r="N3" s="86"/>
+      <c r="O3" s="86"/>
+      <c r="P3" s="87"/>
     </row>
     <row r="4" spans="1:16" ht="20.25" customHeight="1">
-      <c r="A4" s="93"/>
-      <c r="B4" s="94"/>
-      <c r="C4" s="98"/>
-      <c r="D4" s="99"/>
-      <c r="E4" s="99"/>
-      <c r="F4" s="99"/>
-      <c r="G4" s="99"/>
-      <c r="H4" s="99"/>
-      <c r="I4" s="99"/>
-      <c r="J4" s="99"/>
-      <c r="K4" s="99"/>
-      <c r="L4" s="99"/>
-      <c r="M4" s="99"/>
-      <c r="N4" s="99"/>
-      <c r="O4" s="99"/>
-      <c r="P4" s="100"/>
+      <c r="A4" s="83"/>
+      <c r="B4" s="84"/>
+      <c r="C4" s="88"/>
+      <c r="D4" s="89"/>
+      <c r="E4" s="89"/>
+      <c r="F4" s="89"/>
+      <c r="G4" s="89"/>
+      <c r="H4" s="89"/>
+      <c r="I4" s="89"/>
+      <c r="J4" s="89"/>
+      <c r="K4" s="89"/>
+      <c r="L4" s="89"/>
+      <c r="M4" s="89"/>
+      <c r="N4" s="89"/>
+      <c r="O4" s="89"/>
+      <c r="P4" s="90"/>
     </row>
     <row r="5" spans="1:16" ht="20.25" customHeight="1">
       <c r="B5" s="20"/>
@@ -5358,10 +5358,10 @@
       <c r="K6" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="L6" s="101" t="s">
+      <c r="L6" s="91" t="s">
         <v>27</v>
       </c>
-      <c r="M6" s="102"/>
+      <c r="M6" s="92"/>
       <c r="N6" s="26" t="s">
         <v>28</v>
       </c>
@@ -5404,10 +5404,10 @@
         <v>31</v>
       </c>
       <c r="K7" s="35"/>
-      <c r="L7" s="103" t="s">
+      <c r="L7" s="93" t="s">
         <v>198</v>
       </c>
-      <c r="M7" s="104"/>
+      <c r="M7" s="94"/>
       <c r="N7" s="39"/>
       <c r="O7" s="35"/>
       <c r="P7" s="40"/>
@@ -5436,10 +5436,10 @@
       <c r="I8" s="36"/>
       <c r="J8" s="35"/>
       <c r="K8" s="35"/>
-      <c r="L8" s="105" t="s">
+      <c r="L8" s="95" t="s">
         <v>212</v>
       </c>
-      <c r="M8" s="106"/>
+      <c r="M8" s="96"/>
       <c r="N8" s="39"/>
       <c r="O8" s="35"/>
       <c r="P8" s="40"/>
@@ -5474,8 +5474,8 @@
         <v>31</v>
       </c>
       <c r="K9" s="35"/>
-      <c r="L9" s="89"/>
-      <c r="M9" s="90"/>
+      <c r="L9" s="79"/>
+      <c r="M9" s="80"/>
       <c r="N9" s="39"/>
       <c r="O9" s="35"/>
       <c r="P9" s="40"/>
@@ -5504,10 +5504,10 @@
       <c r="I10" s="36"/>
       <c r="J10" s="35"/>
       <c r="K10" s="35"/>
-      <c r="L10" s="89" t="s">
+      <c r="L10" s="79" t="s">
         <v>199</v>
       </c>
-      <c r="M10" s="90"/>
+      <c r="M10" s="80"/>
       <c r="N10" s="39"/>
       <c r="O10" s="35"/>
       <c r="P10" s="40"/>
@@ -5534,8 +5534,8 @@
       <c r="I11" s="36"/>
       <c r="J11" s="35"/>
       <c r="K11" s="35"/>
-      <c r="L11" s="89"/>
-      <c r="M11" s="90"/>
+      <c r="L11" s="79"/>
+      <c r="M11" s="80"/>
       <c r="N11" s="39"/>
       <c r="O11" s="35"/>
       <c r="P11" s="40"/>
@@ -5566,8 +5566,8 @@
       <c r="K12" s="35">
         <v>0</v>
       </c>
-      <c r="L12" s="89"/>
-      <c r="M12" s="90"/>
+      <c r="L12" s="79"/>
+      <c r="M12" s="80"/>
       <c r="N12" s="39"/>
       <c r="O12" s="35"/>
       <c r="P12" s="40"/>
@@ -5596,8 +5596,8 @@
       <c r="I13" s="36"/>
       <c r="J13" s="35"/>
       <c r="K13" s="35"/>
-      <c r="L13" s="89"/>
-      <c r="M13" s="90"/>
+      <c r="L13" s="79"/>
+      <c r="M13" s="80"/>
       <c r="N13" s="39"/>
       <c r="O13" s="35"/>
       <c r="P13" s="40"/>
@@ -5628,8 +5628,8 @@
       <c r="K14" s="35" t="s">
         <v>68</v>
       </c>
-      <c r="L14" s="89"/>
-      <c r="M14" s="90"/>
+      <c r="L14" s="79"/>
+      <c r="M14" s="80"/>
       <c r="N14" s="39"/>
       <c r="O14" s="35"/>
       <c r="P14" s="40"/>
@@ -5658,8 +5658,8 @@
       <c r="I15" s="36"/>
       <c r="J15" s="35"/>
       <c r="K15" s="35"/>
-      <c r="L15" s="89"/>
-      <c r="M15" s="90"/>
+      <c r="L15" s="79"/>
+      <c r="M15" s="80"/>
       <c r="N15" s="39"/>
       <c r="O15" s="35"/>
       <c r="P15" s="40"/>
@@ -5690,8 +5690,8 @@
       <c r="K16" s="35" t="s">
         <v>67</v>
       </c>
-      <c r="L16" s="89"/>
-      <c r="M16" s="90"/>
+      <c r="L16" s="79"/>
+      <c r="M16" s="80"/>
       <c r="N16" s="39"/>
       <c r="O16" s="35"/>
       <c r="P16" s="40"/>
@@ -5709,8 +5709,8 @@
       <c r="H17" s="36"/>
       <c r="I17" s="36"/>
       <c r="J17" s="35"/>
-      <c r="L17" s="89"/>
-      <c r="M17" s="90"/>
+      <c r="L17" s="79"/>
+      <c r="M17" s="80"/>
       <c r="N17" s="39"/>
       <c r="O17" s="35"/>
       <c r="P17" s="40"/>
@@ -5728,8 +5728,8 @@
       <c r="H18" s="36"/>
       <c r="I18" s="36"/>
       <c r="J18" s="35"/>
-      <c r="L18" s="89"/>
-      <c r="M18" s="90"/>
+      <c r="L18" s="79"/>
+      <c r="M18" s="80"/>
       <c r="N18" s="39"/>
       <c r="O18" s="35"/>
       <c r="P18" s="40"/>
@@ -5747,8 +5747,8 @@
       <c r="H19" s="36"/>
       <c r="I19" s="36"/>
       <c r="J19" s="35"/>
-      <c r="L19" s="89"/>
-      <c r="M19" s="90"/>
+      <c r="L19" s="79"/>
+      <c r="M19" s="80"/>
       <c r="N19" s="39"/>
       <c r="O19" s="35"/>
       <c r="P19" s="40"/>
@@ -5767,8 +5767,8 @@
       <c r="I20" s="36"/>
       <c r="J20" s="35"/>
       <c r="K20" s="35"/>
-      <c r="L20" s="89"/>
-      <c r="M20" s="90"/>
+      <c r="L20" s="79"/>
+      <c r="M20" s="80"/>
       <c r="N20" s="39"/>
       <c r="O20" s="35"/>
       <c r="P20" s="40"/>
@@ -5787,14 +5787,26 @@
       <c r="I21" s="36"/>
       <c r="J21" s="35"/>
       <c r="K21" s="35"/>
-      <c r="L21" s="89"/>
-      <c r="M21" s="90"/>
+      <c r="L21" s="79"/>
+      <c r="M21" s="80"/>
       <c r="N21" s="39"/>
       <c r="O21" s="35"/>
       <c r="P21" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="L20:M20"/>
     <mergeCell ref="L9:M9"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="D1:H1"/>
@@ -5808,18 +5820,6 @@
     <mergeCell ref="L6:M6"/>
     <mergeCell ref="L7:M7"/>
     <mergeCell ref="L8:M8"/>
-    <mergeCell ref="L21:M21"/>
-    <mergeCell ref="L10:M10"/>
-    <mergeCell ref="L11:M11"/>
-    <mergeCell ref="L12:M12"/>
-    <mergeCell ref="L13:M13"/>
-    <mergeCell ref="L14:M14"/>
-    <mergeCell ref="L15:M15"/>
-    <mergeCell ref="L16:M16"/>
-    <mergeCell ref="L17:M17"/>
-    <mergeCell ref="L18:M18"/>
-    <mergeCell ref="L19:M19"/>
-    <mergeCell ref="L20:M20"/>
   </mergeCells>
   <phoneticPr fontId="6"/>
   <pageMargins left="0.35433070866141736" right="0.35433070866141736" top="0.19685039370078741" bottom="0.19685039370078741" header="0.23622047244094491" footer="0.23622047244094491"/>
@@ -5856,25 +5856,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="15" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A1" s="79" t="s">
+      <c r="A1" s="97" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="79"/>
+      <c r="B1" s="97"/>
       <c r="C1" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="80" t="s">
+      <c r="D1" s="98" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="80"/>
-      <c r="F1" s="80"/>
-      <c r="G1" s="80"/>
-      <c r="H1" s="81"/>
-      <c r="I1" s="82" t="s">
+      <c r="E1" s="98"/>
+      <c r="F1" s="98"/>
+      <c r="G1" s="98"/>
+      <c r="H1" s="99"/>
+      <c r="I1" s="100" t="s">
         <v>14</v>
       </c>
-      <c r="J1" s="80"/>
-      <c r="K1" s="81"/>
+      <c r="J1" s="98"/>
+      <c r="K1" s="99"/>
       <c r="L1" s="12" t="s">
         <v>1</v>
       </c>
@@ -5884,29 +5884,29 @@
       <c r="N1" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="O1" s="83">
+      <c r="O1" s="101">
         <v>45482</v>
       </c>
-      <c r="P1" s="84"/>
+      <c r="P1" s="102"/>
     </row>
     <row r="2" spans="1:16" ht="20.25" customHeight="1">
-      <c r="A2" s="79"/>
-      <c r="B2" s="79"/>
+      <c r="A2" s="97"/>
+      <c r="B2" s="97"/>
       <c r="C2" s="16" t="s">
         <v>245</v>
       </c>
-      <c r="D2" s="85" t="s">
+      <c r="D2" s="103" t="s">
         <v>70</v>
       </c>
-      <c r="E2" s="85"/>
-      <c r="F2" s="85"/>
-      <c r="G2" s="85"/>
-      <c r="H2" s="86"/>
-      <c r="I2" s="87" t="s">
+      <c r="E2" s="103"/>
+      <c r="F2" s="103"/>
+      <c r="G2" s="103"/>
+      <c r="H2" s="104"/>
+      <c r="I2" s="105" t="s">
         <v>69</v>
       </c>
-      <c r="J2" s="85"/>
-      <c r="K2" s="86"/>
+      <c r="J2" s="103"/>
+      <c r="K2" s="104"/>
       <c r="L2" s="17" t="s">
         <v>2</v>
       </c>
@@ -5914,48 +5914,48 @@
       <c r="N2" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="O2" s="88"/>
-      <c r="P2" s="86"/>
+      <c r="O2" s="106"/>
+      <c r="P2" s="104"/>
     </row>
     <row r="3" spans="1:16" ht="20.25" customHeight="1">
-      <c r="A3" s="91" t="s">
+      <c r="A3" s="81" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="92"/>
-      <c r="C3" s="95" t="s">
+      <c r="B3" s="82"/>
+      <c r="C3" s="85" t="s">
         <v>182</v>
       </c>
-      <c r="D3" s="96"/>
-      <c r="E3" s="96"/>
-      <c r="F3" s="96"/>
-      <c r="G3" s="96"/>
-      <c r="H3" s="96"/>
-      <c r="I3" s="96"/>
-      <c r="J3" s="96"/>
-      <c r="K3" s="96"/>
-      <c r="L3" s="96"/>
-      <c r="M3" s="96"/>
-      <c r="N3" s="96"/>
-      <c r="O3" s="96"/>
-      <c r="P3" s="97"/>
+      <c r="D3" s="86"/>
+      <c r="E3" s="86"/>
+      <c r="F3" s="86"/>
+      <c r="G3" s="86"/>
+      <c r="H3" s="86"/>
+      <c r="I3" s="86"/>
+      <c r="J3" s="86"/>
+      <c r="K3" s="86"/>
+      <c r="L3" s="86"/>
+      <c r="M3" s="86"/>
+      <c r="N3" s="86"/>
+      <c r="O3" s="86"/>
+      <c r="P3" s="87"/>
     </row>
     <row r="4" spans="1:16" ht="20.25" customHeight="1">
-      <c r="A4" s="93"/>
-      <c r="B4" s="94"/>
-      <c r="C4" s="98"/>
-      <c r="D4" s="99"/>
-      <c r="E4" s="99"/>
-      <c r="F4" s="99"/>
-      <c r="G4" s="99"/>
-      <c r="H4" s="99"/>
-      <c r="I4" s="99"/>
-      <c r="J4" s="99"/>
-      <c r="K4" s="99"/>
-      <c r="L4" s="99"/>
-      <c r="M4" s="99"/>
-      <c r="N4" s="99"/>
-      <c r="O4" s="99"/>
-      <c r="P4" s="100"/>
+      <c r="A4" s="83"/>
+      <c r="B4" s="84"/>
+      <c r="C4" s="88"/>
+      <c r="D4" s="89"/>
+      <c r="E4" s="89"/>
+      <c r="F4" s="89"/>
+      <c r="G4" s="89"/>
+      <c r="H4" s="89"/>
+      <c r="I4" s="89"/>
+      <c r="J4" s="89"/>
+      <c r="K4" s="89"/>
+      <c r="L4" s="89"/>
+      <c r="M4" s="89"/>
+      <c r="N4" s="89"/>
+      <c r="O4" s="89"/>
+      <c r="P4" s="90"/>
     </row>
     <row r="5" spans="1:16" ht="20.25" customHeight="1">
       <c r="B5" s="20"/>
@@ -5996,10 +5996,10 @@
       <c r="K6" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="L6" s="101" t="s">
+      <c r="L6" s="91" t="s">
         <v>27</v>
       </c>
-      <c r="M6" s="102"/>
+      <c r="M6" s="92"/>
       <c r="N6" s="26" t="s">
         <v>28</v>
       </c>
@@ -6045,7 +6045,7 @@
       <c r="L7" s="107" t="s">
         <v>190</v>
       </c>
-      <c r="M7" s="104"/>
+      <c r="M7" s="94"/>
       <c r="N7" s="39"/>
       <c r="O7" s="35"/>
       <c r="P7" s="40"/>
@@ -6074,8 +6074,8 @@
       <c r="I8" s="36"/>
       <c r="J8" s="35"/>
       <c r="K8" s="35"/>
-      <c r="L8" s="105"/>
-      <c r="M8" s="106"/>
+      <c r="L8" s="95"/>
+      <c r="M8" s="96"/>
       <c r="N8" s="39"/>
       <c r="O8" s="35"/>
       <c r="P8" s="40"/>
@@ -6104,8 +6104,8 @@
       <c r="I9" s="36"/>
       <c r="J9" s="35"/>
       <c r="K9" s="35"/>
-      <c r="L9" s="89"/>
-      <c r="M9" s="90"/>
+      <c r="L9" s="79"/>
+      <c r="M9" s="80"/>
       <c r="N9" s="39"/>
       <c r="O9" s="35"/>
       <c r="P9" s="40"/>
@@ -6134,8 +6134,8 @@
       <c r="I10" s="36"/>
       <c r="J10" s="35"/>
       <c r="K10" s="35"/>
-      <c r="L10" s="89"/>
-      <c r="M10" s="90"/>
+      <c r="L10" s="79"/>
+      <c r="M10" s="80"/>
       <c r="N10" s="39"/>
       <c r="O10" s="35"/>
       <c r="P10" s="40"/>
@@ -6164,8 +6164,8 @@
       <c r="I11" s="36"/>
       <c r="J11" s="35"/>
       <c r="K11" s="35"/>
-      <c r="L11" s="89"/>
-      <c r="M11" s="90"/>
+      <c r="L11" s="79"/>
+      <c r="M11" s="80"/>
       <c r="N11" s="39"/>
       <c r="O11" s="35"/>
       <c r="P11" s="40"/>
@@ -6190,8 +6190,8 @@
       <c r="I12" s="36"/>
       <c r="J12" s="35"/>
       <c r="K12" s="35"/>
-      <c r="L12" s="89"/>
-      <c r="M12" s="90"/>
+      <c r="L12" s="79"/>
+      <c r="M12" s="80"/>
       <c r="N12" s="39"/>
       <c r="O12" s="35"/>
       <c r="P12" s="40"/>
@@ -6218,8 +6218,8 @@
       <c r="I13" s="36"/>
       <c r="J13" s="35"/>
       <c r="K13" s="35"/>
-      <c r="L13" s="89"/>
-      <c r="M13" s="90"/>
+      <c r="L13" s="79"/>
+      <c r="M13" s="80"/>
       <c r="N13" s="39"/>
       <c r="O13" s="35"/>
       <c r="P13" s="40"/>
@@ -6246,8 +6246,8 @@
       <c r="I14" s="36"/>
       <c r="J14" s="35"/>
       <c r="K14" s="35"/>
-      <c r="L14" s="89"/>
-      <c r="M14" s="90"/>
+      <c r="L14" s="79"/>
+      <c r="M14" s="80"/>
       <c r="N14" s="39"/>
       <c r="O14" s="35"/>
       <c r="P14" s="40"/>
@@ -6278,8 +6278,8 @@
       <c r="K15" s="35">
         <v>0</v>
       </c>
-      <c r="L15" s="89"/>
-      <c r="M15" s="90"/>
+      <c r="L15" s="79"/>
+      <c r="M15" s="80"/>
       <c r="N15" s="39"/>
       <c r="O15" s="35"/>
       <c r="P15" s="40"/>
@@ -6308,8 +6308,8 @@
       <c r="I16" s="36"/>
       <c r="J16" s="35"/>
       <c r="K16" s="35"/>
-      <c r="L16" s="89"/>
-      <c r="M16" s="90"/>
+      <c r="L16" s="79"/>
+      <c r="M16" s="80"/>
       <c r="N16" s="39"/>
       <c r="O16" s="35"/>
       <c r="P16" s="40"/>
@@ -6340,8 +6340,8 @@
       <c r="K17" s="35" t="s">
         <v>68</v>
       </c>
-      <c r="L17" s="89"/>
-      <c r="M17" s="90"/>
+      <c r="L17" s="79"/>
+      <c r="M17" s="80"/>
       <c r="N17" s="39"/>
       <c r="O17" s="35"/>
       <c r="P17" s="40"/>
@@ -6370,8 +6370,8 @@
       <c r="I18" s="36"/>
       <c r="J18" s="35"/>
       <c r="K18" s="35"/>
-      <c r="L18" s="89"/>
-      <c r="M18" s="90"/>
+      <c r="L18" s="79"/>
+      <c r="M18" s="80"/>
       <c r="N18" s="39"/>
       <c r="O18" s="35"/>
       <c r="P18" s="40"/>
@@ -6402,8 +6402,8 @@
       <c r="K19" s="35" t="s">
         <v>67</v>
       </c>
-      <c r="L19" s="89"/>
-      <c r="M19" s="90"/>
+      <c r="L19" s="79"/>
+      <c r="M19" s="80"/>
       <c r="N19" s="39"/>
       <c r="O19" s="35"/>
       <c r="P19" s="40"/>
@@ -6422,8 +6422,8 @@
       <c r="I20" s="36"/>
       <c r="J20" s="35"/>
       <c r="K20" s="35"/>
-      <c r="L20" s="89"/>
-      <c r="M20" s="90"/>
+      <c r="L20" s="79"/>
+      <c r="M20" s="80"/>
       <c r="N20" s="39"/>
       <c r="O20" s="35"/>
       <c r="P20" s="40"/>
@@ -6442,14 +6442,26 @@
       <c r="I21" s="36"/>
       <c r="J21" s="35"/>
       <c r="K21" s="35"/>
-      <c r="L21" s="89"/>
-      <c r="M21" s="90"/>
+      <c r="L21" s="79"/>
+      <c r="M21" s="80"/>
       <c r="N21" s="39"/>
       <c r="O21" s="35"/>
       <c r="P21" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="L20:M20"/>
     <mergeCell ref="L9:M9"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="D1:H1"/>
@@ -6463,18 +6475,6 @@
     <mergeCell ref="L6:M6"/>
     <mergeCell ref="L7:M7"/>
     <mergeCell ref="L8:M8"/>
-    <mergeCell ref="L21:M21"/>
-    <mergeCell ref="L10:M10"/>
-    <mergeCell ref="L11:M11"/>
-    <mergeCell ref="L12:M12"/>
-    <mergeCell ref="L13:M13"/>
-    <mergeCell ref="L14:M14"/>
-    <mergeCell ref="L15:M15"/>
-    <mergeCell ref="L16:M16"/>
-    <mergeCell ref="L17:M17"/>
-    <mergeCell ref="L18:M18"/>
-    <mergeCell ref="L19:M19"/>
-    <mergeCell ref="L20:M20"/>
   </mergeCells>
   <phoneticPr fontId="6"/>
   <pageMargins left="0.35433070866141736" right="0.35433070866141736" top="0.19685039370078741" bottom="0.19685039370078741" header="0.23622047244094491" footer="0.23622047244094491"/>
@@ -6511,25 +6511,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="15" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A1" s="79" t="s">
+      <c r="A1" s="97" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="79"/>
+      <c r="B1" s="97"/>
       <c r="C1" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="80" t="s">
+      <c r="D1" s="98" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="80"/>
-      <c r="F1" s="80"/>
-      <c r="G1" s="80"/>
-      <c r="H1" s="81"/>
-      <c r="I1" s="82" t="s">
+      <c r="E1" s="98"/>
+      <c r="F1" s="98"/>
+      <c r="G1" s="98"/>
+      <c r="H1" s="99"/>
+      <c r="I1" s="100" t="s">
         <v>14</v>
       </c>
-      <c r="J1" s="80"/>
-      <c r="K1" s="81"/>
+      <c r="J1" s="98"/>
+      <c r="K1" s="99"/>
       <c r="L1" s="12" t="s">
         <v>1</v>
       </c>
@@ -6539,29 +6539,29 @@
       <c r="N1" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="O1" s="83">
+      <c r="O1" s="101">
         <v>45481</v>
       </c>
-      <c r="P1" s="84"/>
+      <c r="P1" s="102"/>
     </row>
     <row r="2" spans="1:16" ht="20.25" customHeight="1">
-      <c r="A2" s="79"/>
-      <c r="B2" s="79"/>
+      <c r="A2" s="97"/>
+      <c r="B2" s="97"/>
       <c r="C2" s="16" t="s">
         <v>246</v>
       </c>
-      <c r="D2" s="85" t="s">
+      <c r="D2" s="103" t="s">
         <v>214</v>
       </c>
-      <c r="E2" s="85"/>
-      <c r="F2" s="85"/>
-      <c r="G2" s="85"/>
-      <c r="H2" s="86"/>
-      <c r="I2" s="87" t="s">
+      <c r="E2" s="103"/>
+      <c r="F2" s="103"/>
+      <c r="G2" s="103"/>
+      <c r="H2" s="104"/>
+      <c r="I2" s="105" t="s">
         <v>121</v>
       </c>
-      <c r="J2" s="85"/>
-      <c r="K2" s="86"/>
+      <c r="J2" s="103"/>
+      <c r="K2" s="104"/>
       <c r="L2" s="17" t="s">
         <v>2</v>
       </c>
@@ -6569,48 +6569,48 @@
       <c r="N2" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="O2" s="88"/>
-      <c r="P2" s="86"/>
+      <c r="O2" s="106"/>
+      <c r="P2" s="104"/>
     </row>
     <row r="3" spans="1:16" ht="20.25" customHeight="1">
-      <c r="A3" s="91" t="s">
+      <c r="A3" s="81" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="92"/>
-      <c r="C3" s="95" t="s">
+      <c r="B3" s="82"/>
+      <c r="C3" s="85" t="s">
         <v>216</v>
       </c>
-      <c r="D3" s="96"/>
-      <c r="E3" s="96"/>
-      <c r="F3" s="96"/>
-      <c r="G3" s="96"/>
-      <c r="H3" s="96"/>
-      <c r="I3" s="96"/>
-      <c r="J3" s="96"/>
-      <c r="K3" s="96"/>
-      <c r="L3" s="96"/>
-      <c r="M3" s="96"/>
-      <c r="N3" s="96"/>
-      <c r="O3" s="96"/>
-      <c r="P3" s="97"/>
+      <c r="D3" s="86"/>
+      <c r="E3" s="86"/>
+      <c r="F3" s="86"/>
+      <c r="G3" s="86"/>
+      <c r="H3" s="86"/>
+      <c r="I3" s="86"/>
+      <c r="J3" s="86"/>
+      <c r="K3" s="86"/>
+      <c r="L3" s="86"/>
+      <c r="M3" s="86"/>
+      <c r="N3" s="86"/>
+      <c r="O3" s="86"/>
+      <c r="P3" s="87"/>
     </row>
     <row r="4" spans="1:16" ht="20.25" customHeight="1">
-      <c r="A4" s="93"/>
-      <c r="B4" s="94"/>
-      <c r="C4" s="98"/>
-      <c r="D4" s="99"/>
-      <c r="E4" s="99"/>
-      <c r="F4" s="99"/>
-      <c r="G4" s="99"/>
-      <c r="H4" s="99"/>
-      <c r="I4" s="99"/>
-      <c r="J4" s="99"/>
-      <c r="K4" s="99"/>
-      <c r="L4" s="99"/>
-      <c r="M4" s="99"/>
-      <c r="N4" s="99"/>
-      <c r="O4" s="99"/>
-      <c r="P4" s="100"/>
+      <c r="A4" s="83"/>
+      <c r="B4" s="84"/>
+      <c r="C4" s="88"/>
+      <c r="D4" s="89"/>
+      <c r="E4" s="89"/>
+      <c r="F4" s="89"/>
+      <c r="G4" s="89"/>
+      <c r="H4" s="89"/>
+      <c r="I4" s="89"/>
+      <c r="J4" s="89"/>
+      <c r="K4" s="89"/>
+      <c r="L4" s="89"/>
+      <c r="M4" s="89"/>
+      <c r="N4" s="89"/>
+      <c r="O4" s="89"/>
+      <c r="P4" s="90"/>
     </row>
     <row r="5" spans="1:16" ht="20.25" customHeight="1">
       <c r="B5" s="20"/>
@@ -6651,10 +6651,10 @@
       <c r="K6" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="L6" s="101" t="s">
+      <c r="L6" s="91" t="s">
         <v>27</v>
       </c>
-      <c r="M6" s="102"/>
+      <c r="M6" s="92"/>
       <c r="N6" s="26" t="s">
         <v>28</v>
       </c>
@@ -6698,7 +6698,7 @@
       <c r="L7" s="107" t="s">
         <v>190</v>
       </c>
-      <c r="M7" s="104"/>
+      <c r="M7" s="94"/>
       <c r="N7" s="39"/>
       <c r="O7" s="35"/>
       <c r="P7" s="40"/>
@@ -6733,10 +6733,10 @@
         <v>31</v>
       </c>
       <c r="K8" s="35"/>
-      <c r="L8" s="105" t="s">
+      <c r="L8" s="95" t="s">
         <v>243</v>
       </c>
-      <c r="M8" s="106"/>
+      <c r="M8" s="96"/>
       <c r="N8" s="39"/>
       <c r="O8" s="35"/>
       <c r="P8" s="40"/>
@@ -6771,10 +6771,10 @@
         <v>31</v>
       </c>
       <c r="K9" s="35"/>
-      <c r="L9" s="89" t="s">
+      <c r="L9" s="79" t="s">
         <v>244</v>
       </c>
-      <c r="M9" s="90"/>
+      <c r="M9" s="80"/>
       <c r="N9" s="39"/>
       <c r="O9" s="35"/>
       <c r="P9" s="40"/>
@@ -6809,10 +6809,10 @@
         <v>31</v>
       </c>
       <c r="K10" s="35"/>
-      <c r="L10" s="89" t="s">
+      <c r="L10" s="79" t="s">
         <v>242</v>
       </c>
-      <c r="M10" s="90"/>
+      <c r="M10" s="80"/>
       <c r="N10" s="39"/>
       <c r="O10" s="35"/>
       <c r="P10" s="40"/>
@@ -6839,8 +6839,8 @@
       <c r="I11" s="36"/>
       <c r="J11" s="35"/>
       <c r="K11" s="35"/>
-      <c r="L11" s="89"/>
-      <c r="M11" s="90"/>
+      <c r="L11" s="79"/>
+      <c r="M11" s="80"/>
       <c r="N11" s="39"/>
       <c r="O11" s="35"/>
       <c r="P11" s="40"/>
@@ -6867,8 +6867,8 @@
       <c r="I12" s="36"/>
       <c r="J12" s="35"/>
       <c r="K12" s="35"/>
-      <c r="L12" s="89"/>
-      <c r="M12" s="90"/>
+      <c r="L12" s="79"/>
+      <c r="M12" s="80"/>
       <c r="N12" s="39"/>
       <c r="O12" s="35"/>
       <c r="P12" s="40"/>
@@ -6895,8 +6895,8 @@
       <c r="I13" s="36"/>
       <c r="J13" s="35"/>
       <c r="K13" s="35"/>
-      <c r="L13" s="89"/>
-      <c r="M13" s="90"/>
+      <c r="L13" s="79"/>
+      <c r="M13" s="80"/>
       <c r="N13" s="39"/>
       <c r="O13" s="35"/>
       <c r="P13" s="40"/>
@@ -6923,8 +6923,8 @@
       <c r="I14" s="36"/>
       <c r="J14" s="35"/>
       <c r="K14" s="35"/>
-      <c r="L14" s="89"/>
-      <c r="M14" s="90"/>
+      <c r="L14" s="79"/>
+      <c r="M14" s="80"/>
       <c r="N14" s="39"/>
       <c r="O14" s="35"/>
       <c r="P14" s="40"/>
@@ -6949,8 +6949,8 @@
       <c r="I15" s="36"/>
       <c r="J15" s="35"/>
       <c r="K15" s="35"/>
-      <c r="L15" s="89"/>
-      <c r="M15" s="90"/>
+      <c r="L15" s="79"/>
+      <c r="M15" s="80"/>
       <c r="N15" s="39"/>
       <c r="O15" s="35"/>
       <c r="P15" s="40"/>
@@ -6975,8 +6975,8 @@
       <c r="I16" s="36"/>
       <c r="J16" s="35"/>
       <c r="K16" s="35"/>
-      <c r="L16" s="89"/>
-      <c r="M16" s="90"/>
+      <c r="L16" s="79"/>
+      <c r="M16" s="80"/>
       <c r="N16" s="39"/>
       <c r="O16" s="35"/>
       <c r="P16" s="40"/>
@@ -7001,8 +7001,8 @@
       <c r="I17" s="36"/>
       <c r="J17" s="35"/>
       <c r="K17" s="35"/>
-      <c r="L17" s="89"/>
-      <c r="M17" s="90"/>
+      <c r="L17" s="79"/>
+      <c r="M17" s="80"/>
       <c r="N17" s="39"/>
       <c r="O17" s="35"/>
       <c r="P17" s="40"/>
@@ -7032,7 +7032,7 @@
       <c r="L18" s="108" t="s">
         <v>200</v>
       </c>
-      <c r="M18" s="90"/>
+      <c r="M18" s="80"/>
       <c r="N18" s="39" t="s">
         <v>201</v>
       </c>
@@ -7060,8 +7060,8 @@
       <c r="H19" s="36"/>
       <c r="I19" s="36"/>
       <c r="J19" s="35"/>
-      <c r="L19" s="89"/>
-      <c r="M19" s="90"/>
+      <c r="L19" s="79"/>
+      <c r="M19" s="80"/>
       <c r="N19" s="39"/>
       <c r="O19" s="35"/>
       <c r="P19" s="40"/>
@@ -7088,8 +7088,8 @@
       <c r="I20" s="36"/>
       <c r="J20" s="35"/>
       <c r="K20" s="35"/>
-      <c r="L20" s="89"/>
-      <c r="M20" s="90"/>
+      <c r="L20" s="79"/>
+      <c r="M20" s="80"/>
       <c r="N20" s="39"/>
       <c r="O20" s="35"/>
       <c r="P20" s="40"/>
@@ -7120,8 +7120,8 @@
       <c r="K21" s="35">
         <v>0</v>
       </c>
-      <c r="L21" s="89"/>
-      <c r="M21" s="90"/>
+      <c r="L21" s="79"/>
+      <c r="M21" s="80"/>
       <c r="N21" s="39"/>
       <c r="O21" s="35"/>
       <c r="P21" s="40"/>
@@ -7150,8 +7150,8 @@
       <c r="I22" s="36"/>
       <c r="J22" s="35"/>
       <c r="K22" s="35"/>
-      <c r="L22" s="89"/>
-      <c r="M22" s="90"/>
+      <c r="L22" s="79"/>
+      <c r="M22" s="80"/>
       <c r="N22" s="39"/>
       <c r="O22" s="35"/>
       <c r="P22" s="40"/>
@@ -7180,8 +7180,8 @@
       <c r="K23" s="35" t="s">
         <v>68</v>
       </c>
-      <c r="L23" s="89"/>
-      <c r="M23" s="90"/>
+      <c r="L23" s="79"/>
+      <c r="M23" s="80"/>
       <c r="N23" s="39"/>
       <c r="O23" s="35"/>
       <c r="P23" s="40"/>
@@ -7210,8 +7210,8 @@
       <c r="I24" s="36"/>
       <c r="J24" s="35"/>
       <c r="K24" s="35"/>
-      <c r="L24" s="89"/>
-      <c r="M24" s="90"/>
+      <c r="L24" s="79"/>
+      <c r="M24" s="80"/>
       <c r="N24" s="39"/>
       <c r="O24" s="35"/>
       <c r="P24" s="40"/>
@@ -7240,8 +7240,8 @@
       <c r="K25" s="35" t="s">
         <v>68</v>
       </c>
-      <c r="L25" s="89"/>
-      <c r="M25" s="90"/>
+      <c r="L25" s="79"/>
+      <c r="M25" s="80"/>
       <c r="N25" s="39"/>
       <c r="O25" s="35"/>
       <c r="P25" s="40"/>
@@ -7260,8 +7260,8 @@
       <c r="I26" s="36"/>
       <c r="J26" s="35"/>
       <c r="K26" s="35"/>
-      <c r="L26" s="89"/>
-      <c r="M26" s="90"/>
+      <c r="L26" s="79"/>
+      <c r="M26" s="80"/>
       <c r="N26" s="39"/>
       <c r="O26" s="35"/>
       <c r="P26" s="40"/>
@@ -7280,21 +7280,26 @@
       <c r="I27" s="36"/>
       <c r="J27" s="35"/>
       <c r="K27" s="35"/>
-      <c r="L27" s="89"/>
-      <c r="M27" s="90"/>
+      <c r="L27" s="79"/>
+      <c r="M27" s="80"/>
       <c r="N27" s="39"/>
       <c r="O27" s="35"/>
       <c r="P27" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="D1:H1"/>
-    <mergeCell ref="I1:K1"/>
-    <mergeCell ref="O1:P1"/>
-    <mergeCell ref="D2:H2"/>
-    <mergeCell ref="I2:K2"/>
-    <mergeCell ref="O2:P2"/>
+    <mergeCell ref="L27:M27"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="L20:M20"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="L22:M22"/>
+    <mergeCell ref="L23:M23"/>
+    <mergeCell ref="L24:M24"/>
+    <mergeCell ref="L25:M25"/>
+    <mergeCell ref="L26:M26"/>
     <mergeCell ref="L15:M15"/>
     <mergeCell ref="A3:B4"/>
     <mergeCell ref="C3:P4"/>
@@ -7307,18 +7312,13 @@
     <mergeCell ref="L12:M12"/>
     <mergeCell ref="L13:M13"/>
     <mergeCell ref="L14:M14"/>
-    <mergeCell ref="L27:M27"/>
-    <mergeCell ref="L16:M16"/>
-    <mergeCell ref="L17:M17"/>
-    <mergeCell ref="L18:M18"/>
-    <mergeCell ref="L19:M19"/>
-    <mergeCell ref="L20:M20"/>
-    <mergeCell ref="L21:M21"/>
-    <mergeCell ref="L22:M22"/>
-    <mergeCell ref="L23:M23"/>
-    <mergeCell ref="L24:M24"/>
-    <mergeCell ref="L25:M25"/>
-    <mergeCell ref="L26:M26"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="D1:H1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="O1:P1"/>
+    <mergeCell ref="D2:H2"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="O2:P2"/>
   </mergeCells>
   <phoneticPr fontId="6"/>
   <pageMargins left="0.35433070866141736" right="0.35433070866141736" top="0.19685039370078741" bottom="0.19685039370078741" header="0.23622047244094491" footer="0.23622047244094491"/>
@@ -7355,25 +7355,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="15" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A1" s="79" t="s">
+      <c r="A1" s="97" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="79"/>
+      <c r="B1" s="97"/>
       <c r="C1" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="80" t="s">
+      <c r="D1" s="98" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="80"/>
-      <c r="F1" s="80"/>
-      <c r="G1" s="80"/>
-      <c r="H1" s="81"/>
-      <c r="I1" s="82" t="s">
+      <c r="E1" s="98"/>
+      <c r="F1" s="98"/>
+      <c r="G1" s="98"/>
+      <c r="H1" s="99"/>
+      <c r="I1" s="100" t="s">
         <v>14</v>
       </c>
-      <c r="J1" s="80"/>
-      <c r="K1" s="81"/>
+      <c r="J1" s="98"/>
+      <c r="K1" s="99"/>
       <c r="L1" s="12" t="s">
         <v>1</v>
       </c>
@@ -7383,29 +7383,29 @@
       <c r="N1" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="O1" s="83">
+      <c r="O1" s="101">
         <v>45481</v>
       </c>
-      <c r="P1" s="84"/>
+      <c r="P1" s="102"/>
     </row>
     <row r="2" spans="1:16" ht="20.25" customHeight="1">
-      <c r="A2" s="79"/>
-      <c r="B2" s="79"/>
+      <c r="A2" s="97"/>
+      <c r="B2" s="97"/>
       <c r="C2" s="16" t="s">
         <v>247</v>
       </c>
-      <c r="D2" s="85" t="s">
+      <c r="D2" s="103" t="s">
         <v>215</v>
       </c>
-      <c r="E2" s="85"/>
-      <c r="F2" s="85"/>
-      <c r="G2" s="85"/>
-      <c r="H2" s="86"/>
-      <c r="I2" s="87" t="s">
+      <c r="E2" s="103"/>
+      <c r="F2" s="103"/>
+      <c r="G2" s="103"/>
+      <c r="H2" s="104"/>
+      <c r="I2" s="105" t="s">
         <v>141</v>
       </c>
-      <c r="J2" s="85"/>
-      <c r="K2" s="86"/>
+      <c r="J2" s="103"/>
+      <c r="K2" s="104"/>
       <c r="L2" s="17" t="s">
         <v>2</v>
       </c>
@@ -7413,48 +7413,48 @@
       <c r="N2" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="O2" s="88"/>
-      <c r="P2" s="86"/>
+      <c r="O2" s="106"/>
+      <c r="P2" s="104"/>
     </row>
     <row r="3" spans="1:16" ht="20.25" customHeight="1">
-      <c r="A3" s="91" t="s">
+      <c r="A3" s="81" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="92"/>
-      <c r="C3" s="95" t="s">
+      <c r="B3" s="82"/>
+      <c r="C3" s="85" t="s">
         <v>215</v>
       </c>
-      <c r="D3" s="96"/>
-      <c r="E3" s="96"/>
-      <c r="F3" s="96"/>
-      <c r="G3" s="96"/>
-      <c r="H3" s="96"/>
-      <c r="I3" s="96"/>
-      <c r="J3" s="96"/>
-      <c r="K3" s="96"/>
-      <c r="L3" s="96"/>
-      <c r="M3" s="96"/>
-      <c r="N3" s="96"/>
-      <c r="O3" s="96"/>
-      <c r="P3" s="97"/>
+      <c r="D3" s="86"/>
+      <c r="E3" s="86"/>
+      <c r="F3" s="86"/>
+      <c r="G3" s="86"/>
+      <c r="H3" s="86"/>
+      <c r="I3" s="86"/>
+      <c r="J3" s="86"/>
+      <c r="K3" s="86"/>
+      <c r="L3" s="86"/>
+      <c r="M3" s="86"/>
+      <c r="N3" s="86"/>
+      <c r="O3" s="86"/>
+      <c r="P3" s="87"/>
     </row>
     <row r="4" spans="1:16" ht="20.25" customHeight="1">
-      <c r="A4" s="93"/>
-      <c r="B4" s="94"/>
-      <c r="C4" s="98"/>
-      <c r="D4" s="99"/>
-      <c r="E4" s="99"/>
-      <c r="F4" s="99"/>
-      <c r="G4" s="99"/>
-      <c r="H4" s="99"/>
-      <c r="I4" s="99"/>
-      <c r="J4" s="99"/>
-      <c r="K4" s="99"/>
-      <c r="L4" s="99"/>
-      <c r="M4" s="99"/>
-      <c r="N4" s="99"/>
-      <c r="O4" s="99"/>
-      <c r="P4" s="100"/>
+      <c r="A4" s="83"/>
+      <c r="B4" s="84"/>
+      <c r="C4" s="88"/>
+      <c r="D4" s="89"/>
+      <c r="E4" s="89"/>
+      <c r="F4" s="89"/>
+      <c r="G4" s="89"/>
+      <c r="H4" s="89"/>
+      <c r="I4" s="89"/>
+      <c r="J4" s="89"/>
+      <c r="K4" s="89"/>
+      <c r="L4" s="89"/>
+      <c r="M4" s="89"/>
+      <c r="N4" s="89"/>
+      <c r="O4" s="89"/>
+      <c r="P4" s="90"/>
     </row>
     <row r="5" spans="1:16" ht="20.25" customHeight="1">
       <c r="B5" s="20"/>
@@ -7495,10 +7495,10 @@
       <c r="K6" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="L6" s="101" t="s">
+      <c r="L6" s="91" t="s">
         <v>27</v>
       </c>
-      <c r="M6" s="102"/>
+      <c r="M6" s="92"/>
       <c r="N6" s="26" t="s">
         <v>28</v>
       </c>
@@ -7542,7 +7542,7 @@
       <c r="L7" s="107" t="s">
         <v>190</v>
       </c>
-      <c r="M7" s="104"/>
+      <c r="M7" s="94"/>
       <c r="N7" s="39"/>
       <c r="O7" s="35"/>
       <c r="P7" s="40"/>
@@ -7577,8 +7577,8 @@
         <v>31</v>
       </c>
       <c r="K8" s="35"/>
-      <c r="L8" s="105"/>
-      <c r="M8" s="106"/>
+      <c r="L8" s="95"/>
+      <c r="M8" s="96"/>
       <c r="N8" s="39"/>
       <c r="O8" s="35"/>
       <c r="P8" s="40"/>
@@ -7605,8 +7605,8 @@
       <c r="I9" s="36"/>
       <c r="J9" s="35"/>
       <c r="K9" s="35"/>
-      <c r="L9" s="89"/>
-      <c r="M9" s="90"/>
+      <c r="L9" s="79"/>
+      <c r="M9" s="80"/>
       <c r="N9" s="39"/>
       <c r="O9" s="35"/>
       <c r="P9" s="40"/>
@@ -7633,8 +7633,8 @@
       <c r="I10" s="36"/>
       <c r="J10" s="35"/>
       <c r="K10" s="35"/>
-      <c r="L10" s="89"/>
-      <c r="M10" s="90"/>
+      <c r="L10" s="79"/>
+      <c r="M10" s="80"/>
       <c r="N10" s="39"/>
       <c r="O10" s="35"/>
       <c r="P10" s="40"/>
@@ -7661,8 +7661,8 @@
       <c r="I11" s="36"/>
       <c r="J11" s="35"/>
       <c r="K11" s="35"/>
-      <c r="L11" s="89"/>
-      <c r="M11" s="90"/>
+      <c r="L11" s="79"/>
+      <c r="M11" s="80"/>
       <c r="N11" s="39"/>
       <c r="O11" s="35"/>
       <c r="P11" s="40"/>
@@ -7693,8 +7693,8 @@
       <c r="K12" s="35">
         <v>0</v>
       </c>
-      <c r="L12" s="89"/>
-      <c r="M12" s="90"/>
+      <c r="L12" s="79"/>
+      <c r="M12" s="80"/>
       <c r="N12" s="39"/>
       <c r="O12" s="35"/>
       <c r="P12" s="40"/>
@@ -7723,8 +7723,8 @@
       <c r="I13" s="36"/>
       <c r="J13" s="35"/>
       <c r="K13" s="35"/>
-      <c r="L13" s="89"/>
-      <c r="M13" s="90"/>
+      <c r="L13" s="79"/>
+      <c r="M13" s="80"/>
       <c r="N13" s="39"/>
       <c r="O13" s="35"/>
       <c r="P13" s="40"/>
@@ -7753,10 +7753,10 @@
       <c r="I14" s="36"/>
       <c r="J14" s="35"/>
       <c r="K14" s="35"/>
-      <c r="L14" s="89" t="s">
+      <c r="L14" s="79" t="s">
         <v>202</v>
       </c>
-      <c r="M14" s="90"/>
+      <c r="M14" s="80"/>
       <c r="N14" s="39"/>
       <c r="O14" s="35"/>
       <c r="P14" s="40"/>
@@ -7785,8 +7785,8 @@
       <c r="I15" s="36"/>
       <c r="J15" s="35"/>
       <c r="K15" s="35"/>
-      <c r="L15" s="89"/>
-      <c r="M15" s="90"/>
+      <c r="L15" s="79"/>
+      <c r="M15" s="80"/>
       <c r="N15" s="39"/>
       <c r="O15" s="35"/>
       <c r="P15" s="40"/>
@@ -7815,8 +7815,8 @@
       <c r="I16" s="36"/>
       <c r="J16" s="35"/>
       <c r="K16" s="35"/>
-      <c r="L16" s="89"/>
-      <c r="M16" s="90"/>
+      <c r="L16" s="79"/>
+      <c r="M16" s="80"/>
       <c r="N16" s="39"/>
       <c r="O16" s="35"/>
       <c r="P16" s="40"/>
@@ -7843,8 +7843,8 @@
       <c r="I17" s="36"/>
       <c r="J17" s="35"/>
       <c r="K17" s="35"/>
-      <c r="L17" s="89"/>
-      <c r="M17" s="90"/>
+      <c r="L17" s="79"/>
+      <c r="M17" s="80"/>
       <c r="N17" s="39"/>
       <c r="O17" s="35"/>
       <c r="P17" s="40"/>
@@ -7871,8 +7871,8 @@
       <c r="K18" s="35" t="s">
         <v>68</v>
       </c>
-      <c r="L18" s="89"/>
-      <c r="M18" s="90"/>
+      <c r="L18" s="79"/>
+      <c r="M18" s="80"/>
       <c r="N18" s="39"/>
       <c r="O18" s="35"/>
       <c r="P18" s="40"/>
@@ -7899,8 +7899,8 @@
       <c r="I19" s="36"/>
       <c r="J19" s="35"/>
       <c r="K19" s="35"/>
-      <c r="L19" s="89"/>
-      <c r="M19" s="90"/>
+      <c r="L19" s="79"/>
+      <c r="M19" s="80"/>
       <c r="N19" s="39"/>
       <c r="O19" s="35"/>
       <c r="P19" s="40"/>
@@ -7927,8 +7927,8 @@
       <c r="K20" s="35" t="s">
         <v>67</v>
       </c>
-      <c r="L20" s="89"/>
-      <c r="M20" s="90"/>
+      <c r="L20" s="79"/>
+      <c r="M20" s="80"/>
       <c r="N20" s="39"/>
       <c r="O20" s="35"/>
       <c r="P20" s="40"/>
@@ -7947,14 +7947,26 @@
       <c r="I21" s="36"/>
       <c r="J21" s="35"/>
       <c r="K21" s="35"/>
-      <c r="L21" s="89"/>
-      <c r="M21" s="90"/>
+      <c r="L21" s="79"/>
+      <c r="M21" s="80"/>
       <c r="N21" s="39"/>
       <c r="O21" s="35"/>
       <c r="P21" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="L20:M20"/>
     <mergeCell ref="L9:M9"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="D1:H1"/>
@@ -7968,18 +7980,6 @@
     <mergeCell ref="L6:M6"/>
     <mergeCell ref="L7:M7"/>
     <mergeCell ref="L8:M8"/>
-    <mergeCell ref="L21:M21"/>
-    <mergeCell ref="L10:M10"/>
-    <mergeCell ref="L11:M11"/>
-    <mergeCell ref="L12:M12"/>
-    <mergeCell ref="L13:M13"/>
-    <mergeCell ref="L14:M14"/>
-    <mergeCell ref="L15:M15"/>
-    <mergeCell ref="L16:M16"/>
-    <mergeCell ref="L17:M17"/>
-    <mergeCell ref="L18:M18"/>
-    <mergeCell ref="L19:M19"/>
-    <mergeCell ref="L20:M20"/>
   </mergeCells>
   <phoneticPr fontId="6"/>
   <pageMargins left="0.35433070866141736" right="0.35433070866141736" top="0.19685039370078741" bottom="0.19685039370078741" header="0.23622047244094491" footer="0.23622047244094491"/>
@@ -8016,25 +8016,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="15" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A1" s="79" t="s">
+      <c r="A1" s="97" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="79"/>
+      <c r="B1" s="97"/>
       <c r="C1" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="80" t="s">
+      <c r="D1" s="98" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="80"/>
-      <c r="F1" s="80"/>
-      <c r="G1" s="80"/>
-      <c r="H1" s="81"/>
-      <c r="I1" s="82" t="s">
+      <c r="E1" s="98"/>
+      <c r="F1" s="98"/>
+      <c r="G1" s="98"/>
+      <c r="H1" s="99"/>
+      <c r="I1" s="100" t="s">
         <v>14</v>
       </c>
-      <c r="J1" s="80"/>
-      <c r="K1" s="81"/>
+      <c r="J1" s="98"/>
+      <c r="K1" s="99"/>
       <c r="L1" s="12" t="s">
         <v>1</v>
       </c>
@@ -8044,29 +8044,29 @@
       <c r="N1" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="O1" s="83">
+      <c r="O1" s="101">
         <v>45481</v>
       </c>
-      <c r="P1" s="84"/>
+      <c r="P1" s="102"/>
     </row>
     <row r="2" spans="1:16" ht="20.25" customHeight="1">
-      <c r="A2" s="79"/>
-      <c r="B2" s="79"/>
+      <c r="A2" s="97"/>
+      <c r="B2" s="97"/>
       <c r="C2" s="16" t="s">
         <v>248</v>
       </c>
-      <c r="D2" s="85" t="s">
+      <c r="D2" s="103" t="s">
         <v>147</v>
       </c>
-      <c r="E2" s="85"/>
-      <c r="F2" s="85"/>
-      <c r="G2" s="85"/>
-      <c r="H2" s="86"/>
-      <c r="I2" s="87" t="s">
+      <c r="E2" s="103"/>
+      <c r="F2" s="103"/>
+      <c r="G2" s="103"/>
+      <c r="H2" s="104"/>
+      <c r="I2" s="105" t="s">
         <v>146</v>
       </c>
-      <c r="J2" s="85"/>
-      <c r="K2" s="86"/>
+      <c r="J2" s="103"/>
+      <c r="K2" s="104"/>
       <c r="L2" s="17" t="s">
         <v>2</v>
       </c>
@@ -8074,48 +8074,48 @@
       <c r="N2" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="O2" s="88"/>
-      <c r="P2" s="86"/>
+      <c r="O2" s="106"/>
+      <c r="P2" s="104"/>
     </row>
     <row r="3" spans="1:16" ht="20.25" customHeight="1">
-      <c r="A3" s="91" t="s">
+      <c r="A3" s="81" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="92"/>
-      <c r="C3" s="95" t="s">
+      <c r="B3" s="82"/>
+      <c r="C3" s="85" t="s">
         <v>239</v>
       </c>
-      <c r="D3" s="96"/>
-      <c r="E3" s="96"/>
-      <c r="F3" s="96"/>
-      <c r="G3" s="96"/>
-      <c r="H3" s="96"/>
-      <c r="I3" s="96"/>
-      <c r="J3" s="96"/>
-      <c r="K3" s="96"/>
-      <c r="L3" s="96"/>
-      <c r="M3" s="96"/>
-      <c r="N3" s="96"/>
-      <c r="O3" s="96"/>
-      <c r="P3" s="97"/>
+      <c r="D3" s="86"/>
+      <c r="E3" s="86"/>
+      <c r="F3" s="86"/>
+      <c r="G3" s="86"/>
+      <c r="H3" s="86"/>
+      <c r="I3" s="86"/>
+      <c r="J3" s="86"/>
+      <c r="K3" s="86"/>
+      <c r="L3" s="86"/>
+      <c r="M3" s="86"/>
+      <c r="N3" s="86"/>
+      <c r="O3" s="86"/>
+      <c r="P3" s="87"/>
     </row>
     <row r="4" spans="1:16" ht="20.25" customHeight="1">
-      <c r="A4" s="93"/>
-      <c r="B4" s="94"/>
-      <c r="C4" s="98"/>
-      <c r="D4" s="99"/>
-      <c r="E4" s="99"/>
-      <c r="F4" s="99"/>
-      <c r="G4" s="99"/>
-      <c r="H4" s="99"/>
-      <c r="I4" s="99"/>
-      <c r="J4" s="99"/>
-      <c r="K4" s="99"/>
-      <c r="L4" s="99"/>
-      <c r="M4" s="99"/>
-      <c r="N4" s="99"/>
-      <c r="O4" s="99"/>
-      <c r="P4" s="100"/>
+      <c r="A4" s="83"/>
+      <c r="B4" s="84"/>
+      <c r="C4" s="88"/>
+      <c r="D4" s="89"/>
+      <c r="E4" s="89"/>
+      <c r="F4" s="89"/>
+      <c r="G4" s="89"/>
+      <c r="H4" s="89"/>
+      <c r="I4" s="89"/>
+      <c r="J4" s="89"/>
+      <c r="K4" s="89"/>
+      <c r="L4" s="89"/>
+      <c r="M4" s="89"/>
+      <c r="N4" s="89"/>
+      <c r="O4" s="89"/>
+      <c r="P4" s="90"/>
     </row>
     <row r="5" spans="1:16" ht="20.25" customHeight="1">
       <c r="B5" s="20"/>
@@ -8156,10 +8156,10 @@
       <c r="K6" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="L6" s="101" t="s">
+      <c r="L6" s="91" t="s">
         <v>27</v>
       </c>
-      <c r="M6" s="102"/>
+      <c r="M6" s="92"/>
       <c r="N6" s="26" t="s">
         <v>28</v>
       </c>
@@ -8198,8 +8198,8 @@
         <v>31</v>
       </c>
       <c r="K7" s="35"/>
-      <c r="L7" s="103"/>
-      <c r="M7" s="104"/>
+      <c r="L7" s="93"/>
+      <c r="M7" s="94"/>
       <c r="N7" s="39"/>
       <c r="O7" s="35"/>
       <c r="P7" s="40"/>
@@ -8226,8 +8226,8 @@
       <c r="I8" s="36"/>
       <c r="J8" s="35"/>
       <c r="K8" s="35"/>
-      <c r="L8" s="105"/>
-      <c r="M8" s="106"/>
+      <c r="L8" s="95"/>
+      <c r="M8" s="96"/>
       <c r="N8" s="39"/>
       <c r="O8" s="35"/>
       <c r="P8" s="40"/>
@@ -8254,8 +8254,8 @@
       <c r="I9" s="36"/>
       <c r="J9" s="35"/>
       <c r="K9" s="35"/>
-      <c r="L9" s="89"/>
-      <c r="M9" s="90"/>
+      <c r="L9" s="79"/>
+      <c r="M9" s="80"/>
       <c r="N9" s="39"/>
       <c r="O9" s="35"/>
       <c r="P9" s="40"/>
@@ -8282,8 +8282,8 @@
       <c r="I10" s="36"/>
       <c r="J10" s="35"/>
       <c r="K10" s="35"/>
-      <c r="L10" s="89"/>
-      <c r="M10" s="90"/>
+      <c r="L10" s="79"/>
+      <c r="M10" s="80"/>
       <c r="N10" s="39"/>
       <c r="O10" s="35"/>
       <c r="P10" s="40"/>
@@ -8312,8 +8312,8 @@
       <c r="I11" s="36"/>
       <c r="J11" s="35"/>
       <c r="K11" s="35"/>
-      <c r="L11" s="89"/>
-      <c r="M11" s="90"/>
+      <c r="L11" s="79"/>
+      <c r="M11" s="80"/>
       <c r="N11" s="39"/>
       <c r="O11" s="35"/>
       <c r="P11" s="40"/>
@@ -8342,8 +8342,8 @@
       <c r="K12" s="35" t="s">
         <v>68</v>
       </c>
-      <c r="L12" s="89"/>
-      <c r="M12" s="90"/>
+      <c r="L12" s="79"/>
+      <c r="M12" s="80"/>
       <c r="N12" s="39"/>
       <c r="O12" s="35"/>
       <c r="P12" s="40"/>
@@ -8360,8 +8360,8 @@
       <c r="I13" s="36"/>
       <c r="J13" s="35"/>
       <c r="K13" s="35"/>
-      <c r="L13" s="89"/>
-      <c r="M13" s="90"/>
+      <c r="L13" s="79"/>
+      <c r="M13" s="80"/>
       <c r="N13" s="39"/>
       <c r="O13" s="35"/>
       <c r="P13" s="40"/>
@@ -8378,8 +8378,8 @@
       <c r="I14" s="36"/>
       <c r="J14" s="35"/>
       <c r="K14" s="35"/>
-      <c r="L14" s="89"/>
-      <c r="M14" s="90"/>
+      <c r="L14" s="79"/>
+      <c r="M14" s="80"/>
       <c r="N14" s="39"/>
       <c r="O14" s="35"/>
       <c r="P14" s="40"/>
@@ -8396,8 +8396,8 @@
       <c r="I15" s="36"/>
       <c r="J15" s="35"/>
       <c r="K15" s="35"/>
-      <c r="L15" s="89"/>
-      <c r="M15" s="90"/>
+      <c r="L15" s="79"/>
+      <c r="M15" s="80"/>
       <c r="N15" s="39"/>
       <c r="O15" s="35"/>
       <c r="P15" s="40"/>
@@ -8414,8 +8414,8 @@
       <c r="I16" s="36"/>
       <c r="J16" s="35"/>
       <c r="K16" s="35"/>
-      <c r="L16" s="89"/>
-      <c r="M16" s="90"/>
+      <c r="L16" s="79"/>
+      <c r="M16" s="80"/>
       <c r="N16" s="39"/>
       <c r="O16" s="35"/>
       <c r="P16" s="40"/>
@@ -8432,8 +8432,8 @@
       <c r="I17" s="36"/>
       <c r="J17" s="35"/>
       <c r="K17" s="35"/>
-      <c r="L17" s="89"/>
-      <c r="M17" s="90"/>
+      <c r="L17" s="79"/>
+      <c r="M17" s="80"/>
       <c r="N17" s="39"/>
       <c r="O17" s="35"/>
       <c r="P17" s="40"/>
@@ -8450,8 +8450,8 @@
       <c r="I18" s="36"/>
       <c r="J18" s="35"/>
       <c r="K18" s="35"/>
-      <c r="L18" s="89"/>
-      <c r="M18" s="90"/>
+      <c r="L18" s="79"/>
+      <c r="M18" s="80"/>
       <c r="N18" s="39"/>
       <c r="O18" s="35"/>
       <c r="P18" s="40"/>
@@ -8468,8 +8468,8 @@
       <c r="I19" s="36"/>
       <c r="J19" s="35"/>
       <c r="K19" s="35"/>
-      <c r="L19" s="89"/>
-      <c r="M19" s="90"/>
+      <c r="L19" s="79"/>
+      <c r="M19" s="80"/>
       <c r="N19" s="39"/>
       <c r="O19" s="35"/>
       <c r="P19" s="40"/>
@@ -8486,8 +8486,8 @@
       <c r="I20" s="36"/>
       <c r="J20" s="35"/>
       <c r="K20" s="35"/>
-      <c r="L20" s="89"/>
-      <c r="M20" s="90"/>
+      <c r="L20" s="79"/>
+      <c r="M20" s="80"/>
       <c r="N20" s="39"/>
       <c r="O20" s="35"/>
       <c r="P20" s="40"/>
@@ -8504,14 +8504,26 @@
       <c r="I21" s="36"/>
       <c r="J21" s="35"/>
       <c r="K21" s="35"/>
-      <c r="L21" s="89"/>
-      <c r="M21" s="90"/>
+      <c r="L21" s="79"/>
+      <c r="M21" s="80"/>
       <c r="N21" s="39"/>
       <c r="O21" s="35"/>
       <c r="P21" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="L20:M20"/>
     <mergeCell ref="L9:M9"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="D1:H1"/>
@@ -8525,18 +8537,6 @@
     <mergeCell ref="L6:M6"/>
     <mergeCell ref="L7:M7"/>
     <mergeCell ref="L8:M8"/>
-    <mergeCell ref="L21:M21"/>
-    <mergeCell ref="L10:M10"/>
-    <mergeCell ref="L11:M11"/>
-    <mergeCell ref="L12:M12"/>
-    <mergeCell ref="L13:M13"/>
-    <mergeCell ref="L14:M14"/>
-    <mergeCell ref="L15:M15"/>
-    <mergeCell ref="L16:M16"/>
-    <mergeCell ref="L17:M17"/>
-    <mergeCell ref="L18:M18"/>
-    <mergeCell ref="L19:M19"/>
-    <mergeCell ref="L20:M20"/>
   </mergeCells>
   <phoneticPr fontId="6"/>
   <pageMargins left="0.35433070866141736" right="0.35433070866141736" top="0.19685039370078741" bottom="0.19685039370078741" header="0.23622047244094491" footer="0.23622047244094491"/>
@@ -8573,25 +8573,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="15" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A1" s="79" t="s">
+      <c r="A1" s="97" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="79"/>
+      <c r="B1" s="97"/>
       <c r="C1" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="80" t="s">
+      <c r="D1" s="98" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="80"/>
-      <c r="F1" s="80"/>
-      <c r="G1" s="80"/>
-      <c r="H1" s="81"/>
-      <c r="I1" s="82" t="s">
+      <c r="E1" s="98"/>
+      <c r="F1" s="98"/>
+      <c r="G1" s="98"/>
+      <c r="H1" s="99"/>
+      <c r="I1" s="100" t="s">
         <v>14</v>
       </c>
-      <c r="J1" s="80"/>
-      <c r="K1" s="81"/>
+      <c r="J1" s="98"/>
+      <c r="K1" s="99"/>
       <c r="L1" s="12" t="s">
         <v>1</v>
       </c>
@@ -8601,29 +8601,29 @@
       <c r="N1" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="O1" s="83">
+      <c r="O1" s="101">
         <v>45481</v>
       </c>
-      <c r="P1" s="84"/>
+      <c r="P1" s="102"/>
     </row>
     <row r="2" spans="1:16" ht="20.25" customHeight="1">
-      <c r="A2" s="79"/>
-      <c r="B2" s="79"/>
+      <c r="A2" s="97"/>
+      <c r="B2" s="97"/>
       <c r="C2" s="16" t="s">
         <v>249</v>
       </c>
-      <c r="D2" s="85" t="s">
+      <c r="D2" s="103" t="s">
         <v>206</v>
       </c>
-      <c r="E2" s="85"/>
-      <c r="F2" s="85"/>
-      <c r="G2" s="85"/>
-      <c r="H2" s="86"/>
-      <c r="I2" s="87" t="s">
+      <c r="E2" s="103"/>
+      <c r="F2" s="103"/>
+      <c r="G2" s="103"/>
+      <c r="H2" s="104"/>
+      <c r="I2" s="105" t="s">
         <v>167</v>
       </c>
-      <c r="J2" s="85"/>
-      <c r="K2" s="86"/>
+      <c r="J2" s="103"/>
+      <c r="K2" s="104"/>
       <c r="L2" s="17" t="s">
         <v>2</v>
       </c>
@@ -8631,48 +8631,48 @@
       <c r="N2" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="O2" s="88"/>
-      <c r="P2" s="86"/>
+      <c r="O2" s="106"/>
+      <c r="P2" s="104"/>
     </row>
     <row r="3" spans="1:16" ht="20.25" customHeight="1">
-      <c r="A3" s="91" t="s">
+      <c r="A3" s="81" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="92"/>
-      <c r="C3" s="95" t="s">
+      <c r="B3" s="82"/>
+      <c r="C3" s="85" t="s">
         <v>217</v>
       </c>
-      <c r="D3" s="96"/>
-      <c r="E3" s="96"/>
-      <c r="F3" s="96"/>
-      <c r="G3" s="96"/>
-      <c r="H3" s="96"/>
-      <c r="I3" s="96"/>
-      <c r="J3" s="96"/>
-      <c r="K3" s="96"/>
-      <c r="L3" s="96"/>
-      <c r="M3" s="96"/>
-      <c r="N3" s="96"/>
-      <c r="O3" s="96"/>
-      <c r="P3" s="97"/>
+      <c r="D3" s="86"/>
+      <c r="E3" s="86"/>
+      <c r="F3" s="86"/>
+      <c r="G3" s="86"/>
+      <c r="H3" s="86"/>
+      <c r="I3" s="86"/>
+      <c r="J3" s="86"/>
+      <c r="K3" s="86"/>
+      <c r="L3" s="86"/>
+      <c r="M3" s="86"/>
+      <c r="N3" s="86"/>
+      <c r="O3" s="86"/>
+      <c r="P3" s="87"/>
     </row>
     <row r="4" spans="1:16" ht="20.25" customHeight="1">
-      <c r="A4" s="93"/>
-      <c r="B4" s="94"/>
-      <c r="C4" s="98"/>
-      <c r="D4" s="99"/>
-      <c r="E4" s="99"/>
-      <c r="F4" s="99"/>
-      <c r="G4" s="99"/>
-      <c r="H4" s="99"/>
-      <c r="I4" s="99"/>
-      <c r="J4" s="99"/>
-      <c r="K4" s="99"/>
-      <c r="L4" s="99"/>
-      <c r="M4" s="99"/>
-      <c r="N4" s="99"/>
-      <c r="O4" s="99"/>
-      <c r="P4" s="100"/>
+      <c r="A4" s="83"/>
+      <c r="B4" s="84"/>
+      <c r="C4" s="88"/>
+      <c r="D4" s="89"/>
+      <c r="E4" s="89"/>
+      <c r="F4" s="89"/>
+      <c r="G4" s="89"/>
+      <c r="H4" s="89"/>
+      <c r="I4" s="89"/>
+      <c r="J4" s="89"/>
+      <c r="K4" s="89"/>
+      <c r="L4" s="89"/>
+      <c r="M4" s="89"/>
+      <c r="N4" s="89"/>
+      <c r="O4" s="89"/>
+      <c r="P4" s="90"/>
     </row>
     <row r="5" spans="1:16" ht="20.25" customHeight="1">
       <c r="B5" s="20"/>
@@ -8713,10 +8713,10 @@
       <c r="K6" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="L6" s="101" t="s">
+      <c r="L6" s="91" t="s">
         <v>27</v>
       </c>
-      <c r="M6" s="102"/>
+      <c r="M6" s="92"/>
       <c r="N6" s="26" t="s">
         <v>28</v>
       </c>
@@ -8791,10 +8791,10 @@
       <c r="I8" s="36"/>
       <c r="J8" s="35"/>
       <c r="K8" s="35"/>
-      <c r="L8" s="105" t="s">
+      <c r="L8" s="95" t="s">
         <v>204</v>
       </c>
-      <c r="M8" s="106"/>
+      <c r="M8" s="96"/>
       <c r="N8" s="39"/>
       <c r="O8" s="35"/>
       <c r="P8" s="40"/>
@@ -8821,8 +8821,8 @@
       <c r="I9" s="36"/>
       <c r="J9" s="35"/>
       <c r="K9" s="35"/>
-      <c r="L9" s="89"/>
-      <c r="M9" s="90"/>
+      <c r="L9" s="79"/>
+      <c r="M9" s="80"/>
       <c r="N9" s="39"/>
       <c r="O9" s="35"/>
       <c r="P9" s="40"/>
@@ -8849,8 +8849,8 @@
       <c r="I10" s="36"/>
       <c r="J10" s="35"/>
       <c r="K10" s="35"/>
-      <c r="L10" s="89"/>
-      <c r="M10" s="90"/>
+      <c r="L10" s="79"/>
+      <c r="M10" s="80"/>
       <c r="N10" s="39"/>
       <c r="O10" s="35"/>
       <c r="P10" s="40"/>
@@ -8875,8 +8875,8 @@
       <c r="I11" s="36"/>
       <c r="J11" s="35"/>
       <c r="K11" s="35"/>
-      <c r="L11" s="89"/>
-      <c r="M11" s="90"/>
+      <c r="L11" s="79"/>
+      <c r="M11" s="80"/>
       <c r="N11" s="39"/>
       <c r="O11" s="35"/>
       <c r="P11" s="40"/>
@@ -8901,8 +8901,8 @@
       <c r="I12" s="36"/>
       <c r="J12" s="35"/>
       <c r="K12" s="35"/>
-      <c r="L12" s="89"/>
-      <c r="M12" s="90"/>
+      <c r="L12" s="79"/>
+      <c r="M12" s="80"/>
       <c r="N12" s="39"/>
       <c r="O12" s="35"/>
       <c r="P12" s="40"/>
@@ -8927,8 +8927,8 @@
       <c r="I13" s="36"/>
       <c r="J13" s="35"/>
       <c r="K13" s="35"/>
-      <c r="L13" s="89"/>
-      <c r="M13" s="90"/>
+      <c r="L13" s="79"/>
+      <c r="M13" s="80"/>
       <c r="N13" s="39"/>
       <c r="O13" s="35"/>
       <c r="P13" s="40"/>
@@ -8957,10 +8957,10 @@
       <c r="K14" s="35">
         <v>0</v>
       </c>
-      <c r="L14" s="89" t="s">
+      <c r="L14" s="79" t="s">
         <v>205</v>
       </c>
-      <c r="M14" s="90"/>
+      <c r="M14" s="80"/>
       <c r="N14" s="39"/>
       <c r="O14" s="35"/>
       <c r="P14" s="40"/>
@@ -8984,8 +8984,8 @@
       <c r="H15" s="36"/>
       <c r="I15" s="36"/>
       <c r="J15" s="35"/>
-      <c r="L15" s="89"/>
-      <c r="M15" s="90"/>
+      <c r="L15" s="79"/>
+      <c r="M15" s="80"/>
       <c r="N15" s="39"/>
       <c r="O15" s="35"/>
       <c r="P15" s="40"/>
@@ -9014,8 +9014,8 @@
       <c r="K16" s="35">
         <v>0</v>
       </c>
-      <c r="L16" s="89"/>
-      <c r="M16" s="90"/>
+      <c r="L16" s="79"/>
+      <c r="M16" s="80"/>
       <c r="N16" s="39"/>
       <c r="O16" s="35"/>
       <c r="P16" s="40"/>
@@ -9044,8 +9044,8 @@
       <c r="I17" s="36"/>
       <c r="J17" s="35"/>
       <c r="K17" s="35"/>
-      <c r="L17" s="89"/>
-      <c r="M17" s="90"/>
+      <c r="L17" s="79"/>
+      <c r="M17" s="80"/>
       <c r="N17" s="39"/>
       <c r="O17" s="35"/>
       <c r="P17" s="40"/>
@@ -9074,8 +9074,8 @@
       <c r="K18" s="35" t="s">
         <v>68</v>
       </c>
-      <c r="L18" s="89"/>
-      <c r="M18" s="90"/>
+      <c r="L18" s="79"/>
+      <c r="M18" s="80"/>
       <c r="N18" s="39"/>
       <c r="O18" s="35"/>
       <c r="P18" s="40"/>
@@ -9104,8 +9104,8 @@
       <c r="I19" s="36"/>
       <c r="J19" s="35"/>
       <c r="K19" s="35"/>
-      <c r="L19" s="89"/>
-      <c r="M19" s="90"/>
+      <c r="L19" s="79"/>
+      <c r="M19" s="80"/>
       <c r="N19" s="39"/>
       <c r="O19" s="35"/>
       <c r="P19" s="40"/>
@@ -9134,14 +9134,22 @@
       <c r="K20" s="35" t="s">
         <v>68</v>
       </c>
-      <c r="L20" s="89"/>
-      <c r="M20" s="90"/>
+      <c r="L20" s="79"/>
+      <c r="M20" s="80"/>
       <c r="N20" s="39"/>
       <c r="O20" s="35"/>
       <c r="P20" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="A3:B4"/>
+    <mergeCell ref="C3:P4"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="O1:P1"/>
+    <mergeCell ref="D2:H2"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="O2:P2"/>
     <mergeCell ref="L13:M13"/>
     <mergeCell ref="L14:M14"/>
     <mergeCell ref="L20:M20"/>
@@ -9158,14 +9166,6 @@
     <mergeCell ref="L18:M18"/>
     <mergeCell ref="L19:M19"/>
     <mergeCell ref="L10:M10"/>
-    <mergeCell ref="A3:B4"/>
-    <mergeCell ref="C3:P4"/>
-    <mergeCell ref="L11:M11"/>
-    <mergeCell ref="L12:M12"/>
-    <mergeCell ref="O1:P1"/>
-    <mergeCell ref="D2:H2"/>
-    <mergeCell ref="I2:K2"/>
-    <mergeCell ref="O2:P2"/>
   </mergeCells>
   <phoneticPr fontId="6"/>
   <pageMargins left="0.35433070866141736" right="0.35433070866141736" top="0.19685039370078741" bottom="0.19685039370078741" header="0.23622047244094491" footer="0.23622047244094491"/>
@@ -9202,25 +9202,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="15" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A1" s="79" t="s">
+      <c r="A1" s="97" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="79"/>
+      <c r="B1" s="97"/>
       <c r="C1" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="80" t="s">
+      <c r="D1" s="98" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="80"/>
-      <c r="F1" s="80"/>
-      <c r="G1" s="80"/>
-      <c r="H1" s="81"/>
-      <c r="I1" s="82" t="s">
+      <c r="E1" s="98"/>
+      <c r="F1" s="98"/>
+      <c r="G1" s="98"/>
+      <c r="H1" s="99"/>
+      <c r="I1" s="100" t="s">
         <v>14</v>
       </c>
-      <c r="J1" s="80"/>
-      <c r="K1" s="81"/>
+      <c r="J1" s="98"/>
+      <c r="K1" s="99"/>
       <c r="L1" s="12" t="s">
         <v>1</v>
       </c>
@@ -9230,29 +9230,29 @@
       <c r="N1" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="O1" s="83">
+      <c r="O1" s="101">
         <v>45481</v>
       </c>
-      <c r="P1" s="84"/>
+      <c r="P1" s="102"/>
     </row>
     <row r="2" spans="1:16" ht="20.25" customHeight="1">
-      <c r="A2" s="79"/>
-      <c r="B2" s="79"/>
+      <c r="A2" s="97"/>
+      <c r="B2" s="97"/>
       <c r="C2" s="16" t="s">
         <v>250</v>
       </c>
-      <c r="D2" s="85" t="s">
+      <c r="D2" s="103" t="s">
         <v>209</v>
       </c>
-      <c r="E2" s="85"/>
-      <c r="F2" s="85"/>
-      <c r="G2" s="85"/>
-      <c r="H2" s="86"/>
-      <c r="I2" s="87" t="s">
+      <c r="E2" s="103"/>
+      <c r="F2" s="103"/>
+      <c r="G2" s="103"/>
+      <c r="H2" s="104"/>
+      <c r="I2" s="105" t="s">
         <v>156</v>
       </c>
-      <c r="J2" s="85"/>
-      <c r="K2" s="86"/>
+      <c r="J2" s="103"/>
+      <c r="K2" s="104"/>
       <c r="L2" s="17" t="s">
         <v>2</v>
       </c>
@@ -9260,48 +9260,48 @@
       <c r="N2" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="O2" s="88"/>
-      <c r="P2" s="86"/>
+      <c r="O2" s="106"/>
+      <c r="P2" s="104"/>
     </row>
     <row r="3" spans="1:16" ht="20.25" customHeight="1">
-      <c r="A3" s="91" t="s">
+      <c r="A3" s="81" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="92"/>
-      <c r="C3" s="95" t="s">
+      <c r="B3" s="82"/>
+      <c r="C3" s="85" t="s">
         <v>210</v>
       </c>
-      <c r="D3" s="96"/>
-      <c r="E3" s="96"/>
-      <c r="F3" s="96"/>
-      <c r="G3" s="96"/>
-      <c r="H3" s="96"/>
-      <c r="I3" s="96"/>
-      <c r="J3" s="96"/>
-      <c r="K3" s="96"/>
-      <c r="L3" s="96"/>
-      <c r="M3" s="96"/>
-      <c r="N3" s="96"/>
-      <c r="O3" s="96"/>
-      <c r="P3" s="97"/>
+      <c r="D3" s="86"/>
+      <c r="E3" s="86"/>
+      <c r="F3" s="86"/>
+      <c r="G3" s="86"/>
+      <c r="H3" s="86"/>
+      <c r="I3" s="86"/>
+      <c r="J3" s="86"/>
+      <c r="K3" s="86"/>
+      <c r="L3" s="86"/>
+      <c r="M3" s="86"/>
+      <c r="N3" s="86"/>
+      <c r="O3" s="86"/>
+      <c r="P3" s="87"/>
     </row>
     <row r="4" spans="1:16" ht="20.25" customHeight="1">
-      <c r="A4" s="93"/>
-      <c r="B4" s="94"/>
-      <c r="C4" s="98"/>
-      <c r="D4" s="99"/>
-      <c r="E4" s="99"/>
-      <c r="F4" s="99"/>
-      <c r="G4" s="99"/>
-      <c r="H4" s="99"/>
-      <c r="I4" s="99"/>
-      <c r="J4" s="99"/>
-      <c r="K4" s="99"/>
-      <c r="L4" s="99"/>
-      <c r="M4" s="99"/>
-      <c r="N4" s="99"/>
-      <c r="O4" s="99"/>
-      <c r="P4" s="100"/>
+      <c r="A4" s="83"/>
+      <c r="B4" s="84"/>
+      <c r="C4" s="88"/>
+      <c r="D4" s="89"/>
+      <c r="E4" s="89"/>
+      <c r="F4" s="89"/>
+      <c r="G4" s="89"/>
+      <c r="H4" s="89"/>
+      <c r="I4" s="89"/>
+      <c r="J4" s="89"/>
+      <c r="K4" s="89"/>
+      <c r="L4" s="89"/>
+      <c r="M4" s="89"/>
+      <c r="N4" s="89"/>
+      <c r="O4" s="89"/>
+      <c r="P4" s="90"/>
     </row>
     <row r="5" spans="1:16" ht="20.25" customHeight="1">
       <c r="B5" s="20"/>
@@ -9342,10 +9342,10 @@
       <c r="K6" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="L6" s="101" t="s">
+      <c r="L6" s="91" t="s">
         <v>27</v>
       </c>
-      <c r="M6" s="102"/>
+      <c r="M6" s="92"/>
       <c r="N6" s="26" t="s">
         <v>28</v>
       </c>
@@ -9386,10 +9386,10 @@
         <v>31</v>
       </c>
       <c r="K7" s="35"/>
-      <c r="L7" s="103" t="s">
+      <c r="L7" s="93" t="s">
         <v>203</v>
       </c>
-      <c r="M7" s="104"/>
+      <c r="M7" s="94"/>
       <c r="N7" s="39"/>
       <c r="O7" s="35"/>
       <c r="P7" s="40"/>
@@ -9427,7 +9427,7 @@
       <c r="L8" s="111" t="s">
         <v>190</v>
       </c>
-      <c r="M8" s="106"/>
+      <c r="M8" s="96"/>
       <c r="N8" s="39"/>
       <c r="O8" s="35"/>
       <c r="P8" s="40"/>
@@ -9456,10 +9456,10 @@
       <c r="K9" s="35">
         <v>0</v>
       </c>
-      <c r="L9" s="89" t="s">
+      <c r="L9" s="79" t="s">
         <v>207</v>
       </c>
-      <c r="M9" s="90"/>
+      <c r="M9" s="80"/>
       <c r="N9" s="39"/>
       <c r="O9" s="35"/>
       <c r="P9" s="40"/>
@@ -9488,10 +9488,10 @@
       <c r="K10" s="35">
         <v>0</v>
       </c>
-      <c r="L10" s="89" t="s">
+      <c r="L10" s="79" t="s">
         <v>208</v>
       </c>
-      <c r="M10" s="90"/>
+      <c r="M10" s="80"/>
       <c r="N10" s="39"/>
       <c r="O10" s="35"/>
       <c r="P10" s="40"/>
@@ -9520,8 +9520,8 @@
       <c r="K11" s="35" t="s">
         <v>140</v>
       </c>
-      <c r="L11" s="89"/>
-      <c r="M11" s="90"/>
+      <c r="L11" s="79"/>
+      <c r="M11" s="80"/>
       <c r="N11" s="39"/>
       <c r="O11" s="35"/>
       <c r="P11" s="40"/>
@@ -9550,8 +9550,8 @@
       <c r="K12" s="35">
         <v>0</v>
       </c>
-      <c r="L12" s="89"/>
-      <c r="M12" s="90"/>
+      <c r="L12" s="79"/>
+      <c r="M12" s="80"/>
       <c r="N12" s="39"/>
       <c r="O12" s="35"/>
       <c r="P12" s="40"/>
@@ -9580,8 +9580,8 @@
       <c r="I13" s="36"/>
       <c r="J13" s="35"/>
       <c r="K13" s="35"/>
-      <c r="L13" s="89"/>
-      <c r="M13" s="90"/>
+      <c r="L13" s="79"/>
+      <c r="M13" s="80"/>
       <c r="N13" s="39"/>
       <c r="O13" s="35"/>
       <c r="P13" s="40"/>
@@ -9612,8 +9612,8 @@
       <c r="K14" s="35" t="s">
         <v>68</v>
       </c>
-      <c r="L14" s="89"/>
-      <c r="M14" s="90"/>
+      <c r="L14" s="79"/>
+      <c r="M14" s="80"/>
       <c r="N14" s="39"/>
       <c r="O14" s="35"/>
       <c r="P14" s="40"/>
@@ -9641,8 +9641,8 @@
       <c r="H15" s="36"/>
       <c r="I15" s="36"/>
       <c r="J15" s="35"/>
-      <c r="L15" s="89"/>
-      <c r="M15" s="90"/>
+      <c r="L15" s="79"/>
+      <c r="M15" s="80"/>
       <c r="N15" s="39"/>
       <c r="O15" s="35"/>
       <c r="P15" s="40"/>
@@ -9673,8 +9673,8 @@
       <c r="K16" s="35" t="s">
         <v>67</v>
       </c>
-      <c r="L16" s="89"/>
-      <c r="M16" s="90"/>
+      <c r="L16" s="79"/>
+      <c r="M16" s="80"/>
       <c r="N16" s="39"/>
       <c r="O16" s="35"/>
       <c r="P16" s="40"/>
@@ -9693,8 +9693,8 @@
       <c r="I17" s="36"/>
       <c r="J17" s="35"/>
       <c r="K17" s="35"/>
-      <c r="L17" s="89"/>
-      <c r="M17" s="90"/>
+      <c r="L17" s="79"/>
+      <c r="M17" s="80"/>
       <c r="N17" s="39"/>
       <c r="O17" s="35"/>
       <c r="P17" s="40"/>
@@ -9713,8 +9713,8 @@
       <c r="I18" s="36"/>
       <c r="J18" s="35"/>
       <c r="K18" s="35"/>
-      <c r="L18" s="89"/>
-      <c r="M18" s="90"/>
+      <c r="L18" s="79"/>
+      <c r="M18" s="80"/>
       <c r="N18" s="39"/>
       <c r="O18" s="35"/>
       <c r="P18" s="40"/>
@@ -9733,8 +9733,8 @@
       <c r="I19" s="36"/>
       <c r="J19" s="35"/>
       <c r="K19" s="35"/>
-      <c r="L19" s="89"/>
-      <c r="M19" s="90"/>
+      <c r="L19" s="79"/>
+      <c r="M19" s="80"/>
       <c r="N19" s="39"/>
       <c r="O19" s="35"/>
       <c r="P19" s="40"/>
@@ -9753,8 +9753,8 @@
       <c r="I20" s="36"/>
       <c r="J20" s="35"/>
       <c r="K20" s="35"/>
-      <c r="L20" s="89"/>
-      <c r="M20" s="90"/>
+      <c r="L20" s="79"/>
+      <c r="M20" s="80"/>
       <c r="N20" s="39"/>
       <c r="O20" s="35"/>
       <c r="P20" s="40"/>
@@ -9773,26 +9773,14 @@
       <c r="I21" s="36"/>
       <c r="J21" s="35"/>
       <c r="K21" s="35"/>
-      <c r="L21" s="89"/>
-      <c r="M21" s="90"/>
+      <c r="L21" s="79"/>
+      <c r="M21" s="80"/>
       <c r="N21" s="39"/>
       <c r="O21" s="35"/>
       <c r="P21" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="L21:M21"/>
-    <mergeCell ref="L10:M10"/>
-    <mergeCell ref="L11:M11"/>
-    <mergeCell ref="L12:M12"/>
-    <mergeCell ref="L13:M13"/>
-    <mergeCell ref="L14:M14"/>
-    <mergeCell ref="L15:M15"/>
-    <mergeCell ref="L16:M16"/>
-    <mergeCell ref="L17:M17"/>
-    <mergeCell ref="L18:M18"/>
-    <mergeCell ref="L19:M19"/>
-    <mergeCell ref="L20:M20"/>
     <mergeCell ref="L9:M9"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="D1:H1"/>
@@ -9806,6 +9794,18 @@
     <mergeCell ref="L6:M6"/>
     <mergeCell ref="L7:M7"/>
     <mergeCell ref="L8:M8"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="L20:M20"/>
   </mergeCells>
   <phoneticPr fontId="6"/>
   <pageMargins left="0.35433070866141736" right="0.35433070866141736" top="0.19685039370078741" bottom="0.19685039370078741" header="0.23622047244094491" footer="0.23622047244094491"/>

--- a/交通費申請一覧機能/s-augDBテーブル定義書_新フォーマット対応版(0904_修正).xlsx
+++ b/交通費申請一覧機能/s-augDBテーブル定義書_新フォーマット対応版(0904_修正).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AUGCL42\Desktop\InternalSysDev2024\Internal-System-Development-2024\交通費申請一覧機能\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A59281FE-0B96-4373-845B-A30C994012BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66112EDB-3F02-4702-B1EC-F9B36154AB9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-90" yWindow="0" windowWidth="9780" windowHeight="10170" tabRatio="858" firstSheet="9" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3475,8 +3475,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB8A24D3-272C-45D2-9527-CE0B8FDD95E5}">
   <dimension ref="A1:P33"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection sqref="A1:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="28.5" customHeight="1"/>

--- a/交通費申請一覧機能/s-augDBテーブル定義書_新フォーマット対応版(0904_修正).xlsx
+++ b/交通費申請一覧機能/s-augDBテーブル定義書_新フォーマット対応版(0904_修正).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AUGCL42\Desktop\InternalSysDev2024\Internal-System-Development-2024\交通費申請一覧機能\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66112EDB-3F02-4702-B1EC-F9B36154AB9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEC593A6-CBCB-4B8C-BE57-D225EE39A1B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="0" windowWidth="9780" windowHeight="10170" tabRatio="858" firstSheet="9" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="-3370" yWindow="240" windowWidth="13340" windowHeight="10050" tabRatio="858" firstSheet="9" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="変更履歴" sheetId="117" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="848" uniqueCount="314">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="846" uniqueCount="314">
   <si>
     <t>変更履歴</t>
     <rPh sb="0" eb="2">
@@ -1860,10 +1860,6 @@
     <phoneticPr fontId="6"/>
   </si>
   <si>
-    <t>DESTINATION</t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
     <t>変更者ID</t>
     <rPh sb="0" eb="2">
       <t>ヘンコウ</t>
@@ -1906,10 +1902,6 @@
     <phoneticPr fontId="6"/>
   </si>
   <si>
-    <t>APPLICATION_TYPE_CODE</t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
     <t>申請区分コード</t>
     <rPh sb="0" eb="2">
       <t>シンセイ</t>
@@ -1942,6 +1934,14 @@
   </si>
   <si>
     <t>USE_SERVICE_CD</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>ARRIVAL_LOCATION</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>APPLICATION_TYPE_CD</t>
     <phoneticPr fontId="6"/>
   </si>
 </sst>
@@ -2663,15 +2663,24 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="28" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2702,14 +2711,35 @@
     <xf numFmtId="176" fontId="7" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="28" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="10" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="10" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -2765,36 +2795,6 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="10" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="10" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="23" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2810,62 +2810,62 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="26" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="26" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="10" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="10" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="5" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="15" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="10" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="10" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="5" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="15" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="26" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -3240,42 +3240,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" s="2" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A1" s="63" t="s">
+      <c r="A1" s="68" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="66" t="s">
+      <c r="B1" s="68"/>
+      <c r="C1" s="69" t="s">
         <v>287</v>
       </c>
-      <c r="D1" s="67"/>
-      <c r="E1" s="67"/>
-      <c r="F1" s="67"/>
-      <c r="G1" s="67"/>
-      <c r="H1" s="68"/>
+      <c r="D1" s="70"/>
+      <c r="E1" s="70"/>
+      <c r="F1" s="70"/>
+      <c r="G1" s="70"/>
+      <c r="H1" s="71"/>
       <c r="I1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="J1" s="72" t="s">
+      <c r="J1" s="75" t="s">
         <v>211</v>
       </c>
-      <c r="K1" s="73"/>
+      <c r="K1" s="76"/>
     </row>
     <row r="2" spans="1:19" ht="19.5" customHeight="1">
-      <c r="A2" s="63"/>
-      <c r="B2" s="63"/>
-      <c r="C2" s="69"/>
-      <c r="D2" s="70"/>
-      <c r="E2" s="70"/>
-      <c r="F2" s="70"/>
-      <c r="G2" s="70"/>
-      <c r="H2" s="71"/>
+      <c r="A2" s="68"/>
+      <c r="B2" s="68"/>
+      <c r="C2" s="72"/>
+      <c r="D2" s="73"/>
+      <c r="E2" s="73"/>
+      <c r="F2" s="73"/>
+      <c r="G2" s="73"/>
+      <c r="H2" s="74"/>
       <c r="I2" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="J2" s="74">
+      <c r="J2" s="77">
         <v>45482</v>
       </c>
-      <c r="K2" s="75"/>
+      <c r="K2" s="78"/>
     </row>
     <row r="3" spans="1:19" ht="19.5" customHeight="1">
       <c r="A3" s="4"/>
@@ -3308,22 +3308,22 @@
       <c r="C4" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="64" t="s">
+      <c r="D4" s="65" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="65"/>
-      <c r="F4" s="64" t="s">
+      <c r="E4" s="66"/>
+      <c r="F4" s="65" t="s">
         <v>7</v>
       </c>
-      <c r="G4" s="65"/>
-      <c r="H4" s="64" t="s">
+      <c r="G4" s="66"/>
+      <c r="H4" s="65" t="s">
         <v>8</v>
       </c>
-      <c r="I4" s="65"/>
-      <c r="J4" s="64" t="s">
+      <c r="I4" s="66"/>
+      <c r="J4" s="65" t="s">
         <v>9</v>
       </c>
-      <c r="K4" s="65"/>
+      <c r="K4" s="66"/>
       <c r="L4" s="2"/>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
@@ -3342,16 +3342,16 @@
       <c r="C5" s="49" t="s">
         <v>211</v>
       </c>
-      <c r="D5" s="78"/>
-      <c r="E5" s="78"/>
-      <c r="F5" s="78"/>
-      <c r="G5" s="78"/>
-      <c r="H5" s="78" t="s">
+      <c r="D5" s="67"/>
+      <c r="E5" s="67"/>
+      <c r="F5" s="67"/>
+      <c r="G5" s="67"/>
+      <c r="H5" s="67" t="s">
         <v>10</v>
       </c>
-      <c r="I5" s="78"/>
-      <c r="J5" s="78"/>
-      <c r="K5" s="78"/>
+      <c r="I5" s="67"/>
+      <c r="J5" s="67"/>
+      <c r="K5" s="67"/>
     </row>
     <row r="6" spans="1:19" ht="22.5" customHeight="1">
       <c r="A6" s="51">
@@ -3363,20 +3363,20 @@
       <c r="C6" s="51" t="s">
         <v>211</v>
       </c>
-      <c r="D6" s="77" t="s">
+      <c r="D6" s="64" t="s">
         <v>252</v>
       </c>
-      <c r="E6" s="77"/>
-      <c r="F6" s="77"/>
-      <c r="G6" s="77"/>
-      <c r="H6" s="77" t="s">
+      <c r="E6" s="64"/>
+      <c r="F6" s="64"/>
+      <c r="G6" s="64"/>
+      <c r="H6" s="64" t="s">
         <v>253</v>
       </c>
-      <c r="I6" s="77"/>
-      <c r="J6" s="77" t="s">
+      <c r="I6" s="64"/>
+      <c r="J6" s="64" t="s">
         <v>254</v>
       </c>
-      <c r="K6" s="77"/>
+      <c r="K6" s="64"/>
     </row>
     <row r="7" spans="1:19" ht="22.5" customHeight="1">
       <c r="A7" s="49">
@@ -3388,20 +3388,20 @@
       <c r="C7" s="51" t="s">
         <v>283</v>
       </c>
-      <c r="D7" s="76" t="s">
+      <c r="D7" s="63" t="s">
         <v>286</v>
       </c>
-      <c r="E7" s="76"/>
-      <c r="F7" s="77"/>
-      <c r="G7" s="77"/>
-      <c r="H7" s="76" t="s">
+      <c r="E7" s="63"/>
+      <c r="F7" s="64"/>
+      <c r="G7" s="64"/>
+      <c r="H7" s="63" t="s">
         <v>284</v>
       </c>
-      <c r="I7" s="76"/>
-      <c r="J7" s="76" t="s">
+      <c r="I7" s="63"/>
+      <c r="J7" s="63" t="s">
         <v>285</v>
       </c>
-      <c r="K7" s="76"/>
+      <c r="K7" s="63"/>
     </row>
     <row r="8" spans="1:19" ht="22.5" customHeight="1"/>
     <row r="9" spans="1:19" ht="22.5" customHeight="1"/>
@@ -3443,6 +3443,12 @@
     <row r="45" ht="22.5" customHeight="1"/>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="C1:H2"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="J2:K2"/>
     <mergeCell ref="D7:E7"/>
     <mergeCell ref="F7:G7"/>
     <mergeCell ref="H7:I7"/>
@@ -3457,12 +3463,6 @@
     <mergeCell ref="D5:E5"/>
     <mergeCell ref="F5:G5"/>
     <mergeCell ref="H5:I5"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="C1:H2"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="J2:K2"/>
   </mergeCells>
   <phoneticPr fontId="5"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.59055118110236227" bottom="0.59055118110236227" header="0.51181102362204722" footer="0.51181102362204722"/>
@@ -3475,8 +3475,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB8A24D3-272C-45D2-9527-CE0B8FDD95E5}">
   <dimension ref="A1:P33"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection sqref="A1:B2"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="28.5" customHeight="1"/>
@@ -3499,25 +3499,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="15" customFormat="1" ht="31.5" customHeight="1">
-      <c r="A1" s="97" t="s">
+      <c r="A1" s="79" t="s">
         <v>237</v>
       </c>
-      <c r="B1" s="97"/>
+      <c r="B1" s="79"/>
       <c r="C1" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="100" t="s">
+      <c r="D1" s="82" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="98"/>
-      <c r="F1" s="98"/>
-      <c r="G1" s="98"/>
-      <c r="H1" s="99"/>
-      <c r="I1" s="100" t="s">
+      <c r="E1" s="80"/>
+      <c r="F1" s="80"/>
+      <c r="G1" s="80"/>
+      <c r="H1" s="81"/>
+      <c r="I1" s="82" t="s">
         <v>14</v>
       </c>
-      <c r="J1" s="98"/>
-      <c r="K1" s="99"/>
+      <c r="J1" s="80"/>
+      <c r="K1" s="81"/>
       <c r="L1" s="12" t="s">
         <v>1</v>
       </c>
@@ -3527,29 +3527,29 @@
       <c r="N1" s="14" t="s">
         <v>281</v>
       </c>
-      <c r="O1" s="115" t="s">
+      <c r="O1" s="123" t="s">
         <v>282</v>
       </c>
-      <c r="P1" s="116"/>
+      <c r="P1" s="124"/>
     </row>
     <row r="2" spans="1:16" ht="20.25" customHeight="1">
-      <c r="A2" s="97"/>
-      <c r="B2" s="97"/>
+      <c r="A2" s="79"/>
+      <c r="B2" s="79"/>
       <c r="C2" s="16" t="s">
         <v>251</v>
       </c>
-      <c r="D2" s="103" t="s">
+      <c r="D2" s="85" t="s">
         <v>219</v>
       </c>
-      <c r="E2" s="103"/>
-      <c r="F2" s="103"/>
-      <c r="G2" s="103"/>
-      <c r="H2" s="104"/>
-      <c r="I2" s="119" t="s">
+      <c r="E2" s="85"/>
+      <c r="F2" s="85"/>
+      <c r="G2" s="85"/>
+      <c r="H2" s="86"/>
+      <c r="I2" s="127" t="s">
         <v>218</v>
       </c>
-      <c r="J2" s="120"/>
-      <c r="K2" s="121"/>
+      <c r="J2" s="128"/>
+      <c r="K2" s="129"/>
       <c r="L2" s="17" t="s">
         <v>2</v>
       </c>
@@ -3559,50 +3559,50 @@
       <c r="N2" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="O2" s="106">
+      <c r="O2" s="88">
         <v>45509</v>
       </c>
-      <c r="P2" s="104"/>
+      <c r="P2" s="86"/>
     </row>
     <row r="3" spans="1:16" ht="20.25" customHeight="1">
-      <c r="A3" s="81" t="s">
+      <c r="A3" s="91" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="82"/>
-      <c r="C3" s="85" t="s">
+      <c r="B3" s="92"/>
+      <c r="C3" s="95" t="s">
         <v>227</v>
       </c>
-      <c r="D3" s="86"/>
-      <c r="E3" s="86"/>
-      <c r="F3" s="86"/>
-      <c r="G3" s="86"/>
-      <c r="H3" s="86"/>
-      <c r="I3" s="86"/>
-      <c r="J3" s="86"/>
-      <c r="K3" s="86"/>
-      <c r="L3" s="86"/>
-      <c r="M3" s="86"/>
-      <c r="N3" s="86"/>
-      <c r="O3" s="86"/>
-      <c r="P3" s="87"/>
+      <c r="D3" s="96"/>
+      <c r="E3" s="96"/>
+      <c r="F3" s="96"/>
+      <c r="G3" s="96"/>
+      <c r="H3" s="96"/>
+      <c r="I3" s="96"/>
+      <c r="J3" s="96"/>
+      <c r="K3" s="96"/>
+      <c r="L3" s="96"/>
+      <c r="M3" s="96"/>
+      <c r="N3" s="96"/>
+      <c r="O3" s="96"/>
+      <c r="P3" s="97"/>
     </row>
     <row r="4" spans="1:16" ht="20.25" customHeight="1">
-      <c r="A4" s="83"/>
-      <c r="B4" s="84"/>
-      <c r="C4" s="88"/>
-      <c r="D4" s="89"/>
-      <c r="E4" s="89"/>
-      <c r="F4" s="89"/>
-      <c r="G4" s="89"/>
-      <c r="H4" s="89"/>
-      <c r="I4" s="89"/>
-      <c r="J4" s="89"/>
-      <c r="K4" s="89"/>
-      <c r="L4" s="89"/>
-      <c r="M4" s="89"/>
-      <c r="N4" s="89"/>
-      <c r="O4" s="89"/>
-      <c r="P4" s="90"/>
+      <c r="A4" s="93"/>
+      <c r="B4" s="94"/>
+      <c r="C4" s="98"/>
+      <c r="D4" s="99"/>
+      <c r="E4" s="99"/>
+      <c r="F4" s="99"/>
+      <c r="G4" s="99"/>
+      <c r="H4" s="99"/>
+      <c r="I4" s="99"/>
+      <c r="J4" s="99"/>
+      <c r="K4" s="99"/>
+      <c r="L4" s="99"/>
+      <c r="M4" s="99"/>
+      <c r="N4" s="99"/>
+      <c r="O4" s="99"/>
+      <c r="P4" s="100"/>
     </row>
     <row r="5" spans="1:16" ht="20.25" customHeight="1">
       <c r="B5" s="20"/>
@@ -3643,10 +3643,10 @@
       <c r="K6" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="L6" s="91" t="s">
+      <c r="L6" s="101" t="s">
         <v>27</v>
       </c>
-      <c r="M6" s="92"/>
+      <c r="M6" s="102"/>
       <c r="N6" s="26" t="s">
         <v>28</v>
       </c>
@@ -3689,10 +3689,10 @@
       <c r="K7" s="35" t="s">
         <v>260</v>
       </c>
-      <c r="L7" s="126" t="s">
+      <c r="L7" s="116" t="s">
         <v>275</v>
       </c>
-      <c r="M7" s="127"/>
+      <c r="M7" s="117"/>
       <c r="N7" s="39"/>
       <c r="O7" s="35"/>
       <c r="P7" s="40"/>
@@ -3702,7 +3702,7 @@
         <v>2</v>
       </c>
       <c r="B8" s="53" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C8" s="35" t="s">
         <v>230</v>
@@ -3721,10 +3721,10 @@
       <c r="I8" s="36"/>
       <c r="J8" s="35"/>
       <c r="K8" s="35"/>
-      <c r="L8" s="128" t="s">
+      <c r="L8" s="118" t="s">
         <v>190</v>
       </c>
-      <c r="M8" s="129"/>
+      <c r="M8" s="119"/>
       <c r="N8" s="39"/>
       <c r="O8" s="35"/>
       <c r="P8" s="40"/>
@@ -3751,8 +3751,8 @@
       <c r="I9" s="36"/>
       <c r="J9" s="35"/>
       <c r="K9" s="35"/>
-      <c r="L9" s="112"/>
-      <c r="M9" s="113"/>
+      <c r="L9" s="120"/>
+      <c r="M9" s="121"/>
       <c r="N9" s="39"/>
       <c r="O9" s="35"/>
       <c r="P9" s="40"/>
@@ -3762,10 +3762,10 @@
         <v>4</v>
       </c>
       <c r="B10" s="54" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="C10" s="35" t="s">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="D10" s="36" t="s">
         <v>183</v>
@@ -3780,15 +3780,13 @@
       <c r="H10" s="36"/>
       <c r="I10" s="36"/>
       <c r="J10" s="35"/>
-      <c r="K10" s="35">
-        <v>0</v>
-      </c>
-      <c r="L10" s="130" t="s">
+      <c r="K10" s="35"/>
+      <c r="L10" s="122" t="s">
         <v>200</v>
       </c>
-      <c r="M10" s="113"/>
+      <c r="M10" s="121"/>
       <c r="N10" s="39" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="O10" s="35"/>
       <c r="P10" s="40"/>
@@ -3815,10 +3813,10 @@
       <c r="I11" s="36"/>
       <c r="J11" s="35"/>
       <c r="K11" s="35"/>
-      <c r="L11" s="112" t="s">
+      <c r="L11" s="120" t="s">
         <v>235</v>
       </c>
-      <c r="M11" s="113"/>
+      <c r="M11" s="121"/>
       <c r="N11" s="39"/>
       <c r="O11" s="35"/>
       <c r="P11" s="40"/>
@@ -3845,8 +3843,8 @@
       <c r="I12" s="36"/>
       <c r="J12" s="35"/>
       <c r="K12" s="35"/>
-      <c r="L12" s="112"/>
-      <c r="M12" s="113"/>
+      <c r="L12" s="120"/>
+      <c r="M12" s="121"/>
       <c r="N12" s="39"/>
       <c r="O12" s="35"/>
       <c r="P12" s="40"/>
@@ -3907,10 +3905,10 @@
       <c r="I14" s="36"/>
       <c r="J14" s="35"/>
       <c r="K14" s="35"/>
-      <c r="L14" s="124" t="s">
+      <c r="L14" s="114" t="s">
         <v>292</v>
       </c>
-      <c r="M14" s="125"/>
+      <c r="M14" s="115"/>
       <c r="N14" s="59"/>
       <c r="O14" s="59"/>
       <c r="P14" s="40"/>
@@ -3937,10 +3935,10 @@
       <c r="I15" s="36"/>
       <c r="J15" s="35"/>
       <c r="K15" s="35"/>
-      <c r="L15" s="79" t="s">
+      <c r="L15" s="89" t="s">
         <v>268</v>
       </c>
-      <c r="M15" s="80"/>
+      <c r="M15" s="90"/>
       <c r="N15" s="39"/>
       <c r="O15" s="35"/>
       <c r="P15" s="40"/>
@@ -3953,7 +3951,7 @@
         <v>225</v>
       </c>
       <c r="C16" s="35" t="s">
-        <v>301</v>
+        <v>312</v>
       </c>
       <c r="D16" s="36" t="s">
         <v>184</v>
@@ -3969,10 +3967,10 @@
       <c r="I16" s="36"/>
       <c r="J16" s="35"/>
       <c r="K16" s="35"/>
-      <c r="L16" s="124" t="s">
+      <c r="L16" s="114" t="s">
         <v>290</v>
       </c>
-      <c r="M16" s="125"/>
+      <c r="M16" s="115"/>
       <c r="N16" s="60"/>
       <c r="O16" s="19"/>
       <c r="P16" s="40"/>
@@ -3982,10 +3980,10 @@
         <v>11</v>
       </c>
       <c r="B17" s="34" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C17" s="35" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="D17" s="36" t="s">
         <v>183</v>
@@ -4001,12 +3999,12 @@
       <c r="I17" s="36"/>
       <c r="J17" s="35"/>
       <c r="K17" s="35"/>
-      <c r="L17" s="122" t="s">
+      <c r="L17" s="112" t="s">
         <v>289</v>
       </c>
-      <c r="M17" s="123"/>
+      <c r="M17" s="113"/>
       <c r="N17" s="39" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="O17" s="35"/>
       <c r="P17" s="40"/>
@@ -4016,10 +4014,10 @@
         <v>12</v>
       </c>
       <c r="B18" s="34" t="s">
+        <v>305</v>
+      </c>
+      <c r="C18" s="35" t="s">
         <v>306</v>
-      </c>
-      <c r="C18" s="35" t="s">
-        <v>307</v>
       </c>
       <c r="D18" s="36" t="s">
         <v>184</v>
@@ -4035,10 +4033,10 @@
       <c r="I18" s="36"/>
       <c r="J18" s="35"/>
       <c r="K18" s="35"/>
-      <c r="L18" s="79" t="s">
+      <c r="L18" s="89" t="s">
         <v>291</v>
       </c>
-      <c r="M18" s="80"/>
+      <c r="M18" s="90"/>
       <c r="N18" s="39"/>
       <c r="O18" s="35"/>
       <c r="P18" s="40"/>
@@ -4069,10 +4067,10 @@
       <c r="I19" s="36"/>
       <c r="J19" s="35"/>
       <c r="K19" s="35"/>
-      <c r="L19" s="79" t="s">
+      <c r="L19" s="89" t="s">
         <v>294</v>
       </c>
-      <c r="M19" s="80"/>
+      <c r="M19" s="90"/>
       <c r="N19" s="39"/>
       <c r="O19" s="35"/>
       <c r="P19" s="40"/>
@@ -4099,10 +4097,10 @@
       <c r="I20" s="36"/>
       <c r="J20" s="35"/>
       <c r="K20" s="41"/>
-      <c r="L20" s="79" t="s">
+      <c r="L20" s="89" t="s">
         <v>293</v>
       </c>
-      <c r="M20" s="80"/>
+      <c r="M20" s="90"/>
       <c r="N20" s="39"/>
       <c r="O20" s="35"/>
       <c r="P20" s="40"/>
@@ -4115,7 +4113,7 @@
         <v>276</v>
       </c>
       <c r="C21" s="35" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="D21" s="36" t="s">
         <v>183</v>
@@ -4131,10 +4129,10 @@
       <c r="I21" s="36"/>
       <c r="J21" s="35"/>
       <c r="K21" s="35"/>
-      <c r="L21" s="117" t="s">
+      <c r="L21" s="125" t="s">
         <v>278</v>
       </c>
-      <c r="M21" s="118"/>
+      <c r="M21" s="126"/>
       <c r="N21" s="39"/>
       <c r="O21" s="35"/>
       <c r="P21" s="40"/>
@@ -4159,10 +4157,10 @@
       <c r="I22" s="36"/>
       <c r="J22" s="35"/>
       <c r="K22" s="35"/>
-      <c r="L22" s="112" t="s">
+      <c r="L22" s="120" t="s">
         <v>272</v>
       </c>
-      <c r="M22" s="113"/>
+      <c r="M22" s="121"/>
       <c r="N22" s="39"/>
       <c r="O22" s="35"/>
       <c r="P22" s="40"/>
@@ -4189,10 +4187,10 @@
       <c r="I23" s="36"/>
       <c r="J23" s="35"/>
       <c r="K23" s="35"/>
-      <c r="L23" s="112" t="s">
+      <c r="L23" s="120" t="s">
         <v>261</v>
       </c>
-      <c r="M23" s="113"/>
+      <c r="M23" s="121"/>
       <c r="N23" s="39"/>
       <c r="O23" s="35"/>
       <c r="P23" s="40"/>
@@ -4221,8 +4219,8 @@
       <c r="I24" s="36"/>
       <c r="J24" s="35"/>
       <c r="K24" s="35"/>
-      <c r="L24" s="79"/>
-      <c r="M24" s="80"/>
+      <c r="L24" s="89"/>
+      <c r="M24" s="90"/>
       <c r="N24" s="39"/>
       <c r="O24" s="35"/>
       <c r="P24" s="40"/>
@@ -4251,8 +4249,8 @@
       <c r="K25" s="35" t="s">
         <v>68</v>
       </c>
-      <c r="L25" s="79"/>
-      <c r="M25" s="80"/>
+      <c r="L25" s="89"/>
+      <c r="M25" s="90"/>
       <c r="N25" s="39"/>
       <c r="O25" s="35"/>
       <c r="P25" s="40"/>
@@ -4279,10 +4277,10 @@
       <c r="I26" s="36"/>
       <c r="J26" s="35"/>
       <c r="K26" s="35"/>
-      <c r="L26" s="112" t="s">
+      <c r="L26" s="120" t="s">
         <v>297</v>
       </c>
-      <c r="M26" s="113"/>
+      <c r="M26" s="121"/>
       <c r="N26" s="39"/>
       <c r="O26" s="35"/>
       <c r="P26" s="40"/>
@@ -4302,19 +4300,17 @@
       </c>
       <c r="E27" s="37"/>
       <c r="F27" s="38"/>
-      <c r="G27" s="36" t="s">
-        <v>31</v>
-      </c>
+      <c r="G27" s="36"/>
       <c r="H27" s="36"/>
       <c r="I27" s="36"/>
       <c r="J27" s="35"/>
       <c r="K27" s="35" t="s">
         <v>68</v>
       </c>
-      <c r="L27" s="79" t="s">
+      <c r="L27" s="89" t="s">
         <v>296</v>
       </c>
-      <c r="M27" s="80"/>
+      <c r="M27" s="90"/>
       <c r="N27" s="39"/>
       <c r="O27" s="35"/>
       <c r="P27" s="40"/>
@@ -4324,7 +4320,7 @@
         <v>22</v>
       </c>
       <c r="B28" s="54" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C28" s="35" t="s">
         <v>265</v>
@@ -4341,10 +4337,10 @@
       <c r="I28" s="36"/>
       <c r="J28" s="35"/>
       <c r="K28" s="35"/>
-      <c r="L28" s="112" t="s">
+      <c r="L28" s="120" t="s">
         <v>258</v>
       </c>
-      <c r="M28" s="113"/>
+      <c r="M28" s="121"/>
       <c r="N28" s="39"/>
       <c r="O28" s="35"/>
       <c r="P28" s="40"/>
@@ -4364,19 +4360,17 @@
       </c>
       <c r="E29" s="37"/>
       <c r="F29" s="38"/>
-      <c r="G29" s="36" t="s">
-        <v>31</v>
-      </c>
+      <c r="G29" s="36"/>
       <c r="H29" s="36"/>
       <c r="I29" s="36"/>
       <c r="J29" s="35"/>
       <c r="K29" s="35" t="s">
         <v>68</v>
       </c>
-      <c r="L29" s="79" t="s">
+      <c r="L29" s="89" t="s">
         <v>298</v>
       </c>
-      <c r="M29" s="80"/>
+      <c r="M29" s="90"/>
       <c r="N29" s="39"/>
       <c r="O29" s="35"/>
       <c r="P29" s="40"/>
@@ -4389,7 +4383,7 @@
         <v>299</v>
       </c>
       <c r="C30" s="35" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D30" s="36" t="s">
         <v>183</v>
@@ -4405,10 +4399,10 @@
       <c r="K30" s="35">
         <v>0</v>
       </c>
-      <c r="L30" s="79" t="s">
+      <c r="L30" s="89" t="s">
         <v>295</v>
       </c>
-      <c r="M30" s="80"/>
+      <c r="M30" s="90"/>
       <c r="N30" s="39"/>
       <c r="O30" s="35"/>
       <c r="P30" s="40"/>
@@ -4437,8 +4431,8 @@
       <c r="K31" s="35">
         <v>0</v>
       </c>
-      <c r="L31" s="79"/>
-      <c r="M31" s="80"/>
+      <c r="L31" s="89"/>
+      <c r="M31" s="90"/>
       <c r="N31" s="39"/>
       <c r="O31" s="35"/>
       <c r="P31" s="40"/>
@@ -4454,14 +4448,33 @@
       <c r="I32" s="57"/>
       <c r="J32" s="56"/>
       <c r="K32" s="56"/>
-      <c r="L32" s="114"/>
-      <c r="M32" s="114"/>
+      <c r="L32" s="130"/>
+      <c r="M32" s="130"/>
       <c r="N32" s="56"/>
       <c r="O32" s="56"/>
     </row>
     <row r="33" s="19" customFormat="1" ht="28.5" customHeight="1"/>
   </sheetData>
   <mergeCells count="35">
+    <mergeCell ref="L28:M28"/>
+    <mergeCell ref="L29:M29"/>
+    <mergeCell ref="L30:M30"/>
+    <mergeCell ref="L31:M31"/>
+    <mergeCell ref="L32:M32"/>
+    <mergeCell ref="O1:P1"/>
+    <mergeCell ref="D2:H2"/>
+    <mergeCell ref="L27:M27"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="L22:M22"/>
+    <mergeCell ref="L23:M23"/>
+    <mergeCell ref="L24:M24"/>
+    <mergeCell ref="L25:M25"/>
+    <mergeCell ref="L26:M26"/>
+    <mergeCell ref="L20:M20"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="O2:P2"/>
     <mergeCell ref="L17:M17"/>
     <mergeCell ref="L14:M14"/>
     <mergeCell ref="A1:B2"/>
@@ -4478,25 +4491,6 @@
     <mergeCell ref="L10:M10"/>
     <mergeCell ref="L11:M11"/>
     <mergeCell ref="L12:M12"/>
-    <mergeCell ref="O1:P1"/>
-    <mergeCell ref="D2:H2"/>
-    <mergeCell ref="L27:M27"/>
-    <mergeCell ref="L18:M18"/>
-    <mergeCell ref="L19:M19"/>
-    <mergeCell ref="L21:M21"/>
-    <mergeCell ref="L22:M22"/>
-    <mergeCell ref="L23:M23"/>
-    <mergeCell ref="L24:M24"/>
-    <mergeCell ref="L25:M25"/>
-    <mergeCell ref="L26:M26"/>
-    <mergeCell ref="L20:M20"/>
-    <mergeCell ref="I2:K2"/>
-    <mergeCell ref="O2:P2"/>
-    <mergeCell ref="L28:M28"/>
-    <mergeCell ref="L29:M29"/>
-    <mergeCell ref="L30:M30"/>
-    <mergeCell ref="L31:M31"/>
-    <mergeCell ref="L32:M32"/>
   </mergeCells>
   <phoneticPr fontId="6"/>
   <pageMargins left="0.35433070866141736" right="0.35433070866141736" top="0.19685039370078741" bottom="0.19685039370078741" header="0.23622047244094491" footer="0.23622047244094491"/>
@@ -4509,7 +4503,692 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:P21"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A11" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A10" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="28.5" customHeight="1"/>
+  <cols>
+    <col min="1" max="1" width="4.1796875" style="19" customWidth="1"/>
+    <col min="2" max="2" width="17.453125" style="19" customWidth="1"/>
+    <col min="3" max="3" width="21.81640625" style="44" customWidth="1"/>
+    <col min="4" max="4" width="10.54296875" style="23" customWidth="1"/>
+    <col min="5" max="6" width="4.54296875" style="23" customWidth="1"/>
+    <col min="7" max="8" width="4" style="23" customWidth="1"/>
+    <col min="9" max="9" width="4.453125" style="23" customWidth="1"/>
+    <col min="10" max="10" width="4" style="23" customWidth="1"/>
+    <col min="11" max="11" width="9" style="23" customWidth="1"/>
+    <col min="12" max="12" width="12.1796875" style="23" customWidth="1"/>
+    <col min="13" max="13" width="13.54296875" style="19" customWidth="1"/>
+    <col min="14" max="14" width="12.1796875" style="19" customWidth="1"/>
+    <col min="15" max="15" width="6.81640625" style="19" customWidth="1"/>
+    <col min="16" max="16" width="9.7265625" style="19" customWidth="1"/>
+    <col min="17" max="16384" width="9" style="19"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" s="15" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A1" s="79" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="79"/>
+      <c r="C1" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="80" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" s="80"/>
+      <c r="F1" s="80"/>
+      <c r="G1" s="80"/>
+      <c r="H1" s="81"/>
+      <c r="I1" s="82" t="s">
+        <v>14</v>
+      </c>
+      <c r="J1" s="80"/>
+      <c r="K1" s="81"/>
+      <c r="L1" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="M1" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="N1" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="O1" s="83">
+        <v>45481</v>
+      </c>
+      <c r="P1" s="84"/>
+    </row>
+    <row r="2" spans="1:16" ht="20.25" customHeight="1">
+      <c r="A2" s="79"/>
+      <c r="B2" s="79"/>
+      <c r="C2" s="16" t="s">
+        <v>245</v>
+      </c>
+      <c r="D2" s="85" t="s">
+        <v>33</v>
+      </c>
+      <c r="E2" s="85"/>
+      <c r="F2" s="85"/>
+      <c r="G2" s="85"/>
+      <c r="H2" s="86"/>
+      <c r="I2" s="87" t="s">
+        <v>32</v>
+      </c>
+      <c r="J2" s="85"/>
+      <c r="K2" s="86"/>
+      <c r="L2" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="M2" s="47"/>
+      <c r="N2" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="O2" s="88">
+        <v>45484</v>
+      </c>
+      <c r="P2" s="86"/>
+    </row>
+    <row r="3" spans="1:16" ht="20.25" customHeight="1">
+      <c r="A3" s="91" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="92"/>
+      <c r="C3" s="95" t="s">
+        <v>33</v>
+      </c>
+      <c r="D3" s="96"/>
+      <c r="E3" s="96"/>
+      <c r="F3" s="96"/>
+      <c r="G3" s="96"/>
+      <c r="H3" s="96"/>
+      <c r="I3" s="96"/>
+      <c r="J3" s="96"/>
+      <c r="K3" s="96"/>
+      <c r="L3" s="96"/>
+      <c r="M3" s="96"/>
+      <c r="N3" s="96"/>
+      <c r="O3" s="96"/>
+      <c r="P3" s="97"/>
+    </row>
+    <row r="4" spans="1:16" ht="20.25" customHeight="1">
+      <c r="A4" s="93"/>
+      <c r="B4" s="94"/>
+      <c r="C4" s="98"/>
+      <c r="D4" s="99"/>
+      <c r="E4" s="99"/>
+      <c r="F4" s="99"/>
+      <c r="G4" s="99"/>
+      <c r="H4" s="99"/>
+      <c r="I4" s="99"/>
+      <c r="J4" s="99"/>
+      <c r="K4" s="99"/>
+      <c r="L4" s="99"/>
+      <c r="M4" s="99"/>
+      <c r="N4" s="99"/>
+      <c r="O4" s="99"/>
+      <c r="P4" s="100"/>
+    </row>
+    <row r="5" spans="1:16" ht="20.25" customHeight="1">
+      <c r="B5" s="20"/>
+      <c r="C5" s="21"/>
+      <c r="D5" s="22"/>
+      <c r="M5" s="24"/>
+      <c r="N5" s="24"/>
+    </row>
+    <row r="6" spans="1:16" ht="31.5" customHeight="1" thickBot="1">
+      <c r="A6" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6" s="28"/>
+      <c r="G6" s="45" t="s">
+        <v>22</v>
+      </c>
+      <c r="H6" s="30" t="s">
+        <v>23</v>
+      </c>
+      <c r="I6" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="J6" s="30" t="s">
+        <v>25</v>
+      </c>
+      <c r="K6" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="L6" s="101" t="s">
+        <v>27</v>
+      </c>
+      <c r="M6" s="102"/>
+      <c r="N6" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="O6" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="P6" s="32" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" s="41" customFormat="1" ht="31.5" customHeight="1" thickTop="1">
+      <c r="A7" s="33">
+        <v>1</v>
+      </c>
+      <c r="B7" s="34" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7" s="35" t="s">
+        <v>230</v>
+      </c>
+      <c r="D7" s="36" t="s">
+        <v>183</v>
+      </c>
+      <c r="E7" s="37">
+        <v>20</v>
+      </c>
+      <c r="F7" s="38">
+        <v>0</v>
+      </c>
+      <c r="G7" s="36" t="s">
+        <v>31</v>
+      </c>
+      <c r="H7" s="36" t="s">
+        <v>31</v>
+      </c>
+      <c r="I7" s="36" t="s">
+        <v>31</v>
+      </c>
+      <c r="J7" s="36" t="s">
+        <v>31</v>
+      </c>
+      <c r="K7" s="35"/>
+      <c r="L7" s="103" t="s">
+        <v>238</v>
+      </c>
+      <c r="M7" s="104"/>
+      <c r="N7" s="39"/>
+      <c r="O7" s="35"/>
+      <c r="P7" s="40"/>
+    </row>
+    <row r="8" spans="1:16" s="41" customFormat="1" ht="31.5" customHeight="1">
+      <c r="A8" s="42">
+        <v>2</v>
+      </c>
+      <c r="B8" s="34" t="s">
+        <v>36</v>
+      </c>
+      <c r="C8" s="35" t="s">
+        <v>51</v>
+      </c>
+      <c r="D8" s="36" t="s">
+        <v>183</v>
+      </c>
+      <c r="E8" s="37">
+        <v>64</v>
+      </c>
+      <c r="F8" s="38"/>
+      <c r="G8" s="36" t="s">
+        <v>31</v>
+      </c>
+      <c r="H8" s="36"/>
+      <c r="I8" s="36"/>
+      <c r="J8" s="35"/>
+      <c r="K8" s="35"/>
+      <c r="L8" s="105" t="s">
+        <v>255</v>
+      </c>
+      <c r="M8" s="106"/>
+      <c r="N8" s="39"/>
+      <c r="O8" s="35"/>
+      <c r="P8" s="40"/>
+    </row>
+    <row r="9" spans="1:16" s="41" customFormat="1" ht="31.5" customHeight="1">
+      <c r="A9" s="43">
+        <v>3</v>
+      </c>
+      <c r="B9" s="34" t="s">
+        <v>37</v>
+      </c>
+      <c r="C9" s="35" t="s">
+        <v>52</v>
+      </c>
+      <c r="D9" s="36" t="s">
+        <v>184</v>
+      </c>
+      <c r="E9" s="37">
+        <v>20</v>
+      </c>
+      <c r="F9" s="38"/>
+      <c r="G9" s="36" t="s">
+        <v>31</v>
+      </c>
+      <c r="H9" s="36"/>
+      <c r="I9" s="36"/>
+      <c r="J9" s="35"/>
+      <c r="K9" s="35"/>
+      <c r="L9" s="89"/>
+      <c r="M9" s="90"/>
+      <c r="N9" s="39"/>
+      <c r="O9" s="35"/>
+      <c r="P9" s="40"/>
+    </row>
+    <row r="10" spans="1:16" s="41" customFormat="1" ht="31.5" customHeight="1">
+      <c r="A10" s="43">
+        <v>4</v>
+      </c>
+      <c r="B10" s="34" t="s">
+        <v>38</v>
+      </c>
+      <c r="C10" s="35" t="s">
+        <v>53</v>
+      </c>
+      <c r="D10" s="36" t="s">
+        <v>184</v>
+      </c>
+      <c r="E10" s="37">
+        <v>20</v>
+      </c>
+      <c r="F10" s="38"/>
+      <c r="G10" s="36"/>
+      <c r="H10" s="36"/>
+      <c r="I10" s="36"/>
+      <c r="J10" s="35"/>
+      <c r="K10" s="35"/>
+      <c r="L10" s="89"/>
+      <c r="M10" s="90"/>
+      <c r="N10" s="39"/>
+      <c r="O10" s="35"/>
+      <c r="P10" s="40"/>
+    </row>
+    <row r="11" spans="1:16" s="41" customFormat="1" ht="31.5" customHeight="1">
+      <c r="A11" s="43">
+        <v>5</v>
+      </c>
+      <c r="B11" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="C11" s="35" t="s">
+        <v>54</v>
+      </c>
+      <c r="D11" s="36" t="s">
+        <v>183</v>
+      </c>
+      <c r="E11" s="37">
+        <v>1</v>
+      </c>
+      <c r="F11" s="38"/>
+      <c r="G11" s="36"/>
+      <c r="H11" s="36"/>
+      <c r="I11" s="36"/>
+      <c r="J11" s="35"/>
+      <c r="K11" s="35"/>
+      <c r="L11" s="89" t="s">
+        <v>187</v>
+      </c>
+      <c r="M11" s="90"/>
+      <c r="N11" s="39" t="s">
+        <v>191</v>
+      </c>
+      <c r="O11" s="35"/>
+      <c r="P11" s="40"/>
+    </row>
+    <row r="12" spans="1:16" s="41" customFormat="1" ht="31.5" customHeight="1">
+      <c r="A12" s="43">
+        <v>6</v>
+      </c>
+      <c r="B12" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="C12" s="35" t="s">
+        <v>55</v>
+      </c>
+      <c r="D12" s="36" t="s">
+        <v>183</v>
+      </c>
+      <c r="E12" s="37">
+        <v>1</v>
+      </c>
+      <c r="F12" s="38"/>
+      <c r="G12" s="36"/>
+      <c r="H12" s="36"/>
+      <c r="I12" s="36"/>
+      <c r="J12" s="35"/>
+      <c r="K12" s="35"/>
+      <c r="L12" s="89" t="s">
+        <v>188</v>
+      </c>
+      <c r="M12" s="90"/>
+      <c r="N12" s="39" t="s">
+        <v>192</v>
+      </c>
+      <c r="O12" s="35"/>
+      <c r="P12" s="40"/>
+    </row>
+    <row r="13" spans="1:16" s="41" customFormat="1" ht="31.5" customHeight="1">
+      <c r="A13" s="43">
+        <v>7</v>
+      </c>
+      <c r="B13" s="34" t="s">
+        <v>41</v>
+      </c>
+      <c r="C13" s="35" t="s">
+        <v>56</v>
+      </c>
+      <c r="D13" s="36" t="s">
+        <v>183</v>
+      </c>
+      <c r="E13" s="37">
+        <v>100</v>
+      </c>
+      <c r="F13" s="38"/>
+      <c r="G13" s="36"/>
+      <c r="H13" s="36"/>
+      <c r="I13" s="36"/>
+      <c r="J13" s="35"/>
+      <c r="K13" s="35"/>
+      <c r="L13" s="89"/>
+      <c r="M13" s="90"/>
+      <c r="N13" s="39"/>
+      <c r="O13" s="35"/>
+      <c r="P13" s="40"/>
+    </row>
+    <row r="14" spans="1:16" s="41" customFormat="1" ht="31.5" customHeight="1">
+      <c r="A14" s="43">
+        <v>8</v>
+      </c>
+      <c r="B14" s="34" t="s">
+        <v>42</v>
+      </c>
+      <c r="C14" s="35" t="s">
+        <v>57</v>
+      </c>
+      <c r="D14" s="36" t="s">
+        <v>185</v>
+      </c>
+      <c r="E14" s="37">
+        <v>3</v>
+      </c>
+      <c r="F14" s="38">
+        <v>1</v>
+      </c>
+      <c r="G14" s="36"/>
+      <c r="H14" s="36"/>
+      <c r="I14" s="36"/>
+      <c r="J14" s="35"/>
+      <c r="K14" s="35"/>
+      <c r="L14" s="89"/>
+      <c r="M14" s="90"/>
+      <c r="N14" s="39"/>
+      <c r="O14" s="35"/>
+      <c r="P14" s="40"/>
+    </row>
+    <row r="15" spans="1:16" s="41" customFormat="1" ht="31.5" customHeight="1">
+      <c r="A15" s="43">
+        <v>9</v>
+      </c>
+      <c r="B15" s="34" t="s">
+        <v>43</v>
+      </c>
+      <c r="C15" s="35" t="s">
+        <v>58</v>
+      </c>
+      <c r="D15" s="36" t="s">
+        <v>185</v>
+      </c>
+      <c r="E15" s="37">
+        <v>4</v>
+      </c>
+      <c r="F15" s="38">
+        <v>1</v>
+      </c>
+      <c r="G15" s="36"/>
+      <c r="H15" s="36"/>
+      <c r="I15" s="36"/>
+      <c r="J15" s="35"/>
+      <c r="K15" s="35"/>
+      <c r="L15" s="89"/>
+      <c r="M15" s="90"/>
+      <c r="N15" s="39"/>
+      <c r="O15" s="35"/>
+      <c r="P15" s="40"/>
+    </row>
+    <row r="16" spans="1:16" s="41" customFormat="1" ht="31.5" customHeight="1">
+      <c r="A16" s="43">
+        <v>10</v>
+      </c>
+      <c r="B16" s="34" t="s">
+        <v>44</v>
+      </c>
+      <c r="C16" s="35" t="s">
+        <v>59</v>
+      </c>
+      <c r="D16" s="36" t="s">
+        <v>186</v>
+      </c>
+      <c r="E16" s="37">
+        <v>1</v>
+      </c>
+      <c r="F16" s="38"/>
+      <c r="G16" s="36"/>
+      <c r="H16" s="36"/>
+      <c r="I16" s="36"/>
+      <c r="J16" s="35"/>
+      <c r="K16" s="35"/>
+      <c r="L16" s="89" t="s">
+        <v>189</v>
+      </c>
+      <c r="M16" s="90"/>
+      <c r="N16" s="39"/>
+      <c r="O16" s="35"/>
+      <c r="P16" s="40"/>
+    </row>
+    <row r="17" spans="1:16" s="41" customFormat="1" ht="31.5" customHeight="1">
+      <c r="A17" s="43">
+        <v>11</v>
+      </c>
+      <c r="B17" s="34" t="s">
+        <v>45</v>
+      </c>
+      <c r="C17" s="35" t="s">
+        <v>60</v>
+      </c>
+      <c r="D17" s="36" t="s">
+        <v>183</v>
+      </c>
+      <c r="E17" s="37">
+        <v>1</v>
+      </c>
+      <c r="F17" s="38"/>
+      <c r="G17" s="36"/>
+      <c r="H17" s="36"/>
+      <c r="I17" s="36"/>
+      <c r="J17" s="35"/>
+      <c r="K17" s="35">
+        <v>0</v>
+      </c>
+      <c r="L17" s="89"/>
+      <c r="M17" s="90"/>
+      <c r="N17" s="39"/>
+      <c r="O17" s="35"/>
+      <c r="P17" s="40"/>
+    </row>
+    <row r="18" spans="1:16" s="41" customFormat="1" ht="31.5" customHeight="1">
+      <c r="A18" s="43">
+        <v>12</v>
+      </c>
+      <c r="B18" s="34" t="s">
+        <v>46</v>
+      </c>
+      <c r="C18" s="35" t="s">
+        <v>61</v>
+      </c>
+      <c r="D18" s="36" t="s">
+        <v>183</v>
+      </c>
+      <c r="E18" s="37">
+        <v>20</v>
+      </c>
+      <c r="F18" s="38"/>
+      <c r="G18" s="36" t="s">
+        <v>31</v>
+      </c>
+      <c r="H18" s="36"/>
+      <c r="I18" s="36"/>
+      <c r="J18" s="35"/>
+      <c r="K18" s="35"/>
+      <c r="L18" s="89"/>
+      <c r="M18" s="90"/>
+      <c r="N18" s="39"/>
+      <c r="O18" s="35"/>
+      <c r="P18" s="40"/>
+    </row>
+    <row r="19" spans="1:16" s="41" customFormat="1" ht="31.5" customHeight="1">
+      <c r="A19" s="43">
+        <v>13</v>
+      </c>
+      <c r="B19" s="34" t="s">
+        <v>47</v>
+      </c>
+      <c r="C19" s="35" t="s">
+        <v>62</v>
+      </c>
+      <c r="D19" s="36" t="s">
+        <v>65</v>
+      </c>
+      <c r="E19" s="37" t="s">
+        <v>66</v>
+      </c>
+      <c r="F19" s="38"/>
+      <c r="G19" s="36" t="s">
+        <v>31</v>
+      </c>
+      <c r="H19" s="36"/>
+      <c r="I19" s="36"/>
+      <c r="J19" s="35"/>
+      <c r="K19" s="35" t="s">
+        <v>67</v>
+      </c>
+      <c r="L19" s="89"/>
+      <c r="M19" s="90"/>
+      <c r="N19" s="39"/>
+      <c r="O19" s="35"/>
+      <c r="P19" s="40"/>
+    </row>
+    <row r="20" spans="1:16" s="41" customFormat="1" ht="31.5" customHeight="1">
+      <c r="A20" s="43">
+        <v>14</v>
+      </c>
+      <c r="B20" s="34" t="s">
+        <v>48</v>
+      </c>
+      <c r="C20" s="35" t="s">
+        <v>63</v>
+      </c>
+      <c r="D20" s="36" t="s">
+        <v>183</v>
+      </c>
+      <c r="E20" s="37">
+        <v>20</v>
+      </c>
+      <c r="F20" s="38"/>
+      <c r="G20" s="36" t="s">
+        <v>31</v>
+      </c>
+      <c r="H20" s="36"/>
+      <c r="I20" s="36"/>
+      <c r="J20" s="35"/>
+      <c r="K20" s="35"/>
+      <c r="L20" s="89"/>
+      <c r="M20" s="90"/>
+      <c r="N20" s="39"/>
+      <c r="O20" s="35"/>
+      <c r="P20" s="40"/>
+    </row>
+    <row r="21" spans="1:16" ht="31.5" customHeight="1">
+      <c r="A21" s="43">
+        <v>15</v>
+      </c>
+      <c r="B21" s="34" t="s">
+        <v>49</v>
+      </c>
+      <c r="C21" s="35" t="s">
+        <v>64</v>
+      </c>
+      <c r="D21" s="36" t="s">
+        <v>65</v>
+      </c>
+      <c r="E21" s="37" t="s">
+        <v>66</v>
+      </c>
+      <c r="F21" s="38"/>
+      <c r="G21" s="36" t="s">
+        <v>31</v>
+      </c>
+      <c r="H21" s="36"/>
+      <c r="I21" s="36"/>
+      <c r="J21" s="35"/>
+      <c r="K21" s="35" t="s">
+        <v>67</v>
+      </c>
+      <c r="L21" s="89"/>
+      <c r="M21" s="90"/>
+      <c r="N21" s="39"/>
+      <c r="O21" s="35"/>
+      <c r="P21" s="40"/>
+    </row>
+  </sheetData>
+  <mergeCells count="25">
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="L20:M20"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="A3:B4"/>
+    <mergeCell ref="C3:P4"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="D1:H1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="O1:P1"/>
+    <mergeCell ref="D2:H2"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="O2:P2"/>
+  </mergeCells>
+  <phoneticPr fontId="6"/>
+  <pageMargins left="0.35433070866141736" right="0.35433070866141736" top="0.19685039370078741" bottom="0.19685039370078741" header="0.23622047244094491" footer="0.23622047244094491"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+  <headerFooter alignWithMargins="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84BDD822-9F1C-427F-9482-E24B2FC38924}">
+  <dimension ref="A1:P21"/>
+  <sheetViews>
+    <sheetView showGridLines="0" topLeftCell="A7" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection sqref="A1:B2"/>
     </sheetView>
   </sheetViews>
@@ -4533,25 +5212,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="15" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A1" s="97" t="s">
+      <c r="A1" s="79" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="97"/>
+      <c r="B1" s="79"/>
       <c r="C1" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="98" t="s">
+      <c r="D1" s="80" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="98"/>
-      <c r="F1" s="98"/>
-      <c r="G1" s="98"/>
-      <c r="H1" s="99"/>
-      <c r="I1" s="100" t="s">
+      <c r="E1" s="80"/>
+      <c r="F1" s="80"/>
+      <c r="G1" s="80"/>
+      <c r="H1" s="81"/>
+      <c r="I1" s="82" t="s">
         <v>14</v>
       </c>
-      <c r="J1" s="98"/>
-      <c r="K1" s="99"/>
+      <c r="J1" s="80"/>
+      <c r="K1" s="81"/>
       <c r="L1" s="12" t="s">
         <v>1</v>
       </c>
@@ -4561,29 +5240,29 @@
       <c r="N1" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="O1" s="101">
-        <v>45481</v>
-      </c>
-      <c r="P1" s="102"/>
+      <c r="O1" s="83">
+        <v>45482</v>
+      </c>
+      <c r="P1" s="84"/>
     </row>
     <row r="2" spans="1:16" ht="20.25" customHeight="1">
-      <c r="A2" s="97"/>
-      <c r="B2" s="97"/>
+      <c r="A2" s="79"/>
+      <c r="B2" s="79"/>
       <c r="C2" s="16" t="s">
         <v>245</v>
       </c>
-      <c r="D2" s="103" t="s">
-        <v>33</v>
-      </c>
-      <c r="E2" s="103"/>
-      <c r="F2" s="103"/>
-      <c r="G2" s="103"/>
-      <c r="H2" s="104"/>
-      <c r="I2" s="105" t="s">
-        <v>32</v>
-      </c>
-      <c r="J2" s="103"/>
-      <c r="K2" s="104"/>
+      <c r="D2" s="85" t="s">
+        <v>193</v>
+      </c>
+      <c r="E2" s="85"/>
+      <c r="F2" s="85"/>
+      <c r="G2" s="85"/>
+      <c r="H2" s="86"/>
+      <c r="I2" s="87" t="s">
+        <v>87</v>
+      </c>
+      <c r="J2" s="85"/>
+      <c r="K2" s="86"/>
       <c r="L2" s="17" t="s">
         <v>2</v>
       </c>
@@ -4591,50 +5270,48 @@
       <c r="N2" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="O2" s="106">
-        <v>45484</v>
-      </c>
-      <c r="P2" s="104"/>
+      <c r="O2" s="88"/>
+      <c r="P2" s="86"/>
     </row>
     <row r="3" spans="1:16" ht="20.25" customHeight="1">
-      <c r="A3" s="81" t="s">
+      <c r="A3" s="91" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="82"/>
-      <c r="C3" s="85" t="s">
-        <v>33</v>
-      </c>
-      <c r="D3" s="86"/>
-      <c r="E3" s="86"/>
-      <c r="F3" s="86"/>
-      <c r="G3" s="86"/>
-      <c r="H3" s="86"/>
-      <c r="I3" s="86"/>
-      <c r="J3" s="86"/>
-      <c r="K3" s="86"/>
-      <c r="L3" s="86"/>
-      <c r="M3" s="86"/>
-      <c r="N3" s="86"/>
-      <c r="O3" s="86"/>
-      <c r="P3" s="87"/>
+      <c r="B3" s="92"/>
+      <c r="C3" s="95" t="s">
+        <v>193</v>
+      </c>
+      <c r="D3" s="96"/>
+      <c r="E3" s="96"/>
+      <c r="F3" s="96"/>
+      <c r="G3" s="96"/>
+      <c r="H3" s="96"/>
+      <c r="I3" s="96"/>
+      <c r="J3" s="96"/>
+      <c r="K3" s="96"/>
+      <c r="L3" s="96"/>
+      <c r="M3" s="96"/>
+      <c r="N3" s="96"/>
+      <c r="O3" s="96"/>
+      <c r="P3" s="97"/>
     </row>
     <row r="4" spans="1:16" ht="20.25" customHeight="1">
-      <c r="A4" s="83"/>
-      <c r="B4" s="84"/>
-      <c r="C4" s="88"/>
-      <c r="D4" s="89"/>
-      <c r="E4" s="89"/>
-      <c r="F4" s="89"/>
-      <c r="G4" s="89"/>
-      <c r="H4" s="89"/>
-      <c r="I4" s="89"/>
-      <c r="J4" s="89"/>
-      <c r="K4" s="89"/>
-      <c r="L4" s="89"/>
-      <c r="M4" s="89"/>
-      <c r="N4" s="89"/>
-      <c r="O4" s="89"/>
-      <c r="P4" s="90"/>
+      <c r="A4" s="93"/>
+      <c r="B4" s="94"/>
+      <c r="C4" s="98"/>
+      <c r="D4" s="99"/>
+      <c r="E4" s="99"/>
+      <c r="F4" s="99"/>
+      <c r="G4" s="99"/>
+      <c r="H4" s="99"/>
+      <c r="I4" s="99"/>
+      <c r="J4" s="99"/>
+      <c r="K4" s="99"/>
+      <c r="L4" s="99"/>
+      <c r="M4" s="99"/>
+      <c r="N4" s="99"/>
+      <c r="O4" s="99"/>
+      <c r="P4" s="100"/>
     </row>
     <row r="5" spans="1:16" ht="20.25" customHeight="1">
       <c r="B5" s="20"/>
@@ -4675,10 +5352,10 @@
       <c r="K6" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="L6" s="91" t="s">
+      <c r="L6" s="101" t="s">
         <v>27</v>
       </c>
-      <c r="M6" s="92"/>
+      <c r="M6" s="102"/>
       <c r="N6" s="26" t="s">
         <v>28</v>
       </c>
@@ -4694,10 +5371,10 @@
         <v>1</v>
       </c>
       <c r="B7" s="34" t="s">
-        <v>35</v>
+        <v>194</v>
       </c>
       <c r="C7" s="35" t="s">
-        <v>50</v>
+        <v>88</v>
       </c>
       <c r="D7" s="36" t="s">
         <v>183</v>
@@ -4721,10 +5398,10 @@
         <v>31</v>
       </c>
       <c r="K7" s="35"/>
-      <c r="L7" s="93" t="s">
-        <v>238</v>
-      </c>
-      <c r="M7" s="94"/>
+      <c r="L7" s="103" t="s">
+        <v>198</v>
+      </c>
+      <c r="M7" s="104"/>
       <c r="N7" s="39"/>
       <c r="O7" s="35"/>
       <c r="P7" s="40"/>
@@ -4734,16 +5411,16 @@
         <v>2</v>
       </c>
       <c r="B8" s="34" t="s">
-        <v>36</v>
+        <v>195</v>
       </c>
       <c r="C8" s="35" t="s">
-        <v>51</v>
+        <v>89</v>
       </c>
       <c r="D8" s="36" t="s">
         <v>183</v>
       </c>
       <c r="E8" s="37">
-        <v>64</v>
+        <v>20</v>
       </c>
       <c r="F8" s="38"/>
       <c r="G8" s="36" t="s">
@@ -4753,10 +5430,10 @@
       <c r="I8" s="36"/>
       <c r="J8" s="35"/>
       <c r="K8" s="35"/>
-      <c r="L8" s="95" t="s">
-        <v>255</v>
-      </c>
-      <c r="M8" s="96"/>
+      <c r="L8" s="105" t="s">
+        <v>212</v>
+      </c>
+      <c r="M8" s="106"/>
       <c r="N8" s="39"/>
       <c r="O8" s="35"/>
       <c r="P8" s="40"/>
@@ -4766,13 +5443,13 @@
         <v>3</v>
       </c>
       <c r="B9" s="34" t="s">
-        <v>37</v>
+        <v>196</v>
       </c>
       <c r="C9" s="35" t="s">
-        <v>52</v>
+        <v>90</v>
       </c>
       <c r="D9" s="36" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E9" s="37">
         <v>20</v>
@@ -4781,12 +5458,18 @@
       <c r="G9" s="36" t="s">
         <v>31</v>
       </c>
-      <c r="H9" s="36"/>
-      <c r="I9" s="36"/>
-      <c r="J9" s="35"/>
+      <c r="H9" s="36" t="s">
+        <v>31</v>
+      </c>
+      <c r="I9" s="36" t="s">
+        <v>31</v>
+      </c>
+      <c r="J9" s="36" t="s">
+        <v>31</v>
+      </c>
       <c r="K9" s="35"/>
-      <c r="L9" s="79"/>
-      <c r="M9" s="80"/>
+      <c r="L9" s="89"/>
+      <c r="M9" s="90"/>
       <c r="N9" s="39"/>
       <c r="O9" s="35"/>
       <c r="P9" s="40"/>
@@ -4796,25 +5479,29 @@
         <v>4</v>
       </c>
       <c r="B10" s="34" t="s">
-        <v>38</v>
+        <v>197</v>
       </c>
       <c r="C10" s="35" t="s">
-        <v>53</v>
+        <v>91</v>
       </c>
       <c r="D10" s="36" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E10" s="37">
         <v>20</v>
       </c>
       <c r="F10" s="38"/>
-      <c r="G10" s="36"/>
+      <c r="G10" s="36" t="s">
+        <v>31</v>
+      </c>
       <c r="H10" s="36"/>
       <c r="I10" s="36"/>
       <c r="J10" s="35"/>
       <c r="K10" s="35"/>
-      <c r="L10" s="79"/>
-      <c r="M10" s="80"/>
+      <c r="L10" s="89" t="s">
+        <v>199</v>
+      </c>
+      <c r="M10" s="90"/>
       <c r="N10" s="39"/>
       <c r="O10" s="35"/>
       <c r="P10" s="40"/>
@@ -4824,16 +5511,16 @@
         <v>5</v>
       </c>
       <c r="B11" s="34" t="s">
-        <v>39</v>
+        <v>92</v>
       </c>
       <c r="C11" s="35" t="s">
-        <v>54</v>
+        <v>93</v>
       </c>
       <c r="D11" s="36" t="s">
         <v>183</v>
       </c>
       <c r="E11" s="37">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="F11" s="38"/>
       <c r="G11" s="36"/>
@@ -4841,701 +5528,8 @@
       <c r="I11" s="36"/>
       <c r="J11" s="35"/>
       <c r="K11" s="35"/>
-      <c r="L11" s="79" t="s">
-        <v>187</v>
-      </c>
-      <c r="M11" s="80"/>
-      <c r="N11" s="39" t="s">
-        <v>191</v>
-      </c>
-      <c r="O11" s="35"/>
-      <c r="P11" s="40"/>
-    </row>
-    <row r="12" spans="1:16" s="41" customFormat="1" ht="31.5" customHeight="1">
-      <c r="A12" s="43">
-        <v>6</v>
-      </c>
-      <c r="B12" s="34" t="s">
-        <v>40</v>
-      </c>
-      <c r="C12" s="35" t="s">
-        <v>55</v>
-      </c>
-      <c r="D12" s="36" t="s">
-        <v>183</v>
-      </c>
-      <c r="E12" s="37">
-        <v>1</v>
-      </c>
-      <c r="F12" s="38"/>
-      <c r="G12" s="36"/>
-      <c r="H12" s="36"/>
-      <c r="I12" s="36"/>
-      <c r="J12" s="35"/>
-      <c r="K12" s="35"/>
-      <c r="L12" s="79" t="s">
-        <v>188</v>
-      </c>
-      <c r="M12" s="80"/>
-      <c r="N12" s="39" t="s">
-        <v>192</v>
-      </c>
-      <c r="O12" s="35"/>
-      <c r="P12" s="40"/>
-    </row>
-    <row r="13" spans="1:16" s="41" customFormat="1" ht="31.5" customHeight="1">
-      <c r="A13" s="43">
-        <v>7</v>
-      </c>
-      <c r="B13" s="34" t="s">
-        <v>41</v>
-      </c>
-      <c r="C13" s="35" t="s">
-        <v>56</v>
-      </c>
-      <c r="D13" s="36" t="s">
-        <v>183</v>
-      </c>
-      <c r="E13" s="37">
-        <v>100</v>
-      </c>
-      <c r="F13" s="38"/>
-      <c r="G13" s="36"/>
-      <c r="H13" s="36"/>
-      <c r="I13" s="36"/>
-      <c r="J13" s="35"/>
-      <c r="K13" s="35"/>
-      <c r="L13" s="79"/>
-      <c r="M13" s="80"/>
-      <c r="N13" s="39"/>
-      <c r="O13" s="35"/>
-      <c r="P13" s="40"/>
-    </row>
-    <row r="14" spans="1:16" s="41" customFormat="1" ht="31.5" customHeight="1">
-      <c r="A14" s="43">
-        <v>8</v>
-      </c>
-      <c r="B14" s="34" t="s">
-        <v>42</v>
-      </c>
-      <c r="C14" s="35" t="s">
-        <v>57</v>
-      </c>
-      <c r="D14" s="36" t="s">
-        <v>185</v>
-      </c>
-      <c r="E14" s="37">
-        <v>3</v>
-      </c>
-      <c r="F14" s="38">
-        <v>1</v>
-      </c>
-      <c r="G14" s="36"/>
-      <c r="H14" s="36"/>
-      <c r="I14" s="36"/>
-      <c r="J14" s="35"/>
-      <c r="K14" s="35"/>
-      <c r="L14" s="79"/>
-      <c r="M14" s="80"/>
-      <c r="N14" s="39"/>
-      <c r="O14" s="35"/>
-      <c r="P14" s="40"/>
-    </row>
-    <row r="15" spans="1:16" s="41" customFormat="1" ht="31.5" customHeight="1">
-      <c r="A15" s="43">
-        <v>9</v>
-      </c>
-      <c r="B15" s="34" t="s">
-        <v>43</v>
-      </c>
-      <c r="C15" s="35" t="s">
-        <v>58</v>
-      </c>
-      <c r="D15" s="36" t="s">
-        <v>185</v>
-      </c>
-      <c r="E15" s="37">
-        <v>4</v>
-      </c>
-      <c r="F15" s="38">
-        <v>1</v>
-      </c>
-      <c r="G15" s="36"/>
-      <c r="H15" s="36"/>
-      <c r="I15" s="36"/>
-      <c r="J15" s="35"/>
-      <c r="K15" s="35"/>
-      <c r="L15" s="79"/>
-      <c r="M15" s="80"/>
-      <c r="N15" s="39"/>
-      <c r="O15" s="35"/>
-      <c r="P15" s="40"/>
-    </row>
-    <row r="16" spans="1:16" s="41" customFormat="1" ht="31.5" customHeight="1">
-      <c r="A16" s="43">
-        <v>10</v>
-      </c>
-      <c r="B16" s="34" t="s">
-        <v>44</v>
-      </c>
-      <c r="C16" s="35" t="s">
-        <v>59</v>
-      </c>
-      <c r="D16" s="36" t="s">
-        <v>186</v>
-      </c>
-      <c r="E16" s="37">
-        <v>1</v>
-      </c>
-      <c r="F16" s="38"/>
-      <c r="G16" s="36"/>
-      <c r="H16" s="36"/>
-      <c r="I16" s="36"/>
-      <c r="J16" s="35"/>
-      <c r="K16" s="35"/>
-      <c r="L16" s="79" t="s">
-        <v>189</v>
-      </c>
-      <c r="M16" s="80"/>
-      <c r="N16" s="39"/>
-      <c r="O16" s="35"/>
-      <c r="P16" s="40"/>
-    </row>
-    <row r="17" spans="1:16" s="41" customFormat="1" ht="31.5" customHeight="1">
-      <c r="A17" s="43">
-        <v>11</v>
-      </c>
-      <c r="B17" s="34" t="s">
-        <v>45</v>
-      </c>
-      <c r="C17" s="35" t="s">
-        <v>60</v>
-      </c>
-      <c r="D17" s="36" t="s">
-        <v>183</v>
-      </c>
-      <c r="E17" s="37">
-        <v>1</v>
-      </c>
-      <c r="F17" s="38"/>
-      <c r="G17" s="36"/>
-      <c r="H17" s="36"/>
-      <c r="I17" s="36"/>
-      <c r="J17" s="35"/>
-      <c r="K17" s="35">
-        <v>0</v>
-      </c>
-      <c r="L17" s="79"/>
-      <c r="M17" s="80"/>
-      <c r="N17" s="39"/>
-      <c r="O17" s="35"/>
-      <c r="P17" s="40"/>
-    </row>
-    <row r="18" spans="1:16" s="41" customFormat="1" ht="31.5" customHeight="1">
-      <c r="A18" s="43">
-        <v>12</v>
-      </c>
-      <c r="B18" s="34" t="s">
-        <v>46</v>
-      </c>
-      <c r="C18" s="35" t="s">
-        <v>61</v>
-      </c>
-      <c r="D18" s="36" t="s">
-        <v>183</v>
-      </c>
-      <c r="E18" s="37">
-        <v>20</v>
-      </c>
-      <c r="F18" s="38"/>
-      <c r="G18" s="36" t="s">
-        <v>31</v>
-      </c>
-      <c r="H18" s="36"/>
-      <c r="I18" s="36"/>
-      <c r="J18" s="35"/>
-      <c r="K18" s="35"/>
-      <c r="L18" s="79"/>
-      <c r="M18" s="80"/>
-      <c r="N18" s="39"/>
-      <c r="O18" s="35"/>
-      <c r="P18" s="40"/>
-    </row>
-    <row r="19" spans="1:16" s="41" customFormat="1" ht="31.5" customHeight="1">
-      <c r="A19" s="43">
-        <v>13</v>
-      </c>
-      <c r="B19" s="34" t="s">
-        <v>47</v>
-      </c>
-      <c r="C19" s="35" t="s">
-        <v>62</v>
-      </c>
-      <c r="D19" s="36" t="s">
-        <v>65</v>
-      </c>
-      <c r="E19" s="37" t="s">
-        <v>66</v>
-      </c>
-      <c r="F19" s="38"/>
-      <c r="G19" s="36" t="s">
-        <v>31</v>
-      </c>
-      <c r="H19" s="36"/>
-      <c r="I19" s="36"/>
-      <c r="J19" s="35"/>
-      <c r="K19" s="35" t="s">
-        <v>67</v>
-      </c>
-      <c r="L19" s="79"/>
-      <c r="M19" s="80"/>
-      <c r="N19" s="39"/>
-      <c r="O19" s="35"/>
-      <c r="P19" s="40"/>
-    </row>
-    <row r="20" spans="1:16" s="41" customFormat="1" ht="31.5" customHeight="1">
-      <c r="A20" s="43">
-        <v>14</v>
-      </c>
-      <c r="B20" s="34" t="s">
-        <v>48</v>
-      </c>
-      <c r="C20" s="35" t="s">
-        <v>63</v>
-      </c>
-      <c r="D20" s="36" t="s">
-        <v>183</v>
-      </c>
-      <c r="E20" s="37">
-        <v>20</v>
-      </c>
-      <c r="F20" s="38"/>
-      <c r="G20" s="36" t="s">
-        <v>31</v>
-      </c>
-      <c r="H20" s="36"/>
-      <c r="I20" s="36"/>
-      <c r="J20" s="35"/>
-      <c r="K20" s="35"/>
-      <c r="L20" s="79"/>
-      <c r="M20" s="80"/>
-      <c r="N20" s="39"/>
-      <c r="O20" s="35"/>
-      <c r="P20" s="40"/>
-    </row>
-    <row r="21" spans="1:16" ht="31.5" customHeight="1">
-      <c r="A21" s="43">
-        <v>15</v>
-      </c>
-      <c r="B21" s="34" t="s">
-        <v>49</v>
-      </c>
-      <c r="C21" s="35" t="s">
-        <v>64</v>
-      </c>
-      <c r="D21" s="36" t="s">
-        <v>65</v>
-      </c>
-      <c r="E21" s="37" t="s">
-        <v>66</v>
-      </c>
-      <c r="F21" s="38"/>
-      <c r="G21" s="36" t="s">
-        <v>31</v>
-      </c>
-      <c r="H21" s="36"/>
-      <c r="I21" s="36"/>
-      <c r="J21" s="35"/>
-      <c r="K21" s="35" t="s">
-        <v>67</v>
-      </c>
-      <c r="L21" s="79"/>
-      <c r="M21" s="80"/>
-      <c r="N21" s="39"/>
-      <c r="O21" s="35"/>
-      <c r="P21" s="40"/>
-    </row>
-  </sheetData>
-  <mergeCells count="25">
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="D1:H1"/>
-    <mergeCell ref="I1:K1"/>
-    <mergeCell ref="O1:P1"/>
-    <mergeCell ref="D2:H2"/>
-    <mergeCell ref="I2:K2"/>
-    <mergeCell ref="O2:P2"/>
-    <mergeCell ref="L16:M16"/>
-    <mergeCell ref="A3:B4"/>
-    <mergeCell ref="C3:P4"/>
-    <mergeCell ref="L6:M6"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="L9:M9"/>
-    <mergeCell ref="L10:M10"/>
-    <mergeCell ref="L11:M11"/>
-    <mergeCell ref="L12:M12"/>
-    <mergeCell ref="L13:M13"/>
-    <mergeCell ref="L14:M14"/>
-    <mergeCell ref="L15:M15"/>
-    <mergeCell ref="L8:M8"/>
-    <mergeCell ref="L17:M17"/>
-    <mergeCell ref="L18:M18"/>
-    <mergeCell ref="L19:M19"/>
-    <mergeCell ref="L20:M20"/>
-    <mergeCell ref="L21:M21"/>
-  </mergeCells>
-  <phoneticPr fontId="6"/>
-  <pageMargins left="0.35433070866141736" right="0.35433070866141736" top="0.19685039370078741" bottom="0.19685039370078741" header="0.23622047244094491" footer="0.23622047244094491"/>
-  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
-  <headerFooter alignWithMargins="0"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84BDD822-9F1C-427F-9482-E24B2FC38924}">
-  <dimension ref="A1:P21"/>
-  <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection sqref="A1:B2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="28.5" customHeight="1"/>
-  <cols>
-    <col min="1" max="1" width="4.1796875" style="19" customWidth="1"/>
-    <col min="2" max="2" width="17.453125" style="19" customWidth="1"/>
-    <col min="3" max="3" width="21.81640625" style="44" customWidth="1"/>
-    <col min="4" max="4" width="10.54296875" style="23" customWidth="1"/>
-    <col min="5" max="6" width="4.54296875" style="23" customWidth="1"/>
-    <col min="7" max="8" width="4" style="23" customWidth="1"/>
-    <col min="9" max="9" width="4.453125" style="23" customWidth="1"/>
-    <col min="10" max="10" width="4" style="23" customWidth="1"/>
-    <col min="11" max="11" width="9" style="23" customWidth="1"/>
-    <col min="12" max="12" width="12.1796875" style="23" customWidth="1"/>
-    <col min="13" max="13" width="13.54296875" style="19" customWidth="1"/>
-    <col min="14" max="14" width="12.1796875" style="19" customWidth="1"/>
-    <col min="15" max="15" width="6.81640625" style="19" customWidth="1"/>
-    <col min="16" max="16" width="9.7265625" style="19" customWidth="1"/>
-    <col min="17" max="16384" width="9" style="19"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:16" s="15" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A1" s="97" t="s">
-        <v>11</v>
-      </c>
-      <c r="B1" s="97"/>
-      <c r="C1" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="D1" s="98" t="s">
-        <v>13</v>
-      </c>
-      <c r="E1" s="98"/>
-      <c r="F1" s="98"/>
-      <c r="G1" s="98"/>
-      <c r="H1" s="99"/>
-      <c r="I1" s="100" t="s">
-        <v>14</v>
-      </c>
-      <c r="J1" s="98"/>
-      <c r="K1" s="99"/>
-      <c r="L1" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="M1" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="N1" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="O1" s="101">
-        <v>45482</v>
-      </c>
-      <c r="P1" s="102"/>
-    </row>
-    <row r="2" spans="1:16" ht="20.25" customHeight="1">
-      <c r="A2" s="97"/>
-      <c r="B2" s="97"/>
-      <c r="C2" s="16" t="s">
-        <v>245</v>
-      </c>
-      <c r="D2" s="103" t="s">
-        <v>193</v>
-      </c>
-      <c r="E2" s="103"/>
-      <c r="F2" s="103"/>
-      <c r="G2" s="103"/>
-      <c r="H2" s="104"/>
-      <c r="I2" s="105" t="s">
-        <v>87</v>
-      </c>
-      <c r="J2" s="103"/>
-      <c r="K2" s="104"/>
-      <c r="L2" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="M2" s="47"/>
-      <c r="N2" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="O2" s="106"/>
-      <c r="P2" s="104"/>
-    </row>
-    <row r="3" spans="1:16" ht="20.25" customHeight="1">
-      <c r="A3" s="81" t="s">
-        <v>16</v>
-      </c>
-      <c r="B3" s="82"/>
-      <c r="C3" s="85" t="s">
-        <v>193</v>
-      </c>
-      <c r="D3" s="86"/>
-      <c r="E3" s="86"/>
-      <c r="F3" s="86"/>
-      <c r="G3" s="86"/>
-      <c r="H3" s="86"/>
-      <c r="I3" s="86"/>
-      <c r="J3" s="86"/>
-      <c r="K3" s="86"/>
-      <c r="L3" s="86"/>
-      <c r="M3" s="86"/>
-      <c r="N3" s="86"/>
-      <c r="O3" s="86"/>
-      <c r="P3" s="87"/>
-    </row>
-    <row r="4" spans="1:16" ht="20.25" customHeight="1">
-      <c r="A4" s="83"/>
-      <c r="B4" s="84"/>
-      <c r="C4" s="88"/>
-      <c r="D4" s="89"/>
-      <c r="E4" s="89"/>
-      <c r="F4" s="89"/>
-      <c r="G4" s="89"/>
-      <c r="H4" s="89"/>
-      <c r="I4" s="89"/>
-      <c r="J4" s="89"/>
-      <c r="K4" s="89"/>
-      <c r="L4" s="89"/>
-      <c r="M4" s="89"/>
-      <c r="N4" s="89"/>
-      <c r="O4" s="89"/>
-      <c r="P4" s="90"/>
-    </row>
-    <row r="5" spans="1:16" ht="20.25" customHeight="1">
-      <c r="B5" s="20"/>
-      <c r="C5" s="21"/>
-      <c r="D5" s="22"/>
-      <c r="M5" s="24"/>
-      <c r="N5" s="24"/>
-    </row>
-    <row r="6" spans="1:16" ht="31.5" customHeight="1" thickBot="1">
-      <c r="A6" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6" s="26" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" s="26" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6" s="26" t="s">
-        <v>20</v>
-      </c>
-      <c r="E6" s="27" t="s">
-        <v>21</v>
-      </c>
-      <c r="F6" s="28"/>
-      <c r="G6" s="45" t="s">
-        <v>22</v>
-      </c>
-      <c r="H6" s="30" t="s">
-        <v>23</v>
-      </c>
-      <c r="I6" s="29" t="s">
-        <v>24</v>
-      </c>
-      <c r="J6" s="30" t="s">
-        <v>25</v>
-      </c>
-      <c r="K6" s="31" t="s">
-        <v>26</v>
-      </c>
-      <c r="L6" s="91" t="s">
-        <v>27</v>
-      </c>
-      <c r="M6" s="92"/>
-      <c r="N6" s="26" t="s">
-        <v>28</v>
-      </c>
-      <c r="O6" s="26" t="s">
-        <v>29</v>
-      </c>
-      <c r="P6" s="32" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" s="41" customFormat="1" ht="31.5" customHeight="1" thickTop="1">
-      <c r="A7" s="33">
-        <v>1</v>
-      </c>
-      <c r="B7" s="34" t="s">
-        <v>194</v>
-      </c>
-      <c r="C7" s="35" t="s">
-        <v>88</v>
-      </c>
-      <c r="D7" s="36" t="s">
-        <v>183</v>
-      </c>
-      <c r="E7" s="37">
-        <v>20</v>
-      </c>
-      <c r="F7" s="38">
-        <v>0</v>
-      </c>
-      <c r="G7" s="36" t="s">
-        <v>31</v>
-      </c>
-      <c r="H7" s="36" t="s">
-        <v>31</v>
-      </c>
-      <c r="I7" s="36" t="s">
-        <v>31</v>
-      </c>
-      <c r="J7" s="36" t="s">
-        <v>31</v>
-      </c>
-      <c r="K7" s="35"/>
-      <c r="L7" s="93" t="s">
-        <v>198</v>
-      </c>
-      <c r="M7" s="94"/>
-      <c r="N7" s="39"/>
-      <c r="O7" s="35"/>
-      <c r="P7" s="40"/>
-    </row>
-    <row r="8" spans="1:16" s="41" customFormat="1" ht="31.5" customHeight="1">
-      <c r="A8" s="42">
-        <v>2</v>
-      </c>
-      <c r="B8" s="34" t="s">
-        <v>195</v>
-      </c>
-      <c r="C8" s="35" t="s">
-        <v>89</v>
-      </c>
-      <c r="D8" s="36" t="s">
-        <v>183</v>
-      </c>
-      <c r="E8" s="37">
-        <v>20</v>
-      </c>
-      <c r="F8" s="38"/>
-      <c r="G8" s="36" t="s">
-        <v>31</v>
-      </c>
-      <c r="H8" s="36"/>
-      <c r="I8" s="36"/>
-      <c r="J8" s="35"/>
-      <c r="K8" s="35"/>
-      <c r="L8" s="95" t="s">
-        <v>212</v>
-      </c>
-      <c r="M8" s="96"/>
-      <c r="N8" s="39"/>
-      <c r="O8" s="35"/>
-      <c r="P8" s="40"/>
-    </row>
-    <row r="9" spans="1:16" s="41" customFormat="1" ht="31.5" customHeight="1">
-      <c r="A9" s="43">
-        <v>3</v>
-      </c>
-      <c r="B9" s="34" t="s">
-        <v>196</v>
-      </c>
-      <c r="C9" s="35" t="s">
-        <v>90</v>
-      </c>
-      <c r="D9" s="36" t="s">
-        <v>183</v>
-      </c>
-      <c r="E9" s="37">
-        <v>20</v>
-      </c>
-      <c r="F9" s="38"/>
-      <c r="G9" s="36" t="s">
-        <v>31</v>
-      </c>
-      <c r="H9" s="36" t="s">
-        <v>31</v>
-      </c>
-      <c r="I9" s="36" t="s">
-        <v>31</v>
-      </c>
-      <c r="J9" s="36" t="s">
-        <v>31</v>
-      </c>
-      <c r="K9" s="35"/>
-      <c r="L9" s="79"/>
-      <c r="M9" s="80"/>
-      <c r="N9" s="39"/>
-      <c r="O9" s="35"/>
-      <c r="P9" s="40"/>
-    </row>
-    <row r="10" spans="1:16" s="41" customFormat="1" ht="31.5" customHeight="1">
-      <c r="A10" s="43">
-        <v>4</v>
-      </c>
-      <c r="B10" s="34" t="s">
-        <v>197</v>
-      </c>
-      <c r="C10" s="35" t="s">
-        <v>91</v>
-      </c>
-      <c r="D10" s="36" t="s">
-        <v>183</v>
-      </c>
-      <c r="E10" s="37">
-        <v>20</v>
-      </c>
-      <c r="F10" s="38"/>
-      <c r="G10" s="36" t="s">
-        <v>31</v>
-      </c>
-      <c r="H10" s="36"/>
-      <c r="I10" s="36"/>
-      <c r="J10" s="35"/>
-      <c r="K10" s="35"/>
-      <c r="L10" s="79" t="s">
-        <v>199</v>
-      </c>
-      <c r="M10" s="80"/>
-      <c r="N10" s="39"/>
-      <c r="O10" s="35"/>
-      <c r="P10" s="40"/>
-    </row>
-    <row r="11" spans="1:16" s="41" customFormat="1" ht="31.5" customHeight="1">
-      <c r="A11" s="43">
-        <v>5</v>
-      </c>
-      <c r="B11" s="34" t="s">
-        <v>92</v>
-      </c>
-      <c r="C11" s="35" t="s">
-        <v>93</v>
-      </c>
-      <c r="D11" s="36" t="s">
-        <v>183</v>
-      </c>
-      <c r="E11" s="37">
-        <v>100</v>
-      </c>
-      <c r="F11" s="38"/>
-      <c r="G11" s="36"/>
-      <c r="H11" s="36"/>
-      <c r="I11" s="36"/>
-      <c r="J11" s="35"/>
-      <c r="K11" s="35"/>
-      <c r="L11" s="79"/>
-      <c r="M11" s="80"/>
+      <c r="L11" s="89"/>
+      <c r="M11" s="90"/>
       <c r="N11" s="39"/>
       <c r="O11" s="35"/>
       <c r="P11" s="40"/>
@@ -5566,8 +5560,8 @@
       <c r="K12" s="35">
         <v>0</v>
       </c>
-      <c r="L12" s="79"/>
-      <c r="M12" s="80"/>
+      <c r="L12" s="89"/>
+      <c r="M12" s="90"/>
       <c r="N12" s="39"/>
       <c r="O12" s="35"/>
       <c r="P12" s="40"/>
@@ -5596,8 +5590,8 @@
       <c r="I13" s="36"/>
       <c r="J13" s="35"/>
       <c r="K13" s="35"/>
-      <c r="L13" s="79"/>
-      <c r="M13" s="80"/>
+      <c r="L13" s="89"/>
+      <c r="M13" s="90"/>
       <c r="N13" s="39"/>
       <c r="O13" s="35"/>
       <c r="P13" s="40"/>
@@ -5628,8 +5622,8 @@
       <c r="K14" s="35" t="s">
         <v>68</v>
       </c>
-      <c r="L14" s="79"/>
-      <c r="M14" s="80"/>
+      <c r="L14" s="89"/>
+      <c r="M14" s="90"/>
       <c r="N14" s="39"/>
       <c r="O14" s="35"/>
       <c r="P14" s="40"/>
@@ -5658,8 +5652,8 @@
       <c r="I15" s="36"/>
       <c r="J15" s="35"/>
       <c r="K15" s="35"/>
-      <c r="L15" s="79"/>
-      <c r="M15" s="80"/>
+      <c r="L15" s="89"/>
+      <c r="M15" s="90"/>
       <c r="N15" s="39"/>
       <c r="O15" s="35"/>
       <c r="P15" s="40"/>
@@ -5690,8 +5684,8 @@
       <c r="K16" s="35" t="s">
         <v>67</v>
       </c>
-      <c r="L16" s="79"/>
-      <c r="M16" s="80"/>
+      <c r="L16" s="89"/>
+      <c r="M16" s="90"/>
       <c r="N16" s="39"/>
       <c r="O16" s="35"/>
       <c r="P16" s="40"/>
@@ -5709,8 +5703,8 @@
       <c r="H17" s="36"/>
       <c r="I17" s="36"/>
       <c r="J17" s="35"/>
-      <c r="L17" s="79"/>
-      <c r="M17" s="80"/>
+      <c r="L17" s="89"/>
+      <c r="M17" s="90"/>
       <c r="N17" s="39"/>
       <c r="O17" s="35"/>
       <c r="P17" s="40"/>
@@ -5728,8 +5722,8 @@
       <c r="H18" s="36"/>
       <c r="I18" s="36"/>
       <c r="J18" s="35"/>
-      <c r="L18" s="79"/>
-      <c r="M18" s="80"/>
+      <c r="L18" s="89"/>
+      <c r="M18" s="90"/>
       <c r="N18" s="39"/>
       <c r="O18" s="35"/>
       <c r="P18" s="40"/>
@@ -5747,8 +5741,8 @@
       <c r="H19" s="36"/>
       <c r="I19" s="36"/>
       <c r="J19" s="35"/>
-      <c r="L19" s="79"/>
-      <c r="M19" s="80"/>
+      <c r="L19" s="89"/>
+      <c r="M19" s="90"/>
       <c r="N19" s="39"/>
       <c r="O19" s="35"/>
       <c r="P19" s="40"/>
@@ -5767,8 +5761,8 @@
       <c r="I20" s="36"/>
       <c r="J20" s="35"/>
       <c r="K20" s="35"/>
-      <c r="L20" s="79"/>
-      <c r="M20" s="80"/>
+      <c r="L20" s="89"/>
+      <c r="M20" s="90"/>
       <c r="N20" s="39"/>
       <c r="O20" s="35"/>
       <c r="P20" s="40"/>
@@ -5787,26 +5781,14 @@
       <c r="I21" s="36"/>
       <c r="J21" s="35"/>
       <c r="K21" s="35"/>
-      <c r="L21" s="79"/>
-      <c r="M21" s="80"/>
+      <c r="L21" s="89"/>
+      <c r="M21" s="90"/>
       <c r="N21" s="39"/>
       <c r="O21" s="35"/>
       <c r="P21" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="L21:M21"/>
-    <mergeCell ref="L10:M10"/>
-    <mergeCell ref="L11:M11"/>
-    <mergeCell ref="L12:M12"/>
-    <mergeCell ref="L13:M13"/>
-    <mergeCell ref="L14:M14"/>
-    <mergeCell ref="L15:M15"/>
-    <mergeCell ref="L16:M16"/>
-    <mergeCell ref="L17:M17"/>
-    <mergeCell ref="L18:M18"/>
-    <mergeCell ref="L19:M19"/>
-    <mergeCell ref="L20:M20"/>
     <mergeCell ref="L9:M9"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="D1:H1"/>
@@ -5820,6 +5802,18 @@
     <mergeCell ref="L6:M6"/>
     <mergeCell ref="L7:M7"/>
     <mergeCell ref="L8:M8"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="L20:M20"/>
   </mergeCells>
   <phoneticPr fontId="6"/>
   <pageMargins left="0.35433070866141736" right="0.35433070866141736" top="0.19685039370078741" bottom="0.19685039370078741" header="0.23622047244094491" footer="0.23622047244094491"/>
@@ -5856,25 +5850,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="15" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A1" s="97" t="s">
+      <c r="A1" s="79" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="97"/>
+      <c r="B1" s="79"/>
       <c r="C1" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="98" t="s">
+      <c r="D1" s="80" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="98"/>
-      <c r="F1" s="98"/>
-      <c r="G1" s="98"/>
-      <c r="H1" s="99"/>
-      <c r="I1" s="100" t="s">
+      <c r="E1" s="80"/>
+      <c r="F1" s="80"/>
+      <c r="G1" s="80"/>
+      <c r="H1" s="81"/>
+      <c r="I1" s="82" t="s">
         <v>14</v>
       </c>
-      <c r="J1" s="98"/>
-      <c r="K1" s="99"/>
+      <c r="J1" s="80"/>
+      <c r="K1" s="81"/>
       <c r="L1" s="12" t="s">
         <v>1</v>
       </c>
@@ -5884,29 +5878,29 @@
       <c r="N1" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="O1" s="101">
+      <c r="O1" s="83">
         <v>45482</v>
       </c>
-      <c r="P1" s="102"/>
+      <c r="P1" s="84"/>
     </row>
     <row r="2" spans="1:16" ht="20.25" customHeight="1">
-      <c r="A2" s="97"/>
-      <c r="B2" s="97"/>
+      <c r="A2" s="79"/>
+      <c r="B2" s="79"/>
       <c r="C2" s="16" t="s">
         <v>245</v>
       </c>
-      <c r="D2" s="103" t="s">
+      <c r="D2" s="85" t="s">
         <v>70</v>
       </c>
-      <c r="E2" s="103"/>
-      <c r="F2" s="103"/>
-      <c r="G2" s="103"/>
-      <c r="H2" s="104"/>
-      <c r="I2" s="105" t="s">
+      <c r="E2" s="85"/>
+      <c r="F2" s="85"/>
+      <c r="G2" s="85"/>
+      <c r="H2" s="86"/>
+      <c r="I2" s="87" t="s">
         <v>69</v>
       </c>
-      <c r="J2" s="103"/>
-      <c r="K2" s="104"/>
+      <c r="J2" s="85"/>
+      <c r="K2" s="86"/>
       <c r="L2" s="17" t="s">
         <v>2</v>
       </c>
@@ -5914,48 +5908,48 @@
       <c r="N2" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="O2" s="106"/>
-      <c r="P2" s="104"/>
+      <c r="O2" s="88"/>
+      <c r="P2" s="86"/>
     </row>
     <row r="3" spans="1:16" ht="20.25" customHeight="1">
-      <c r="A3" s="81" t="s">
+      <c r="A3" s="91" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="82"/>
-      <c r="C3" s="85" t="s">
+      <c r="B3" s="92"/>
+      <c r="C3" s="95" t="s">
         <v>182</v>
       </c>
-      <c r="D3" s="86"/>
-      <c r="E3" s="86"/>
-      <c r="F3" s="86"/>
-      <c r="G3" s="86"/>
-      <c r="H3" s="86"/>
-      <c r="I3" s="86"/>
-      <c r="J3" s="86"/>
-      <c r="K3" s="86"/>
-      <c r="L3" s="86"/>
-      <c r="M3" s="86"/>
-      <c r="N3" s="86"/>
-      <c r="O3" s="86"/>
-      <c r="P3" s="87"/>
+      <c r="D3" s="96"/>
+      <c r="E3" s="96"/>
+      <c r="F3" s="96"/>
+      <c r="G3" s="96"/>
+      <c r="H3" s="96"/>
+      <c r="I3" s="96"/>
+      <c r="J3" s="96"/>
+      <c r="K3" s="96"/>
+      <c r="L3" s="96"/>
+      <c r="M3" s="96"/>
+      <c r="N3" s="96"/>
+      <c r="O3" s="96"/>
+      <c r="P3" s="97"/>
     </row>
     <row r="4" spans="1:16" ht="20.25" customHeight="1">
-      <c r="A4" s="83"/>
-      <c r="B4" s="84"/>
-      <c r="C4" s="88"/>
-      <c r="D4" s="89"/>
-      <c r="E4" s="89"/>
-      <c r="F4" s="89"/>
-      <c r="G4" s="89"/>
-      <c r="H4" s="89"/>
-      <c r="I4" s="89"/>
-      <c r="J4" s="89"/>
-      <c r="K4" s="89"/>
-      <c r="L4" s="89"/>
-      <c r="M4" s="89"/>
-      <c r="N4" s="89"/>
-      <c r="O4" s="89"/>
-      <c r="P4" s="90"/>
+      <c r="A4" s="93"/>
+      <c r="B4" s="94"/>
+      <c r="C4" s="98"/>
+      <c r="D4" s="99"/>
+      <c r="E4" s="99"/>
+      <c r="F4" s="99"/>
+      <c r="G4" s="99"/>
+      <c r="H4" s="99"/>
+      <c r="I4" s="99"/>
+      <c r="J4" s="99"/>
+      <c r="K4" s="99"/>
+      <c r="L4" s="99"/>
+      <c r="M4" s="99"/>
+      <c r="N4" s="99"/>
+      <c r="O4" s="99"/>
+      <c r="P4" s="100"/>
     </row>
     <row r="5" spans="1:16" ht="20.25" customHeight="1">
       <c r="B5" s="20"/>
@@ -5996,10 +5990,10 @@
       <c r="K6" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="L6" s="91" t="s">
+      <c r="L6" s="101" t="s">
         <v>27</v>
       </c>
-      <c r="M6" s="92"/>
+      <c r="M6" s="102"/>
       <c r="N6" s="26" t="s">
         <v>28</v>
       </c>
@@ -6015,7 +6009,7 @@
         <v>1</v>
       </c>
       <c r="B7" s="34" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C7" s="35" t="s">
         <v>50</v>
@@ -6045,7 +6039,7 @@
       <c r="L7" s="107" t="s">
         <v>190</v>
       </c>
-      <c r="M7" s="94"/>
+      <c r="M7" s="104"/>
       <c r="N7" s="39"/>
       <c r="O7" s="35"/>
       <c r="P7" s="40"/>
@@ -6074,8 +6068,8 @@
       <c r="I8" s="36"/>
       <c r="J8" s="35"/>
       <c r="K8" s="35"/>
-      <c r="L8" s="95"/>
-      <c r="M8" s="96"/>
+      <c r="L8" s="105"/>
+      <c r="M8" s="106"/>
       <c r="N8" s="39"/>
       <c r="O8" s="35"/>
       <c r="P8" s="40"/>
@@ -6104,8 +6098,8 @@
       <c r="I9" s="36"/>
       <c r="J9" s="35"/>
       <c r="K9" s="35"/>
-      <c r="L9" s="79"/>
-      <c r="M9" s="80"/>
+      <c r="L9" s="89"/>
+      <c r="M9" s="90"/>
       <c r="N9" s="39"/>
       <c r="O9" s="35"/>
       <c r="P9" s="40"/>
@@ -6134,8 +6128,8 @@
       <c r="I10" s="36"/>
       <c r="J10" s="35"/>
       <c r="K10" s="35"/>
-      <c r="L10" s="79"/>
-      <c r="M10" s="80"/>
+      <c r="L10" s="89"/>
+      <c r="M10" s="90"/>
       <c r="N10" s="39"/>
       <c r="O10" s="35"/>
       <c r="P10" s="40"/>
@@ -6164,8 +6158,8 @@
       <c r="I11" s="36"/>
       <c r="J11" s="35"/>
       <c r="K11" s="35"/>
-      <c r="L11" s="79"/>
-      <c r="M11" s="80"/>
+      <c r="L11" s="89"/>
+      <c r="M11" s="90"/>
       <c r="N11" s="39"/>
       <c r="O11" s="35"/>
       <c r="P11" s="40"/>
@@ -6190,8 +6184,8 @@
       <c r="I12" s="36"/>
       <c r="J12" s="35"/>
       <c r="K12" s="35"/>
-      <c r="L12" s="79"/>
-      <c r="M12" s="80"/>
+      <c r="L12" s="89"/>
+      <c r="M12" s="90"/>
       <c r="N12" s="39"/>
       <c r="O12" s="35"/>
       <c r="P12" s="40"/>
@@ -6218,8 +6212,8 @@
       <c r="I13" s="36"/>
       <c r="J13" s="35"/>
       <c r="K13" s="35"/>
-      <c r="L13" s="79"/>
-      <c r="M13" s="80"/>
+      <c r="L13" s="89"/>
+      <c r="M13" s="90"/>
       <c r="N13" s="39"/>
       <c r="O13" s="35"/>
       <c r="P13" s="40"/>
@@ -6246,8 +6240,8 @@
       <c r="I14" s="36"/>
       <c r="J14" s="35"/>
       <c r="K14" s="35"/>
-      <c r="L14" s="79"/>
-      <c r="M14" s="80"/>
+      <c r="L14" s="89"/>
+      <c r="M14" s="90"/>
       <c r="N14" s="39"/>
       <c r="O14" s="35"/>
       <c r="P14" s="40"/>
@@ -6278,8 +6272,8 @@
       <c r="K15" s="35">
         <v>0</v>
       </c>
-      <c r="L15" s="79"/>
-      <c r="M15" s="80"/>
+      <c r="L15" s="89"/>
+      <c r="M15" s="90"/>
       <c r="N15" s="39"/>
       <c r="O15" s="35"/>
       <c r="P15" s="40"/>
@@ -6308,8 +6302,8 @@
       <c r="I16" s="36"/>
       <c r="J16" s="35"/>
       <c r="K16" s="35"/>
-      <c r="L16" s="79"/>
-      <c r="M16" s="80"/>
+      <c r="L16" s="89"/>
+      <c r="M16" s="90"/>
       <c r="N16" s="39"/>
       <c r="O16" s="35"/>
       <c r="P16" s="40"/>
@@ -6340,8 +6334,8 @@
       <c r="K17" s="35" t="s">
         <v>68</v>
       </c>
-      <c r="L17" s="79"/>
-      <c r="M17" s="80"/>
+      <c r="L17" s="89"/>
+      <c r="M17" s="90"/>
       <c r="N17" s="39"/>
       <c r="O17" s="35"/>
       <c r="P17" s="40"/>
@@ -6370,8 +6364,8 @@
       <c r="I18" s="36"/>
       <c r="J18" s="35"/>
       <c r="K18" s="35"/>
-      <c r="L18" s="79"/>
-      <c r="M18" s="80"/>
+      <c r="L18" s="89"/>
+      <c r="M18" s="90"/>
       <c r="N18" s="39"/>
       <c r="O18" s="35"/>
       <c r="P18" s="40"/>
@@ -6402,8 +6396,8 @@
       <c r="K19" s="35" t="s">
         <v>67</v>
       </c>
-      <c r="L19" s="79"/>
-      <c r="M19" s="80"/>
+      <c r="L19" s="89"/>
+      <c r="M19" s="90"/>
       <c r="N19" s="39"/>
       <c r="O19" s="35"/>
       <c r="P19" s="40"/>
@@ -6422,8 +6416,8 @@
       <c r="I20" s="36"/>
       <c r="J20" s="35"/>
       <c r="K20" s="35"/>
-      <c r="L20" s="79"/>
-      <c r="M20" s="80"/>
+      <c r="L20" s="89"/>
+      <c r="M20" s="90"/>
       <c r="N20" s="39"/>
       <c r="O20" s="35"/>
       <c r="P20" s="40"/>
@@ -6442,26 +6436,14 @@
       <c r="I21" s="36"/>
       <c r="J21" s="35"/>
       <c r="K21" s="35"/>
-      <c r="L21" s="79"/>
-      <c r="M21" s="80"/>
+      <c r="L21" s="89"/>
+      <c r="M21" s="90"/>
       <c r="N21" s="39"/>
       <c r="O21" s="35"/>
       <c r="P21" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="L21:M21"/>
-    <mergeCell ref="L10:M10"/>
-    <mergeCell ref="L11:M11"/>
-    <mergeCell ref="L12:M12"/>
-    <mergeCell ref="L13:M13"/>
-    <mergeCell ref="L14:M14"/>
-    <mergeCell ref="L15:M15"/>
-    <mergeCell ref="L16:M16"/>
-    <mergeCell ref="L17:M17"/>
-    <mergeCell ref="L18:M18"/>
-    <mergeCell ref="L19:M19"/>
-    <mergeCell ref="L20:M20"/>
     <mergeCell ref="L9:M9"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="D1:H1"/>
@@ -6475,6 +6457,18 @@
     <mergeCell ref="L6:M6"/>
     <mergeCell ref="L7:M7"/>
     <mergeCell ref="L8:M8"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="L20:M20"/>
   </mergeCells>
   <phoneticPr fontId="6"/>
   <pageMargins left="0.35433070866141736" right="0.35433070866141736" top="0.19685039370078741" bottom="0.19685039370078741" header="0.23622047244094491" footer="0.23622047244094491"/>
@@ -6511,25 +6505,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="15" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A1" s="97" t="s">
+      <c r="A1" s="79" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="97"/>
+      <c r="B1" s="79"/>
       <c r="C1" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="98" t="s">
+      <c r="D1" s="80" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="98"/>
-      <c r="F1" s="98"/>
-      <c r="G1" s="98"/>
-      <c r="H1" s="99"/>
-      <c r="I1" s="100" t="s">
+      <c r="E1" s="80"/>
+      <c r="F1" s="80"/>
+      <c r="G1" s="80"/>
+      <c r="H1" s="81"/>
+      <c r="I1" s="82" t="s">
         <v>14</v>
       </c>
-      <c r="J1" s="98"/>
-      <c r="K1" s="99"/>
+      <c r="J1" s="80"/>
+      <c r="K1" s="81"/>
       <c r="L1" s="12" t="s">
         <v>1</v>
       </c>
@@ -6539,29 +6533,29 @@
       <c r="N1" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="O1" s="101">
+      <c r="O1" s="83">
         <v>45481</v>
       </c>
-      <c r="P1" s="102"/>
+      <c r="P1" s="84"/>
     </row>
     <row r="2" spans="1:16" ht="20.25" customHeight="1">
-      <c r="A2" s="97"/>
-      <c r="B2" s="97"/>
+      <c r="A2" s="79"/>
+      <c r="B2" s="79"/>
       <c r="C2" s="16" t="s">
         <v>246</v>
       </c>
-      <c r="D2" s="103" t="s">
+      <c r="D2" s="85" t="s">
         <v>214</v>
       </c>
-      <c r="E2" s="103"/>
-      <c r="F2" s="103"/>
-      <c r="G2" s="103"/>
-      <c r="H2" s="104"/>
-      <c r="I2" s="105" t="s">
+      <c r="E2" s="85"/>
+      <c r="F2" s="85"/>
+      <c r="G2" s="85"/>
+      <c r="H2" s="86"/>
+      <c r="I2" s="87" t="s">
         <v>121</v>
       </c>
-      <c r="J2" s="103"/>
-      <c r="K2" s="104"/>
+      <c r="J2" s="85"/>
+      <c r="K2" s="86"/>
       <c r="L2" s="17" t="s">
         <v>2</v>
       </c>
@@ -6569,48 +6563,48 @@
       <c r="N2" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="O2" s="106"/>
-      <c r="P2" s="104"/>
+      <c r="O2" s="88"/>
+      <c r="P2" s="86"/>
     </row>
     <row r="3" spans="1:16" ht="20.25" customHeight="1">
-      <c r="A3" s="81" t="s">
+      <c r="A3" s="91" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="82"/>
-      <c r="C3" s="85" t="s">
+      <c r="B3" s="92"/>
+      <c r="C3" s="95" t="s">
         <v>216</v>
       </c>
-      <c r="D3" s="86"/>
-      <c r="E3" s="86"/>
-      <c r="F3" s="86"/>
-      <c r="G3" s="86"/>
-      <c r="H3" s="86"/>
-      <c r="I3" s="86"/>
-      <c r="J3" s="86"/>
-      <c r="K3" s="86"/>
-      <c r="L3" s="86"/>
-      <c r="M3" s="86"/>
-      <c r="N3" s="86"/>
-      <c r="O3" s="86"/>
-      <c r="P3" s="87"/>
+      <c r="D3" s="96"/>
+      <c r="E3" s="96"/>
+      <c r="F3" s="96"/>
+      <c r="G3" s="96"/>
+      <c r="H3" s="96"/>
+      <c r="I3" s="96"/>
+      <c r="J3" s="96"/>
+      <c r="K3" s="96"/>
+      <c r="L3" s="96"/>
+      <c r="M3" s="96"/>
+      <c r="N3" s="96"/>
+      <c r="O3" s="96"/>
+      <c r="P3" s="97"/>
     </row>
     <row r="4" spans="1:16" ht="20.25" customHeight="1">
-      <c r="A4" s="83"/>
-      <c r="B4" s="84"/>
-      <c r="C4" s="88"/>
-      <c r="D4" s="89"/>
-      <c r="E4" s="89"/>
-      <c r="F4" s="89"/>
-      <c r="G4" s="89"/>
-      <c r="H4" s="89"/>
-      <c r="I4" s="89"/>
-      <c r="J4" s="89"/>
-      <c r="K4" s="89"/>
-      <c r="L4" s="89"/>
-      <c r="M4" s="89"/>
-      <c r="N4" s="89"/>
-      <c r="O4" s="89"/>
-      <c r="P4" s="90"/>
+      <c r="A4" s="93"/>
+      <c r="B4" s="94"/>
+      <c r="C4" s="98"/>
+      <c r="D4" s="99"/>
+      <c r="E4" s="99"/>
+      <c r="F4" s="99"/>
+      <c r="G4" s="99"/>
+      <c r="H4" s="99"/>
+      <c r="I4" s="99"/>
+      <c r="J4" s="99"/>
+      <c r="K4" s="99"/>
+      <c r="L4" s="99"/>
+      <c r="M4" s="99"/>
+      <c r="N4" s="99"/>
+      <c r="O4" s="99"/>
+      <c r="P4" s="100"/>
     </row>
     <row r="5" spans="1:16" ht="20.25" customHeight="1">
       <c r="B5" s="20"/>
@@ -6651,10 +6645,10 @@
       <c r="K6" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="L6" s="91" t="s">
+      <c r="L6" s="101" t="s">
         <v>27</v>
       </c>
-      <c r="M6" s="92"/>
+      <c r="M6" s="102"/>
       <c r="N6" s="26" t="s">
         <v>28</v>
       </c>
@@ -6670,7 +6664,7 @@
         <v>1</v>
       </c>
       <c r="B7" s="34" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C7" s="35" t="s">
         <v>50</v>
@@ -6698,7 +6692,7 @@
       <c r="L7" s="107" t="s">
         <v>190</v>
       </c>
-      <c r="M7" s="94"/>
+      <c r="M7" s="104"/>
       <c r="N7" s="39"/>
       <c r="O7" s="35"/>
       <c r="P7" s="40"/>
@@ -6733,10 +6727,10 @@
         <v>31</v>
       </c>
       <c r="K8" s="35"/>
-      <c r="L8" s="95" t="s">
+      <c r="L8" s="105" t="s">
         <v>243</v>
       </c>
-      <c r="M8" s="96"/>
+      <c r="M8" s="106"/>
       <c r="N8" s="39"/>
       <c r="O8" s="35"/>
       <c r="P8" s="40"/>
@@ -6771,10 +6765,10 @@
         <v>31</v>
       </c>
       <c r="K9" s="35"/>
-      <c r="L9" s="79" t="s">
+      <c r="L9" s="89" t="s">
         <v>244</v>
       </c>
-      <c r="M9" s="80"/>
+      <c r="M9" s="90"/>
       <c r="N9" s="39"/>
       <c r="O9" s="35"/>
       <c r="P9" s="40"/>
@@ -6809,10 +6803,10 @@
         <v>31</v>
       </c>
       <c r="K10" s="35"/>
-      <c r="L10" s="79" t="s">
+      <c r="L10" s="89" t="s">
         <v>242</v>
       </c>
-      <c r="M10" s="80"/>
+      <c r="M10" s="90"/>
       <c r="N10" s="39"/>
       <c r="O10" s="35"/>
       <c r="P10" s="40"/>
@@ -6839,8 +6833,8 @@
       <c r="I11" s="36"/>
       <c r="J11" s="35"/>
       <c r="K11" s="35"/>
-      <c r="L11" s="79"/>
-      <c r="M11" s="80"/>
+      <c r="L11" s="89"/>
+      <c r="M11" s="90"/>
       <c r="N11" s="39"/>
       <c r="O11" s="35"/>
       <c r="P11" s="40"/>
@@ -6867,8 +6861,8 @@
       <c r="I12" s="36"/>
       <c r="J12" s="35"/>
       <c r="K12" s="35"/>
-      <c r="L12" s="79"/>
-      <c r="M12" s="80"/>
+      <c r="L12" s="89"/>
+      <c r="M12" s="90"/>
       <c r="N12" s="39"/>
       <c r="O12" s="35"/>
       <c r="P12" s="40"/>
@@ -6895,8 +6889,8 @@
       <c r="I13" s="36"/>
       <c r="J13" s="35"/>
       <c r="K13" s="35"/>
-      <c r="L13" s="79"/>
-      <c r="M13" s="80"/>
+      <c r="L13" s="89"/>
+      <c r="M13" s="90"/>
       <c r="N13" s="39"/>
       <c r="O13" s="35"/>
       <c r="P13" s="40"/>
@@ -6923,8 +6917,8 @@
       <c r="I14" s="36"/>
       <c r="J14" s="35"/>
       <c r="K14" s="35"/>
-      <c r="L14" s="79"/>
-      <c r="M14" s="80"/>
+      <c r="L14" s="89"/>
+      <c r="M14" s="90"/>
       <c r="N14" s="39"/>
       <c r="O14" s="35"/>
       <c r="P14" s="40"/>
@@ -6949,8 +6943,8 @@
       <c r="I15" s="36"/>
       <c r="J15" s="35"/>
       <c r="K15" s="35"/>
-      <c r="L15" s="79"/>
-      <c r="M15" s="80"/>
+      <c r="L15" s="89"/>
+      <c r="M15" s="90"/>
       <c r="N15" s="39"/>
       <c r="O15" s="35"/>
       <c r="P15" s="40"/>
@@ -6975,8 +6969,8 @@
       <c r="I16" s="36"/>
       <c r="J16" s="35"/>
       <c r="K16" s="35"/>
-      <c r="L16" s="79"/>
-      <c r="M16" s="80"/>
+      <c r="L16" s="89"/>
+      <c r="M16" s="90"/>
       <c r="N16" s="39"/>
       <c r="O16" s="35"/>
       <c r="P16" s="40"/>
@@ -7001,8 +6995,8 @@
       <c r="I17" s="36"/>
       <c r="J17" s="35"/>
       <c r="K17" s="35"/>
-      <c r="L17" s="79"/>
-      <c r="M17" s="80"/>
+      <c r="L17" s="89"/>
+      <c r="M17" s="90"/>
       <c r="N17" s="39"/>
       <c r="O17" s="35"/>
       <c r="P17" s="40"/>
@@ -7032,7 +7026,7 @@
       <c r="L18" s="108" t="s">
         <v>200</v>
       </c>
-      <c r="M18" s="80"/>
+      <c r="M18" s="90"/>
       <c r="N18" s="39" t="s">
         <v>201</v>
       </c>
@@ -7060,8 +7054,8 @@
       <c r="H19" s="36"/>
       <c r="I19" s="36"/>
       <c r="J19" s="35"/>
-      <c r="L19" s="79"/>
-      <c r="M19" s="80"/>
+      <c r="L19" s="89"/>
+      <c r="M19" s="90"/>
       <c r="N19" s="39"/>
       <c r="O19" s="35"/>
       <c r="P19" s="40"/>
@@ -7088,8 +7082,8 @@
       <c r="I20" s="36"/>
       <c r="J20" s="35"/>
       <c r="K20" s="35"/>
-      <c r="L20" s="79"/>
-      <c r="M20" s="80"/>
+      <c r="L20" s="89"/>
+      <c r="M20" s="90"/>
       <c r="N20" s="39"/>
       <c r="O20" s="35"/>
       <c r="P20" s="40"/>
@@ -7120,8 +7114,8 @@
       <c r="K21" s="35">
         <v>0</v>
       </c>
-      <c r="L21" s="79"/>
-      <c r="M21" s="80"/>
+      <c r="L21" s="89"/>
+      <c r="M21" s="90"/>
       <c r="N21" s="39"/>
       <c r="O21" s="35"/>
       <c r="P21" s="40"/>
@@ -7150,8 +7144,8 @@
       <c r="I22" s="36"/>
       <c r="J22" s="35"/>
       <c r="K22" s="35"/>
-      <c r="L22" s="79"/>
-      <c r="M22" s="80"/>
+      <c r="L22" s="89"/>
+      <c r="M22" s="90"/>
       <c r="N22" s="39"/>
       <c r="O22" s="35"/>
       <c r="P22" s="40"/>
@@ -7180,8 +7174,8 @@
       <c r="K23" s="35" t="s">
         <v>68</v>
       </c>
-      <c r="L23" s="79"/>
-      <c r="M23" s="80"/>
+      <c r="L23" s="89"/>
+      <c r="M23" s="90"/>
       <c r="N23" s="39"/>
       <c r="O23" s="35"/>
       <c r="P23" s="40"/>
@@ -7210,8 +7204,8 @@
       <c r="I24" s="36"/>
       <c r="J24" s="35"/>
       <c r="K24" s="35"/>
-      <c r="L24" s="79"/>
-      <c r="M24" s="80"/>
+      <c r="L24" s="89"/>
+      <c r="M24" s="90"/>
       <c r="N24" s="39"/>
       <c r="O24" s="35"/>
       <c r="P24" s="40"/>
@@ -7240,8 +7234,8 @@
       <c r="K25" s="35" t="s">
         <v>68</v>
       </c>
-      <c r="L25" s="79"/>
-      <c r="M25" s="80"/>
+      <c r="L25" s="89"/>
+      <c r="M25" s="90"/>
       <c r="N25" s="39"/>
       <c r="O25" s="35"/>
       <c r="P25" s="40"/>
@@ -7260,8 +7254,8 @@
       <c r="I26" s="36"/>
       <c r="J26" s="35"/>
       <c r="K26" s="35"/>
-      <c r="L26" s="79"/>
-      <c r="M26" s="80"/>
+      <c r="L26" s="89"/>
+      <c r="M26" s="90"/>
       <c r="N26" s="39"/>
       <c r="O26" s="35"/>
       <c r="P26" s="40"/>
@@ -7280,14 +7274,33 @@
       <c r="I27" s="36"/>
       <c r="J27" s="35"/>
       <c r="K27" s="35"/>
-      <c r="L27" s="79"/>
-      <c r="M27" s="80"/>
+      <c r="L27" s="89"/>
+      <c r="M27" s="90"/>
       <c r="N27" s="39"/>
       <c r="O27" s="35"/>
       <c r="P27" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="31">
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="D1:H1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="O1:P1"/>
+    <mergeCell ref="D2:H2"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="O2:P2"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="A3:B4"/>
+    <mergeCell ref="C3:P4"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="L14:M14"/>
     <mergeCell ref="L27:M27"/>
     <mergeCell ref="L16:M16"/>
     <mergeCell ref="L17:M17"/>
@@ -7300,25 +7313,6 @@
     <mergeCell ref="L24:M24"/>
     <mergeCell ref="L25:M25"/>
     <mergeCell ref="L26:M26"/>
-    <mergeCell ref="L15:M15"/>
-    <mergeCell ref="A3:B4"/>
-    <mergeCell ref="C3:P4"/>
-    <mergeCell ref="L6:M6"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="L8:M8"/>
-    <mergeCell ref="L9:M9"/>
-    <mergeCell ref="L10:M10"/>
-    <mergeCell ref="L11:M11"/>
-    <mergeCell ref="L12:M12"/>
-    <mergeCell ref="L13:M13"/>
-    <mergeCell ref="L14:M14"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="D1:H1"/>
-    <mergeCell ref="I1:K1"/>
-    <mergeCell ref="O1:P1"/>
-    <mergeCell ref="D2:H2"/>
-    <mergeCell ref="I2:K2"/>
-    <mergeCell ref="O2:P2"/>
   </mergeCells>
   <phoneticPr fontId="6"/>
   <pageMargins left="0.35433070866141736" right="0.35433070866141736" top="0.19685039370078741" bottom="0.19685039370078741" header="0.23622047244094491" footer="0.23622047244094491"/>
@@ -7355,25 +7349,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="15" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A1" s="97" t="s">
+      <c r="A1" s="79" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="97"/>
+      <c r="B1" s="79"/>
       <c r="C1" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="98" t="s">
+      <c r="D1" s="80" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="98"/>
-      <c r="F1" s="98"/>
-      <c r="G1" s="98"/>
-      <c r="H1" s="99"/>
-      <c r="I1" s="100" t="s">
+      <c r="E1" s="80"/>
+      <c r="F1" s="80"/>
+      <c r="G1" s="80"/>
+      <c r="H1" s="81"/>
+      <c r="I1" s="82" t="s">
         <v>14</v>
       </c>
-      <c r="J1" s="98"/>
-      <c r="K1" s="99"/>
+      <c r="J1" s="80"/>
+      <c r="K1" s="81"/>
       <c r="L1" s="12" t="s">
         <v>1</v>
       </c>
@@ -7383,29 +7377,29 @@
       <c r="N1" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="O1" s="101">
+      <c r="O1" s="83">
         <v>45481</v>
       </c>
-      <c r="P1" s="102"/>
+      <c r="P1" s="84"/>
     </row>
     <row r="2" spans="1:16" ht="20.25" customHeight="1">
-      <c r="A2" s="97"/>
-      <c r="B2" s="97"/>
+      <c r="A2" s="79"/>
+      <c r="B2" s="79"/>
       <c r="C2" s="16" t="s">
         <v>247</v>
       </c>
-      <c r="D2" s="103" t="s">
+      <c r="D2" s="85" t="s">
         <v>215</v>
       </c>
-      <c r="E2" s="103"/>
-      <c r="F2" s="103"/>
-      <c r="G2" s="103"/>
-      <c r="H2" s="104"/>
-      <c r="I2" s="105" t="s">
+      <c r="E2" s="85"/>
+      <c r="F2" s="85"/>
+      <c r="G2" s="85"/>
+      <c r="H2" s="86"/>
+      <c r="I2" s="87" t="s">
         <v>141</v>
       </c>
-      <c r="J2" s="103"/>
-      <c r="K2" s="104"/>
+      <c r="J2" s="85"/>
+      <c r="K2" s="86"/>
       <c r="L2" s="17" t="s">
         <v>2</v>
       </c>
@@ -7413,48 +7407,48 @@
       <c r="N2" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="O2" s="106"/>
-      <c r="P2" s="104"/>
+      <c r="O2" s="88"/>
+      <c r="P2" s="86"/>
     </row>
     <row r="3" spans="1:16" ht="20.25" customHeight="1">
-      <c r="A3" s="81" t="s">
+      <c r="A3" s="91" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="82"/>
-      <c r="C3" s="85" t="s">
+      <c r="B3" s="92"/>
+      <c r="C3" s="95" t="s">
         <v>215</v>
       </c>
-      <c r="D3" s="86"/>
-      <c r="E3" s="86"/>
-      <c r="F3" s="86"/>
-      <c r="G3" s="86"/>
-      <c r="H3" s="86"/>
-      <c r="I3" s="86"/>
-      <c r="J3" s="86"/>
-      <c r="K3" s="86"/>
-      <c r="L3" s="86"/>
-      <c r="M3" s="86"/>
-      <c r="N3" s="86"/>
-      <c r="O3" s="86"/>
-      <c r="P3" s="87"/>
+      <c r="D3" s="96"/>
+      <c r="E3" s="96"/>
+      <c r="F3" s="96"/>
+      <c r="G3" s="96"/>
+      <c r="H3" s="96"/>
+      <c r="I3" s="96"/>
+      <c r="J3" s="96"/>
+      <c r="K3" s="96"/>
+      <c r="L3" s="96"/>
+      <c r="M3" s="96"/>
+      <c r="N3" s="96"/>
+      <c r="O3" s="96"/>
+      <c r="P3" s="97"/>
     </row>
     <row r="4" spans="1:16" ht="20.25" customHeight="1">
-      <c r="A4" s="83"/>
-      <c r="B4" s="84"/>
-      <c r="C4" s="88"/>
-      <c r="D4" s="89"/>
-      <c r="E4" s="89"/>
-      <c r="F4" s="89"/>
-      <c r="G4" s="89"/>
-      <c r="H4" s="89"/>
-      <c r="I4" s="89"/>
-      <c r="J4" s="89"/>
-      <c r="K4" s="89"/>
-      <c r="L4" s="89"/>
-      <c r="M4" s="89"/>
-      <c r="N4" s="89"/>
-      <c r="O4" s="89"/>
-      <c r="P4" s="90"/>
+      <c r="A4" s="93"/>
+      <c r="B4" s="94"/>
+      <c r="C4" s="98"/>
+      <c r="D4" s="99"/>
+      <c r="E4" s="99"/>
+      <c r="F4" s="99"/>
+      <c r="G4" s="99"/>
+      <c r="H4" s="99"/>
+      <c r="I4" s="99"/>
+      <c r="J4" s="99"/>
+      <c r="K4" s="99"/>
+      <c r="L4" s="99"/>
+      <c r="M4" s="99"/>
+      <c r="N4" s="99"/>
+      <c r="O4" s="99"/>
+      <c r="P4" s="100"/>
     </row>
     <row r="5" spans="1:16" ht="20.25" customHeight="1">
       <c r="B5" s="20"/>
@@ -7495,10 +7489,10 @@
       <c r="K6" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="L6" s="91" t="s">
+      <c r="L6" s="101" t="s">
         <v>27</v>
       </c>
-      <c r="M6" s="92"/>
+      <c r="M6" s="102"/>
       <c r="N6" s="26" t="s">
         <v>28</v>
       </c>
@@ -7514,7 +7508,7 @@
         <v>1</v>
       </c>
       <c r="B7" s="34" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C7" s="35" t="s">
         <v>50</v>
@@ -7542,7 +7536,7 @@
       <c r="L7" s="107" t="s">
         <v>190</v>
       </c>
-      <c r="M7" s="94"/>
+      <c r="M7" s="104"/>
       <c r="N7" s="39"/>
       <c r="O7" s="35"/>
       <c r="P7" s="40"/>
@@ -7577,8 +7571,8 @@
         <v>31</v>
       </c>
       <c r="K8" s="35"/>
-      <c r="L8" s="95"/>
-      <c r="M8" s="96"/>
+      <c r="L8" s="105"/>
+      <c r="M8" s="106"/>
       <c r="N8" s="39"/>
       <c r="O8" s="35"/>
       <c r="P8" s="40"/>
@@ -7605,8 +7599,8 @@
       <c r="I9" s="36"/>
       <c r="J9" s="35"/>
       <c r="K9" s="35"/>
-      <c r="L9" s="79"/>
-      <c r="M9" s="80"/>
+      <c r="L9" s="89"/>
+      <c r="M9" s="90"/>
       <c r="N9" s="39"/>
       <c r="O9" s="35"/>
       <c r="P9" s="40"/>
@@ -7633,8 +7627,8 @@
       <c r="I10" s="36"/>
       <c r="J10" s="35"/>
       <c r="K10" s="35"/>
-      <c r="L10" s="79"/>
-      <c r="M10" s="80"/>
+      <c r="L10" s="89"/>
+      <c r="M10" s="90"/>
       <c r="N10" s="39"/>
       <c r="O10" s="35"/>
       <c r="P10" s="40"/>
@@ -7661,8 +7655,8 @@
       <c r="I11" s="36"/>
       <c r="J11" s="35"/>
       <c r="K11" s="35"/>
-      <c r="L11" s="79"/>
-      <c r="M11" s="80"/>
+      <c r="L11" s="89"/>
+      <c r="M11" s="90"/>
       <c r="N11" s="39"/>
       <c r="O11" s="35"/>
       <c r="P11" s="40"/>
@@ -7693,8 +7687,8 @@
       <c r="K12" s="35">
         <v>0</v>
       </c>
-      <c r="L12" s="79"/>
-      <c r="M12" s="80"/>
+      <c r="L12" s="89"/>
+      <c r="M12" s="90"/>
       <c r="N12" s="39"/>
       <c r="O12" s="35"/>
       <c r="P12" s="40"/>
@@ -7723,8 +7717,8 @@
       <c r="I13" s="36"/>
       <c r="J13" s="35"/>
       <c r="K13" s="35"/>
-      <c r="L13" s="79"/>
-      <c r="M13" s="80"/>
+      <c r="L13" s="89"/>
+      <c r="M13" s="90"/>
       <c r="N13" s="39"/>
       <c r="O13" s="35"/>
       <c r="P13" s="40"/>
@@ -7753,10 +7747,10 @@
       <c r="I14" s="36"/>
       <c r="J14" s="35"/>
       <c r="K14" s="35"/>
-      <c r="L14" s="79" t="s">
+      <c r="L14" s="89" t="s">
         <v>202</v>
       </c>
-      <c r="M14" s="80"/>
+      <c r="M14" s="90"/>
       <c r="N14" s="39"/>
       <c r="O14" s="35"/>
       <c r="P14" s="40"/>
@@ -7785,8 +7779,8 @@
       <c r="I15" s="36"/>
       <c r="J15" s="35"/>
       <c r="K15" s="35"/>
-      <c r="L15" s="79"/>
-      <c r="M15" s="80"/>
+      <c r="L15" s="89"/>
+      <c r="M15" s="90"/>
       <c r="N15" s="39"/>
       <c r="O15" s="35"/>
       <c r="P15" s="40"/>
@@ -7815,8 +7809,8 @@
       <c r="I16" s="36"/>
       <c r="J16" s="35"/>
       <c r="K16" s="35"/>
-      <c r="L16" s="79"/>
-      <c r="M16" s="80"/>
+      <c r="L16" s="89"/>
+      <c r="M16" s="90"/>
       <c r="N16" s="39"/>
       <c r="O16" s="35"/>
       <c r="P16" s="40"/>
@@ -7843,8 +7837,8 @@
       <c r="I17" s="36"/>
       <c r="J17" s="35"/>
       <c r="K17" s="35"/>
-      <c r="L17" s="79"/>
-      <c r="M17" s="80"/>
+      <c r="L17" s="89"/>
+      <c r="M17" s="90"/>
       <c r="N17" s="39"/>
       <c r="O17" s="35"/>
       <c r="P17" s="40"/>
@@ -7871,8 +7865,8 @@
       <c r="K18" s="35" t="s">
         <v>68</v>
       </c>
-      <c r="L18" s="79"/>
-      <c r="M18" s="80"/>
+      <c r="L18" s="89"/>
+      <c r="M18" s="90"/>
       <c r="N18" s="39"/>
       <c r="O18" s="35"/>
       <c r="P18" s="40"/>
@@ -7899,8 +7893,8 @@
       <c r="I19" s="36"/>
       <c r="J19" s="35"/>
       <c r="K19" s="35"/>
-      <c r="L19" s="79"/>
-      <c r="M19" s="80"/>
+      <c r="L19" s="89"/>
+      <c r="M19" s="90"/>
       <c r="N19" s="39"/>
       <c r="O19" s="35"/>
       <c r="P19" s="40"/>
@@ -7927,8 +7921,8 @@
       <c r="K20" s="35" t="s">
         <v>67</v>
       </c>
-      <c r="L20" s="79"/>
-      <c r="M20" s="80"/>
+      <c r="L20" s="89"/>
+      <c r="M20" s="90"/>
       <c r="N20" s="39"/>
       <c r="O20" s="35"/>
       <c r="P20" s="40"/>
@@ -7947,26 +7941,14 @@
       <c r="I21" s="36"/>
       <c r="J21" s="35"/>
       <c r="K21" s="35"/>
-      <c r="L21" s="79"/>
-      <c r="M21" s="80"/>
+      <c r="L21" s="89"/>
+      <c r="M21" s="90"/>
       <c r="N21" s="39"/>
       <c r="O21" s="35"/>
       <c r="P21" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="L21:M21"/>
-    <mergeCell ref="L10:M10"/>
-    <mergeCell ref="L11:M11"/>
-    <mergeCell ref="L12:M12"/>
-    <mergeCell ref="L13:M13"/>
-    <mergeCell ref="L14:M14"/>
-    <mergeCell ref="L15:M15"/>
-    <mergeCell ref="L16:M16"/>
-    <mergeCell ref="L17:M17"/>
-    <mergeCell ref="L18:M18"/>
-    <mergeCell ref="L19:M19"/>
-    <mergeCell ref="L20:M20"/>
     <mergeCell ref="L9:M9"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="D1:H1"/>
@@ -7980,6 +7962,18 @@
     <mergeCell ref="L6:M6"/>
     <mergeCell ref="L7:M7"/>
     <mergeCell ref="L8:M8"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="L20:M20"/>
   </mergeCells>
   <phoneticPr fontId="6"/>
   <pageMargins left="0.35433070866141736" right="0.35433070866141736" top="0.19685039370078741" bottom="0.19685039370078741" header="0.23622047244094491" footer="0.23622047244094491"/>
@@ -8016,25 +8010,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="15" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A1" s="97" t="s">
+      <c r="A1" s="79" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="97"/>
+      <c r="B1" s="79"/>
       <c r="C1" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="98" t="s">
+      <c r="D1" s="80" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="98"/>
-      <c r="F1" s="98"/>
-      <c r="G1" s="98"/>
-      <c r="H1" s="99"/>
-      <c r="I1" s="100" t="s">
+      <c r="E1" s="80"/>
+      <c r="F1" s="80"/>
+      <c r="G1" s="80"/>
+      <c r="H1" s="81"/>
+      <c r="I1" s="82" t="s">
         <v>14</v>
       </c>
-      <c r="J1" s="98"/>
-      <c r="K1" s="99"/>
+      <c r="J1" s="80"/>
+      <c r="K1" s="81"/>
       <c r="L1" s="12" t="s">
         <v>1</v>
       </c>
@@ -8044,29 +8038,29 @@
       <c r="N1" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="O1" s="101">
+      <c r="O1" s="83">
         <v>45481</v>
       </c>
-      <c r="P1" s="102"/>
+      <c r="P1" s="84"/>
     </row>
     <row r="2" spans="1:16" ht="20.25" customHeight="1">
-      <c r="A2" s="97"/>
-      <c r="B2" s="97"/>
+      <c r="A2" s="79"/>
+      <c r="B2" s="79"/>
       <c r="C2" s="16" t="s">
         <v>248</v>
       </c>
-      <c r="D2" s="103" t="s">
+      <c r="D2" s="85" t="s">
         <v>147</v>
       </c>
-      <c r="E2" s="103"/>
-      <c r="F2" s="103"/>
-      <c r="G2" s="103"/>
-      <c r="H2" s="104"/>
-      <c r="I2" s="105" t="s">
+      <c r="E2" s="85"/>
+      <c r="F2" s="85"/>
+      <c r="G2" s="85"/>
+      <c r="H2" s="86"/>
+      <c r="I2" s="87" t="s">
         <v>146</v>
       </c>
-      <c r="J2" s="103"/>
-      <c r="K2" s="104"/>
+      <c r="J2" s="85"/>
+      <c r="K2" s="86"/>
       <c r="L2" s="17" t="s">
         <v>2</v>
       </c>
@@ -8074,48 +8068,48 @@
       <c r="N2" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="O2" s="106"/>
-      <c r="P2" s="104"/>
+      <c r="O2" s="88"/>
+      <c r="P2" s="86"/>
     </row>
     <row r="3" spans="1:16" ht="20.25" customHeight="1">
-      <c r="A3" s="81" t="s">
+      <c r="A3" s="91" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="82"/>
-      <c r="C3" s="85" t="s">
+      <c r="B3" s="92"/>
+      <c r="C3" s="95" t="s">
         <v>239</v>
       </c>
-      <c r="D3" s="86"/>
-      <c r="E3" s="86"/>
-      <c r="F3" s="86"/>
-      <c r="G3" s="86"/>
-      <c r="H3" s="86"/>
-      <c r="I3" s="86"/>
-      <c r="J3" s="86"/>
-      <c r="K3" s="86"/>
-      <c r="L3" s="86"/>
-      <c r="M3" s="86"/>
-      <c r="N3" s="86"/>
-      <c r="O3" s="86"/>
-      <c r="P3" s="87"/>
+      <c r="D3" s="96"/>
+      <c r="E3" s="96"/>
+      <c r="F3" s="96"/>
+      <c r="G3" s="96"/>
+      <c r="H3" s="96"/>
+      <c r="I3" s="96"/>
+      <c r="J3" s="96"/>
+      <c r="K3" s="96"/>
+      <c r="L3" s="96"/>
+      <c r="M3" s="96"/>
+      <c r="N3" s="96"/>
+      <c r="O3" s="96"/>
+      <c r="P3" s="97"/>
     </row>
     <row r="4" spans="1:16" ht="20.25" customHeight="1">
-      <c r="A4" s="83"/>
-      <c r="B4" s="84"/>
-      <c r="C4" s="88"/>
-      <c r="D4" s="89"/>
-      <c r="E4" s="89"/>
-      <c r="F4" s="89"/>
-      <c r="G4" s="89"/>
-      <c r="H4" s="89"/>
-      <c r="I4" s="89"/>
-      <c r="J4" s="89"/>
-      <c r="K4" s="89"/>
-      <c r="L4" s="89"/>
-      <c r="M4" s="89"/>
-      <c r="N4" s="89"/>
-      <c r="O4" s="89"/>
-      <c r="P4" s="90"/>
+      <c r="A4" s="93"/>
+      <c r="B4" s="94"/>
+      <c r="C4" s="98"/>
+      <c r="D4" s="99"/>
+      <c r="E4" s="99"/>
+      <c r="F4" s="99"/>
+      <c r="G4" s="99"/>
+      <c r="H4" s="99"/>
+      <c r="I4" s="99"/>
+      <c r="J4" s="99"/>
+      <c r="K4" s="99"/>
+      <c r="L4" s="99"/>
+      <c r="M4" s="99"/>
+      <c r="N4" s="99"/>
+      <c r="O4" s="99"/>
+      <c r="P4" s="100"/>
     </row>
     <row r="5" spans="1:16" ht="20.25" customHeight="1">
       <c r="B5" s="20"/>
@@ -8156,10 +8150,10 @@
       <c r="K6" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="L6" s="91" t="s">
+      <c r="L6" s="101" t="s">
         <v>27</v>
       </c>
-      <c r="M6" s="92"/>
+      <c r="M6" s="102"/>
       <c r="N6" s="26" t="s">
         <v>28</v>
       </c>
@@ -8198,8 +8192,8 @@
         <v>31</v>
       </c>
       <c r="K7" s="35"/>
-      <c r="L7" s="93"/>
-      <c r="M7" s="94"/>
+      <c r="L7" s="103"/>
+      <c r="M7" s="104"/>
       <c r="N7" s="39"/>
       <c r="O7" s="35"/>
       <c r="P7" s="40"/>
@@ -8226,8 +8220,8 @@
       <c r="I8" s="36"/>
       <c r="J8" s="35"/>
       <c r="K8" s="35"/>
-      <c r="L8" s="95"/>
-      <c r="M8" s="96"/>
+      <c r="L8" s="105"/>
+      <c r="M8" s="106"/>
       <c r="N8" s="39"/>
       <c r="O8" s="35"/>
       <c r="P8" s="40"/>
@@ -8254,8 +8248,8 @@
       <c r="I9" s="36"/>
       <c r="J9" s="35"/>
       <c r="K9" s="35"/>
-      <c r="L9" s="79"/>
-      <c r="M9" s="80"/>
+      <c r="L9" s="89"/>
+      <c r="M9" s="90"/>
       <c r="N9" s="39"/>
       <c r="O9" s="35"/>
       <c r="P9" s="40"/>
@@ -8282,8 +8276,8 @@
       <c r="I10" s="36"/>
       <c r="J10" s="35"/>
       <c r="K10" s="35"/>
-      <c r="L10" s="79"/>
-      <c r="M10" s="80"/>
+      <c r="L10" s="89"/>
+      <c r="M10" s="90"/>
       <c r="N10" s="39"/>
       <c r="O10" s="35"/>
       <c r="P10" s="40"/>
@@ -8312,8 +8306,8 @@
       <c r="I11" s="36"/>
       <c r="J11" s="35"/>
       <c r="K11" s="35"/>
-      <c r="L11" s="79"/>
-      <c r="M11" s="80"/>
+      <c r="L11" s="89"/>
+      <c r="M11" s="90"/>
       <c r="N11" s="39"/>
       <c r="O11" s="35"/>
       <c r="P11" s="40"/>
@@ -8342,8 +8336,8 @@
       <c r="K12" s="35" t="s">
         <v>68</v>
       </c>
-      <c r="L12" s="79"/>
-      <c r="M12" s="80"/>
+      <c r="L12" s="89"/>
+      <c r="M12" s="90"/>
       <c r="N12" s="39"/>
       <c r="O12" s="35"/>
       <c r="P12" s="40"/>
@@ -8360,8 +8354,8 @@
       <c r="I13" s="36"/>
       <c r="J13" s="35"/>
       <c r="K13" s="35"/>
-      <c r="L13" s="79"/>
-      <c r="M13" s="80"/>
+      <c r="L13" s="89"/>
+      <c r="M13" s="90"/>
       <c r="N13" s="39"/>
       <c r="O13" s="35"/>
       <c r="P13" s="40"/>
@@ -8378,8 +8372,8 @@
       <c r="I14" s="36"/>
       <c r="J14" s="35"/>
       <c r="K14" s="35"/>
-      <c r="L14" s="79"/>
-      <c r="M14" s="80"/>
+      <c r="L14" s="89"/>
+      <c r="M14" s="90"/>
       <c r="N14" s="39"/>
       <c r="O14" s="35"/>
       <c r="P14" s="40"/>
@@ -8396,8 +8390,8 @@
       <c r="I15" s="36"/>
       <c r="J15" s="35"/>
       <c r="K15" s="35"/>
-      <c r="L15" s="79"/>
-      <c r="M15" s="80"/>
+      <c r="L15" s="89"/>
+      <c r="M15" s="90"/>
       <c r="N15" s="39"/>
       <c r="O15" s="35"/>
       <c r="P15" s="40"/>
@@ -8414,8 +8408,8 @@
       <c r="I16" s="36"/>
       <c r="J16" s="35"/>
       <c r="K16" s="35"/>
-      <c r="L16" s="79"/>
-      <c r="M16" s="80"/>
+      <c r="L16" s="89"/>
+      <c r="M16" s="90"/>
       <c r="N16" s="39"/>
       <c r="O16" s="35"/>
       <c r="P16" s="40"/>
@@ -8432,8 +8426,8 @@
       <c r="I17" s="36"/>
       <c r="J17" s="35"/>
       <c r="K17" s="35"/>
-      <c r="L17" s="79"/>
-      <c r="M17" s="80"/>
+      <c r="L17" s="89"/>
+      <c r="M17" s="90"/>
       <c r="N17" s="39"/>
       <c r="O17" s="35"/>
       <c r="P17" s="40"/>
@@ -8450,8 +8444,8 @@
       <c r="I18" s="36"/>
       <c r="J18" s="35"/>
       <c r="K18" s="35"/>
-      <c r="L18" s="79"/>
-      <c r="M18" s="80"/>
+      <c r="L18" s="89"/>
+      <c r="M18" s="90"/>
       <c r="N18" s="39"/>
       <c r="O18" s="35"/>
       <c r="P18" s="40"/>
@@ -8468,8 +8462,8 @@
       <c r="I19" s="36"/>
       <c r="J19" s="35"/>
       <c r="K19" s="35"/>
-      <c r="L19" s="79"/>
-      <c r="M19" s="80"/>
+      <c r="L19" s="89"/>
+      <c r="M19" s="90"/>
       <c r="N19" s="39"/>
       <c r="O19" s="35"/>
       <c r="P19" s="40"/>
@@ -8486,8 +8480,8 @@
       <c r="I20" s="36"/>
       <c r="J20" s="35"/>
       <c r="K20" s="35"/>
-      <c r="L20" s="79"/>
-      <c r="M20" s="80"/>
+      <c r="L20" s="89"/>
+      <c r="M20" s="90"/>
       <c r="N20" s="39"/>
       <c r="O20" s="35"/>
       <c r="P20" s="40"/>
@@ -8504,26 +8498,14 @@
       <c r="I21" s="36"/>
       <c r="J21" s="35"/>
       <c r="K21" s="35"/>
-      <c r="L21" s="79"/>
-      <c r="M21" s="80"/>
+      <c r="L21" s="89"/>
+      <c r="M21" s="90"/>
       <c r="N21" s="39"/>
       <c r="O21" s="35"/>
       <c r="P21" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="L21:M21"/>
-    <mergeCell ref="L10:M10"/>
-    <mergeCell ref="L11:M11"/>
-    <mergeCell ref="L12:M12"/>
-    <mergeCell ref="L13:M13"/>
-    <mergeCell ref="L14:M14"/>
-    <mergeCell ref="L15:M15"/>
-    <mergeCell ref="L16:M16"/>
-    <mergeCell ref="L17:M17"/>
-    <mergeCell ref="L18:M18"/>
-    <mergeCell ref="L19:M19"/>
-    <mergeCell ref="L20:M20"/>
     <mergeCell ref="L9:M9"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="D1:H1"/>
@@ -8537,6 +8519,18 @@
     <mergeCell ref="L6:M6"/>
     <mergeCell ref="L7:M7"/>
     <mergeCell ref="L8:M8"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="L20:M20"/>
   </mergeCells>
   <phoneticPr fontId="6"/>
   <pageMargins left="0.35433070866141736" right="0.35433070866141736" top="0.19685039370078741" bottom="0.19685039370078741" header="0.23622047244094491" footer="0.23622047244094491"/>
@@ -8573,25 +8567,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="15" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A1" s="97" t="s">
+      <c r="A1" s="79" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="97"/>
+      <c r="B1" s="79"/>
       <c r="C1" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="98" t="s">
+      <c r="D1" s="80" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="98"/>
-      <c r="F1" s="98"/>
-      <c r="G1" s="98"/>
-      <c r="H1" s="99"/>
-      <c r="I1" s="100" t="s">
+      <c r="E1" s="80"/>
+      <c r="F1" s="80"/>
+      <c r="G1" s="80"/>
+      <c r="H1" s="81"/>
+      <c r="I1" s="82" t="s">
         <v>14</v>
       </c>
-      <c r="J1" s="98"/>
-      <c r="K1" s="99"/>
+      <c r="J1" s="80"/>
+      <c r="K1" s="81"/>
       <c r="L1" s="12" t="s">
         <v>1</v>
       </c>
@@ -8601,29 +8595,29 @@
       <c r="N1" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="O1" s="101">
+      <c r="O1" s="83">
         <v>45481</v>
       </c>
-      <c r="P1" s="102"/>
+      <c r="P1" s="84"/>
     </row>
     <row r="2" spans="1:16" ht="20.25" customHeight="1">
-      <c r="A2" s="97"/>
-      <c r="B2" s="97"/>
+      <c r="A2" s="79"/>
+      <c r="B2" s="79"/>
       <c r="C2" s="16" t="s">
         <v>249</v>
       </c>
-      <c r="D2" s="103" t="s">
+      <c r="D2" s="85" t="s">
         <v>206</v>
       </c>
-      <c r="E2" s="103"/>
-      <c r="F2" s="103"/>
-      <c r="G2" s="103"/>
-      <c r="H2" s="104"/>
-      <c r="I2" s="105" t="s">
+      <c r="E2" s="85"/>
+      <c r="F2" s="85"/>
+      <c r="G2" s="85"/>
+      <c r="H2" s="86"/>
+      <c r="I2" s="87" t="s">
         <v>167</v>
       </c>
-      <c r="J2" s="103"/>
-      <c r="K2" s="104"/>
+      <c r="J2" s="85"/>
+      <c r="K2" s="86"/>
       <c r="L2" s="17" t="s">
         <v>2</v>
       </c>
@@ -8631,48 +8625,48 @@
       <c r="N2" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="O2" s="106"/>
-      <c r="P2" s="104"/>
+      <c r="O2" s="88"/>
+      <c r="P2" s="86"/>
     </row>
     <row r="3" spans="1:16" ht="20.25" customHeight="1">
-      <c r="A3" s="81" t="s">
+      <c r="A3" s="91" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="82"/>
-      <c r="C3" s="85" t="s">
+      <c r="B3" s="92"/>
+      <c r="C3" s="95" t="s">
         <v>217</v>
       </c>
-      <c r="D3" s="86"/>
-      <c r="E3" s="86"/>
-      <c r="F3" s="86"/>
-      <c r="G3" s="86"/>
-      <c r="H3" s="86"/>
-      <c r="I3" s="86"/>
-      <c r="J3" s="86"/>
-      <c r="K3" s="86"/>
-      <c r="L3" s="86"/>
-      <c r="M3" s="86"/>
-      <c r="N3" s="86"/>
-      <c r="O3" s="86"/>
-      <c r="P3" s="87"/>
+      <c r="D3" s="96"/>
+      <c r="E3" s="96"/>
+      <c r="F3" s="96"/>
+      <c r="G3" s="96"/>
+      <c r="H3" s="96"/>
+      <c r="I3" s="96"/>
+      <c r="J3" s="96"/>
+      <c r="K3" s="96"/>
+      <c r="L3" s="96"/>
+      <c r="M3" s="96"/>
+      <c r="N3" s="96"/>
+      <c r="O3" s="96"/>
+      <c r="P3" s="97"/>
     </row>
     <row r="4" spans="1:16" ht="20.25" customHeight="1">
-      <c r="A4" s="83"/>
-      <c r="B4" s="84"/>
-      <c r="C4" s="88"/>
-      <c r="D4" s="89"/>
-      <c r="E4" s="89"/>
-      <c r="F4" s="89"/>
-      <c r="G4" s="89"/>
-      <c r="H4" s="89"/>
-      <c r="I4" s="89"/>
-      <c r="J4" s="89"/>
-      <c r="K4" s="89"/>
-      <c r="L4" s="89"/>
-      <c r="M4" s="89"/>
-      <c r="N4" s="89"/>
-      <c r="O4" s="89"/>
-      <c r="P4" s="90"/>
+      <c r="A4" s="93"/>
+      <c r="B4" s="94"/>
+      <c r="C4" s="98"/>
+      <c r="D4" s="99"/>
+      <c r="E4" s="99"/>
+      <c r="F4" s="99"/>
+      <c r="G4" s="99"/>
+      <c r="H4" s="99"/>
+      <c r="I4" s="99"/>
+      <c r="J4" s="99"/>
+      <c r="K4" s="99"/>
+      <c r="L4" s="99"/>
+      <c r="M4" s="99"/>
+      <c r="N4" s="99"/>
+      <c r="O4" s="99"/>
+      <c r="P4" s="100"/>
     </row>
     <row r="5" spans="1:16" ht="20.25" customHeight="1">
       <c r="B5" s="20"/>
@@ -8713,10 +8707,10 @@
       <c r="K6" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="L6" s="91" t="s">
+      <c r="L6" s="101" t="s">
         <v>27</v>
       </c>
-      <c r="M6" s="92"/>
+      <c r="M6" s="102"/>
       <c r="N6" s="26" t="s">
         <v>28</v>
       </c>
@@ -8791,10 +8785,10 @@
       <c r="I8" s="36"/>
       <c r="J8" s="35"/>
       <c r="K8" s="35"/>
-      <c r="L8" s="95" t="s">
+      <c r="L8" s="105" t="s">
         <v>204</v>
       </c>
-      <c r="M8" s="96"/>
+      <c r="M8" s="106"/>
       <c r="N8" s="39"/>
       <c r="O8" s="35"/>
       <c r="P8" s="40"/>
@@ -8821,8 +8815,8 @@
       <c r="I9" s="36"/>
       <c r="J9" s="35"/>
       <c r="K9" s="35"/>
-      <c r="L9" s="79"/>
-      <c r="M9" s="80"/>
+      <c r="L9" s="89"/>
+      <c r="M9" s="90"/>
       <c r="N9" s="39"/>
       <c r="O9" s="35"/>
       <c r="P9" s="40"/>
@@ -8849,8 +8843,8 @@
       <c r="I10" s="36"/>
       <c r="J10" s="35"/>
       <c r="K10" s="35"/>
-      <c r="L10" s="79"/>
-      <c r="M10" s="80"/>
+      <c r="L10" s="89"/>
+      <c r="M10" s="90"/>
       <c r="N10" s="39"/>
       <c r="O10" s="35"/>
       <c r="P10" s="40"/>
@@ -8875,8 +8869,8 @@
       <c r="I11" s="36"/>
       <c r="J11" s="35"/>
       <c r="K11" s="35"/>
-      <c r="L11" s="79"/>
-      <c r="M11" s="80"/>
+      <c r="L11" s="89"/>
+      <c r="M11" s="90"/>
       <c r="N11" s="39"/>
       <c r="O11" s="35"/>
       <c r="P11" s="40"/>
@@ -8901,8 +8895,8 @@
       <c r="I12" s="36"/>
       <c r="J12" s="35"/>
       <c r="K12" s="35"/>
-      <c r="L12" s="79"/>
-      <c r="M12" s="80"/>
+      <c r="L12" s="89"/>
+      <c r="M12" s="90"/>
       <c r="N12" s="39"/>
       <c r="O12" s="35"/>
       <c r="P12" s="40"/>
@@ -8927,8 +8921,8 @@
       <c r="I13" s="36"/>
       <c r="J13" s="35"/>
       <c r="K13" s="35"/>
-      <c r="L13" s="79"/>
-      <c r="M13" s="80"/>
+      <c r="L13" s="89"/>
+      <c r="M13" s="90"/>
       <c r="N13" s="39"/>
       <c r="O13" s="35"/>
       <c r="P13" s="40"/>
@@ -8957,10 +8951,10 @@
       <c r="K14" s="35">
         <v>0</v>
       </c>
-      <c r="L14" s="79" t="s">
+      <c r="L14" s="89" t="s">
         <v>205</v>
       </c>
-      <c r="M14" s="80"/>
+      <c r="M14" s="90"/>
       <c r="N14" s="39"/>
       <c r="O14" s="35"/>
       <c r="P14" s="40"/>
@@ -8984,8 +8978,8 @@
       <c r="H15" s="36"/>
       <c r="I15" s="36"/>
       <c r="J15" s="35"/>
-      <c r="L15" s="79"/>
-      <c r="M15" s="80"/>
+      <c r="L15" s="89"/>
+      <c r="M15" s="90"/>
       <c r="N15" s="39"/>
       <c r="O15" s="35"/>
       <c r="P15" s="40"/>
@@ -9014,8 +9008,8 @@
       <c r="K16" s="35">
         <v>0</v>
       </c>
-      <c r="L16" s="79"/>
-      <c r="M16" s="80"/>
+      <c r="L16" s="89"/>
+      <c r="M16" s="90"/>
       <c r="N16" s="39"/>
       <c r="O16" s="35"/>
       <c r="P16" s="40"/>
@@ -9044,8 +9038,8 @@
       <c r="I17" s="36"/>
       <c r="J17" s="35"/>
       <c r="K17" s="35"/>
-      <c r="L17" s="79"/>
-      <c r="M17" s="80"/>
+      <c r="L17" s="89"/>
+      <c r="M17" s="90"/>
       <c r="N17" s="39"/>
       <c r="O17" s="35"/>
       <c r="P17" s="40"/>
@@ -9074,8 +9068,8 @@
       <c r="K18" s="35" t="s">
         <v>68</v>
       </c>
-      <c r="L18" s="79"/>
-      <c r="M18" s="80"/>
+      <c r="L18" s="89"/>
+      <c r="M18" s="90"/>
       <c r="N18" s="39"/>
       <c r="O18" s="35"/>
       <c r="P18" s="40"/>
@@ -9104,8 +9098,8 @@
       <c r="I19" s="36"/>
       <c r="J19" s="35"/>
       <c r="K19" s="35"/>
-      <c r="L19" s="79"/>
-      <c r="M19" s="80"/>
+      <c r="L19" s="89"/>
+      <c r="M19" s="90"/>
       <c r="N19" s="39"/>
       <c r="O19" s="35"/>
       <c r="P19" s="40"/>
@@ -9134,22 +9128,14 @@
       <c r="K20" s="35" t="s">
         <v>68</v>
       </c>
-      <c r="L20" s="79"/>
-      <c r="M20" s="80"/>
+      <c r="L20" s="89"/>
+      <c r="M20" s="90"/>
       <c r="N20" s="39"/>
       <c r="O20" s="35"/>
       <c r="P20" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="A3:B4"/>
-    <mergeCell ref="C3:P4"/>
-    <mergeCell ref="L11:M11"/>
-    <mergeCell ref="L12:M12"/>
-    <mergeCell ref="O1:P1"/>
-    <mergeCell ref="D2:H2"/>
-    <mergeCell ref="I2:K2"/>
-    <mergeCell ref="O2:P2"/>
     <mergeCell ref="L13:M13"/>
     <mergeCell ref="L14:M14"/>
     <mergeCell ref="L20:M20"/>
@@ -9166,6 +9152,14 @@
     <mergeCell ref="L18:M18"/>
     <mergeCell ref="L19:M19"/>
     <mergeCell ref="L10:M10"/>
+    <mergeCell ref="A3:B4"/>
+    <mergeCell ref="C3:P4"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="O1:P1"/>
+    <mergeCell ref="D2:H2"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="O2:P2"/>
   </mergeCells>
   <phoneticPr fontId="6"/>
   <pageMargins left="0.35433070866141736" right="0.35433070866141736" top="0.19685039370078741" bottom="0.19685039370078741" header="0.23622047244094491" footer="0.23622047244094491"/>
@@ -9202,25 +9196,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="15" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A1" s="97" t="s">
+      <c r="A1" s="79" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="97"/>
+      <c r="B1" s="79"/>
       <c r="C1" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="98" t="s">
+      <c r="D1" s="80" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="98"/>
-      <c r="F1" s="98"/>
-      <c r="G1" s="98"/>
-      <c r="H1" s="99"/>
-      <c r="I1" s="100" t="s">
+      <c r="E1" s="80"/>
+      <c r="F1" s="80"/>
+      <c r="G1" s="80"/>
+      <c r="H1" s="81"/>
+      <c r="I1" s="82" t="s">
         <v>14</v>
       </c>
-      <c r="J1" s="98"/>
-      <c r="K1" s="99"/>
+      <c r="J1" s="80"/>
+      <c r="K1" s="81"/>
       <c r="L1" s="12" t="s">
         <v>1</v>
       </c>
@@ -9230,29 +9224,29 @@
       <c r="N1" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="O1" s="101">
+      <c r="O1" s="83">
         <v>45481</v>
       </c>
-      <c r="P1" s="102"/>
+      <c r="P1" s="84"/>
     </row>
     <row r="2" spans="1:16" ht="20.25" customHeight="1">
-      <c r="A2" s="97"/>
-      <c r="B2" s="97"/>
+      <c r="A2" s="79"/>
+      <c r="B2" s="79"/>
       <c r="C2" s="16" t="s">
         <v>250</v>
       </c>
-      <c r="D2" s="103" t="s">
+      <c r="D2" s="85" t="s">
         <v>209</v>
       </c>
-      <c r="E2" s="103"/>
-      <c r="F2" s="103"/>
-      <c r="G2" s="103"/>
-      <c r="H2" s="104"/>
-      <c r="I2" s="105" t="s">
+      <c r="E2" s="85"/>
+      <c r="F2" s="85"/>
+      <c r="G2" s="85"/>
+      <c r="H2" s="86"/>
+      <c r="I2" s="87" t="s">
         <v>156</v>
       </c>
-      <c r="J2" s="103"/>
-      <c r="K2" s="104"/>
+      <c r="J2" s="85"/>
+      <c r="K2" s="86"/>
       <c r="L2" s="17" t="s">
         <v>2</v>
       </c>
@@ -9260,48 +9254,48 @@
       <c r="N2" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="O2" s="106"/>
-      <c r="P2" s="104"/>
+      <c r="O2" s="88"/>
+      <c r="P2" s="86"/>
     </row>
     <row r="3" spans="1:16" ht="20.25" customHeight="1">
-      <c r="A3" s="81" t="s">
+      <c r="A3" s="91" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="82"/>
-      <c r="C3" s="85" t="s">
+      <c r="B3" s="92"/>
+      <c r="C3" s="95" t="s">
         <v>210</v>
       </c>
-      <c r="D3" s="86"/>
-      <c r="E3" s="86"/>
-      <c r="F3" s="86"/>
-      <c r="G3" s="86"/>
-      <c r="H3" s="86"/>
-      <c r="I3" s="86"/>
-      <c r="J3" s="86"/>
-      <c r="K3" s="86"/>
-      <c r="L3" s="86"/>
-      <c r="M3" s="86"/>
-      <c r="N3" s="86"/>
-      <c r="O3" s="86"/>
-      <c r="P3" s="87"/>
+      <c r="D3" s="96"/>
+      <c r="E3" s="96"/>
+      <c r="F3" s="96"/>
+      <c r="G3" s="96"/>
+      <c r="H3" s="96"/>
+      <c r="I3" s="96"/>
+      <c r="J3" s="96"/>
+      <c r="K3" s="96"/>
+      <c r="L3" s="96"/>
+      <c r="M3" s="96"/>
+      <c r="N3" s="96"/>
+      <c r="O3" s="96"/>
+      <c r="P3" s="97"/>
     </row>
     <row r="4" spans="1:16" ht="20.25" customHeight="1">
-      <c r="A4" s="83"/>
-      <c r="B4" s="84"/>
-      <c r="C4" s="88"/>
-      <c r="D4" s="89"/>
-      <c r="E4" s="89"/>
-      <c r="F4" s="89"/>
-      <c r="G4" s="89"/>
-      <c r="H4" s="89"/>
-      <c r="I4" s="89"/>
-      <c r="J4" s="89"/>
-      <c r="K4" s="89"/>
-      <c r="L4" s="89"/>
-      <c r="M4" s="89"/>
-      <c r="N4" s="89"/>
-      <c r="O4" s="89"/>
-      <c r="P4" s="90"/>
+      <c r="A4" s="93"/>
+      <c r="B4" s="94"/>
+      <c r="C4" s="98"/>
+      <c r="D4" s="99"/>
+      <c r="E4" s="99"/>
+      <c r="F4" s="99"/>
+      <c r="G4" s="99"/>
+      <c r="H4" s="99"/>
+      <c r="I4" s="99"/>
+      <c r="J4" s="99"/>
+      <c r="K4" s="99"/>
+      <c r="L4" s="99"/>
+      <c r="M4" s="99"/>
+      <c r="N4" s="99"/>
+      <c r="O4" s="99"/>
+      <c r="P4" s="100"/>
     </row>
     <row r="5" spans="1:16" ht="20.25" customHeight="1">
       <c r="B5" s="20"/>
@@ -9342,10 +9336,10 @@
       <c r="K6" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="L6" s="91" t="s">
+      <c r="L6" s="101" t="s">
         <v>27</v>
       </c>
-      <c r="M6" s="92"/>
+      <c r="M6" s="102"/>
       <c r="N6" s="26" t="s">
         <v>28</v>
       </c>
@@ -9386,10 +9380,10 @@
         <v>31</v>
       </c>
       <c r="K7" s="35"/>
-      <c r="L7" s="93" t="s">
+      <c r="L7" s="103" t="s">
         <v>203</v>
       </c>
-      <c r="M7" s="94"/>
+      <c r="M7" s="104"/>
       <c r="N7" s="39"/>
       <c r="O7" s="35"/>
       <c r="P7" s="40"/>
@@ -9399,7 +9393,7 @@
         <v>2</v>
       </c>
       <c r="B8" s="34" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C8" s="35" t="s">
         <v>230</v>
@@ -9427,7 +9421,7 @@
       <c r="L8" s="111" t="s">
         <v>190</v>
       </c>
-      <c r="M8" s="96"/>
+      <c r="M8" s="106"/>
       <c r="N8" s="39"/>
       <c r="O8" s="35"/>
       <c r="P8" s="40"/>
@@ -9456,10 +9450,10 @@
       <c r="K9" s="35">
         <v>0</v>
       </c>
-      <c r="L9" s="79" t="s">
+      <c r="L9" s="89" t="s">
         <v>207</v>
       </c>
-      <c r="M9" s="80"/>
+      <c r="M9" s="90"/>
       <c r="N9" s="39"/>
       <c r="O9" s="35"/>
       <c r="P9" s="40"/>
@@ -9488,10 +9482,10 @@
       <c r="K10" s="35">
         <v>0</v>
       </c>
-      <c r="L10" s="79" t="s">
+      <c r="L10" s="89" t="s">
         <v>208</v>
       </c>
-      <c r="M10" s="80"/>
+      <c r="M10" s="90"/>
       <c r="N10" s="39"/>
       <c r="O10" s="35"/>
       <c r="P10" s="40"/>
@@ -9520,8 +9514,8 @@
       <c r="K11" s="35" t="s">
         <v>140</v>
       </c>
-      <c r="L11" s="79"/>
-      <c r="M11" s="80"/>
+      <c r="L11" s="89"/>
+      <c r="M11" s="90"/>
       <c r="N11" s="39"/>
       <c r="O11" s="35"/>
       <c r="P11" s="40"/>
@@ -9550,8 +9544,8 @@
       <c r="K12" s="35">
         <v>0</v>
       </c>
-      <c r="L12" s="79"/>
-      <c r="M12" s="80"/>
+      <c r="L12" s="89"/>
+      <c r="M12" s="90"/>
       <c r="N12" s="39"/>
       <c r="O12" s="35"/>
       <c r="P12" s="40"/>
@@ -9580,8 +9574,8 @@
       <c r="I13" s="36"/>
       <c r="J13" s="35"/>
       <c r="K13" s="35"/>
-      <c r="L13" s="79"/>
-      <c r="M13" s="80"/>
+      <c r="L13" s="89"/>
+      <c r="M13" s="90"/>
       <c r="N13" s="39"/>
       <c r="O13" s="35"/>
       <c r="P13" s="40"/>
@@ -9612,8 +9606,8 @@
       <c r="K14" s="35" t="s">
         <v>68</v>
       </c>
-      <c r="L14" s="79"/>
-      <c r="M14" s="80"/>
+      <c r="L14" s="89"/>
+      <c r="M14" s="90"/>
       <c r="N14" s="39"/>
       <c r="O14" s="35"/>
       <c r="P14" s="40"/>
@@ -9641,8 +9635,8 @@
       <c r="H15" s="36"/>
       <c r="I15" s="36"/>
       <c r="J15" s="35"/>
-      <c r="L15" s="79"/>
-      <c r="M15" s="80"/>
+      <c r="L15" s="89"/>
+      <c r="M15" s="90"/>
       <c r="N15" s="39"/>
       <c r="O15" s="35"/>
       <c r="P15" s="40"/>
@@ -9673,8 +9667,8 @@
       <c r="K16" s="35" t="s">
         <v>67</v>
       </c>
-      <c r="L16" s="79"/>
-      <c r="M16" s="80"/>
+      <c r="L16" s="89"/>
+      <c r="M16" s="90"/>
       <c r="N16" s="39"/>
       <c r="O16" s="35"/>
       <c r="P16" s="40"/>
@@ -9693,8 +9687,8 @@
       <c r="I17" s="36"/>
       <c r="J17" s="35"/>
       <c r="K17" s="35"/>
-      <c r="L17" s="79"/>
-      <c r="M17" s="80"/>
+      <c r="L17" s="89"/>
+      <c r="M17" s="90"/>
       <c r="N17" s="39"/>
       <c r="O17" s="35"/>
       <c r="P17" s="40"/>
@@ -9713,8 +9707,8 @@
       <c r="I18" s="36"/>
       <c r="J18" s="35"/>
       <c r="K18" s="35"/>
-      <c r="L18" s="79"/>
-      <c r="M18" s="80"/>
+      <c r="L18" s="89"/>
+      <c r="M18" s="90"/>
       <c r="N18" s="39"/>
       <c r="O18" s="35"/>
       <c r="P18" s="40"/>
@@ -9733,8 +9727,8 @@
       <c r="I19" s="36"/>
       <c r="J19" s="35"/>
       <c r="K19" s="35"/>
-      <c r="L19" s="79"/>
-      <c r="M19" s="80"/>
+      <c r="L19" s="89"/>
+      <c r="M19" s="90"/>
       <c r="N19" s="39"/>
       <c r="O19" s="35"/>
       <c r="P19" s="40"/>
@@ -9753,8 +9747,8 @@
       <c r="I20" s="36"/>
       <c r="J20" s="35"/>
       <c r="K20" s="35"/>
-      <c r="L20" s="79"/>
-      <c r="M20" s="80"/>
+      <c r="L20" s="89"/>
+      <c r="M20" s="90"/>
       <c r="N20" s="39"/>
       <c r="O20" s="35"/>
       <c r="P20" s="40"/>
@@ -9773,14 +9767,26 @@
       <c r="I21" s="36"/>
       <c r="J21" s="35"/>
       <c r="K21" s="35"/>
-      <c r="L21" s="79"/>
-      <c r="M21" s="80"/>
+      <c r="L21" s="89"/>
+      <c r="M21" s="90"/>
       <c r="N21" s="39"/>
       <c r="O21" s="35"/>
       <c r="P21" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="L20:M20"/>
     <mergeCell ref="L9:M9"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="D1:H1"/>
@@ -9794,18 +9800,6 @@
     <mergeCell ref="L6:M6"/>
     <mergeCell ref="L7:M7"/>
     <mergeCell ref="L8:M8"/>
-    <mergeCell ref="L21:M21"/>
-    <mergeCell ref="L10:M10"/>
-    <mergeCell ref="L11:M11"/>
-    <mergeCell ref="L12:M12"/>
-    <mergeCell ref="L13:M13"/>
-    <mergeCell ref="L14:M14"/>
-    <mergeCell ref="L15:M15"/>
-    <mergeCell ref="L16:M16"/>
-    <mergeCell ref="L17:M17"/>
-    <mergeCell ref="L18:M18"/>
-    <mergeCell ref="L19:M19"/>
-    <mergeCell ref="L20:M20"/>
   </mergeCells>
   <phoneticPr fontId="6"/>
   <pageMargins left="0.35433070866141736" right="0.35433070866141736" top="0.19685039370078741" bottom="0.19685039370078741" header="0.23622047244094491" footer="0.23622047244094491"/>

--- a/交通費申請一覧機能/s-augDBテーブル定義書_新フォーマット対応版(0904_修正).xlsx
+++ b/交通費申請一覧機能/s-augDBテーブル定義書_新フォーマット対応版(0904_修正).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AUGCL42\Desktop\InternalSysDev2024\Internal-System-Development-2024\交通費申請一覧機能\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEC593A6-CBCB-4B8C-BE57-D225EE39A1B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EBFCA0B-2CB8-4AF8-AE14-386CDEC42B04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="-3370" yWindow="240" windowWidth="13340" windowHeight="10050" tabRatio="858" firstSheet="9" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9510" yWindow="0" windowWidth="9780" windowHeight="10170" tabRatio="858" firstSheet="9" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="変更履歴" sheetId="117" r:id="rId1"/>
@@ -2663,52 +2663,106 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="28" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2741,60 +2795,6 @@
     <xf numFmtId="14" fontId="10" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="23" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2810,6 +2810,36 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="26" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="10" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="10" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="5" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="15" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="10" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2834,38 +2864,8 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="10" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="10" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="5" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="15" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -3240,42 +3240,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" s="2" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A1" s="68" t="s">
+      <c r="A1" s="63" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="68"/>
-      <c r="C1" s="69" t="s">
+      <c r="B1" s="63"/>
+      <c r="C1" s="66" t="s">
         <v>287</v>
       </c>
-      <c r="D1" s="70"/>
-      <c r="E1" s="70"/>
-      <c r="F1" s="70"/>
-      <c r="G1" s="70"/>
-      <c r="H1" s="71"/>
+      <c r="D1" s="67"/>
+      <c r="E1" s="67"/>
+      <c r="F1" s="67"/>
+      <c r="G1" s="67"/>
+      <c r="H1" s="68"/>
       <c r="I1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="J1" s="75" t="s">
+      <c r="J1" s="72" t="s">
         <v>211</v>
       </c>
-      <c r="K1" s="76"/>
+      <c r="K1" s="73"/>
     </row>
     <row r="2" spans="1:19" ht="19.5" customHeight="1">
-      <c r="A2" s="68"/>
-      <c r="B2" s="68"/>
-      <c r="C2" s="72"/>
-      <c r="D2" s="73"/>
-      <c r="E2" s="73"/>
-      <c r="F2" s="73"/>
-      <c r="G2" s="73"/>
-      <c r="H2" s="74"/>
+      <c r="A2" s="63"/>
+      <c r="B2" s="63"/>
+      <c r="C2" s="69"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="70"/>
+      <c r="F2" s="70"/>
+      <c r="G2" s="70"/>
+      <c r="H2" s="71"/>
       <c r="I2" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="J2" s="77">
+      <c r="J2" s="74">
         <v>45482</v>
       </c>
-      <c r="K2" s="78"/>
+      <c r="K2" s="75"/>
     </row>
     <row r="3" spans="1:19" ht="19.5" customHeight="1">
       <c r="A3" s="4"/>
@@ -3308,22 +3308,22 @@
       <c r="C4" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="65" t="s">
+      <c r="D4" s="64" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="66"/>
-      <c r="F4" s="65" t="s">
+      <c r="E4" s="65"/>
+      <c r="F4" s="64" t="s">
         <v>7</v>
       </c>
-      <c r="G4" s="66"/>
-      <c r="H4" s="65" t="s">
+      <c r="G4" s="65"/>
+      <c r="H4" s="64" t="s">
         <v>8</v>
       </c>
-      <c r="I4" s="66"/>
-      <c r="J4" s="65" t="s">
+      <c r="I4" s="65"/>
+      <c r="J4" s="64" t="s">
         <v>9</v>
       </c>
-      <c r="K4" s="66"/>
+      <c r="K4" s="65"/>
       <c r="L4" s="2"/>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
@@ -3342,16 +3342,16 @@
       <c r="C5" s="49" t="s">
         <v>211</v>
       </c>
-      <c r="D5" s="67"/>
-      <c r="E5" s="67"/>
-      <c r="F5" s="67"/>
-      <c r="G5" s="67"/>
-      <c r="H5" s="67" t="s">
+      <c r="D5" s="78"/>
+      <c r="E5" s="78"/>
+      <c r="F5" s="78"/>
+      <c r="G5" s="78"/>
+      <c r="H5" s="78" t="s">
         <v>10</v>
       </c>
-      <c r="I5" s="67"/>
-      <c r="J5" s="67"/>
-      <c r="K5" s="67"/>
+      <c r="I5" s="78"/>
+      <c r="J5" s="78"/>
+      <c r="K5" s="78"/>
     </row>
     <row r="6" spans="1:19" ht="22.5" customHeight="1">
       <c r="A6" s="51">
@@ -3363,20 +3363,20 @@
       <c r="C6" s="51" t="s">
         <v>211</v>
       </c>
-      <c r="D6" s="64" t="s">
+      <c r="D6" s="77" t="s">
         <v>252</v>
       </c>
-      <c r="E6" s="64"/>
-      <c r="F6" s="64"/>
-      <c r="G6" s="64"/>
-      <c r="H6" s="64" t="s">
+      <c r="E6" s="77"/>
+      <c r="F6" s="77"/>
+      <c r="G6" s="77"/>
+      <c r="H6" s="77" t="s">
         <v>253</v>
       </c>
-      <c r="I6" s="64"/>
-      <c r="J6" s="64" t="s">
+      <c r="I6" s="77"/>
+      <c r="J6" s="77" t="s">
         <v>254</v>
       </c>
-      <c r="K6" s="64"/>
+      <c r="K6" s="77"/>
     </row>
     <row r="7" spans="1:19" ht="22.5" customHeight="1">
       <c r="A7" s="49">
@@ -3388,20 +3388,20 @@
       <c r="C7" s="51" t="s">
         <v>283</v>
       </c>
-      <c r="D7" s="63" t="s">
+      <c r="D7" s="76" t="s">
         <v>286</v>
       </c>
-      <c r="E7" s="63"/>
-      <c r="F7" s="64"/>
-      <c r="G7" s="64"/>
-      <c r="H7" s="63" t="s">
+      <c r="E7" s="76"/>
+      <c r="F7" s="77"/>
+      <c r="G7" s="77"/>
+      <c r="H7" s="76" t="s">
         <v>284</v>
       </c>
-      <c r="I7" s="63"/>
-      <c r="J7" s="63" t="s">
+      <c r="I7" s="76"/>
+      <c r="J7" s="76" t="s">
         <v>285</v>
       </c>
-      <c r="K7" s="63"/>
+      <c r="K7" s="76"/>
     </row>
     <row r="8" spans="1:19" ht="22.5" customHeight="1"/>
     <row r="9" spans="1:19" ht="22.5" customHeight="1"/>
@@ -3443,12 +3443,6 @@
     <row r="45" ht="22.5" customHeight="1"/>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="C1:H2"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="J2:K2"/>
     <mergeCell ref="D7:E7"/>
     <mergeCell ref="F7:G7"/>
     <mergeCell ref="H7:I7"/>
@@ -3463,6 +3457,12 @@
     <mergeCell ref="D5:E5"/>
     <mergeCell ref="F5:G5"/>
     <mergeCell ref="H5:I5"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="C1:H2"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="J2:K2"/>
   </mergeCells>
   <phoneticPr fontId="5"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.59055118110236227" bottom="0.59055118110236227" header="0.51181102362204722" footer="0.51181102362204722"/>
@@ -3475,8 +3475,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB8A24D3-272C-45D2-9527-CE0B8FDD95E5}">
   <dimension ref="A1:P33"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A28" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="28.5" customHeight="1"/>
@@ -3499,25 +3499,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="15" customFormat="1" ht="31.5" customHeight="1">
-      <c r="A1" s="79" t="s">
+      <c r="A1" s="97" t="s">
         <v>237</v>
       </c>
-      <c r="B1" s="79"/>
+      <c r="B1" s="97"/>
       <c r="C1" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="82" t="s">
+      <c r="D1" s="100" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="80"/>
-      <c r="F1" s="80"/>
-      <c r="G1" s="80"/>
-      <c r="H1" s="81"/>
-      <c r="I1" s="82" t="s">
+      <c r="E1" s="98"/>
+      <c r="F1" s="98"/>
+      <c r="G1" s="98"/>
+      <c r="H1" s="99"/>
+      <c r="I1" s="100" t="s">
         <v>14</v>
       </c>
-      <c r="J1" s="80"/>
-      <c r="K1" s="81"/>
+      <c r="J1" s="98"/>
+      <c r="K1" s="99"/>
       <c r="L1" s="12" t="s">
         <v>1</v>
       </c>
@@ -3527,29 +3527,29 @@
       <c r="N1" s="14" t="s">
         <v>281</v>
       </c>
-      <c r="O1" s="123" t="s">
+      <c r="O1" s="115" t="s">
         <v>282</v>
       </c>
-      <c r="P1" s="124"/>
+      <c r="P1" s="116"/>
     </row>
     <row r="2" spans="1:16" ht="20.25" customHeight="1">
-      <c r="A2" s="79"/>
-      <c r="B2" s="79"/>
+      <c r="A2" s="97"/>
+      <c r="B2" s="97"/>
       <c r="C2" s="16" t="s">
         <v>251</v>
       </c>
-      <c r="D2" s="85" t="s">
+      <c r="D2" s="103" t="s">
         <v>219</v>
       </c>
-      <c r="E2" s="85"/>
-      <c r="F2" s="85"/>
-      <c r="G2" s="85"/>
-      <c r="H2" s="86"/>
-      <c r="I2" s="127" t="s">
+      <c r="E2" s="103"/>
+      <c r="F2" s="103"/>
+      <c r="G2" s="103"/>
+      <c r="H2" s="104"/>
+      <c r="I2" s="119" t="s">
         <v>218</v>
       </c>
-      <c r="J2" s="128"/>
-      <c r="K2" s="129"/>
+      <c r="J2" s="120"/>
+      <c r="K2" s="121"/>
       <c r="L2" s="17" t="s">
         <v>2</v>
       </c>
@@ -3559,50 +3559,50 @@
       <c r="N2" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="O2" s="88">
+      <c r="O2" s="106">
         <v>45509</v>
       </c>
-      <c r="P2" s="86"/>
+      <c r="P2" s="104"/>
     </row>
     <row r="3" spans="1:16" ht="20.25" customHeight="1">
-      <c r="A3" s="91" t="s">
+      <c r="A3" s="81" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="92"/>
-      <c r="C3" s="95" t="s">
+      <c r="B3" s="82"/>
+      <c r="C3" s="85" t="s">
         <v>227</v>
       </c>
-      <c r="D3" s="96"/>
-      <c r="E3" s="96"/>
-      <c r="F3" s="96"/>
-      <c r="G3" s="96"/>
-      <c r="H3" s="96"/>
-      <c r="I3" s="96"/>
-      <c r="J3" s="96"/>
-      <c r="K3" s="96"/>
-      <c r="L3" s="96"/>
-      <c r="M3" s="96"/>
-      <c r="N3" s="96"/>
-      <c r="O3" s="96"/>
-      <c r="P3" s="97"/>
+      <c r="D3" s="86"/>
+      <c r="E3" s="86"/>
+      <c r="F3" s="86"/>
+      <c r="G3" s="86"/>
+      <c r="H3" s="86"/>
+      <c r="I3" s="86"/>
+      <c r="J3" s="86"/>
+      <c r="K3" s="86"/>
+      <c r="L3" s="86"/>
+      <c r="M3" s="86"/>
+      <c r="N3" s="86"/>
+      <c r="O3" s="86"/>
+      <c r="P3" s="87"/>
     </row>
     <row r="4" spans="1:16" ht="20.25" customHeight="1">
-      <c r="A4" s="93"/>
-      <c r="B4" s="94"/>
-      <c r="C4" s="98"/>
-      <c r="D4" s="99"/>
-      <c r="E4" s="99"/>
-      <c r="F4" s="99"/>
-      <c r="G4" s="99"/>
-      <c r="H4" s="99"/>
-      <c r="I4" s="99"/>
-      <c r="J4" s="99"/>
-      <c r="K4" s="99"/>
-      <c r="L4" s="99"/>
-      <c r="M4" s="99"/>
-      <c r="N4" s="99"/>
-      <c r="O4" s="99"/>
-      <c r="P4" s="100"/>
+      <c r="A4" s="83"/>
+      <c r="B4" s="84"/>
+      <c r="C4" s="88"/>
+      <c r="D4" s="89"/>
+      <c r="E4" s="89"/>
+      <c r="F4" s="89"/>
+      <c r="G4" s="89"/>
+      <c r="H4" s="89"/>
+      <c r="I4" s="89"/>
+      <c r="J4" s="89"/>
+      <c r="K4" s="89"/>
+      <c r="L4" s="89"/>
+      <c r="M4" s="89"/>
+      <c r="N4" s="89"/>
+      <c r="O4" s="89"/>
+      <c r="P4" s="90"/>
     </row>
     <row r="5" spans="1:16" ht="20.25" customHeight="1">
       <c r="B5" s="20"/>
@@ -3643,10 +3643,10 @@
       <c r="K6" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="L6" s="101" t="s">
+      <c r="L6" s="91" t="s">
         <v>27</v>
       </c>
-      <c r="M6" s="102"/>
+      <c r="M6" s="92"/>
       <c r="N6" s="26" t="s">
         <v>28</v>
       </c>
@@ -3689,10 +3689,10 @@
       <c r="K7" s="35" t="s">
         <v>260</v>
       </c>
-      <c r="L7" s="116" t="s">
+      <c r="L7" s="126" t="s">
         <v>275</v>
       </c>
-      <c r="M7" s="117"/>
+      <c r="M7" s="127"/>
       <c r="N7" s="39"/>
       <c r="O7" s="35"/>
       <c r="P7" s="40"/>
@@ -3721,10 +3721,10 @@
       <c r="I8" s="36"/>
       <c r="J8" s="35"/>
       <c r="K8" s="35"/>
-      <c r="L8" s="118" t="s">
+      <c r="L8" s="128" t="s">
         <v>190</v>
       </c>
-      <c r="M8" s="119"/>
+      <c r="M8" s="129"/>
       <c r="N8" s="39"/>
       <c r="O8" s="35"/>
       <c r="P8" s="40"/>
@@ -3751,8 +3751,8 @@
       <c r="I9" s="36"/>
       <c r="J9" s="35"/>
       <c r="K9" s="35"/>
-      <c r="L9" s="120"/>
-      <c r="M9" s="121"/>
+      <c r="L9" s="112"/>
+      <c r="M9" s="113"/>
       <c r="N9" s="39"/>
       <c r="O9" s="35"/>
       <c r="P9" s="40"/>
@@ -3781,10 +3781,10 @@
       <c r="I10" s="36"/>
       <c r="J10" s="35"/>
       <c r="K10" s="35"/>
-      <c r="L10" s="122" t="s">
+      <c r="L10" s="130" t="s">
         <v>200</v>
       </c>
-      <c r="M10" s="121"/>
+      <c r="M10" s="113"/>
       <c r="N10" s="39" t="s">
         <v>308</v>
       </c>
@@ -3813,10 +3813,10 @@
       <c r="I11" s="36"/>
       <c r="J11" s="35"/>
       <c r="K11" s="35"/>
-      <c r="L11" s="120" t="s">
+      <c r="L11" s="112" t="s">
         <v>235</v>
       </c>
-      <c r="M11" s="121"/>
+      <c r="M11" s="113"/>
       <c r="N11" s="39"/>
       <c r="O11" s="35"/>
       <c r="P11" s="40"/>
@@ -3843,8 +3843,8 @@
       <c r="I12" s="36"/>
       <c r="J12" s="35"/>
       <c r="K12" s="35"/>
-      <c r="L12" s="120"/>
-      <c r="M12" s="121"/>
+      <c r="L12" s="112"/>
+      <c r="M12" s="113"/>
       <c r="N12" s="39"/>
       <c r="O12" s="35"/>
       <c r="P12" s="40"/>
@@ -3905,10 +3905,10 @@
       <c r="I14" s="36"/>
       <c r="J14" s="35"/>
       <c r="K14" s="35"/>
-      <c r="L14" s="114" t="s">
+      <c r="L14" s="124" t="s">
         <v>292</v>
       </c>
-      <c r="M14" s="115"/>
+      <c r="M14" s="125"/>
       <c r="N14" s="59"/>
       <c r="O14" s="59"/>
       <c r="P14" s="40"/>
@@ -3935,10 +3935,10 @@
       <c r="I15" s="36"/>
       <c r="J15" s="35"/>
       <c r="K15" s="35"/>
-      <c r="L15" s="89" t="s">
+      <c r="L15" s="79" t="s">
         <v>268</v>
       </c>
-      <c r="M15" s="90"/>
+      <c r="M15" s="80"/>
       <c r="N15" s="39"/>
       <c r="O15" s="35"/>
       <c r="P15" s="40"/>
@@ -3967,10 +3967,10 @@
       <c r="I16" s="36"/>
       <c r="J16" s="35"/>
       <c r="K16" s="35"/>
-      <c r="L16" s="114" t="s">
+      <c r="L16" s="124" t="s">
         <v>290</v>
       </c>
-      <c r="M16" s="115"/>
+      <c r="M16" s="125"/>
       <c r="N16" s="60"/>
       <c r="O16" s="19"/>
       <c r="P16" s="40"/>
@@ -3999,10 +3999,10 @@
       <c r="I17" s="36"/>
       <c r="J17" s="35"/>
       <c r="K17" s="35"/>
-      <c r="L17" s="112" t="s">
+      <c r="L17" s="122" t="s">
         <v>289</v>
       </c>
-      <c r="M17" s="113"/>
+      <c r="M17" s="123"/>
       <c r="N17" s="39" t="s">
         <v>309</v>
       </c>
@@ -4033,10 +4033,10 @@
       <c r="I18" s="36"/>
       <c r="J18" s="35"/>
       <c r="K18" s="35"/>
-      <c r="L18" s="89" t="s">
+      <c r="L18" s="79" t="s">
         <v>291</v>
       </c>
-      <c r="M18" s="90"/>
+      <c r="M18" s="80"/>
       <c r="N18" s="39"/>
       <c r="O18" s="35"/>
       <c r="P18" s="40"/>
@@ -4067,10 +4067,10 @@
       <c r="I19" s="36"/>
       <c r="J19" s="35"/>
       <c r="K19" s="35"/>
-      <c r="L19" s="89" t="s">
+      <c r="L19" s="79" t="s">
         <v>294</v>
       </c>
-      <c r="M19" s="90"/>
+      <c r="M19" s="80"/>
       <c r="N19" s="39"/>
       <c r="O19" s="35"/>
       <c r="P19" s="40"/>
@@ -4097,10 +4097,10 @@
       <c r="I20" s="36"/>
       <c r="J20" s="35"/>
       <c r="K20" s="41"/>
-      <c r="L20" s="89" t="s">
+      <c r="L20" s="79" t="s">
         <v>293</v>
       </c>
-      <c r="M20" s="90"/>
+      <c r="M20" s="80"/>
       <c r="N20" s="39"/>
       <c r="O20" s="35"/>
       <c r="P20" s="40"/>
@@ -4129,10 +4129,10 @@
       <c r="I21" s="36"/>
       <c r="J21" s="35"/>
       <c r="K21" s="35"/>
-      <c r="L21" s="125" t="s">
+      <c r="L21" s="117" t="s">
         <v>278</v>
       </c>
-      <c r="M21" s="126"/>
+      <c r="M21" s="118"/>
       <c r="N21" s="39"/>
       <c r="O21" s="35"/>
       <c r="P21" s="40"/>
@@ -4157,10 +4157,10 @@
       <c r="I22" s="36"/>
       <c r="J22" s="35"/>
       <c r="K22" s="35"/>
-      <c r="L22" s="120" t="s">
+      <c r="L22" s="112" t="s">
         <v>272</v>
       </c>
-      <c r="M22" s="121"/>
+      <c r="M22" s="113"/>
       <c r="N22" s="39"/>
       <c r="O22" s="35"/>
       <c r="P22" s="40"/>
@@ -4187,10 +4187,10 @@
       <c r="I23" s="36"/>
       <c r="J23" s="35"/>
       <c r="K23" s="35"/>
-      <c r="L23" s="120" t="s">
+      <c r="L23" s="112" t="s">
         <v>261</v>
       </c>
-      <c r="M23" s="121"/>
+      <c r="M23" s="113"/>
       <c r="N23" s="39"/>
       <c r="O23" s="35"/>
       <c r="P23" s="40"/>
@@ -4219,8 +4219,8 @@
       <c r="I24" s="36"/>
       <c r="J24" s="35"/>
       <c r="K24" s="35"/>
-      <c r="L24" s="89"/>
-      <c r="M24" s="90"/>
+      <c r="L24" s="79"/>
+      <c r="M24" s="80"/>
       <c r="N24" s="39"/>
       <c r="O24" s="35"/>
       <c r="P24" s="40"/>
@@ -4249,8 +4249,8 @@
       <c r="K25" s="35" t="s">
         <v>68</v>
       </c>
-      <c r="L25" s="89"/>
-      <c r="M25" s="90"/>
+      <c r="L25" s="79"/>
+      <c r="M25" s="80"/>
       <c r="N25" s="39"/>
       <c r="O25" s="35"/>
       <c r="P25" s="40"/>
@@ -4277,10 +4277,10 @@
       <c r="I26" s="36"/>
       <c r="J26" s="35"/>
       <c r="K26" s="35"/>
-      <c r="L26" s="120" t="s">
+      <c r="L26" s="112" t="s">
         <v>297</v>
       </c>
-      <c r="M26" s="121"/>
+      <c r="M26" s="113"/>
       <c r="N26" s="39"/>
       <c r="O26" s="35"/>
       <c r="P26" s="40"/>
@@ -4307,10 +4307,10 @@
       <c r="K27" s="35" t="s">
         <v>68</v>
       </c>
-      <c r="L27" s="89" t="s">
+      <c r="L27" s="79" t="s">
         <v>296</v>
       </c>
-      <c r="M27" s="90"/>
+      <c r="M27" s="80"/>
       <c r="N27" s="39"/>
       <c r="O27" s="35"/>
       <c r="P27" s="40"/>
@@ -4337,10 +4337,10 @@
       <c r="I28" s="36"/>
       <c r="J28" s="35"/>
       <c r="K28" s="35"/>
-      <c r="L28" s="120" t="s">
+      <c r="L28" s="112" t="s">
         <v>258</v>
       </c>
-      <c r="M28" s="121"/>
+      <c r="M28" s="113"/>
       <c r="N28" s="39"/>
       <c r="O28" s="35"/>
       <c r="P28" s="40"/>
@@ -4367,10 +4367,10 @@
       <c r="K29" s="35" t="s">
         <v>68</v>
       </c>
-      <c r="L29" s="89" t="s">
+      <c r="L29" s="79" t="s">
         <v>298</v>
       </c>
-      <c r="M29" s="90"/>
+      <c r="M29" s="80"/>
       <c r="N29" s="39"/>
       <c r="O29" s="35"/>
       <c r="P29" s="40"/>
@@ -4399,10 +4399,10 @@
       <c r="K30" s="35">
         <v>0</v>
       </c>
-      <c r="L30" s="89" t="s">
+      <c r="L30" s="79" t="s">
         <v>295</v>
       </c>
-      <c r="M30" s="90"/>
+      <c r="M30" s="80"/>
       <c r="N30" s="39"/>
       <c r="O30" s="35"/>
       <c r="P30" s="40"/>
@@ -4431,8 +4431,8 @@
       <c r="K31" s="35">
         <v>0</v>
       </c>
-      <c r="L31" s="89"/>
-      <c r="M31" s="90"/>
+      <c r="L31" s="79"/>
+      <c r="M31" s="80"/>
       <c r="N31" s="39"/>
       <c r="O31" s="35"/>
       <c r="P31" s="40"/>
@@ -4448,19 +4448,28 @@
       <c r="I32" s="57"/>
       <c r="J32" s="56"/>
       <c r="K32" s="56"/>
-      <c r="L32" s="130"/>
-      <c r="M32" s="130"/>
+      <c r="L32" s="114"/>
+      <c r="M32" s="114"/>
       <c r="N32" s="56"/>
       <c r="O32" s="56"/>
     </row>
     <row r="33" s="19" customFormat="1" ht="28.5" customHeight="1"/>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="L28:M28"/>
-    <mergeCell ref="L29:M29"/>
-    <mergeCell ref="L30:M30"/>
-    <mergeCell ref="L31:M31"/>
-    <mergeCell ref="L32:M32"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="D1:H1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="A3:B4"/>
+    <mergeCell ref="C3:P4"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="L12:M12"/>
     <mergeCell ref="O1:P1"/>
     <mergeCell ref="D2:H2"/>
     <mergeCell ref="L27:M27"/>
@@ -4477,20 +4486,11 @@
     <mergeCell ref="O2:P2"/>
     <mergeCell ref="L17:M17"/>
     <mergeCell ref="L14:M14"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="D1:H1"/>
-    <mergeCell ref="I1:K1"/>
-    <mergeCell ref="L16:M16"/>
-    <mergeCell ref="L15:M15"/>
-    <mergeCell ref="A3:B4"/>
-    <mergeCell ref="C3:P4"/>
-    <mergeCell ref="L6:M6"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="L8:M8"/>
-    <mergeCell ref="L9:M9"/>
-    <mergeCell ref="L10:M10"/>
-    <mergeCell ref="L11:M11"/>
-    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="L28:M28"/>
+    <mergeCell ref="L29:M29"/>
+    <mergeCell ref="L30:M30"/>
+    <mergeCell ref="L31:M31"/>
+    <mergeCell ref="L32:M32"/>
   </mergeCells>
   <phoneticPr fontId="6"/>
   <pageMargins left="0.35433070866141736" right="0.35433070866141736" top="0.19685039370078741" bottom="0.19685039370078741" header="0.23622047244094491" footer="0.23622047244094491"/>
@@ -4527,25 +4527,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="15" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A1" s="79" t="s">
+      <c r="A1" s="97" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="79"/>
+      <c r="B1" s="97"/>
       <c r="C1" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="80" t="s">
+      <c r="D1" s="98" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="80"/>
-      <c r="F1" s="80"/>
-      <c r="G1" s="80"/>
-      <c r="H1" s="81"/>
-      <c r="I1" s="82" t="s">
+      <c r="E1" s="98"/>
+      <c r="F1" s="98"/>
+      <c r="G1" s="98"/>
+      <c r="H1" s="99"/>
+      <c r="I1" s="100" t="s">
         <v>14</v>
       </c>
-      <c r="J1" s="80"/>
-      <c r="K1" s="81"/>
+      <c r="J1" s="98"/>
+      <c r="K1" s="99"/>
       <c r="L1" s="12" t="s">
         <v>1</v>
       </c>
@@ -4555,29 +4555,29 @@
       <c r="N1" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="O1" s="83">
+      <c r="O1" s="101">
         <v>45481</v>
       </c>
-      <c r="P1" s="84"/>
+      <c r="P1" s="102"/>
     </row>
     <row r="2" spans="1:16" ht="20.25" customHeight="1">
-      <c r="A2" s="79"/>
-      <c r="B2" s="79"/>
+      <c r="A2" s="97"/>
+      <c r="B2" s="97"/>
       <c r="C2" s="16" t="s">
         <v>245</v>
       </c>
-      <c r="D2" s="85" t="s">
+      <c r="D2" s="103" t="s">
         <v>33</v>
       </c>
-      <c r="E2" s="85"/>
-      <c r="F2" s="85"/>
-      <c r="G2" s="85"/>
-      <c r="H2" s="86"/>
-      <c r="I2" s="87" t="s">
+      <c r="E2" s="103"/>
+      <c r="F2" s="103"/>
+      <c r="G2" s="103"/>
+      <c r="H2" s="104"/>
+      <c r="I2" s="105" t="s">
         <v>32</v>
       </c>
-      <c r="J2" s="85"/>
-      <c r="K2" s="86"/>
+      <c r="J2" s="103"/>
+      <c r="K2" s="104"/>
       <c r="L2" s="17" t="s">
         <v>2</v>
       </c>
@@ -4585,50 +4585,50 @@
       <c r="N2" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="O2" s="88">
+      <c r="O2" s="106">
         <v>45484</v>
       </c>
-      <c r="P2" s="86"/>
+      <c r="P2" s="104"/>
     </row>
     <row r="3" spans="1:16" ht="20.25" customHeight="1">
-      <c r="A3" s="91" t="s">
+      <c r="A3" s="81" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="92"/>
-      <c r="C3" s="95" t="s">
+      <c r="B3" s="82"/>
+      <c r="C3" s="85" t="s">
         <v>33</v>
       </c>
-      <c r="D3" s="96"/>
-      <c r="E3" s="96"/>
-      <c r="F3" s="96"/>
-      <c r="G3" s="96"/>
-      <c r="H3" s="96"/>
-      <c r="I3" s="96"/>
-      <c r="J3" s="96"/>
-      <c r="K3" s="96"/>
-      <c r="L3" s="96"/>
-      <c r="M3" s="96"/>
-      <c r="N3" s="96"/>
-      <c r="O3" s="96"/>
-      <c r="P3" s="97"/>
+      <c r="D3" s="86"/>
+      <c r="E3" s="86"/>
+      <c r="F3" s="86"/>
+      <c r="G3" s="86"/>
+      <c r="H3" s="86"/>
+      <c r="I3" s="86"/>
+      <c r="J3" s="86"/>
+      <c r="K3" s="86"/>
+      <c r="L3" s="86"/>
+      <c r="M3" s="86"/>
+      <c r="N3" s="86"/>
+      <c r="O3" s="86"/>
+      <c r="P3" s="87"/>
     </row>
     <row r="4" spans="1:16" ht="20.25" customHeight="1">
-      <c r="A4" s="93"/>
-      <c r="B4" s="94"/>
-      <c r="C4" s="98"/>
-      <c r="D4" s="99"/>
-      <c r="E4" s="99"/>
-      <c r="F4" s="99"/>
-      <c r="G4" s="99"/>
-      <c r="H4" s="99"/>
-      <c r="I4" s="99"/>
-      <c r="J4" s="99"/>
-      <c r="K4" s="99"/>
-      <c r="L4" s="99"/>
-      <c r="M4" s="99"/>
-      <c r="N4" s="99"/>
-      <c r="O4" s="99"/>
-      <c r="P4" s="100"/>
+      <c r="A4" s="83"/>
+      <c r="B4" s="84"/>
+      <c r="C4" s="88"/>
+      <c r="D4" s="89"/>
+      <c r="E4" s="89"/>
+      <c r="F4" s="89"/>
+      <c r="G4" s="89"/>
+      <c r="H4" s="89"/>
+      <c r="I4" s="89"/>
+      <c r="J4" s="89"/>
+      <c r="K4" s="89"/>
+      <c r="L4" s="89"/>
+      <c r="M4" s="89"/>
+      <c r="N4" s="89"/>
+      <c r="O4" s="89"/>
+      <c r="P4" s="90"/>
     </row>
     <row r="5" spans="1:16" ht="20.25" customHeight="1">
       <c r="B5" s="20"/>
@@ -4669,10 +4669,10 @@
       <c r="K6" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="L6" s="101" t="s">
+      <c r="L6" s="91" t="s">
         <v>27</v>
       </c>
-      <c r="M6" s="102"/>
+      <c r="M6" s="92"/>
       <c r="N6" s="26" t="s">
         <v>28</v>
       </c>
@@ -4715,10 +4715,10 @@
         <v>31</v>
       </c>
       <c r="K7" s="35"/>
-      <c r="L7" s="103" t="s">
+      <c r="L7" s="93" t="s">
         <v>238</v>
       </c>
-      <c r="M7" s="104"/>
+      <c r="M7" s="94"/>
       <c r="N7" s="39"/>
       <c r="O7" s="35"/>
       <c r="P7" s="40"/>
@@ -4747,10 +4747,10 @@
       <c r="I8" s="36"/>
       <c r="J8" s="35"/>
       <c r="K8" s="35"/>
-      <c r="L8" s="105" t="s">
+      <c r="L8" s="95" t="s">
         <v>255</v>
       </c>
-      <c r="M8" s="106"/>
+      <c r="M8" s="96"/>
       <c r="N8" s="39"/>
       <c r="O8" s="35"/>
       <c r="P8" s="40"/>
@@ -4779,8 +4779,8 @@
       <c r="I9" s="36"/>
       <c r="J9" s="35"/>
       <c r="K9" s="35"/>
-      <c r="L9" s="89"/>
-      <c r="M9" s="90"/>
+      <c r="L9" s="79"/>
+      <c r="M9" s="80"/>
       <c r="N9" s="39"/>
       <c r="O9" s="35"/>
       <c r="P9" s="40"/>
@@ -4807,8 +4807,8 @@
       <c r="I10" s="36"/>
       <c r="J10" s="35"/>
       <c r="K10" s="35"/>
-      <c r="L10" s="89"/>
-      <c r="M10" s="90"/>
+      <c r="L10" s="79"/>
+      <c r="M10" s="80"/>
       <c r="N10" s="39"/>
       <c r="O10" s="35"/>
       <c r="P10" s="40"/>
@@ -4835,10 +4835,10 @@
       <c r="I11" s="36"/>
       <c r="J11" s="35"/>
       <c r="K11" s="35"/>
-      <c r="L11" s="89" t="s">
+      <c r="L11" s="79" t="s">
         <v>187</v>
       </c>
-      <c r="M11" s="90"/>
+      <c r="M11" s="80"/>
       <c r="N11" s="39" t="s">
         <v>191</v>
       </c>
@@ -4867,10 +4867,10 @@
       <c r="I12" s="36"/>
       <c r="J12" s="35"/>
       <c r="K12" s="35"/>
-      <c r="L12" s="89" t="s">
+      <c r="L12" s="79" t="s">
         <v>188</v>
       </c>
-      <c r="M12" s="90"/>
+      <c r="M12" s="80"/>
       <c r="N12" s="39" t="s">
         <v>192</v>
       </c>
@@ -4899,8 +4899,8 @@
       <c r="I13" s="36"/>
       <c r="J13" s="35"/>
       <c r="K13" s="35"/>
-      <c r="L13" s="89"/>
-      <c r="M13" s="90"/>
+      <c r="L13" s="79"/>
+      <c r="M13" s="80"/>
       <c r="N13" s="39"/>
       <c r="O13" s="35"/>
       <c r="P13" s="40"/>
@@ -4929,8 +4929,8 @@
       <c r="I14" s="36"/>
       <c r="J14" s="35"/>
       <c r="K14" s="35"/>
-      <c r="L14" s="89"/>
-      <c r="M14" s="90"/>
+      <c r="L14" s="79"/>
+      <c r="M14" s="80"/>
       <c r="N14" s="39"/>
       <c r="O14" s="35"/>
       <c r="P14" s="40"/>
@@ -4959,8 +4959,8 @@
       <c r="I15" s="36"/>
       <c r="J15" s="35"/>
       <c r="K15" s="35"/>
-      <c r="L15" s="89"/>
-      <c r="M15" s="90"/>
+      <c r="L15" s="79"/>
+      <c r="M15" s="80"/>
       <c r="N15" s="39"/>
       <c r="O15" s="35"/>
       <c r="P15" s="40"/>
@@ -4987,10 +4987,10 @@
       <c r="I16" s="36"/>
       <c r="J16" s="35"/>
       <c r="K16" s="35"/>
-      <c r="L16" s="89" t="s">
+      <c r="L16" s="79" t="s">
         <v>189</v>
       </c>
-      <c r="M16" s="90"/>
+      <c r="M16" s="80"/>
       <c r="N16" s="39"/>
       <c r="O16" s="35"/>
       <c r="P16" s="40"/>
@@ -5019,8 +5019,8 @@
       <c r="K17" s="35">
         <v>0</v>
       </c>
-      <c r="L17" s="89"/>
-      <c r="M17" s="90"/>
+      <c r="L17" s="79"/>
+      <c r="M17" s="80"/>
       <c r="N17" s="39"/>
       <c r="O17" s="35"/>
       <c r="P17" s="40"/>
@@ -5049,8 +5049,8 @@
       <c r="I18" s="36"/>
       <c r="J18" s="35"/>
       <c r="K18" s="35"/>
-      <c r="L18" s="89"/>
-      <c r="M18" s="90"/>
+      <c r="L18" s="79"/>
+      <c r="M18" s="80"/>
       <c r="N18" s="39"/>
       <c r="O18" s="35"/>
       <c r="P18" s="40"/>
@@ -5081,8 +5081,8 @@
       <c r="K19" s="35" t="s">
         <v>67</v>
       </c>
-      <c r="L19" s="89"/>
-      <c r="M19" s="90"/>
+      <c r="L19" s="79"/>
+      <c r="M19" s="80"/>
       <c r="N19" s="39"/>
       <c r="O19" s="35"/>
       <c r="P19" s="40"/>
@@ -5111,8 +5111,8 @@
       <c r="I20" s="36"/>
       <c r="J20" s="35"/>
       <c r="K20" s="35"/>
-      <c r="L20" s="89"/>
-      <c r="M20" s="90"/>
+      <c r="L20" s="79"/>
+      <c r="M20" s="80"/>
       <c r="N20" s="39"/>
       <c r="O20" s="35"/>
       <c r="P20" s="40"/>
@@ -5143,19 +5143,21 @@
       <c r="K21" s="35" t="s">
         <v>67</v>
       </c>
-      <c r="L21" s="89"/>
-      <c r="M21" s="90"/>
+      <c r="L21" s="79"/>
+      <c r="M21" s="80"/>
       <c r="N21" s="39"/>
       <c r="O21" s="35"/>
       <c r="P21" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="L17:M17"/>
-    <mergeCell ref="L18:M18"/>
-    <mergeCell ref="L19:M19"/>
-    <mergeCell ref="L20:M20"/>
-    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="D1:H1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="O1:P1"/>
+    <mergeCell ref="D2:H2"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="O2:P2"/>
     <mergeCell ref="L16:M16"/>
     <mergeCell ref="A3:B4"/>
     <mergeCell ref="C3:P4"/>
@@ -5169,13 +5171,11 @@
     <mergeCell ref="L14:M14"/>
     <mergeCell ref="L15:M15"/>
     <mergeCell ref="L8:M8"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="D1:H1"/>
-    <mergeCell ref="I1:K1"/>
-    <mergeCell ref="O1:P1"/>
-    <mergeCell ref="D2:H2"/>
-    <mergeCell ref="I2:K2"/>
-    <mergeCell ref="O2:P2"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="L20:M20"/>
+    <mergeCell ref="L21:M21"/>
   </mergeCells>
   <phoneticPr fontId="6"/>
   <pageMargins left="0.35433070866141736" right="0.35433070866141736" top="0.19685039370078741" bottom="0.19685039370078741" header="0.23622047244094491" footer="0.23622047244094491"/>
@@ -5212,25 +5212,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="15" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A1" s="79" t="s">
+      <c r="A1" s="97" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="79"/>
+      <c r="B1" s="97"/>
       <c r="C1" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="80" t="s">
+      <c r="D1" s="98" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="80"/>
-      <c r="F1" s="80"/>
-      <c r="G1" s="80"/>
-      <c r="H1" s="81"/>
-      <c r="I1" s="82" t="s">
+      <c r="E1" s="98"/>
+      <c r="F1" s="98"/>
+      <c r="G1" s="98"/>
+      <c r="H1" s="99"/>
+      <c r="I1" s="100" t="s">
         <v>14</v>
       </c>
-      <c r="J1" s="80"/>
-      <c r="K1" s="81"/>
+      <c r="J1" s="98"/>
+      <c r="K1" s="99"/>
       <c r="L1" s="12" t="s">
         <v>1</v>
       </c>
@@ -5240,29 +5240,29 @@
       <c r="N1" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="O1" s="83">
+      <c r="O1" s="101">
         <v>45482</v>
       </c>
-      <c r="P1" s="84"/>
+      <c r="P1" s="102"/>
     </row>
     <row r="2" spans="1:16" ht="20.25" customHeight="1">
-      <c r="A2" s="79"/>
-      <c r="B2" s="79"/>
+      <c r="A2" s="97"/>
+      <c r="B2" s="97"/>
       <c r="C2" s="16" t="s">
         <v>245</v>
       </c>
-      <c r="D2" s="85" t="s">
+      <c r="D2" s="103" t="s">
         <v>193</v>
       </c>
-      <c r="E2" s="85"/>
-      <c r="F2" s="85"/>
-      <c r="G2" s="85"/>
-      <c r="H2" s="86"/>
-      <c r="I2" s="87" t="s">
+      <c r="E2" s="103"/>
+      <c r="F2" s="103"/>
+      <c r="G2" s="103"/>
+      <c r="H2" s="104"/>
+      <c r="I2" s="105" t="s">
         <v>87</v>
       </c>
-      <c r="J2" s="85"/>
-      <c r="K2" s="86"/>
+      <c r="J2" s="103"/>
+      <c r="K2" s="104"/>
       <c r="L2" s="17" t="s">
         <v>2</v>
       </c>
@@ -5270,48 +5270,48 @@
       <c r="N2" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="O2" s="88"/>
-      <c r="P2" s="86"/>
+      <c r="O2" s="106"/>
+      <c r="P2" s="104"/>
     </row>
     <row r="3" spans="1:16" ht="20.25" customHeight="1">
-      <c r="A3" s="91" t="s">
+      <c r="A3" s="81" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="92"/>
-      <c r="C3" s="95" t="s">
+      <c r="B3" s="82"/>
+      <c r="C3" s="85" t="s">
         <v>193</v>
       </c>
-      <c r="D3" s="96"/>
-      <c r="E3" s="96"/>
-      <c r="F3" s="96"/>
-      <c r="G3" s="96"/>
-      <c r="H3" s="96"/>
-      <c r="I3" s="96"/>
-      <c r="J3" s="96"/>
-      <c r="K3" s="96"/>
-      <c r="L3" s="96"/>
-      <c r="M3" s="96"/>
-      <c r="N3" s="96"/>
-      <c r="O3" s="96"/>
-      <c r="P3" s="97"/>
+      <c r="D3" s="86"/>
+      <c r="E3" s="86"/>
+      <c r="F3" s="86"/>
+      <c r="G3" s="86"/>
+      <c r="H3" s="86"/>
+      <c r="I3" s="86"/>
+      <c r="J3" s="86"/>
+      <c r="K3" s="86"/>
+      <c r="L3" s="86"/>
+      <c r="M3" s="86"/>
+      <c r="N3" s="86"/>
+      <c r="O3" s="86"/>
+      <c r="P3" s="87"/>
     </row>
     <row r="4" spans="1:16" ht="20.25" customHeight="1">
-      <c r="A4" s="93"/>
-      <c r="B4" s="94"/>
-      <c r="C4" s="98"/>
-      <c r="D4" s="99"/>
-      <c r="E4" s="99"/>
-      <c r="F4" s="99"/>
-      <c r="G4" s="99"/>
-      <c r="H4" s="99"/>
-      <c r="I4" s="99"/>
-      <c r="J4" s="99"/>
-      <c r="K4" s="99"/>
-      <c r="L4" s="99"/>
-      <c r="M4" s="99"/>
-      <c r="N4" s="99"/>
-      <c r="O4" s="99"/>
-      <c r="P4" s="100"/>
+      <c r="A4" s="83"/>
+      <c r="B4" s="84"/>
+      <c r="C4" s="88"/>
+      <c r="D4" s="89"/>
+      <c r="E4" s="89"/>
+      <c r="F4" s="89"/>
+      <c r="G4" s="89"/>
+      <c r="H4" s="89"/>
+      <c r="I4" s="89"/>
+      <c r="J4" s="89"/>
+      <c r="K4" s="89"/>
+      <c r="L4" s="89"/>
+      <c r="M4" s="89"/>
+      <c r="N4" s="89"/>
+      <c r="O4" s="89"/>
+      <c r="P4" s="90"/>
     </row>
     <row r="5" spans="1:16" ht="20.25" customHeight="1">
       <c r="B5" s="20"/>
@@ -5352,10 +5352,10 @@
       <c r="K6" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="L6" s="101" t="s">
+      <c r="L6" s="91" t="s">
         <v>27</v>
       </c>
-      <c r="M6" s="102"/>
+      <c r="M6" s="92"/>
       <c r="N6" s="26" t="s">
         <v>28</v>
       </c>
@@ -5398,10 +5398,10 @@
         <v>31</v>
       </c>
       <c r="K7" s="35"/>
-      <c r="L7" s="103" t="s">
+      <c r="L7" s="93" t="s">
         <v>198</v>
       </c>
-      <c r="M7" s="104"/>
+      <c r="M7" s="94"/>
       <c r="N7" s="39"/>
       <c r="O7" s="35"/>
       <c r="P7" s="40"/>
@@ -5430,10 +5430,10 @@
       <c r="I8" s="36"/>
       <c r="J8" s="35"/>
       <c r="K8" s="35"/>
-      <c r="L8" s="105" t="s">
+      <c r="L8" s="95" t="s">
         <v>212</v>
       </c>
-      <c r="M8" s="106"/>
+      <c r="M8" s="96"/>
       <c r="N8" s="39"/>
       <c r="O8" s="35"/>
       <c r="P8" s="40"/>
@@ -5468,8 +5468,8 @@
         <v>31</v>
       </c>
       <c r="K9" s="35"/>
-      <c r="L9" s="89"/>
-      <c r="M9" s="90"/>
+      <c r="L9" s="79"/>
+      <c r="M9" s="80"/>
       <c r="N9" s="39"/>
       <c r="O9" s="35"/>
       <c r="P9" s="40"/>
@@ -5498,10 +5498,10 @@
       <c r="I10" s="36"/>
       <c r="J10" s="35"/>
       <c r="K10" s="35"/>
-      <c r="L10" s="89" t="s">
+      <c r="L10" s="79" t="s">
         <v>199</v>
       </c>
-      <c r="M10" s="90"/>
+      <c r="M10" s="80"/>
       <c r="N10" s="39"/>
       <c r="O10" s="35"/>
       <c r="P10" s="40"/>
@@ -5528,8 +5528,8 @@
       <c r="I11" s="36"/>
       <c r="J11" s="35"/>
       <c r="K11" s="35"/>
-      <c r="L11" s="89"/>
-      <c r="M11" s="90"/>
+      <c r="L11" s="79"/>
+      <c r="M11" s="80"/>
       <c r="N11" s="39"/>
       <c r="O11" s="35"/>
       <c r="P11" s="40"/>
@@ -5560,8 +5560,8 @@
       <c r="K12" s="35">
         <v>0</v>
       </c>
-      <c r="L12" s="89"/>
-      <c r="M12" s="90"/>
+      <c r="L12" s="79"/>
+      <c r="M12" s="80"/>
       <c r="N12" s="39"/>
       <c r="O12" s="35"/>
       <c r="P12" s="40"/>
@@ -5590,8 +5590,8 @@
       <c r="I13" s="36"/>
       <c r="J13" s="35"/>
       <c r="K13" s="35"/>
-      <c r="L13" s="89"/>
-      <c r="M13" s="90"/>
+      <c r="L13" s="79"/>
+      <c r="M13" s="80"/>
       <c r="N13" s="39"/>
       <c r="O13" s="35"/>
       <c r="P13" s="40"/>
@@ -5622,8 +5622,8 @@
       <c r="K14" s="35" t="s">
         <v>68</v>
       </c>
-      <c r="L14" s="89"/>
-      <c r="M14" s="90"/>
+      <c r="L14" s="79"/>
+      <c r="M14" s="80"/>
       <c r="N14" s="39"/>
       <c r="O14" s="35"/>
       <c r="P14" s="40"/>
@@ -5652,8 +5652,8 @@
       <c r="I15" s="36"/>
       <c r="J15" s="35"/>
       <c r="K15" s="35"/>
-      <c r="L15" s="89"/>
-      <c r="M15" s="90"/>
+      <c r="L15" s="79"/>
+      <c r="M15" s="80"/>
       <c r="N15" s="39"/>
       <c r="O15" s="35"/>
       <c r="P15" s="40"/>
@@ -5684,8 +5684,8 @@
       <c r="K16" s="35" t="s">
         <v>67</v>
       </c>
-      <c r="L16" s="89"/>
-      <c r="M16" s="90"/>
+      <c r="L16" s="79"/>
+      <c r="M16" s="80"/>
       <c r="N16" s="39"/>
       <c r="O16" s="35"/>
       <c r="P16" s="40"/>
@@ -5703,8 +5703,8 @@
       <c r="H17" s="36"/>
       <c r="I17" s="36"/>
       <c r="J17" s="35"/>
-      <c r="L17" s="89"/>
-      <c r="M17" s="90"/>
+      <c r="L17" s="79"/>
+      <c r="M17" s="80"/>
       <c r="N17" s="39"/>
       <c r="O17" s="35"/>
       <c r="P17" s="40"/>
@@ -5722,8 +5722,8 @@
       <c r="H18" s="36"/>
       <c r="I18" s="36"/>
       <c r="J18" s="35"/>
-      <c r="L18" s="89"/>
-      <c r="M18" s="90"/>
+      <c r="L18" s="79"/>
+      <c r="M18" s="80"/>
       <c r="N18" s="39"/>
       <c r="O18" s="35"/>
       <c r="P18" s="40"/>
@@ -5741,8 +5741,8 @@
       <c r="H19" s="36"/>
       <c r="I19" s="36"/>
       <c r="J19" s="35"/>
-      <c r="L19" s="89"/>
-      <c r="M19" s="90"/>
+      <c r="L19" s="79"/>
+      <c r="M19" s="80"/>
       <c r="N19" s="39"/>
       <c r="O19" s="35"/>
       <c r="P19" s="40"/>
@@ -5761,8 +5761,8 @@
       <c r="I20" s="36"/>
       <c r="J20" s="35"/>
       <c r="K20" s="35"/>
-      <c r="L20" s="89"/>
-      <c r="M20" s="90"/>
+      <c r="L20" s="79"/>
+      <c r="M20" s="80"/>
       <c r="N20" s="39"/>
       <c r="O20" s="35"/>
       <c r="P20" s="40"/>
@@ -5781,14 +5781,26 @@
       <c r="I21" s="36"/>
       <c r="J21" s="35"/>
       <c r="K21" s="35"/>
-      <c r="L21" s="89"/>
-      <c r="M21" s="90"/>
+      <c r="L21" s="79"/>
+      <c r="M21" s="80"/>
       <c r="N21" s="39"/>
       <c r="O21" s="35"/>
       <c r="P21" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="L20:M20"/>
     <mergeCell ref="L9:M9"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="D1:H1"/>
@@ -5802,18 +5814,6 @@
     <mergeCell ref="L6:M6"/>
     <mergeCell ref="L7:M7"/>
     <mergeCell ref="L8:M8"/>
-    <mergeCell ref="L21:M21"/>
-    <mergeCell ref="L10:M10"/>
-    <mergeCell ref="L11:M11"/>
-    <mergeCell ref="L12:M12"/>
-    <mergeCell ref="L13:M13"/>
-    <mergeCell ref="L14:M14"/>
-    <mergeCell ref="L15:M15"/>
-    <mergeCell ref="L16:M16"/>
-    <mergeCell ref="L17:M17"/>
-    <mergeCell ref="L18:M18"/>
-    <mergeCell ref="L19:M19"/>
-    <mergeCell ref="L20:M20"/>
   </mergeCells>
   <phoneticPr fontId="6"/>
   <pageMargins left="0.35433070866141736" right="0.35433070866141736" top="0.19685039370078741" bottom="0.19685039370078741" header="0.23622047244094491" footer="0.23622047244094491"/>
@@ -5850,25 +5850,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="15" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A1" s="79" t="s">
+      <c r="A1" s="97" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="79"/>
+      <c r="B1" s="97"/>
       <c r="C1" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="80" t="s">
+      <c r="D1" s="98" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="80"/>
-      <c r="F1" s="80"/>
-      <c r="G1" s="80"/>
-      <c r="H1" s="81"/>
-      <c r="I1" s="82" t="s">
+      <c r="E1" s="98"/>
+      <c r="F1" s="98"/>
+      <c r="G1" s="98"/>
+      <c r="H1" s="99"/>
+      <c r="I1" s="100" t="s">
         <v>14</v>
       </c>
-      <c r="J1" s="80"/>
-      <c r="K1" s="81"/>
+      <c r="J1" s="98"/>
+      <c r="K1" s="99"/>
       <c r="L1" s="12" t="s">
         <v>1</v>
       </c>
@@ -5878,29 +5878,29 @@
       <c r="N1" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="O1" s="83">
+      <c r="O1" s="101">
         <v>45482</v>
       </c>
-      <c r="P1" s="84"/>
+      <c r="P1" s="102"/>
     </row>
     <row r="2" spans="1:16" ht="20.25" customHeight="1">
-      <c r="A2" s="79"/>
-      <c r="B2" s="79"/>
+      <c r="A2" s="97"/>
+      <c r="B2" s="97"/>
       <c r="C2" s="16" t="s">
         <v>245</v>
       </c>
-      <c r="D2" s="85" t="s">
+      <c r="D2" s="103" t="s">
         <v>70</v>
       </c>
-      <c r="E2" s="85"/>
-      <c r="F2" s="85"/>
-      <c r="G2" s="85"/>
-      <c r="H2" s="86"/>
-      <c r="I2" s="87" t="s">
+      <c r="E2" s="103"/>
+      <c r="F2" s="103"/>
+      <c r="G2" s="103"/>
+      <c r="H2" s="104"/>
+      <c r="I2" s="105" t="s">
         <v>69</v>
       </c>
-      <c r="J2" s="85"/>
-      <c r="K2" s="86"/>
+      <c r="J2" s="103"/>
+      <c r="K2" s="104"/>
       <c r="L2" s="17" t="s">
         <v>2</v>
       </c>
@@ -5908,48 +5908,48 @@
       <c r="N2" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="O2" s="88"/>
-      <c r="P2" s="86"/>
+      <c r="O2" s="106"/>
+      <c r="P2" s="104"/>
     </row>
     <row r="3" spans="1:16" ht="20.25" customHeight="1">
-      <c r="A3" s="91" t="s">
+      <c r="A3" s="81" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="92"/>
-      <c r="C3" s="95" t="s">
+      <c r="B3" s="82"/>
+      <c r="C3" s="85" t="s">
         <v>182</v>
       </c>
-      <c r="D3" s="96"/>
-      <c r="E3" s="96"/>
-      <c r="F3" s="96"/>
-      <c r="G3" s="96"/>
-      <c r="H3" s="96"/>
-      <c r="I3" s="96"/>
-      <c r="J3" s="96"/>
-      <c r="K3" s="96"/>
-      <c r="L3" s="96"/>
-      <c r="M3" s="96"/>
-      <c r="N3" s="96"/>
-      <c r="O3" s="96"/>
-      <c r="P3" s="97"/>
+      <c r="D3" s="86"/>
+      <c r="E3" s="86"/>
+      <c r="F3" s="86"/>
+      <c r="G3" s="86"/>
+      <c r="H3" s="86"/>
+      <c r="I3" s="86"/>
+      <c r="J3" s="86"/>
+      <c r="K3" s="86"/>
+      <c r="L3" s="86"/>
+      <c r="M3" s="86"/>
+      <c r="N3" s="86"/>
+      <c r="O3" s="86"/>
+      <c r="P3" s="87"/>
     </row>
     <row r="4" spans="1:16" ht="20.25" customHeight="1">
-      <c r="A4" s="93"/>
-      <c r="B4" s="94"/>
-      <c r="C4" s="98"/>
-      <c r="D4" s="99"/>
-      <c r="E4" s="99"/>
-      <c r="F4" s="99"/>
-      <c r="G4" s="99"/>
-      <c r="H4" s="99"/>
-      <c r="I4" s="99"/>
-      <c r="J4" s="99"/>
-      <c r="K4" s="99"/>
-      <c r="L4" s="99"/>
-      <c r="M4" s="99"/>
-      <c r="N4" s="99"/>
-      <c r="O4" s="99"/>
-      <c r="P4" s="100"/>
+      <c r="A4" s="83"/>
+      <c r="B4" s="84"/>
+      <c r="C4" s="88"/>
+      <c r="D4" s="89"/>
+      <c r="E4" s="89"/>
+      <c r="F4" s="89"/>
+      <c r="G4" s="89"/>
+      <c r="H4" s="89"/>
+      <c r="I4" s="89"/>
+      <c r="J4" s="89"/>
+      <c r="K4" s="89"/>
+      <c r="L4" s="89"/>
+      <c r="M4" s="89"/>
+      <c r="N4" s="89"/>
+      <c r="O4" s="89"/>
+      <c r="P4" s="90"/>
     </row>
     <row r="5" spans="1:16" ht="20.25" customHeight="1">
       <c r="B5" s="20"/>
@@ -5990,10 +5990,10 @@
       <c r="K6" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="L6" s="101" t="s">
+      <c r="L6" s="91" t="s">
         <v>27</v>
       </c>
-      <c r="M6" s="102"/>
+      <c r="M6" s="92"/>
       <c r="N6" s="26" t="s">
         <v>28</v>
       </c>
@@ -6039,7 +6039,7 @@
       <c r="L7" s="107" t="s">
         <v>190</v>
       </c>
-      <c r="M7" s="104"/>
+      <c r="M7" s="94"/>
       <c r="N7" s="39"/>
       <c r="O7" s="35"/>
       <c r="P7" s="40"/>
@@ -6068,8 +6068,8 @@
       <c r="I8" s="36"/>
       <c r="J8" s="35"/>
       <c r="K8" s="35"/>
-      <c r="L8" s="105"/>
-      <c r="M8" s="106"/>
+      <c r="L8" s="95"/>
+      <c r="M8" s="96"/>
       <c r="N8" s="39"/>
       <c r="O8" s="35"/>
       <c r="P8" s="40"/>
@@ -6098,8 +6098,8 @@
       <c r="I9" s="36"/>
       <c r="J9" s="35"/>
       <c r="K9" s="35"/>
-      <c r="L9" s="89"/>
-      <c r="M9" s="90"/>
+      <c r="L9" s="79"/>
+      <c r="M9" s="80"/>
       <c r="N9" s="39"/>
       <c r="O9" s="35"/>
       <c r="P9" s="40"/>
@@ -6128,8 +6128,8 @@
       <c r="I10" s="36"/>
       <c r="J10" s="35"/>
       <c r="K10" s="35"/>
-      <c r="L10" s="89"/>
-      <c r="M10" s="90"/>
+      <c r="L10" s="79"/>
+      <c r="M10" s="80"/>
       <c r="N10" s="39"/>
       <c r="O10" s="35"/>
       <c r="P10" s="40"/>
@@ -6158,8 +6158,8 @@
       <c r="I11" s="36"/>
       <c r="J11" s="35"/>
       <c r="K11" s="35"/>
-      <c r="L11" s="89"/>
-      <c r="M11" s="90"/>
+      <c r="L11" s="79"/>
+      <c r="M11" s="80"/>
       <c r="N11" s="39"/>
       <c r="O11" s="35"/>
       <c r="P11" s="40"/>
@@ -6184,8 +6184,8 @@
       <c r="I12" s="36"/>
       <c r="J12" s="35"/>
       <c r="K12" s="35"/>
-      <c r="L12" s="89"/>
-      <c r="M12" s="90"/>
+      <c r="L12" s="79"/>
+      <c r="M12" s="80"/>
       <c r="N12" s="39"/>
       <c r="O12" s="35"/>
       <c r="P12" s="40"/>
@@ -6212,8 +6212,8 @@
       <c r="I13" s="36"/>
       <c r="J13" s="35"/>
       <c r="K13" s="35"/>
-      <c r="L13" s="89"/>
-      <c r="M13" s="90"/>
+      <c r="L13" s="79"/>
+      <c r="M13" s="80"/>
       <c r="N13" s="39"/>
       <c r="O13" s="35"/>
       <c r="P13" s="40"/>
@@ -6240,8 +6240,8 @@
       <c r="I14" s="36"/>
       <c r="J14" s="35"/>
       <c r="K14" s="35"/>
-      <c r="L14" s="89"/>
-      <c r="M14" s="90"/>
+      <c r="L14" s="79"/>
+      <c r="M14" s="80"/>
       <c r="N14" s="39"/>
       <c r="O14" s="35"/>
       <c r="P14" s="40"/>
@@ -6272,8 +6272,8 @@
       <c r="K15" s="35">
         <v>0</v>
       </c>
-      <c r="L15" s="89"/>
-      <c r="M15" s="90"/>
+      <c r="L15" s="79"/>
+      <c r="M15" s="80"/>
       <c r="N15" s="39"/>
       <c r="O15" s="35"/>
       <c r="P15" s="40"/>
@@ -6302,8 +6302,8 @@
       <c r="I16" s="36"/>
       <c r="J16" s="35"/>
       <c r="K16" s="35"/>
-      <c r="L16" s="89"/>
-      <c r="M16" s="90"/>
+      <c r="L16" s="79"/>
+      <c r="M16" s="80"/>
       <c r="N16" s="39"/>
       <c r="O16" s="35"/>
       <c r="P16" s="40"/>
@@ -6334,8 +6334,8 @@
       <c r="K17" s="35" t="s">
         <v>68</v>
       </c>
-      <c r="L17" s="89"/>
-      <c r="M17" s="90"/>
+      <c r="L17" s="79"/>
+      <c r="M17" s="80"/>
       <c r="N17" s="39"/>
       <c r="O17" s="35"/>
       <c r="P17" s="40"/>
@@ -6364,8 +6364,8 @@
       <c r="I18" s="36"/>
       <c r="J18" s="35"/>
       <c r="K18" s="35"/>
-      <c r="L18" s="89"/>
-      <c r="M18" s="90"/>
+      <c r="L18" s="79"/>
+      <c r="M18" s="80"/>
       <c r="N18" s="39"/>
       <c r="O18" s="35"/>
       <c r="P18" s="40"/>
@@ -6396,8 +6396,8 @@
       <c r="K19" s="35" t="s">
         <v>67</v>
       </c>
-      <c r="L19" s="89"/>
-      <c r="M19" s="90"/>
+      <c r="L19" s="79"/>
+      <c r="M19" s="80"/>
       <c r="N19" s="39"/>
       <c r="O19" s="35"/>
       <c r="P19" s="40"/>
@@ -6416,8 +6416,8 @@
       <c r="I20" s="36"/>
       <c r="J20" s="35"/>
       <c r="K20" s="35"/>
-      <c r="L20" s="89"/>
-      <c r="M20" s="90"/>
+      <c r="L20" s="79"/>
+      <c r="M20" s="80"/>
       <c r="N20" s="39"/>
       <c r="O20" s="35"/>
       <c r="P20" s="40"/>
@@ -6436,14 +6436,26 @@
       <c r="I21" s="36"/>
       <c r="J21" s="35"/>
       <c r="K21" s="35"/>
-      <c r="L21" s="89"/>
-      <c r="M21" s="90"/>
+      <c r="L21" s="79"/>
+      <c r="M21" s="80"/>
       <c r="N21" s="39"/>
       <c r="O21" s="35"/>
       <c r="P21" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="L20:M20"/>
     <mergeCell ref="L9:M9"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="D1:H1"/>
@@ -6457,18 +6469,6 @@
     <mergeCell ref="L6:M6"/>
     <mergeCell ref="L7:M7"/>
     <mergeCell ref="L8:M8"/>
-    <mergeCell ref="L21:M21"/>
-    <mergeCell ref="L10:M10"/>
-    <mergeCell ref="L11:M11"/>
-    <mergeCell ref="L12:M12"/>
-    <mergeCell ref="L13:M13"/>
-    <mergeCell ref="L14:M14"/>
-    <mergeCell ref="L15:M15"/>
-    <mergeCell ref="L16:M16"/>
-    <mergeCell ref="L17:M17"/>
-    <mergeCell ref="L18:M18"/>
-    <mergeCell ref="L19:M19"/>
-    <mergeCell ref="L20:M20"/>
   </mergeCells>
   <phoneticPr fontId="6"/>
   <pageMargins left="0.35433070866141736" right="0.35433070866141736" top="0.19685039370078741" bottom="0.19685039370078741" header="0.23622047244094491" footer="0.23622047244094491"/>
@@ -6505,25 +6505,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="15" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A1" s="79" t="s">
+      <c r="A1" s="97" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="79"/>
+      <c r="B1" s="97"/>
       <c r="C1" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="80" t="s">
+      <c r="D1" s="98" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="80"/>
-      <c r="F1" s="80"/>
-      <c r="G1" s="80"/>
-      <c r="H1" s="81"/>
-      <c r="I1" s="82" t="s">
+      <c r="E1" s="98"/>
+      <c r="F1" s="98"/>
+      <c r="G1" s="98"/>
+      <c r="H1" s="99"/>
+      <c r="I1" s="100" t="s">
         <v>14</v>
       </c>
-      <c r="J1" s="80"/>
-      <c r="K1" s="81"/>
+      <c r="J1" s="98"/>
+      <c r="K1" s="99"/>
       <c r="L1" s="12" t="s">
         <v>1</v>
       </c>
@@ -6533,29 +6533,29 @@
       <c r="N1" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="O1" s="83">
+      <c r="O1" s="101">
         <v>45481</v>
       </c>
-      <c r="P1" s="84"/>
+      <c r="P1" s="102"/>
     </row>
     <row r="2" spans="1:16" ht="20.25" customHeight="1">
-      <c r="A2" s="79"/>
-      <c r="B2" s="79"/>
+      <c r="A2" s="97"/>
+      <c r="B2" s="97"/>
       <c r="C2" s="16" t="s">
         <v>246</v>
       </c>
-      <c r="D2" s="85" t="s">
+      <c r="D2" s="103" t="s">
         <v>214</v>
       </c>
-      <c r="E2" s="85"/>
-      <c r="F2" s="85"/>
-      <c r="G2" s="85"/>
-      <c r="H2" s="86"/>
-      <c r="I2" s="87" t="s">
+      <c r="E2" s="103"/>
+      <c r="F2" s="103"/>
+      <c r="G2" s="103"/>
+      <c r="H2" s="104"/>
+      <c r="I2" s="105" t="s">
         <v>121</v>
       </c>
-      <c r="J2" s="85"/>
-      <c r="K2" s="86"/>
+      <c r="J2" s="103"/>
+      <c r="K2" s="104"/>
       <c r="L2" s="17" t="s">
         <v>2</v>
       </c>
@@ -6563,48 +6563,48 @@
       <c r="N2" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="O2" s="88"/>
-      <c r="P2" s="86"/>
+      <c r="O2" s="106"/>
+      <c r="P2" s="104"/>
     </row>
     <row r="3" spans="1:16" ht="20.25" customHeight="1">
-      <c r="A3" s="91" t="s">
+      <c r="A3" s="81" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="92"/>
-      <c r="C3" s="95" t="s">
+      <c r="B3" s="82"/>
+      <c r="C3" s="85" t="s">
         <v>216</v>
       </c>
-      <c r="D3" s="96"/>
-      <c r="E3" s="96"/>
-      <c r="F3" s="96"/>
-      <c r="G3" s="96"/>
-      <c r="H3" s="96"/>
-      <c r="I3" s="96"/>
-      <c r="J3" s="96"/>
-      <c r="K3" s="96"/>
-      <c r="L3" s="96"/>
-      <c r="M3" s="96"/>
-      <c r="N3" s="96"/>
-      <c r="O3" s="96"/>
-      <c r="P3" s="97"/>
+      <c r="D3" s="86"/>
+      <c r="E3" s="86"/>
+      <c r="F3" s="86"/>
+      <c r="G3" s="86"/>
+      <c r="H3" s="86"/>
+      <c r="I3" s="86"/>
+      <c r="J3" s="86"/>
+      <c r="K3" s="86"/>
+      <c r="L3" s="86"/>
+      <c r="M3" s="86"/>
+      <c r="N3" s="86"/>
+      <c r="O3" s="86"/>
+      <c r="P3" s="87"/>
     </row>
     <row r="4" spans="1:16" ht="20.25" customHeight="1">
-      <c r="A4" s="93"/>
-      <c r="B4" s="94"/>
-      <c r="C4" s="98"/>
-      <c r="D4" s="99"/>
-      <c r="E4" s="99"/>
-      <c r="F4" s="99"/>
-      <c r="G4" s="99"/>
-      <c r="H4" s="99"/>
-      <c r="I4" s="99"/>
-      <c r="J4" s="99"/>
-      <c r="K4" s="99"/>
-      <c r="L4" s="99"/>
-      <c r="M4" s="99"/>
-      <c r="N4" s="99"/>
-      <c r="O4" s="99"/>
-      <c r="P4" s="100"/>
+      <c r="A4" s="83"/>
+      <c r="B4" s="84"/>
+      <c r="C4" s="88"/>
+      <c r="D4" s="89"/>
+      <c r="E4" s="89"/>
+      <c r="F4" s="89"/>
+      <c r="G4" s="89"/>
+      <c r="H4" s="89"/>
+      <c r="I4" s="89"/>
+      <c r="J4" s="89"/>
+      <c r="K4" s="89"/>
+      <c r="L4" s="89"/>
+      <c r="M4" s="89"/>
+      <c r="N4" s="89"/>
+      <c r="O4" s="89"/>
+      <c r="P4" s="90"/>
     </row>
     <row r="5" spans="1:16" ht="20.25" customHeight="1">
       <c r="B5" s="20"/>
@@ -6645,10 +6645,10 @@
       <c r="K6" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="L6" s="101" t="s">
+      <c r="L6" s="91" t="s">
         <v>27</v>
       </c>
-      <c r="M6" s="102"/>
+      <c r="M6" s="92"/>
       <c r="N6" s="26" t="s">
         <v>28</v>
       </c>
@@ -6692,7 +6692,7 @@
       <c r="L7" s="107" t="s">
         <v>190</v>
       </c>
-      <c r="M7" s="104"/>
+      <c r="M7" s="94"/>
       <c r="N7" s="39"/>
       <c r="O7" s="35"/>
       <c r="P7" s="40"/>
@@ -6727,10 +6727,10 @@
         <v>31</v>
       </c>
       <c r="K8" s="35"/>
-      <c r="L8" s="105" t="s">
+      <c r="L8" s="95" t="s">
         <v>243</v>
       </c>
-      <c r="M8" s="106"/>
+      <c r="M8" s="96"/>
       <c r="N8" s="39"/>
       <c r="O8" s="35"/>
       <c r="P8" s="40"/>
@@ -6765,10 +6765,10 @@
         <v>31</v>
       </c>
       <c r="K9" s="35"/>
-      <c r="L9" s="89" t="s">
+      <c r="L9" s="79" t="s">
         <v>244</v>
       </c>
-      <c r="M9" s="90"/>
+      <c r="M9" s="80"/>
       <c r="N9" s="39"/>
       <c r="O9" s="35"/>
       <c r="P9" s="40"/>
@@ -6803,10 +6803,10 @@
         <v>31</v>
       </c>
       <c r="K10" s="35"/>
-      <c r="L10" s="89" t="s">
+      <c r="L10" s="79" t="s">
         <v>242</v>
       </c>
-      <c r="M10" s="90"/>
+      <c r="M10" s="80"/>
       <c r="N10" s="39"/>
       <c r="O10" s="35"/>
       <c r="P10" s="40"/>
@@ -6833,8 +6833,8 @@
       <c r="I11" s="36"/>
       <c r="J11" s="35"/>
       <c r="K11" s="35"/>
-      <c r="L11" s="89"/>
-      <c r="M11" s="90"/>
+      <c r="L11" s="79"/>
+      <c r="M11" s="80"/>
       <c r="N11" s="39"/>
       <c r="O11" s="35"/>
       <c r="P11" s="40"/>
@@ -6861,8 +6861,8 @@
       <c r="I12" s="36"/>
       <c r="J12" s="35"/>
       <c r="K12" s="35"/>
-      <c r="L12" s="89"/>
-      <c r="M12" s="90"/>
+      <c r="L12" s="79"/>
+      <c r="M12" s="80"/>
       <c r="N12" s="39"/>
       <c r="O12" s="35"/>
       <c r="P12" s="40"/>
@@ -6889,8 +6889,8 @@
       <c r="I13" s="36"/>
       <c r="J13" s="35"/>
       <c r="K13" s="35"/>
-      <c r="L13" s="89"/>
-      <c r="M13" s="90"/>
+      <c r="L13" s="79"/>
+      <c r="M13" s="80"/>
       <c r="N13" s="39"/>
       <c r="O13" s="35"/>
       <c r="P13" s="40"/>
@@ -6917,8 +6917,8 @@
       <c r="I14" s="36"/>
       <c r="J14" s="35"/>
       <c r="K14" s="35"/>
-      <c r="L14" s="89"/>
-      <c r="M14" s="90"/>
+      <c r="L14" s="79"/>
+      <c r="M14" s="80"/>
       <c r="N14" s="39"/>
       <c r="O14" s="35"/>
       <c r="P14" s="40"/>
@@ -6943,8 +6943,8 @@
       <c r="I15" s="36"/>
       <c r="J15" s="35"/>
       <c r="K15" s="35"/>
-      <c r="L15" s="89"/>
-      <c r="M15" s="90"/>
+      <c r="L15" s="79"/>
+      <c r="M15" s="80"/>
       <c r="N15" s="39"/>
       <c r="O15" s="35"/>
       <c r="P15" s="40"/>
@@ -6969,8 +6969,8 @@
       <c r="I16" s="36"/>
       <c r="J16" s="35"/>
       <c r="K16" s="35"/>
-      <c r="L16" s="89"/>
-      <c r="M16" s="90"/>
+      <c r="L16" s="79"/>
+      <c r="M16" s="80"/>
       <c r="N16" s="39"/>
       <c r="O16" s="35"/>
       <c r="P16" s="40"/>
@@ -6995,8 +6995,8 @@
       <c r="I17" s="36"/>
       <c r="J17" s="35"/>
       <c r="K17" s="35"/>
-      <c r="L17" s="89"/>
-      <c r="M17" s="90"/>
+      <c r="L17" s="79"/>
+      <c r="M17" s="80"/>
       <c r="N17" s="39"/>
       <c r="O17" s="35"/>
       <c r="P17" s="40"/>
@@ -7026,7 +7026,7 @@
       <c r="L18" s="108" t="s">
         <v>200</v>
       </c>
-      <c r="M18" s="90"/>
+      <c r="M18" s="80"/>
       <c r="N18" s="39" t="s">
         <v>201</v>
       </c>
@@ -7054,8 +7054,8 @@
       <c r="H19" s="36"/>
       <c r="I19" s="36"/>
       <c r="J19" s="35"/>
-      <c r="L19" s="89"/>
-      <c r="M19" s="90"/>
+      <c r="L19" s="79"/>
+      <c r="M19" s="80"/>
       <c r="N19" s="39"/>
       <c r="O19" s="35"/>
       <c r="P19" s="40"/>
@@ -7082,8 +7082,8 @@
       <c r="I20" s="36"/>
       <c r="J20" s="35"/>
       <c r="K20" s="35"/>
-      <c r="L20" s="89"/>
-      <c r="M20" s="90"/>
+      <c r="L20" s="79"/>
+      <c r="M20" s="80"/>
       <c r="N20" s="39"/>
       <c r="O20" s="35"/>
       <c r="P20" s="40"/>
@@ -7114,8 +7114,8 @@
       <c r="K21" s="35">
         <v>0</v>
       </c>
-      <c r="L21" s="89"/>
-      <c r="M21" s="90"/>
+      <c r="L21" s="79"/>
+      <c r="M21" s="80"/>
       <c r="N21" s="39"/>
       <c r="O21" s="35"/>
       <c r="P21" s="40"/>
@@ -7144,8 +7144,8 @@
       <c r="I22" s="36"/>
       <c r="J22" s="35"/>
       <c r="K22" s="35"/>
-      <c r="L22" s="89"/>
-      <c r="M22" s="90"/>
+      <c r="L22" s="79"/>
+      <c r="M22" s="80"/>
       <c r="N22" s="39"/>
       <c r="O22" s="35"/>
       <c r="P22" s="40"/>
@@ -7174,8 +7174,8 @@
       <c r="K23" s="35" t="s">
         <v>68</v>
       </c>
-      <c r="L23" s="89"/>
-      <c r="M23" s="90"/>
+      <c r="L23" s="79"/>
+      <c r="M23" s="80"/>
       <c r="N23" s="39"/>
       <c r="O23" s="35"/>
       <c r="P23" s="40"/>
@@ -7204,8 +7204,8 @@
       <c r="I24" s="36"/>
       <c r="J24" s="35"/>
       <c r="K24" s="35"/>
-      <c r="L24" s="89"/>
-      <c r="M24" s="90"/>
+      <c r="L24" s="79"/>
+      <c r="M24" s="80"/>
       <c r="N24" s="39"/>
       <c r="O24" s="35"/>
       <c r="P24" s="40"/>
@@ -7234,8 +7234,8 @@
       <c r="K25" s="35" t="s">
         <v>68</v>
       </c>
-      <c r="L25" s="89"/>
-      <c r="M25" s="90"/>
+      <c r="L25" s="79"/>
+      <c r="M25" s="80"/>
       <c r="N25" s="39"/>
       <c r="O25" s="35"/>
       <c r="P25" s="40"/>
@@ -7254,8 +7254,8 @@
       <c r="I26" s="36"/>
       <c r="J26" s="35"/>
       <c r="K26" s="35"/>
-      <c r="L26" s="89"/>
-      <c r="M26" s="90"/>
+      <c r="L26" s="79"/>
+      <c r="M26" s="80"/>
       <c r="N26" s="39"/>
       <c r="O26" s="35"/>
       <c r="P26" s="40"/>
@@ -7274,21 +7274,26 @@
       <c r="I27" s="36"/>
       <c r="J27" s="35"/>
       <c r="K27" s="35"/>
-      <c r="L27" s="89"/>
-      <c r="M27" s="90"/>
+      <c r="L27" s="79"/>
+      <c r="M27" s="80"/>
       <c r="N27" s="39"/>
       <c r="O27" s="35"/>
       <c r="P27" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="D1:H1"/>
-    <mergeCell ref="I1:K1"/>
-    <mergeCell ref="O1:P1"/>
-    <mergeCell ref="D2:H2"/>
-    <mergeCell ref="I2:K2"/>
-    <mergeCell ref="O2:P2"/>
+    <mergeCell ref="L27:M27"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="L20:M20"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="L22:M22"/>
+    <mergeCell ref="L23:M23"/>
+    <mergeCell ref="L24:M24"/>
+    <mergeCell ref="L25:M25"/>
+    <mergeCell ref="L26:M26"/>
     <mergeCell ref="L15:M15"/>
     <mergeCell ref="A3:B4"/>
     <mergeCell ref="C3:P4"/>
@@ -7301,18 +7306,13 @@
     <mergeCell ref="L12:M12"/>
     <mergeCell ref="L13:M13"/>
     <mergeCell ref="L14:M14"/>
-    <mergeCell ref="L27:M27"/>
-    <mergeCell ref="L16:M16"/>
-    <mergeCell ref="L17:M17"/>
-    <mergeCell ref="L18:M18"/>
-    <mergeCell ref="L19:M19"/>
-    <mergeCell ref="L20:M20"/>
-    <mergeCell ref="L21:M21"/>
-    <mergeCell ref="L22:M22"/>
-    <mergeCell ref="L23:M23"/>
-    <mergeCell ref="L24:M24"/>
-    <mergeCell ref="L25:M25"/>
-    <mergeCell ref="L26:M26"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="D1:H1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="O1:P1"/>
+    <mergeCell ref="D2:H2"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="O2:P2"/>
   </mergeCells>
   <phoneticPr fontId="6"/>
   <pageMargins left="0.35433070866141736" right="0.35433070866141736" top="0.19685039370078741" bottom="0.19685039370078741" header="0.23622047244094491" footer="0.23622047244094491"/>
@@ -7349,25 +7349,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="15" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A1" s="79" t="s">
+      <c r="A1" s="97" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="79"/>
+      <c r="B1" s="97"/>
       <c r="C1" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="80" t="s">
+      <c r="D1" s="98" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="80"/>
-      <c r="F1" s="80"/>
-      <c r="G1" s="80"/>
-      <c r="H1" s="81"/>
-      <c r="I1" s="82" t="s">
+      <c r="E1" s="98"/>
+      <c r="F1" s="98"/>
+      <c r="G1" s="98"/>
+      <c r="H1" s="99"/>
+      <c r="I1" s="100" t="s">
         <v>14</v>
       </c>
-      <c r="J1" s="80"/>
-      <c r="K1" s="81"/>
+      <c r="J1" s="98"/>
+      <c r="K1" s="99"/>
       <c r="L1" s="12" t="s">
         <v>1</v>
       </c>
@@ -7377,29 +7377,29 @@
       <c r="N1" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="O1" s="83">
+      <c r="O1" s="101">
         <v>45481</v>
       </c>
-      <c r="P1" s="84"/>
+      <c r="P1" s="102"/>
     </row>
     <row r="2" spans="1:16" ht="20.25" customHeight="1">
-      <c r="A2" s="79"/>
-      <c r="B2" s="79"/>
+      <c r="A2" s="97"/>
+      <c r="B2" s="97"/>
       <c r="C2" s="16" t="s">
         <v>247</v>
       </c>
-      <c r="D2" s="85" t="s">
+      <c r="D2" s="103" t="s">
         <v>215</v>
       </c>
-      <c r="E2" s="85"/>
-      <c r="F2" s="85"/>
-      <c r="G2" s="85"/>
-      <c r="H2" s="86"/>
-      <c r="I2" s="87" t="s">
+      <c r="E2" s="103"/>
+      <c r="F2" s="103"/>
+      <c r="G2" s="103"/>
+      <c r="H2" s="104"/>
+      <c r="I2" s="105" t="s">
         <v>141</v>
       </c>
-      <c r="J2" s="85"/>
-      <c r="K2" s="86"/>
+      <c r="J2" s="103"/>
+      <c r="K2" s="104"/>
       <c r="L2" s="17" t="s">
         <v>2</v>
       </c>
@@ -7407,48 +7407,48 @@
       <c r="N2" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="O2" s="88"/>
-      <c r="P2" s="86"/>
+      <c r="O2" s="106"/>
+      <c r="P2" s="104"/>
     </row>
     <row r="3" spans="1:16" ht="20.25" customHeight="1">
-      <c r="A3" s="91" t="s">
+      <c r="A3" s="81" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="92"/>
-      <c r="C3" s="95" t="s">
+      <c r="B3" s="82"/>
+      <c r="C3" s="85" t="s">
         <v>215</v>
       </c>
-      <c r="D3" s="96"/>
-      <c r="E3" s="96"/>
-      <c r="F3" s="96"/>
-      <c r="G3" s="96"/>
-      <c r="H3" s="96"/>
-      <c r="I3" s="96"/>
-      <c r="J3" s="96"/>
-      <c r="K3" s="96"/>
-      <c r="L3" s="96"/>
-      <c r="M3" s="96"/>
-      <c r="N3" s="96"/>
-      <c r="O3" s="96"/>
-      <c r="P3" s="97"/>
+      <c r="D3" s="86"/>
+      <c r="E3" s="86"/>
+      <c r="F3" s="86"/>
+      <c r="G3" s="86"/>
+      <c r="H3" s="86"/>
+      <c r="I3" s="86"/>
+      <c r="J3" s="86"/>
+      <c r="K3" s="86"/>
+      <c r="L3" s="86"/>
+      <c r="M3" s="86"/>
+      <c r="N3" s="86"/>
+      <c r="O3" s="86"/>
+      <c r="P3" s="87"/>
     </row>
     <row r="4" spans="1:16" ht="20.25" customHeight="1">
-      <c r="A4" s="93"/>
-      <c r="B4" s="94"/>
-      <c r="C4" s="98"/>
-      <c r="D4" s="99"/>
-      <c r="E4" s="99"/>
-      <c r="F4" s="99"/>
-      <c r="G4" s="99"/>
-      <c r="H4" s="99"/>
-      <c r="I4" s="99"/>
-      <c r="J4" s="99"/>
-      <c r="K4" s="99"/>
-      <c r="L4" s="99"/>
-      <c r="M4" s="99"/>
-      <c r="N4" s="99"/>
-      <c r="O4" s="99"/>
-      <c r="P4" s="100"/>
+      <c r="A4" s="83"/>
+      <c r="B4" s="84"/>
+      <c r="C4" s="88"/>
+      <c r="D4" s="89"/>
+      <c r="E4" s="89"/>
+      <c r="F4" s="89"/>
+      <c r="G4" s="89"/>
+      <c r="H4" s="89"/>
+      <c r="I4" s="89"/>
+      <c r="J4" s="89"/>
+      <c r="K4" s="89"/>
+      <c r="L4" s="89"/>
+      <c r="M4" s="89"/>
+      <c r="N4" s="89"/>
+      <c r="O4" s="89"/>
+      <c r="P4" s="90"/>
     </row>
     <row r="5" spans="1:16" ht="20.25" customHeight="1">
       <c r="B5" s="20"/>
@@ -7489,10 +7489,10 @@
       <c r="K6" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="L6" s="101" t="s">
+      <c r="L6" s="91" t="s">
         <v>27</v>
       </c>
-      <c r="M6" s="102"/>
+      <c r="M6" s="92"/>
       <c r="N6" s="26" t="s">
         <v>28</v>
       </c>
@@ -7536,7 +7536,7 @@
       <c r="L7" s="107" t="s">
         <v>190</v>
       </c>
-      <c r="M7" s="104"/>
+      <c r="M7" s="94"/>
       <c r="N7" s="39"/>
       <c r="O7" s="35"/>
       <c r="P7" s="40"/>
@@ -7571,8 +7571,8 @@
         <v>31</v>
       </c>
       <c r="K8" s="35"/>
-      <c r="L8" s="105"/>
-      <c r="M8" s="106"/>
+      <c r="L8" s="95"/>
+      <c r="M8" s="96"/>
       <c r="N8" s="39"/>
       <c r="O8" s="35"/>
       <c r="P8" s="40"/>
@@ -7599,8 +7599,8 @@
       <c r="I9" s="36"/>
       <c r="J9" s="35"/>
       <c r="K9" s="35"/>
-      <c r="L9" s="89"/>
-      <c r="M9" s="90"/>
+      <c r="L9" s="79"/>
+      <c r="M9" s="80"/>
       <c r="N9" s="39"/>
       <c r="O9" s="35"/>
       <c r="P9" s="40"/>
@@ -7627,8 +7627,8 @@
       <c r="I10" s="36"/>
       <c r="J10" s="35"/>
       <c r="K10" s="35"/>
-      <c r="L10" s="89"/>
-      <c r="M10" s="90"/>
+      <c r="L10" s="79"/>
+      <c r="M10" s="80"/>
       <c r="N10" s="39"/>
       <c r="O10" s="35"/>
       <c r="P10" s="40"/>
@@ -7655,8 +7655,8 @@
       <c r="I11" s="36"/>
       <c r="J11" s="35"/>
       <c r="K11" s="35"/>
-      <c r="L11" s="89"/>
-      <c r="M11" s="90"/>
+      <c r="L11" s="79"/>
+      <c r="M11" s="80"/>
       <c r="N11" s="39"/>
       <c r="O11" s="35"/>
       <c r="P11" s="40"/>
@@ -7687,8 +7687,8 @@
       <c r="K12" s="35">
         <v>0</v>
       </c>
-      <c r="L12" s="89"/>
-      <c r="M12" s="90"/>
+      <c r="L12" s="79"/>
+      <c r="M12" s="80"/>
       <c r="N12" s="39"/>
       <c r="O12" s="35"/>
       <c r="P12" s="40"/>
@@ -7717,8 +7717,8 @@
       <c r="I13" s="36"/>
       <c r="J13" s="35"/>
       <c r="K13" s="35"/>
-      <c r="L13" s="89"/>
-      <c r="M13" s="90"/>
+      <c r="L13" s="79"/>
+      <c r="M13" s="80"/>
       <c r="N13" s="39"/>
       <c r="O13" s="35"/>
       <c r="P13" s="40"/>
@@ -7747,10 +7747,10 @@
       <c r="I14" s="36"/>
       <c r="J14" s="35"/>
       <c r="K14" s="35"/>
-      <c r="L14" s="89" t="s">
+      <c r="L14" s="79" t="s">
         <v>202</v>
       </c>
-      <c r="M14" s="90"/>
+      <c r="M14" s="80"/>
       <c r="N14" s="39"/>
       <c r="O14" s="35"/>
       <c r="P14" s="40"/>
@@ -7779,8 +7779,8 @@
       <c r="I15" s="36"/>
       <c r="J15" s="35"/>
       <c r="K15" s="35"/>
-      <c r="L15" s="89"/>
-      <c r="M15" s="90"/>
+      <c r="L15" s="79"/>
+      <c r="M15" s="80"/>
       <c r="N15" s="39"/>
       <c r="O15" s="35"/>
       <c r="P15" s="40"/>
@@ -7809,8 +7809,8 @@
       <c r="I16" s="36"/>
       <c r="J16" s="35"/>
       <c r="K16" s="35"/>
-      <c r="L16" s="89"/>
-      <c r="M16" s="90"/>
+      <c r="L16" s="79"/>
+      <c r="M16" s="80"/>
       <c r="N16" s="39"/>
       <c r="O16" s="35"/>
       <c r="P16" s="40"/>
@@ -7837,8 +7837,8 @@
       <c r="I17" s="36"/>
       <c r="J17" s="35"/>
       <c r="K17" s="35"/>
-      <c r="L17" s="89"/>
-      <c r="M17" s="90"/>
+      <c r="L17" s="79"/>
+      <c r="M17" s="80"/>
       <c r="N17" s="39"/>
       <c r="O17" s="35"/>
       <c r="P17" s="40"/>
@@ -7865,8 +7865,8 @@
       <c r="K18" s="35" t="s">
         <v>68</v>
       </c>
-      <c r="L18" s="89"/>
-      <c r="M18" s="90"/>
+      <c r="L18" s="79"/>
+      <c r="M18" s="80"/>
       <c r="N18" s="39"/>
       <c r="O18" s="35"/>
       <c r="P18" s="40"/>
@@ -7893,8 +7893,8 @@
       <c r="I19" s="36"/>
       <c r="J19" s="35"/>
       <c r="K19" s="35"/>
-      <c r="L19" s="89"/>
-      <c r="M19" s="90"/>
+      <c r="L19" s="79"/>
+      <c r="M19" s="80"/>
       <c r="N19" s="39"/>
       <c r="O19" s="35"/>
       <c r="P19" s="40"/>
@@ -7921,8 +7921,8 @@
       <c r="K20" s="35" t="s">
         <v>67</v>
       </c>
-      <c r="L20" s="89"/>
-      <c r="M20" s="90"/>
+      <c r="L20" s="79"/>
+      <c r="M20" s="80"/>
       <c r="N20" s="39"/>
       <c r="O20" s="35"/>
       <c r="P20" s="40"/>
@@ -7941,14 +7941,26 @@
       <c r="I21" s="36"/>
       <c r="J21" s="35"/>
       <c r="K21" s="35"/>
-      <c r="L21" s="89"/>
-      <c r="M21" s="90"/>
+      <c r="L21" s="79"/>
+      <c r="M21" s="80"/>
       <c r="N21" s="39"/>
       <c r="O21" s="35"/>
       <c r="P21" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="L20:M20"/>
     <mergeCell ref="L9:M9"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="D1:H1"/>
@@ -7962,18 +7974,6 @@
     <mergeCell ref="L6:M6"/>
     <mergeCell ref="L7:M7"/>
     <mergeCell ref="L8:M8"/>
-    <mergeCell ref="L21:M21"/>
-    <mergeCell ref="L10:M10"/>
-    <mergeCell ref="L11:M11"/>
-    <mergeCell ref="L12:M12"/>
-    <mergeCell ref="L13:M13"/>
-    <mergeCell ref="L14:M14"/>
-    <mergeCell ref="L15:M15"/>
-    <mergeCell ref="L16:M16"/>
-    <mergeCell ref="L17:M17"/>
-    <mergeCell ref="L18:M18"/>
-    <mergeCell ref="L19:M19"/>
-    <mergeCell ref="L20:M20"/>
   </mergeCells>
   <phoneticPr fontId="6"/>
   <pageMargins left="0.35433070866141736" right="0.35433070866141736" top="0.19685039370078741" bottom="0.19685039370078741" header="0.23622047244094491" footer="0.23622047244094491"/>
@@ -8010,25 +8010,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="15" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A1" s="79" t="s">
+      <c r="A1" s="97" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="79"/>
+      <c r="B1" s="97"/>
       <c r="C1" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="80" t="s">
+      <c r="D1" s="98" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="80"/>
-      <c r="F1" s="80"/>
-      <c r="G1" s="80"/>
-      <c r="H1" s="81"/>
-      <c r="I1" s="82" t="s">
+      <c r="E1" s="98"/>
+      <c r="F1" s="98"/>
+      <c r="G1" s="98"/>
+      <c r="H1" s="99"/>
+      <c r="I1" s="100" t="s">
         <v>14</v>
       </c>
-      <c r="J1" s="80"/>
-      <c r="K1" s="81"/>
+      <c r="J1" s="98"/>
+      <c r="K1" s="99"/>
       <c r="L1" s="12" t="s">
         <v>1</v>
       </c>
@@ -8038,29 +8038,29 @@
       <c r="N1" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="O1" s="83">
+      <c r="O1" s="101">
         <v>45481</v>
       </c>
-      <c r="P1" s="84"/>
+      <c r="P1" s="102"/>
     </row>
     <row r="2" spans="1:16" ht="20.25" customHeight="1">
-      <c r="A2" s="79"/>
-      <c r="B2" s="79"/>
+      <c r="A2" s="97"/>
+      <c r="B2" s="97"/>
       <c r="C2" s="16" t="s">
         <v>248</v>
       </c>
-      <c r="D2" s="85" t="s">
+      <c r="D2" s="103" t="s">
         <v>147</v>
       </c>
-      <c r="E2" s="85"/>
-      <c r="F2" s="85"/>
-      <c r="G2" s="85"/>
-      <c r="H2" s="86"/>
-      <c r="I2" s="87" t="s">
+      <c r="E2" s="103"/>
+      <c r="F2" s="103"/>
+      <c r="G2" s="103"/>
+      <c r="H2" s="104"/>
+      <c r="I2" s="105" t="s">
         <v>146</v>
       </c>
-      <c r="J2" s="85"/>
-      <c r="K2" s="86"/>
+      <c r="J2" s="103"/>
+      <c r="K2" s="104"/>
       <c r="L2" s="17" t="s">
         <v>2</v>
       </c>
@@ -8068,48 +8068,48 @@
       <c r="N2" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="O2" s="88"/>
-      <c r="P2" s="86"/>
+      <c r="O2" s="106"/>
+      <c r="P2" s="104"/>
     </row>
     <row r="3" spans="1:16" ht="20.25" customHeight="1">
-      <c r="A3" s="91" t="s">
+      <c r="A3" s="81" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="92"/>
-      <c r="C3" s="95" t="s">
+      <c r="B3" s="82"/>
+      <c r="C3" s="85" t="s">
         <v>239</v>
       </c>
-      <c r="D3" s="96"/>
-      <c r="E3" s="96"/>
-      <c r="F3" s="96"/>
-      <c r="G3" s="96"/>
-      <c r="H3" s="96"/>
-      <c r="I3" s="96"/>
-      <c r="J3" s="96"/>
-      <c r="K3" s="96"/>
-      <c r="L3" s="96"/>
-      <c r="M3" s="96"/>
-      <c r="N3" s="96"/>
-      <c r="O3" s="96"/>
-      <c r="P3" s="97"/>
+      <c r="D3" s="86"/>
+      <c r="E3" s="86"/>
+      <c r="F3" s="86"/>
+      <c r="G3" s="86"/>
+      <c r="H3" s="86"/>
+      <c r="I3" s="86"/>
+      <c r="J3" s="86"/>
+      <c r="K3" s="86"/>
+      <c r="L3" s="86"/>
+      <c r="M3" s="86"/>
+      <c r="N3" s="86"/>
+      <c r="O3" s="86"/>
+      <c r="P3" s="87"/>
     </row>
     <row r="4" spans="1:16" ht="20.25" customHeight="1">
-      <c r="A4" s="93"/>
-      <c r="B4" s="94"/>
-      <c r="C4" s="98"/>
-      <c r="D4" s="99"/>
-      <c r="E4" s="99"/>
-      <c r="F4" s="99"/>
-      <c r="G4" s="99"/>
-      <c r="H4" s="99"/>
-      <c r="I4" s="99"/>
-      <c r="J4" s="99"/>
-      <c r="K4" s="99"/>
-      <c r="L4" s="99"/>
-      <c r="M4" s="99"/>
-      <c r="N4" s="99"/>
-      <c r="O4" s="99"/>
-      <c r="P4" s="100"/>
+      <c r="A4" s="83"/>
+      <c r="B4" s="84"/>
+      <c r="C4" s="88"/>
+      <c r="D4" s="89"/>
+      <c r="E4" s="89"/>
+      <c r="F4" s="89"/>
+      <c r="G4" s="89"/>
+      <c r="H4" s="89"/>
+      <c r="I4" s="89"/>
+      <c r="J4" s="89"/>
+      <c r="K4" s="89"/>
+      <c r="L4" s="89"/>
+      <c r="M4" s="89"/>
+      <c r="N4" s="89"/>
+      <c r="O4" s="89"/>
+      <c r="P4" s="90"/>
     </row>
     <row r="5" spans="1:16" ht="20.25" customHeight="1">
       <c r="B5" s="20"/>
@@ -8150,10 +8150,10 @@
       <c r="K6" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="L6" s="101" t="s">
+      <c r="L6" s="91" t="s">
         <v>27</v>
       </c>
-      <c r="M6" s="102"/>
+      <c r="M6" s="92"/>
       <c r="N6" s="26" t="s">
         <v>28</v>
       </c>
@@ -8192,8 +8192,8 @@
         <v>31</v>
       </c>
       <c r="K7" s="35"/>
-      <c r="L7" s="103"/>
-      <c r="M7" s="104"/>
+      <c r="L7" s="93"/>
+      <c r="M7" s="94"/>
       <c r="N7" s="39"/>
       <c r="O7" s="35"/>
       <c r="P7" s="40"/>
@@ -8220,8 +8220,8 @@
       <c r="I8" s="36"/>
       <c r="J8" s="35"/>
       <c r="K8" s="35"/>
-      <c r="L8" s="105"/>
-      <c r="M8" s="106"/>
+      <c r="L8" s="95"/>
+      <c r="M8" s="96"/>
       <c r="N8" s="39"/>
       <c r="O8" s="35"/>
       <c r="P8" s="40"/>
@@ -8248,8 +8248,8 @@
       <c r="I9" s="36"/>
       <c r="J9" s="35"/>
       <c r="K9" s="35"/>
-      <c r="L9" s="89"/>
-      <c r="M9" s="90"/>
+      <c r="L9" s="79"/>
+      <c r="M9" s="80"/>
       <c r="N9" s="39"/>
       <c r="O9" s="35"/>
       <c r="P9" s="40"/>
@@ -8276,8 +8276,8 @@
       <c r="I10" s="36"/>
       <c r="J10" s="35"/>
       <c r="K10" s="35"/>
-      <c r="L10" s="89"/>
-      <c r="M10" s="90"/>
+      <c r="L10" s="79"/>
+      <c r="M10" s="80"/>
       <c r="N10" s="39"/>
       <c r="O10" s="35"/>
       <c r="P10" s="40"/>
@@ -8306,8 +8306,8 @@
       <c r="I11" s="36"/>
       <c r="J11" s="35"/>
       <c r="K11" s="35"/>
-      <c r="L11" s="89"/>
-      <c r="M11" s="90"/>
+      <c r="L11" s="79"/>
+      <c r="M11" s="80"/>
       <c r="N11" s="39"/>
       <c r="O11" s="35"/>
       <c r="P11" s="40"/>
@@ -8336,8 +8336,8 @@
       <c r="K12" s="35" t="s">
         <v>68</v>
       </c>
-      <c r="L12" s="89"/>
-      <c r="M12" s="90"/>
+      <c r="L12" s="79"/>
+      <c r="M12" s="80"/>
       <c r="N12" s="39"/>
       <c r="O12" s="35"/>
       <c r="P12" s="40"/>
@@ -8354,8 +8354,8 @@
       <c r="I13" s="36"/>
       <c r="J13" s="35"/>
       <c r="K13" s="35"/>
-      <c r="L13" s="89"/>
-      <c r="M13" s="90"/>
+      <c r="L13" s="79"/>
+      <c r="M13" s="80"/>
       <c r="N13" s="39"/>
       <c r="O13" s="35"/>
       <c r="P13" s="40"/>
@@ -8372,8 +8372,8 @@
       <c r="I14" s="36"/>
       <c r="J14" s="35"/>
       <c r="K14" s="35"/>
-      <c r="L14" s="89"/>
-      <c r="M14" s="90"/>
+      <c r="L14" s="79"/>
+      <c r="M14" s="80"/>
       <c r="N14" s="39"/>
       <c r="O14" s="35"/>
       <c r="P14" s="40"/>
@@ -8390,8 +8390,8 @@
       <c r="I15" s="36"/>
       <c r="J15" s="35"/>
       <c r="K15" s="35"/>
-      <c r="L15" s="89"/>
-      <c r="M15" s="90"/>
+      <c r="L15" s="79"/>
+      <c r="M15" s="80"/>
       <c r="N15" s="39"/>
       <c r="O15" s="35"/>
       <c r="P15" s="40"/>
@@ -8408,8 +8408,8 @@
       <c r="I16" s="36"/>
       <c r="J16" s="35"/>
       <c r="K16" s="35"/>
-      <c r="L16" s="89"/>
-      <c r="M16" s="90"/>
+      <c r="L16" s="79"/>
+      <c r="M16" s="80"/>
       <c r="N16" s="39"/>
       <c r="O16" s="35"/>
       <c r="P16" s="40"/>
@@ -8426,8 +8426,8 @@
       <c r="I17" s="36"/>
       <c r="J17" s="35"/>
       <c r="K17" s="35"/>
-      <c r="L17" s="89"/>
-      <c r="M17" s="90"/>
+      <c r="L17" s="79"/>
+      <c r="M17" s="80"/>
       <c r="N17" s="39"/>
       <c r="O17" s="35"/>
       <c r="P17" s="40"/>
@@ -8444,8 +8444,8 @@
       <c r="I18" s="36"/>
       <c r="J18" s="35"/>
       <c r="K18" s="35"/>
-      <c r="L18" s="89"/>
-      <c r="M18" s="90"/>
+      <c r="L18" s="79"/>
+      <c r="M18" s="80"/>
       <c r="N18" s="39"/>
       <c r="O18" s="35"/>
       <c r="P18" s="40"/>
@@ -8462,8 +8462,8 @@
       <c r="I19" s="36"/>
       <c r="J19" s="35"/>
       <c r="K19" s="35"/>
-      <c r="L19" s="89"/>
-      <c r="M19" s="90"/>
+      <c r="L19" s="79"/>
+      <c r="M19" s="80"/>
       <c r="N19" s="39"/>
       <c r="O19" s="35"/>
       <c r="P19" s="40"/>
@@ -8480,8 +8480,8 @@
       <c r="I20" s="36"/>
       <c r="J20" s="35"/>
       <c r="K20" s="35"/>
-      <c r="L20" s="89"/>
-      <c r="M20" s="90"/>
+      <c r="L20" s="79"/>
+      <c r="M20" s="80"/>
       <c r="N20" s="39"/>
       <c r="O20" s="35"/>
       <c r="P20" s="40"/>
@@ -8498,14 +8498,26 @@
       <c r="I21" s="36"/>
       <c r="J21" s="35"/>
       <c r="K21" s="35"/>
-      <c r="L21" s="89"/>
-      <c r="M21" s="90"/>
+      <c r="L21" s="79"/>
+      <c r="M21" s="80"/>
       <c r="N21" s="39"/>
       <c r="O21" s="35"/>
       <c r="P21" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="L20:M20"/>
     <mergeCell ref="L9:M9"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="D1:H1"/>
@@ -8519,18 +8531,6 @@
     <mergeCell ref="L6:M6"/>
     <mergeCell ref="L7:M7"/>
     <mergeCell ref="L8:M8"/>
-    <mergeCell ref="L21:M21"/>
-    <mergeCell ref="L10:M10"/>
-    <mergeCell ref="L11:M11"/>
-    <mergeCell ref="L12:M12"/>
-    <mergeCell ref="L13:M13"/>
-    <mergeCell ref="L14:M14"/>
-    <mergeCell ref="L15:M15"/>
-    <mergeCell ref="L16:M16"/>
-    <mergeCell ref="L17:M17"/>
-    <mergeCell ref="L18:M18"/>
-    <mergeCell ref="L19:M19"/>
-    <mergeCell ref="L20:M20"/>
   </mergeCells>
   <phoneticPr fontId="6"/>
   <pageMargins left="0.35433070866141736" right="0.35433070866141736" top="0.19685039370078741" bottom="0.19685039370078741" header="0.23622047244094491" footer="0.23622047244094491"/>
@@ -8567,25 +8567,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="15" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A1" s="79" t="s">
+      <c r="A1" s="97" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="79"/>
+      <c r="B1" s="97"/>
       <c r="C1" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="80" t="s">
+      <c r="D1" s="98" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="80"/>
-      <c r="F1" s="80"/>
-      <c r="G1" s="80"/>
-      <c r="H1" s="81"/>
-      <c r="I1" s="82" t="s">
+      <c r="E1" s="98"/>
+      <c r="F1" s="98"/>
+      <c r="G1" s="98"/>
+      <c r="H1" s="99"/>
+      <c r="I1" s="100" t="s">
         <v>14</v>
       </c>
-      <c r="J1" s="80"/>
-      <c r="K1" s="81"/>
+      <c r="J1" s="98"/>
+      <c r="K1" s="99"/>
       <c r="L1" s="12" t="s">
         <v>1</v>
       </c>
@@ -8595,29 +8595,29 @@
       <c r="N1" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="O1" s="83">
+      <c r="O1" s="101">
         <v>45481</v>
       </c>
-      <c r="P1" s="84"/>
+      <c r="P1" s="102"/>
     </row>
     <row r="2" spans="1:16" ht="20.25" customHeight="1">
-      <c r="A2" s="79"/>
-      <c r="B2" s="79"/>
+      <c r="A2" s="97"/>
+      <c r="B2" s="97"/>
       <c r="C2" s="16" t="s">
         <v>249</v>
       </c>
-      <c r="D2" s="85" t="s">
+      <c r="D2" s="103" t="s">
         <v>206</v>
       </c>
-      <c r="E2" s="85"/>
-      <c r="F2" s="85"/>
-      <c r="G2" s="85"/>
-      <c r="H2" s="86"/>
-      <c r="I2" s="87" t="s">
+      <c r="E2" s="103"/>
+      <c r="F2" s="103"/>
+      <c r="G2" s="103"/>
+      <c r="H2" s="104"/>
+      <c r="I2" s="105" t="s">
         <v>167</v>
       </c>
-      <c r="J2" s="85"/>
-      <c r="K2" s="86"/>
+      <c r="J2" s="103"/>
+      <c r="K2" s="104"/>
       <c r="L2" s="17" t="s">
         <v>2</v>
       </c>
@@ -8625,48 +8625,48 @@
       <c r="N2" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="O2" s="88"/>
-      <c r="P2" s="86"/>
+      <c r="O2" s="106"/>
+      <c r="P2" s="104"/>
     </row>
     <row r="3" spans="1:16" ht="20.25" customHeight="1">
-      <c r="A3" s="91" t="s">
+      <c r="A3" s="81" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="92"/>
-      <c r="C3" s="95" t="s">
+      <c r="B3" s="82"/>
+      <c r="C3" s="85" t="s">
         <v>217</v>
       </c>
-      <c r="D3" s="96"/>
-      <c r="E3" s="96"/>
-      <c r="F3" s="96"/>
-      <c r="G3" s="96"/>
-      <c r="H3" s="96"/>
-      <c r="I3" s="96"/>
-      <c r="J3" s="96"/>
-      <c r="K3" s="96"/>
-      <c r="L3" s="96"/>
-      <c r="M3" s="96"/>
-      <c r="N3" s="96"/>
-      <c r="O3" s="96"/>
-      <c r="P3" s="97"/>
+      <c r="D3" s="86"/>
+      <c r="E3" s="86"/>
+      <c r="F3" s="86"/>
+      <c r="G3" s="86"/>
+      <c r="H3" s="86"/>
+      <c r="I3" s="86"/>
+      <c r="J3" s="86"/>
+      <c r="K3" s="86"/>
+      <c r="L3" s="86"/>
+      <c r="M3" s="86"/>
+      <c r="N3" s="86"/>
+      <c r="O3" s="86"/>
+      <c r="P3" s="87"/>
     </row>
     <row r="4" spans="1:16" ht="20.25" customHeight="1">
-      <c r="A4" s="93"/>
-      <c r="B4" s="94"/>
-      <c r="C4" s="98"/>
-      <c r="D4" s="99"/>
-      <c r="E4" s="99"/>
-      <c r="F4" s="99"/>
-      <c r="G4" s="99"/>
-      <c r="H4" s="99"/>
-      <c r="I4" s="99"/>
-      <c r="J4" s="99"/>
-      <c r="K4" s="99"/>
-      <c r="L4" s="99"/>
-      <c r="M4" s="99"/>
-      <c r="N4" s="99"/>
-      <c r="O4" s="99"/>
-      <c r="P4" s="100"/>
+      <c r="A4" s="83"/>
+      <c r="B4" s="84"/>
+      <c r="C4" s="88"/>
+      <c r="D4" s="89"/>
+      <c r="E4" s="89"/>
+      <c r="F4" s="89"/>
+      <c r="G4" s="89"/>
+      <c r="H4" s="89"/>
+      <c r="I4" s="89"/>
+      <c r="J4" s="89"/>
+      <c r="K4" s="89"/>
+      <c r="L4" s="89"/>
+      <c r="M4" s="89"/>
+      <c r="N4" s="89"/>
+      <c r="O4" s="89"/>
+      <c r="P4" s="90"/>
     </row>
     <row r="5" spans="1:16" ht="20.25" customHeight="1">
       <c r="B5" s="20"/>
@@ -8707,10 +8707,10 @@
       <c r="K6" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="L6" s="101" t="s">
+      <c r="L6" s="91" t="s">
         <v>27</v>
       </c>
-      <c r="M6" s="102"/>
+      <c r="M6" s="92"/>
       <c r="N6" s="26" t="s">
         <v>28</v>
       </c>
@@ -8785,10 +8785,10 @@
       <c r="I8" s="36"/>
       <c r="J8" s="35"/>
       <c r="K8" s="35"/>
-      <c r="L8" s="105" t="s">
+      <c r="L8" s="95" t="s">
         <v>204</v>
       </c>
-      <c r="M8" s="106"/>
+      <c r="M8" s="96"/>
       <c r="N8" s="39"/>
       <c r="O8" s="35"/>
       <c r="P8" s="40"/>
@@ -8815,8 +8815,8 @@
       <c r="I9" s="36"/>
       <c r="J9" s="35"/>
       <c r="K9" s="35"/>
-      <c r="L9" s="89"/>
-      <c r="M9" s="90"/>
+      <c r="L9" s="79"/>
+      <c r="M9" s="80"/>
       <c r="N9" s="39"/>
       <c r="O9" s="35"/>
       <c r="P9" s="40"/>
@@ -8843,8 +8843,8 @@
       <c r="I10" s="36"/>
       <c r="J10" s="35"/>
       <c r="K10" s="35"/>
-      <c r="L10" s="89"/>
-      <c r="M10" s="90"/>
+      <c r="L10" s="79"/>
+      <c r="M10" s="80"/>
       <c r="N10" s="39"/>
       <c r="O10" s="35"/>
       <c r="P10" s="40"/>
@@ -8869,8 +8869,8 @@
       <c r="I11" s="36"/>
       <c r="J11" s="35"/>
       <c r="K11" s="35"/>
-      <c r="L11" s="89"/>
-      <c r="M11" s="90"/>
+      <c r="L11" s="79"/>
+      <c r="M11" s="80"/>
       <c r="N11" s="39"/>
       <c r="O11" s="35"/>
       <c r="P11" s="40"/>
@@ -8895,8 +8895,8 @@
       <c r="I12" s="36"/>
       <c r="J12" s="35"/>
       <c r="K12" s="35"/>
-      <c r="L12" s="89"/>
-      <c r="M12" s="90"/>
+      <c r="L12" s="79"/>
+      <c r="M12" s="80"/>
       <c r="N12" s="39"/>
       <c r="O12" s="35"/>
       <c r="P12" s="40"/>
@@ -8921,8 +8921,8 @@
       <c r="I13" s="36"/>
       <c r="J13" s="35"/>
       <c r="K13" s="35"/>
-      <c r="L13" s="89"/>
-      <c r="M13" s="90"/>
+      <c r="L13" s="79"/>
+      <c r="M13" s="80"/>
       <c r="N13" s="39"/>
       <c r="O13" s="35"/>
       <c r="P13" s="40"/>
@@ -8951,10 +8951,10 @@
       <c r="K14" s="35">
         <v>0</v>
       </c>
-      <c r="L14" s="89" t="s">
+      <c r="L14" s="79" t="s">
         <v>205</v>
       </c>
-      <c r="M14" s="90"/>
+      <c r="M14" s="80"/>
       <c r="N14" s="39"/>
       <c r="O14" s="35"/>
       <c r="P14" s="40"/>
@@ -8978,8 +8978,8 @@
       <c r="H15" s="36"/>
       <c r="I15" s="36"/>
       <c r="J15" s="35"/>
-      <c r="L15" s="89"/>
-      <c r="M15" s="90"/>
+      <c r="L15" s="79"/>
+      <c r="M15" s="80"/>
       <c r="N15" s="39"/>
       <c r="O15" s="35"/>
       <c r="P15" s="40"/>
@@ -9008,8 +9008,8 @@
       <c r="K16" s="35">
         <v>0</v>
       </c>
-      <c r="L16" s="89"/>
-      <c r="M16" s="90"/>
+      <c r="L16" s="79"/>
+      <c r="M16" s="80"/>
       <c r="N16" s="39"/>
       <c r="O16" s="35"/>
       <c r="P16" s="40"/>
@@ -9038,8 +9038,8 @@
       <c r="I17" s="36"/>
       <c r="J17" s="35"/>
       <c r="K17" s="35"/>
-      <c r="L17" s="89"/>
-      <c r="M17" s="90"/>
+      <c r="L17" s="79"/>
+      <c r="M17" s="80"/>
       <c r="N17" s="39"/>
       <c r="O17" s="35"/>
       <c r="P17" s="40"/>
@@ -9068,8 +9068,8 @@
       <c r="K18" s="35" t="s">
         <v>68</v>
       </c>
-      <c r="L18" s="89"/>
-      <c r="M18" s="90"/>
+      <c r="L18" s="79"/>
+      <c r="M18" s="80"/>
       <c r="N18" s="39"/>
       <c r="O18" s="35"/>
       <c r="P18" s="40"/>
@@ -9098,8 +9098,8 @@
       <c r="I19" s="36"/>
       <c r="J19" s="35"/>
       <c r="K19" s="35"/>
-      <c r="L19" s="89"/>
-      <c r="M19" s="90"/>
+      <c r="L19" s="79"/>
+      <c r="M19" s="80"/>
       <c r="N19" s="39"/>
       <c r="O19" s="35"/>
       <c r="P19" s="40"/>
@@ -9128,14 +9128,22 @@
       <c r="K20" s="35" t="s">
         <v>68</v>
       </c>
-      <c r="L20" s="89"/>
-      <c r="M20" s="90"/>
+      <c r="L20" s="79"/>
+      <c r="M20" s="80"/>
       <c r="N20" s="39"/>
       <c r="O20" s="35"/>
       <c r="P20" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="A3:B4"/>
+    <mergeCell ref="C3:P4"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="O1:P1"/>
+    <mergeCell ref="D2:H2"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="O2:P2"/>
     <mergeCell ref="L13:M13"/>
     <mergeCell ref="L14:M14"/>
     <mergeCell ref="L20:M20"/>
@@ -9152,14 +9160,6 @@
     <mergeCell ref="L18:M18"/>
     <mergeCell ref="L19:M19"/>
     <mergeCell ref="L10:M10"/>
-    <mergeCell ref="A3:B4"/>
-    <mergeCell ref="C3:P4"/>
-    <mergeCell ref="L11:M11"/>
-    <mergeCell ref="L12:M12"/>
-    <mergeCell ref="O1:P1"/>
-    <mergeCell ref="D2:H2"/>
-    <mergeCell ref="I2:K2"/>
-    <mergeCell ref="O2:P2"/>
   </mergeCells>
   <phoneticPr fontId="6"/>
   <pageMargins left="0.35433070866141736" right="0.35433070866141736" top="0.19685039370078741" bottom="0.19685039370078741" header="0.23622047244094491" footer="0.23622047244094491"/>
@@ -9196,25 +9196,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="15" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A1" s="79" t="s">
+      <c r="A1" s="97" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="79"/>
+      <c r="B1" s="97"/>
       <c r="C1" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="80" t="s">
+      <c r="D1" s="98" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="80"/>
-      <c r="F1" s="80"/>
-      <c r="G1" s="80"/>
-      <c r="H1" s="81"/>
-      <c r="I1" s="82" t="s">
+      <c r="E1" s="98"/>
+      <c r="F1" s="98"/>
+      <c r="G1" s="98"/>
+      <c r="H1" s="99"/>
+      <c r="I1" s="100" t="s">
         <v>14</v>
       </c>
-      <c r="J1" s="80"/>
-      <c r="K1" s="81"/>
+      <c r="J1" s="98"/>
+      <c r="K1" s="99"/>
       <c r="L1" s="12" t="s">
         <v>1</v>
       </c>
@@ -9224,29 +9224,29 @@
       <c r="N1" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="O1" s="83">
+      <c r="O1" s="101">
         <v>45481</v>
       </c>
-      <c r="P1" s="84"/>
+      <c r="P1" s="102"/>
     </row>
     <row r="2" spans="1:16" ht="20.25" customHeight="1">
-      <c r="A2" s="79"/>
-      <c r="B2" s="79"/>
+      <c r="A2" s="97"/>
+      <c r="B2" s="97"/>
       <c r="C2" s="16" t="s">
         <v>250</v>
       </c>
-      <c r="D2" s="85" t="s">
+      <c r="D2" s="103" t="s">
         <v>209</v>
       </c>
-      <c r="E2" s="85"/>
-      <c r="F2" s="85"/>
-      <c r="G2" s="85"/>
-      <c r="H2" s="86"/>
-      <c r="I2" s="87" t="s">
+      <c r="E2" s="103"/>
+      <c r="F2" s="103"/>
+      <c r="G2" s="103"/>
+      <c r="H2" s="104"/>
+      <c r="I2" s="105" t="s">
         <v>156</v>
       </c>
-      <c r="J2" s="85"/>
-      <c r="K2" s="86"/>
+      <c r="J2" s="103"/>
+      <c r="K2" s="104"/>
       <c r="L2" s="17" t="s">
         <v>2</v>
       </c>
@@ -9254,48 +9254,48 @@
       <c r="N2" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="O2" s="88"/>
-      <c r="P2" s="86"/>
+      <c r="O2" s="106"/>
+      <c r="P2" s="104"/>
     </row>
     <row r="3" spans="1:16" ht="20.25" customHeight="1">
-      <c r="A3" s="91" t="s">
+      <c r="A3" s="81" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="92"/>
-      <c r="C3" s="95" t="s">
+      <c r="B3" s="82"/>
+      <c r="C3" s="85" t="s">
         <v>210</v>
       </c>
-      <c r="D3" s="96"/>
-      <c r="E3" s="96"/>
-      <c r="F3" s="96"/>
-      <c r="G3" s="96"/>
-      <c r="H3" s="96"/>
-      <c r="I3" s="96"/>
-      <c r="J3" s="96"/>
-      <c r="K3" s="96"/>
-      <c r="L3" s="96"/>
-      <c r="M3" s="96"/>
-      <c r="N3" s="96"/>
-      <c r="O3" s="96"/>
-      <c r="P3" s="97"/>
+      <c r="D3" s="86"/>
+      <c r="E3" s="86"/>
+      <c r="F3" s="86"/>
+      <c r="G3" s="86"/>
+      <c r="H3" s="86"/>
+      <c r="I3" s="86"/>
+      <c r="J3" s="86"/>
+      <c r="K3" s="86"/>
+      <c r="L3" s="86"/>
+      <c r="M3" s="86"/>
+      <c r="N3" s="86"/>
+      <c r="O3" s="86"/>
+      <c r="P3" s="87"/>
     </row>
     <row r="4" spans="1:16" ht="20.25" customHeight="1">
-      <c r="A4" s="93"/>
-      <c r="B4" s="94"/>
-      <c r="C4" s="98"/>
-      <c r="D4" s="99"/>
-      <c r="E4" s="99"/>
-      <c r="F4" s="99"/>
-      <c r="G4" s="99"/>
-      <c r="H4" s="99"/>
-      <c r="I4" s="99"/>
-      <c r="J4" s="99"/>
-      <c r="K4" s="99"/>
-      <c r="L4" s="99"/>
-      <c r="M4" s="99"/>
-      <c r="N4" s="99"/>
-      <c r="O4" s="99"/>
-      <c r="P4" s="100"/>
+      <c r="A4" s="83"/>
+      <c r="B4" s="84"/>
+      <c r="C4" s="88"/>
+      <c r="D4" s="89"/>
+      <c r="E4" s="89"/>
+      <c r="F4" s="89"/>
+      <c r="G4" s="89"/>
+      <c r="H4" s="89"/>
+      <c r="I4" s="89"/>
+      <c r="J4" s="89"/>
+      <c r="K4" s="89"/>
+      <c r="L4" s="89"/>
+      <c r="M4" s="89"/>
+      <c r="N4" s="89"/>
+      <c r="O4" s="89"/>
+      <c r="P4" s="90"/>
     </row>
     <row r="5" spans="1:16" ht="20.25" customHeight="1">
       <c r="B5" s="20"/>
@@ -9336,10 +9336,10 @@
       <c r="K6" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="L6" s="101" t="s">
+      <c r="L6" s="91" t="s">
         <v>27</v>
       </c>
-      <c r="M6" s="102"/>
+      <c r="M6" s="92"/>
       <c r="N6" s="26" t="s">
         <v>28</v>
       </c>
@@ -9380,10 +9380,10 @@
         <v>31</v>
       </c>
       <c r="K7" s="35"/>
-      <c r="L7" s="103" t="s">
+      <c r="L7" s="93" t="s">
         <v>203</v>
       </c>
-      <c r="M7" s="104"/>
+      <c r="M7" s="94"/>
       <c r="N7" s="39"/>
       <c r="O7" s="35"/>
       <c r="P7" s="40"/>
@@ -9421,7 +9421,7 @@
       <c r="L8" s="111" t="s">
         <v>190</v>
       </c>
-      <c r="M8" s="106"/>
+      <c r="M8" s="96"/>
       <c r="N8" s="39"/>
       <c r="O8" s="35"/>
       <c r="P8" s="40"/>
@@ -9450,10 +9450,10 @@
       <c r="K9" s="35">
         <v>0</v>
       </c>
-      <c r="L9" s="89" t="s">
+      <c r="L9" s="79" t="s">
         <v>207</v>
       </c>
-      <c r="M9" s="90"/>
+      <c r="M9" s="80"/>
       <c r="N9" s="39"/>
       <c r="O9" s="35"/>
       <c r="P9" s="40"/>
@@ -9482,10 +9482,10 @@
       <c r="K10" s="35">
         <v>0</v>
       </c>
-      <c r="L10" s="89" t="s">
+      <c r="L10" s="79" t="s">
         <v>208</v>
       </c>
-      <c r="M10" s="90"/>
+      <c r="M10" s="80"/>
       <c r="N10" s="39"/>
       <c r="O10" s="35"/>
       <c r="P10" s="40"/>
@@ -9514,8 +9514,8 @@
       <c r="K11" s="35" t="s">
         <v>140</v>
       </c>
-      <c r="L11" s="89"/>
-      <c r="M11" s="90"/>
+      <c r="L11" s="79"/>
+      <c r="M11" s="80"/>
       <c r="N11" s="39"/>
       <c r="O11" s="35"/>
       <c r="P11" s="40"/>
@@ -9544,8 +9544,8 @@
       <c r="K12" s="35">
         <v>0</v>
       </c>
-      <c r="L12" s="89"/>
-      <c r="M12" s="90"/>
+      <c r="L12" s="79"/>
+      <c r="M12" s="80"/>
       <c r="N12" s="39"/>
       <c r="O12" s="35"/>
       <c r="P12" s="40"/>
@@ -9574,8 +9574,8 @@
       <c r="I13" s="36"/>
       <c r="J13" s="35"/>
       <c r="K13" s="35"/>
-      <c r="L13" s="89"/>
-      <c r="M13" s="90"/>
+      <c r="L13" s="79"/>
+      <c r="M13" s="80"/>
       <c r="N13" s="39"/>
       <c r="O13" s="35"/>
       <c r="P13" s="40"/>
@@ -9606,8 +9606,8 @@
       <c r="K14" s="35" t="s">
         <v>68</v>
       </c>
-      <c r="L14" s="89"/>
-      <c r="M14" s="90"/>
+      <c r="L14" s="79"/>
+      <c r="M14" s="80"/>
       <c r="N14" s="39"/>
       <c r="O14" s="35"/>
       <c r="P14" s="40"/>
@@ -9635,8 +9635,8 @@
       <c r="H15" s="36"/>
       <c r="I15" s="36"/>
       <c r="J15" s="35"/>
-      <c r="L15" s="89"/>
-      <c r="M15" s="90"/>
+      <c r="L15" s="79"/>
+      <c r="M15" s="80"/>
       <c r="N15" s="39"/>
       <c r="O15" s="35"/>
       <c r="P15" s="40"/>
@@ -9667,8 +9667,8 @@
       <c r="K16" s="35" t="s">
         <v>67</v>
       </c>
-      <c r="L16" s="89"/>
-      <c r="M16" s="90"/>
+      <c r="L16" s="79"/>
+      <c r="M16" s="80"/>
       <c r="N16" s="39"/>
       <c r="O16" s="35"/>
       <c r="P16" s="40"/>
@@ -9687,8 +9687,8 @@
       <c r="I17" s="36"/>
       <c r="J17" s="35"/>
       <c r="K17" s="35"/>
-      <c r="L17" s="89"/>
-      <c r="M17" s="90"/>
+      <c r="L17" s="79"/>
+      <c r="M17" s="80"/>
       <c r="N17" s="39"/>
       <c r="O17" s="35"/>
       <c r="P17" s="40"/>
@@ -9707,8 +9707,8 @@
       <c r="I18" s="36"/>
       <c r="J18" s="35"/>
       <c r="K18" s="35"/>
-      <c r="L18" s="89"/>
-      <c r="M18" s="90"/>
+      <c r="L18" s="79"/>
+      <c r="M18" s="80"/>
       <c r="N18" s="39"/>
       <c r="O18" s="35"/>
       <c r="P18" s="40"/>
@@ -9727,8 +9727,8 @@
       <c r="I19" s="36"/>
       <c r="J19" s="35"/>
       <c r="K19" s="35"/>
-      <c r="L19" s="89"/>
-      <c r="M19" s="90"/>
+      <c r="L19" s="79"/>
+      <c r="M19" s="80"/>
       <c r="N19" s="39"/>
       <c r="O19" s="35"/>
       <c r="P19" s="40"/>
@@ -9747,8 +9747,8 @@
       <c r="I20" s="36"/>
       <c r="J20" s="35"/>
       <c r="K20" s="35"/>
-      <c r="L20" s="89"/>
-      <c r="M20" s="90"/>
+      <c r="L20" s="79"/>
+      <c r="M20" s="80"/>
       <c r="N20" s="39"/>
       <c r="O20" s="35"/>
       <c r="P20" s="40"/>
@@ -9767,26 +9767,14 @@
       <c r="I21" s="36"/>
       <c r="J21" s="35"/>
       <c r="K21" s="35"/>
-      <c r="L21" s="89"/>
-      <c r="M21" s="90"/>
+      <c r="L21" s="79"/>
+      <c r="M21" s="80"/>
       <c r="N21" s="39"/>
       <c r="O21" s="35"/>
       <c r="P21" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="L21:M21"/>
-    <mergeCell ref="L10:M10"/>
-    <mergeCell ref="L11:M11"/>
-    <mergeCell ref="L12:M12"/>
-    <mergeCell ref="L13:M13"/>
-    <mergeCell ref="L14:M14"/>
-    <mergeCell ref="L15:M15"/>
-    <mergeCell ref="L16:M16"/>
-    <mergeCell ref="L17:M17"/>
-    <mergeCell ref="L18:M18"/>
-    <mergeCell ref="L19:M19"/>
-    <mergeCell ref="L20:M20"/>
     <mergeCell ref="L9:M9"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="D1:H1"/>
@@ -9800,6 +9788,18 @@
     <mergeCell ref="L6:M6"/>
     <mergeCell ref="L7:M7"/>
     <mergeCell ref="L8:M8"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="L20:M20"/>
   </mergeCells>
   <phoneticPr fontId="6"/>
   <pageMargins left="0.35433070866141736" right="0.35433070866141736" top="0.19685039370078741" bottom="0.19685039370078741" header="0.23622047244094491" footer="0.23622047244094491"/>
